--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20880" windowHeight="10356"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="10356"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="267">
   <si>
     <t>名称</t>
   </si>
@@ -237,13 +237,604 @@
   </si>
   <si>
     <t>健康养生</t>
+  </si>
+  <si>
+    <t>毛素平</t>
+  </si>
+  <si>
+    <t>X1712181403060030</t>
+  </si>
+  <si>
+    <t>呼和浩特潮生活</t>
+  </si>
+  <si>
+    <t>50926</t>
+  </si>
+  <si>
+    <t>女性时尚</t>
+  </si>
+  <si>
+    <t>第1季度价格不变</t>
+  </si>
+  <si>
+    <t>X1801161443230206</t>
+  </si>
+  <si>
+    <t>哈尔滨生活攻略</t>
+  </si>
+  <si>
+    <t>44229</t>
+  </si>
+  <si>
+    <t>沈阳吃喝玩乐攻略</t>
+  </si>
+  <si>
+    <t>61902</t>
+  </si>
+  <si>
+    <t>财经</t>
+  </si>
+  <si>
+    <t>西安吃喝玩乐爆料</t>
+  </si>
+  <si>
+    <t>95103</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>银川生活攻略</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>新闻资讯</t>
+  </si>
+  <si>
+    <t>长春乐活攻略</t>
+  </si>
+  <si>
+    <t>44507</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>全球精选影视</t>
+  </si>
+  <si>
+    <t>44246</t>
+  </si>
+  <si>
+    <t>影视</t>
+  </si>
+  <si>
+    <t>流行热点时尚</t>
+  </si>
+  <si>
+    <t>1086995</t>
+  </si>
+  <si>
+    <t>微任务找代理下单</t>
+  </si>
+  <si>
+    <t>X1801050855034281</t>
+  </si>
+  <si>
+    <t>热点实用百科</t>
+  </si>
+  <si>
+    <t>1089940</t>
+  </si>
+  <si>
+    <t>全球热点潮流榜</t>
+  </si>
+  <si>
+    <t>1085515</t>
+  </si>
+  <si>
+    <t>510801</t>
+  </si>
+  <si>
+    <t>转发500，软广寄拍800起，视频1200起，不走微任务，微博不加链接</t>
+  </si>
+  <si>
+    <t>X1801050855105030</t>
+  </si>
+  <si>
+    <t>宝贝计划</t>
+  </si>
+  <si>
+    <t>4460086</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>9折</t>
+  </si>
+  <si>
+    <t>X1801050855064656</t>
+  </si>
+  <si>
+    <t>小Zzzz_</t>
+  </si>
+  <si>
+    <t>186968</t>
+  </si>
+  <si>
+    <t>价格执行一年</t>
+  </si>
+  <si>
+    <t>X1801050855084791</t>
+  </si>
+  <si>
+    <t>幸福俏可儿</t>
+  </si>
+  <si>
+    <t>544374</t>
+  </si>
+  <si>
+    <t>小美的亲子时光</t>
+  </si>
+  <si>
+    <t>650144</t>
+  </si>
+  <si>
+    <t>萌宝训练营</t>
+  </si>
+  <si>
+    <t>1039303</t>
+  </si>
+  <si>
+    <t>进击的辣妈Nina</t>
+  </si>
+  <si>
+    <t>704809</t>
+  </si>
+  <si>
+    <t>姨太的吃瓜大会</t>
+  </si>
+  <si>
+    <t>142330</t>
+  </si>
+  <si>
+    <t>X1801182235433459</t>
+  </si>
+  <si>
+    <t>潮我看</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>识装范儿</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>时尚微视角</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>望穿秋裤的安珀汐</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>日韩club</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>小公举是包控</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>坚挺的肌肉</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>健身</t>
+  </si>
+  <si>
+    <t>美妆第一线</t>
+  </si>
+  <si>
+    <t>6493347</t>
+  </si>
+  <si>
+    <t>美妆</t>
+  </si>
+  <si>
+    <t>红唇宣言</t>
+  </si>
+  <si>
+    <t>1038029</t>
+  </si>
+  <si>
+    <t>美妆日常</t>
+  </si>
+  <si>
+    <t>830553</t>
+  </si>
+  <si>
+    <t>红人馆mini</t>
+  </si>
+  <si>
+    <t>934309</t>
+  </si>
+  <si>
+    <t>护肤札记</t>
+  </si>
+  <si>
+    <t>912036</t>
+  </si>
+  <si>
+    <t>小义大道</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>数码</t>
+  </si>
+  <si>
+    <t>X1801050855084801</t>
+  </si>
+  <si>
+    <t>IT华少</t>
+  </si>
+  <si>
+    <t>101790</t>
+  </si>
+  <si>
+    <t>互联网IT</t>
+  </si>
+  <si>
+    <t>8折，价格已打折</t>
+  </si>
+  <si>
+    <t>X1801182236283757</t>
+  </si>
+  <si>
+    <t>梅花网</t>
+  </si>
+  <si>
+    <t>68599</t>
+  </si>
+  <si>
+    <t>广告营销</t>
+  </si>
+  <si>
+    <t>X1801050855074680</t>
+  </si>
+  <si>
+    <t>环球名车视野</t>
+  </si>
+  <si>
+    <t>102533</t>
+  </si>
+  <si>
+    <t>X1801182237124034</t>
+  </si>
+  <si>
+    <t>金融理财资讯榜</t>
+  </si>
+  <si>
+    <t>103819</t>
+  </si>
+  <si>
+    <t>李璇</t>
+  </si>
+  <si>
+    <t>X1712181347380009</t>
+  </si>
+  <si>
+    <t>乐玩北京城</t>
+  </si>
+  <si>
+    <t>1026901</t>
+  </si>
+  <si>
+    <t>母婴育儿全资讯</t>
+  </si>
+  <si>
+    <t>1009622</t>
+  </si>
+  <si>
+    <t>家电天天看</t>
+  </si>
+  <si>
+    <t>1029380</t>
+  </si>
+  <si>
+    <t>辣妈育儿贴士</t>
+  </si>
+  <si>
+    <t>1039307</t>
+  </si>
+  <si>
+    <t>潮妈萌宝show</t>
+  </si>
+  <si>
+    <t>1020972</t>
+  </si>
+  <si>
+    <t>潮妈育儿推荐</t>
+  </si>
+  <si>
+    <t>1023160</t>
+  </si>
+  <si>
+    <t>时尚流行聚焦</t>
+  </si>
+  <si>
+    <t>1032543</t>
+  </si>
+  <si>
+    <t>时尚掌柜圈</t>
+  </si>
+  <si>
+    <t>1028355</t>
+  </si>
+  <si>
+    <t>时尚圈爷</t>
+  </si>
+  <si>
+    <t>1007874</t>
+  </si>
+  <si>
+    <t>全球娱乐频道</t>
+  </si>
+  <si>
+    <t>1018453</t>
+  </si>
+  <si>
+    <t>全球潮流排行榜</t>
+  </si>
+  <si>
+    <t>1004202</t>
+  </si>
+  <si>
+    <t>全球时尚看点</t>
+  </si>
+  <si>
+    <t>1002544</t>
+  </si>
+  <si>
+    <t>全球流行速递</t>
+  </si>
+  <si>
+    <t>1014820</t>
+  </si>
+  <si>
+    <t>时尚全资讯</t>
+  </si>
+  <si>
+    <t>1003724</t>
+  </si>
+  <si>
+    <t>娱乐八卦搜罗</t>
+  </si>
+  <si>
+    <t>1027079</t>
+  </si>
+  <si>
+    <t>娱乐小扒爷</t>
+  </si>
+  <si>
+    <t>1015103</t>
+  </si>
+  <si>
+    <t>娱乐头条快报</t>
+  </si>
+  <si>
+    <t>1002867</t>
+  </si>
+  <si>
+    <t>娱乐圈热议</t>
+  </si>
+  <si>
+    <t>1004181</t>
+  </si>
+  <si>
+    <t>娱乐圈大牌</t>
+  </si>
+  <si>
+    <t>1018253</t>
+  </si>
+  <si>
+    <t>圈内八卦姐</t>
+  </si>
+  <si>
+    <t>1007549</t>
+  </si>
+  <si>
+    <t>娱乐名嘴</t>
+  </si>
+  <si>
+    <t>1021210</t>
+  </si>
+  <si>
+    <t>娱乐爆料速递</t>
+  </si>
+  <si>
+    <t>1014475</t>
+  </si>
+  <si>
+    <t>扒星探</t>
+  </si>
+  <si>
+    <t>1008852</t>
+  </si>
+  <si>
+    <t>扒星爷</t>
+  </si>
+  <si>
+    <t>1021446</t>
+  </si>
+  <si>
+    <t>娱乐圈大师</t>
+  </si>
+  <si>
+    <t>1007051</t>
+  </si>
+  <si>
+    <t>最热门娱乐头条</t>
+  </si>
+  <si>
+    <t>1013581</t>
+  </si>
+  <si>
+    <t>搞笑娱乐搜罗</t>
+  </si>
+  <si>
+    <t>1058451</t>
+  </si>
+  <si>
+    <t>娱乐头条圈</t>
+  </si>
+  <si>
+    <t>1003887</t>
+  </si>
+  <si>
+    <t>幽默搞笑趣谈</t>
+  </si>
+  <si>
+    <t>1036705</t>
+  </si>
+  <si>
+    <t>八卦娱乐头条播报</t>
+  </si>
+  <si>
+    <t>1034009</t>
+  </si>
+  <si>
+    <t>生活资讯集</t>
+  </si>
+  <si>
+    <t>1005823</t>
+  </si>
+  <si>
+    <t>互联网精选话题</t>
+  </si>
+  <si>
+    <t>1004393</t>
+  </si>
+  <si>
+    <t>生活小资圈</t>
+  </si>
+  <si>
+    <t>1201196</t>
+  </si>
+  <si>
+    <t>生活最创意</t>
+  </si>
+  <si>
+    <t>1009814</t>
+  </si>
+  <si>
+    <t>互动生活百科</t>
+  </si>
+  <si>
+    <t>1044335</t>
+  </si>
+  <si>
+    <t>时尚创意生活</t>
+  </si>
+  <si>
+    <t>1054649</t>
+  </si>
+  <si>
+    <t>环球话题推荐</t>
+  </si>
+  <si>
+    <t>1003376</t>
+  </si>
+  <si>
+    <t>新闻最热点</t>
+  </si>
+  <si>
+    <t>1005178</t>
+  </si>
+  <si>
+    <t>热门话题全资讯</t>
+  </si>
+  <si>
+    <t>1013361</t>
+  </si>
+  <si>
+    <t>今日热点搜罗</t>
+  </si>
+  <si>
+    <t>1017050</t>
+  </si>
+  <si>
+    <t>头条新闻频道</t>
+  </si>
+  <si>
+    <t>1006440</t>
+  </si>
+  <si>
+    <t>头条频道</t>
+  </si>
+  <si>
+    <t>1034024</t>
+  </si>
+  <si>
+    <t>互联网速递</t>
+  </si>
+  <si>
+    <t>1040453</t>
+  </si>
+  <si>
+    <t>头条新闻社</t>
+  </si>
+  <si>
+    <t>1047526</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>可微任务代理下单</t>
+  </si>
+  <si>
+    <t>IT互联网</t>
+  </si>
+  <si>
+    <t>幽默搞笑</t>
+  </si>
+  <si>
+    <t>X1801040948390358</t>
+  </si>
+  <si>
+    <t>胡江超</t>
+  </si>
+  <si>
+    <t>X1712181337040001</t>
+  </si>
+  <si>
+    <t>冰冰有点凉​</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +877,29 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -318,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,9 +945,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -343,12 +954,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -648,17 +1294,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B12"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="10" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
@@ -675,7 +1321,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -713,709 +1359,3840 @@
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="11">
         <v>2814386685</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5">
-        <v>300</v>
-      </c>
-      <c r="E2" s="5">
-        <v>300</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="D2" s="4">
+        <v>300</v>
+      </c>
+      <c r="E2" s="4">
+        <v>300</v>
+      </c>
+      <c r="F2" s="4">
         <v>640</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>640</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="12">
         <v>3899572592</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5">
-        <v>300</v>
-      </c>
-      <c r="E3" s="5">
-        <v>300</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="D3" s="4">
+        <v>300</v>
+      </c>
+      <c r="E3" s="4">
+        <v>300</v>
+      </c>
+      <c r="F3" s="4">
         <v>535</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>535</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="12">
         <v>2855432853</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5">
-        <v>300</v>
-      </c>
-      <c r="E4" s="5">
-        <v>300</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D4" s="4">
+        <v>300</v>
+      </c>
+      <c r="E4" s="4">
+        <v>300</v>
+      </c>
+      <c r="F4" s="4">
         <v>535</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>535</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="12">
         <v>1920185011</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5">
-        <v>300</v>
-      </c>
-      <c r="E5" s="5">
-        <v>300</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D5" s="4">
+        <v>300</v>
+      </c>
+      <c r="E5" s="4">
+        <v>300</v>
+      </c>
+      <c r="F5" s="4">
         <v>1060</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1060</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="12">
         <v>1949349964</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5">
-        <v>300</v>
-      </c>
-      <c r="E6" s="5">
-        <v>300</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D6" s="4">
+        <v>300</v>
+      </c>
+      <c r="E6" s="4">
+        <v>300</v>
+      </c>
+      <c r="F6" s="4">
         <v>535</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>535</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="12">
         <v>2814388311</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
-        <v>300</v>
-      </c>
-      <c r="E7" s="5">
-        <v>300</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="D7" s="4">
+        <v>300</v>
+      </c>
+      <c r="E7" s="4">
+        <v>300</v>
+      </c>
+      <c r="F7" s="4">
         <v>640</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>640</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="12">
         <v>1948822860</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5">
-        <v>300</v>
-      </c>
-      <c r="E8" s="5">
-        <v>300</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="4">
+        <v>300</v>
+      </c>
+      <c r="E8" s="4">
+        <v>300</v>
+      </c>
+      <c r="F8" s="4">
         <v>530</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>530</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="12">
         <v>1748441195</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5">
-        <v>300</v>
-      </c>
-      <c r="E9" s="5">
-        <v>300</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="4">
+        <v>300</v>
+      </c>
+      <c r="E9" s="4">
+        <v>300</v>
+      </c>
+      <c r="F9" s="4">
         <v>535</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>535</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="12">
         <v>2568295250</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5">
-        <v>300</v>
-      </c>
-      <c r="E10" s="5">
-        <v>300</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10" s="4">
+        <v>300</v>
+      </c>
+      <c r="E10" s="4">
+        <v>300</v>
+      </c>
+      <c r="F10" s="4">
         <v>530</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>530</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="12">
         <v>3916151398</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5">
-        <v>300</v>
-      </c>
-      <c r="E11" s="5">
-        <v>300</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D11" s="4">
+        <v>300</v>
+      </c>
+      <c r="E11" s="4">
+        <v>300</v>
+      </c>
+      <c r="F11" s="4">
         <v>610</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>610</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="12">
         <v>3916161520</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5">
-        <v>300</v>
-      </c>
-      <c r="E12" s="5">
-        <v>300</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="D12" s="4">
+        <v>300</v>
+      </c>
+      <c r="E12" s="4">
+        <v>300</v>
+      </c>
+      <c r="F12" s="4">
         <v>765</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>765</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="12">
         <v>1949316542</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5">
-        <v>300</v>
-      </c>
-      <c r="E13" s="5">
-        <v>300</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="D13" s="4">
+        <v>300</v>
+      </c>
+      <c r="E13" s="4">
+        <v>300</v>
+      </c>
+      <c r="F13" s="4">
         <v>535</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>535</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="12">
         <v>2973715742</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5">
-        <v>300</v>
-      </c>
-      <c r="E14" s="5">
-        <v>300</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="D14" s="4">
+        <v>300</v>
+      </c>
+      <c r="E14" s="4">
+        <v>300</v>
+      </c>
+      <c r="F14" s="4">
         <v>535</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>535</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="12">
         <v>1250369822</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="5">
-        <v>300</v>
-      </c>
-      <c r="E15" s="5">
-        <v>300</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="D15" s="4">
+        <v>300</v>
+      </c>
+      <c r="E15" s="4">
+        <v>300</v>
+      </c>
+      <c r="F15" s="4">
         <v>600</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>600</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="12">
         <v>1912065054</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="5">
-        <v>300</v>
-      </c>
-      <c r="E16" s="5">
-        <v>300</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="D16" s="4">
+        <v>300</v>
+      </c>
+      <c r="E16" s="4">
+        <v>300</v>
+      </c>
+      <c r="F16" s="4">
         <v>535</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>535</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="12">
         <v>1949352392</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="5">
-        <v>300</v>
-      </c>
-      <c r="E17" s="5">
-        <v>300</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="D17" s="4">
+        <v>300</v>
+      </c>
+      <c r="E17" s="4">
+        <v>300</v>
+      </c>
+      <c r="F17" s="4">
         <v>535</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>535</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="12">
         <v>2972891824</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="5">
-        <v>300</v>
-      </c>
-      <c r="E18" s="5">
-        <v>300</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="D18" s="4">
+        <v>300</v>
+      </c>
+      <c r="E18" s="4">
+        <v>300</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="12">
         <v>3896330349</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="5">
-        <v>300</v>
-      </c>
-      <c r="E19" s="5">
-        <v>300</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="D19" s="4">
+        <v>300</v>
+      </c>
+      <c r="E19" s="4">
+        <v>300</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="12">
         <v>2568728582</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="5">
-        <v>300</v>
-      </c>
-      <c r="E20" s="5">
-        <v>300</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="D20" s="4">
+        <v>300</v>
+      </c>
+      <c r="E20" s="4">
+        <v>300</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="12">
         <v>3920854821</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="5">
-        <v>300</v>
-      </c>
-      <c r="E21" s="5">
-        <v>300</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="D21" s="4">
+        <v>300</v>
+      </c>
+      <c r="E21" s="4">
+        <v>300</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="12">
         <v>2972892570</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="5">
-        <v>300</v>
-      </c>
-      <c r="E22" s="5">
-        <v>300</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="D22" s="4">
+        <v>300</v>
+      </c>
+      <c r="E22" s="4">
+        <v>300</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="12">
         <v>2974827162</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="5">
-        <v>300</v>
-      </c>
-      <c r="E23" s="5">
-        <v>300</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="D23" s="4">
+        <v>300</v>
+      </c>
+      <c r="E23" s="4">
+        <v>300</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="13">
+        <v>3049960641</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8">
+        <v>200</v>
+      </c>
+      <c r="E24" s="8">
+        <v>200</v>
+      </c>
+      <c r="F24" s="8">
+        <v>300</v>
+      </c>
+      <c r="G24" s="8">
+        <v>300</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="13">
+        <v>3049225703</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="8">
+        <v>150</v>
+      </c>
+      <c r="E25" s="8">
+        <v>150</v>
+      </c>
+      <c r="F25" s="8">
+        <v>250</v>
+      </c>
+      <c r="G25" s="8">
+        <v>250</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="13">
+        <v>3158663173</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8">
+        <v>150</v>
+      </c>
+      <c r="E26" s="8">
+        <v>150</v>
+      </c>
+      <c r="F26" s="8">
+        <v>250</v>
+      </c>
+      <c r="G26" s="8">
+        <v>250</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="13">
+        <v>3158264483</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8">
+        <v>150</v>
+      </c>
+      <c r="E27" s="8">
+        <v>150</v>
+      </c>
+      <c r="F27" s="8">
+        <v>250</v>
+      </c>
+      <c r="G27" s="8">
+        <v>250</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" t="s">
+        <v>169</v>
+      </c>
+      <c r="L27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="13">
+        <v>515670613</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="8">
+        <v>200</v>
+      </c>
+      <c r="E28" s="8">
+        <v>200</v>
+      </c>
+      <c r="F28" s="8">
+        <v>300</v>
+      </c>
+      <c r="G28" s="8">
+        <v>300</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" t="s">
+        <v>169</v>
+      </c>
+      <c r="L28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="13">
+        <v>3120615940</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8">
+        <v>150</v>
+      </c>
+      <c r="E29" s="8">
+        <v>150</v>
+      </c>
+      <c r="F29" s="8">
+        <v>250</v>
+      </c>
+      <c r="G29" s="8">
+        <v>250</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" t="s">
+        <v>169</v>
+      </c>
+      <c r="L29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="13">
+        <v>3049962151</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8">
+        <v>150</v>
+      </c>
+      <c r="E30" s="8">
+        <v>150</v>
+      </c>
+      <c r="F30" s="8">
+        <v>250</v>
+      </c>
+      <c r="G30" s="8">
+        <v>250</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="13">
+        <v>3132722351</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8">
+        <v>50</v>
+      </c>
+      <c r="E31" s="8">
+        <v>50</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31" t="s">
+        <v>169</v>
+      </c>
+      <c r="L31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="13">
+        <v>3132747291</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="8">
+        <v>50</v>
+      </c>
+      <c r="E32" s="8">
+        <v>50</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>62</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" t="s">
+        <v>169</v>
+      </c>
+      <c r="L32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="13">
+        <v>3132748081</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="8">
+        <v>50</v>
+      </c>
+      <c r="E33" s="8">
+        <v>50</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" s="13">
+        <v>3050572957</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="8">
+        <v>800</v>
+      </c>
+      <c r="E34" s="8">
+        <v>500</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="13">
+        <v>5661962543</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>7200</v>
+      </c>
+      <c r="G35" s="8">
+        <v>7200</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" t="s">
+        <v>169</v>
+      </c>
+      <c r="L35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1767583352</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>3500</v>
+      </c>
+      <c r="G36" s="8">
+        <v>3500</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1398027104</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G37" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" t="s">
+        <v>169</v>
+      </c>
+      <c r="L37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="13">
+        <v>5747171205</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1800</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1800</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" t="s">
+        <v>169</v>
+      </c>
+      <c r="L38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="13">
+        <v>5747171149</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>3150</v>
+      </c>
+      <c r="G39" s="8">
+        <v>3150</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K39" t="s">
+        <v>169</v>
+      </c>
+      <c r="L39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="13">
+        <v>5742251187</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2250</v>
+      </c>
+      <c r="G40" s="8">
+        <v>2250</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" t="s">
+        <v>169</v>
+      </c>
+      <c r="L40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1750322241</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="8">
+        <v>3600</v>
+      </c>
+      <c r="F41" s="8">
+        <v>5400</v>
+      </c>
+      <c r="G41" s="8">
+        <v>4950</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41" t="s">
+        <v>169</v>
+      </c>
+      <c r="L41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="13">
+        <v>5662222414</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>9270</v>
+      </c>
+      <c r="G42" s="8">
+        <v>7353</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" t="s">
+        <v>169</v>
+      </c>
+      <c r="L42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="13">
+        <v>5699800489</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>5562</v>
+      </c>
+      <c r="G43" s="8">
+        <v>3681</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" t="s">
+        <v>169</v>
+      </c>
+      <c r="L43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="13">
+        <v>2118524565</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>3681</v>
+      </c>
+      <c r="G44" s="8">
+        <v>3312</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K44" t="s">
+        <v>169</v>
+      </c>
+      <c r="L44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="13">
+        <v>5699800500</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>3681</v>
+      </c>
+      <c r="G45" s="8">
+        <v>3123</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
+        <v>169</v>
+      </c>
+      <c r="L45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="13">
+        <v>5745465669</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>3681</v>
+      </c>
+      <c r="G46" s="8">
+        <v>3312</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46" t="s">
+        <v>169</v>
+      </c>
+      <c r="L46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="13">
+        <v>5699800503</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>3312</v>
+      </c>
+      <c r="G47" s="8">
+        <v>2763</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" t="s">
+        <v>169</v>
+      </c>
+      <c r="L47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="13">
+        <v>5704834946</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>3312</v>
+      </c>
+      <c r="G48" s="8">
+        <v>2763</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K48" t="s">
+        <v>169</v>
+      </c>
+      <c r="L48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="13">
+        <v>5621509969</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>10800</v>
+      </c>
+      <c r="G49" s="8">
+        <v>9000</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="13">
+        <v>5747171282</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>3150</v>
+      </c>
+      <c r="G50" s="8">
+        <v>3150</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" t="s">
+        <v>169</v>
+      </c>
+      <c r="L50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="13">
+        <v>5745465726</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>2250</v>
+      </c>
+      <c r="G51" s="8">
+        <v>2250</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" t="s">
+        <v>169</v>
+      </c>
+      <c r="L51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="13">
+        <v>5745465799</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2700</v>
+      </c>
+      <c r="G52" s="8">
+        <v>2250</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52" t="s">
+        <v>169</v>
+      </c>
+      <c r="L52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="13">
+        <v>5745465807</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>3600</v>
+      </c>
+      <c r="G53" s="8">
+        <v>3150</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" t="s">
+        <v>169</v>
+      </c>
+      <c r="L53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1264782967</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="8">
+        <v>800</v>
+      </c>
+      <c r="E54" s="8">
+        <v>600</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="8">
+        <v>800</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" t="s">
+        <v>169</v>
+      </c>
+      <c r="L54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1844648431</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>2125</v>
+      </c>
+      <c r="G55" s="8">
+        <v>2125</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K55" t="s">
+        <v>169</v>
+      </c>
+      <c r="L55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1836827687</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="8">
+        <v>3000</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56" t="s">
+        <v>169</v>
+      </c>
+      <c r="L56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="13">
+        <v>3222633092</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="8">
+        <v>150</v>
+      </c>
+      <c r="E57" s="8">
+        <v>150</v>
+      </c>
+      <c r="F57" s="8">
+        <v>250</v>
+      </c>
+      <c r="G57" s="8">
+        <v>250</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K57" t="s">
+        <v>169</v>
+      </c>
+      <c r="L57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="13">
+        <v>2972494993</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="8">
+        <v>150</v>
+      </c>
+      <c r="E58" s="8">
+        <v>150</v>
+      </c>
+      <c r="F58" s="8">
+        <v>250</v>
+      </c>
+      <c r="G58" s="8">
+        <v>250</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="14">
+        <v>2499782844</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="8">
+        <v>150</v>
+      </c>
+      <c r="E59" s="8">
+        <v>150</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K59" t="s">
+        <v>264</v>
+      </c>
+      <c r="L59" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="14">
+        <v>2820154350</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="8">
+        <v>150</v>
+      </c>
+      <c r="E60" s="8">
+        <v>150</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K60" t="s">
+        <v>264</v>
+      </c>
+      <c r="L60" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="14">
+        <v>3124358693</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="8">
+        <v>150</v>
+      </c>
+      <c r="E61" s="8">
+        <v>150</v>
+      </c>
+      <c r="F61" s="8">
+        <v>400</v>
+      </c>
+      <c r="G61" s="8">
+        <v>300</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K61" t="s">
+        <v>264</v>
+      </c>
+      <c r="L61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="14">
+        <v>3124390953</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="8">
+        <v>150</v>
+      </c>
+      <c r="E62" s="8">
+        <v>150</v>
+      </c>
+      <c r="F62" s="8">
+        <v>600</v>
+      </c>
+      <c r="G62" s="8">
+        <v>400</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K62" t="s">
+        <v>264</v>
+      </c>
+      <c r="L62" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="14">
+        <v>3108237343</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="8">
+        <v>150</v>
+      </c>
+      <c r="E63" s="8">
+        <v>150</v>
+      </c>
+      <c r="F63" s="8">
+        <v>300</v>
+      </c>
+      <c r="G63" s="8">
+        <v>300</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K63" t="s">
+        <v>264</v>
+      </c>
+      <c r="L63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="14">
+        <v>5101354657</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="8">
+        <v>150</v>
+      </c>
+      <c r="E64" s="8">
+        <v>150</v>
+      </c>
+      <c r="F64" s="8">
+        <v>200</v>
+      </c>
+      <c r="G64" s="8">
+        <v>200</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K64" t="s">
+        <v>264</v>
+      </c>
+      <c r="L64" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="14">
+        <v>3202984845</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="8">
+        <v>150</v>
+      </c>
+      <c r="E65" s="8">
+        <v>150</v>
+      </c>
+      <c r="F65" s="8">
+        <v>300</v>
+      </c>
+      <c r="G65" s="8">
+        <v>200</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K65" t="s">
+        <v>264</v>
+      </c>
+      <c r="L65" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="14">
+        <v>3954181952</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="8">
+        <v>150</v>
+      </c>
+      <c r="E66" s="8">
+        <v>150</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0</v>
+      </c>
+      <c r="G66" s="8">
+        <v>0</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K66" t="s">
+        <v>264</v>
+      </c>
+      <c r="L66" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="14">
+        <v>5081111081</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="8">
+        <v>150</v>
+      </c>
+      <c r="E67" s="8">
+        <v>150</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8">
+        <v>0</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K67" t="s">
+        <v>264</v>
+      </c>
+      <c r="L67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="14">
+        <v>1221283680</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="8">
+        <v>150</v>
+      </c>
+      <c r="E68" s="8">
+        <v>150</v>
+      </c>
+      <c r="F68" s="8">
+        <v>400</v>
+      </c>
+      <c r="G68" s="8">
+        <v>500</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K68" t="s">
+        <v>264</v>
+      </c>
+      <c r="L68" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="14">
+        <v>3859872635</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" s="8">
+        <v>150</v>
+      </c>
+      <c r="E69" s="8">
+        <v>150</v>
+      </c>
+      <c r="F69" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G69" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K69" t="s">
+        <v>264</v>
+      </c>
+      <c r="L69" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" s="14">
+        <v>3125331963</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="8">
+        <v>150</v>
+      </c>
+      <c r="E70" s="8">
+        <v>150</v>
+      </c>
+      <c r="F70" s="8">
+        <v>400</v>
+      </c>
+      <c r="G70" s="8">
+        <v>300</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K70" t="s">
+        <v>264</v>
+      </c>
+      <c r="L70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="14">
+        <v>3125331285</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="8">
+        <v>150</v>
+      </c>
+      <c r="E71" s="8">
+        <v>150</v>
+      </c>
+      <c r="F71" s="8">
+        <v>300</v>
+      </c>
+      <c r="G71" s="8">
+        <v>200</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K71" t="s">
+        <v>264</v>
+      </c>
+      <c r="L71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" s="14">
+        <v>2035515672</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="8">
+        <v>150</v>
+      </c>
+      <c r="E72" s="8">
+        <v>150</v>
+      </c>
+      <c r="F72" s="8">
+        <v>400</v>
+      </c>
+      <c r="G72" s="8">
+        <v>400</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K72" t="s">
+        <v>264</v>
+      </c>
+      <c r="L72" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="14">
+        <v>5339765293</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="8">
+        <v>150</v>
+      </c>
+      <c r="E73" s="8">
+        <v>150</v>
+      </c>
+      <c r="F73" s="8">
+        <v>400</v>
+      </c>
+      <c r="G73" s="8">
+        <v>400</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K73" t="s">
+        <v>264</v>
+      </c>
+      <c r="L73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="14">
+        <v>5100399609</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" s="8">
+        <v>150</v>
+      </c>
+      <c r="E74" s="8">
+        <v>150</v>
+      </c>
+      <c r="F74" s="8">
+        <v>300</v>
+      </c>
+      <c r="G74" s="8">
+        <v>200</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K74" t="s">
+        <v>264</v>
+      </c>
+      <c r="L74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="14">
+        <v>1794961040</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="8">
+        <v>150</v>
+      </c>
+      <c r="E75" s="8">
+        <v>150</v>
+      </c>
+      <c r="F75" s="8">
+        <v>400</v>
+      </c>
+      <c r="G75" s="8">
+        <v>300</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K75" t="s">
+        <v>264</v>
+      </c>
+      <c r="L75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1951577942</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="8">
+        <v>150</v>
+      </c>
+      <c r="E76" s="8">
+        <v>150</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0</v>
+      </c>
+      <c r="G76" s="8">
+        <v>0</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K76" t="s">
+        <v>264</v>
+      </c>
+      <c r="L76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" s="14">
+        <v>5110878545</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="8">
+        <v>150</v>
+      </c>
+      <c r="E77" s="8">
+        <v>150</v>
+      </c>
+      <c r="F77" s="8">
+        <v>300</v>
+      </c>
+      <c r="G77" s="8">
+        <v>200</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K77" t="s">
+        <v>264</v>
+      </c>
+      <c r="L77" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" s="14">
+        <v>5101956860</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" s="8">
+        <v>150</v>
+      </c>
+      <c r="E78" s="8">
+        <v>150</v>
+      </c>
+      <c r="F78" s="8">
+        <v>200</v>
+      </c>
+      <c r="G78" s="8">
+        <v>200</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K78" t="s">
+        <v>264</v>
+      </c>
+      <c r="L78" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" s="14">
+        <v>5081072270</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="8">
+        <v>150</v>
+      </c>
+      <c r="E79" s="8">
+        <v>150</v>
+      </c>
+      <c r="F79" s="8">
+        <v>300</v>
+      </c>
+      <c r="G79" s="8">
+        <v>200</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K79" t="s">
+        <v>264</v>
+      </c>
+      <c r="L79" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" s="14">
+        <v>3018168431</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="8">
+        <v>150</v>
+      </c>
+      <c r="E80" s="8">
+        <v>150</v>
+      </c>
+      <c r="F80" s="8">
+        <v>100</v>
+      </c>
+      <c r="G80" s="8">
+        <v>100</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K80" t="s">
+        <v>264</v>
+      </c>
+      <c r="L80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B81" s="14">
+        <v>5084250752</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="8">
+        <v>150</v>
+      </c>
+      <c r="E81" s="8">
+        <v>150</v>
+      </c>
+      <c r="F81" s="8">
+        <v>300</v>
+      </c>
+      <c r="G81" s="8">
+        <v>200</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K81" t="s">
+        <v>264</v>
+      </c>
+      <c r="L81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" s="14">
+        <v>3927028466</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="8">
+        <v>150</v>
+      </c>
+      <c r="E82" s="8">
+        <v>150</v>
+      </c>
+      <c r="F82" s="8">
+        <v>300</v>
+      </c>
+      <c r="G82" s="8">
+        <v>200</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K82" t="s">
+        <v>264</v>
+      </c>
+      <c r="L82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" s="14">
+        <v>5082823438</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" s="8">
+        <v>150</v>
+      </c>
+      <c r="E83" s="8">
+        <v>150</v>
+      </c>
+      <c r="F83" s="8">
+        <v>300</v>
+      </c>
+      <c r="G83" s="8">
+        <v>200</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K83" t="s">
+        <v>264</v>
+      </c>
+      <c r="L83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" s="14">
+        <v>5083875632</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="8">
+        <v>150</v>
+      </c>
+      <c r="E84" s="8">
+        <v>150</v>
+      </c>
+      <c r="F84" s="8">
+        <v>300</v>
+      </c>
+      <c r="G84" s="8">
+        <v>200</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K84" t="s">
+        <v>264</v>
+      </c>
+      <c r="L84" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" s="14">
+        <v>1746852034</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" s="8">
+        <v>150</v>
+      </c>
+      <c r="E85" s="8">
+        <v>150</v>
+      </c>
+      <c r="F85" s="8">
+        <v>200</v>
+      </c>
+      <c r="G85" s="8">
+        <v>200</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K85" t="s">
+        <v>264</v>
+      </c>
+      <c r="L85" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B86" s="14">
+        <v>3539163963</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="8">
+        <v>150</v>
+      </c>
+      <c r="E86" s="8">
+        <v>150</v>
+      </c>
+      <c r="F86" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G86" s="8">
+        <v>600</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K86" t="s">
+        <v>264</v>
+      </c>
+      <c r="L86" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" s="14">
+        <v>3108589291</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="8">
+        <v>150</v>
+      </c>
+      <c r="E87" s="8">
+        <v>150</v>
+      </c>
+      <c r="F87" s="8">
+        <v>300</v>
+      </c>
+      <c r="G87" s="8">
+        <v>200</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K87" t="s">
+        <v>264</v>
+      </c>
+      <c r="L87" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="14">
+        <v>3985470692</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="8">
+        <v>150</v>
+      </c>
+      <c r="E88" s="8">
+        <v>150</v>
+      </c>
+      <c r="F88" s="8">
+        <v>200</v>
+      </c>
+      <c r="G88" s="8">
+        <v>200</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K88" t="s">
+        <v>264</v>
+      </c>
+      <c r="L88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" s="14">
+        <v>2473854200</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" s="8">
+        <v>150</v>
+      </c>
+      <c r="E89" s="8">
+        <v>150</v>
+      </c>
+      <c r="F89" s="8">
+        <v>400</v>
+      </c>
+      <c r="G89" s="8">
+        <v>400</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K89" t="s">
+        <v>264</v>
+      </c>
+      <c r="L89" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B90" s="14">
+        <v>1784383925</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" s="8">
+        <v>150</v>
+      </c>
+      <c r="E90" s="8">
+        <v>150</v>
+      </c>
+      <c r="F90" s="8">
+        <v>100</v>
+      </c>
+      <c r="G90" s="8">
+        <v>100</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K90" t="s">
+        <v>264</v>
+      </c>
+      <c r="L90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" s="14">
+        <v>2871166151</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" s="8">
+        <v>150</v>
+      </c>
+      <c r="E91" s="8">
+        <v>150</v>
+      </c>
+      <c r="F91" s="8">
+        <v>0</v>
+      </c>
+      <c r="G91" s="8">
+        <v>0</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K91" t="s">
+        <v>264</v>
+      </c>
+      <c r="L91" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" s="14">
+        <v>3124390775</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D92" s="8">
+        <v>150</v>
+      </c>
+      <c r="E92" s="8">
+        <v>150</v>
+      </c>
+      <c r="F92" s="8">
+        <v>200</v>
+      </c>
+      <c r="G92" s="8">
+        <v>200</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K92" t="s">
+        <v>264</v>
+      </c>
+      <c r="L92" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B93" s="14">
+        <v>3124390531</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D93" s="8">
+        <v>150</v>
+      </c>
+      <c r="E93" s="8">
+        <v>150</v>
+      </c>
+      <c r="F93" s="8">
+        <v>400</v>
+      </c>
+      <c r="G93" s="8">
+        <v>300</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K93" t="s">
+        <v>264</v>
+      </c>
+      <c r="L93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94" s="14">
+        <v>1884765332</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D94" s="8">
+        <v>150</v>
+      </c>
+      <c r="E94" s="8">
+        <v>150</v>
+      </c>
+      <c r="F94" s="8">
+        <v>300</v>
+      </c>
+      <c r="G94" s="8">
+        <v>200</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K94" t="s">
+        <v>264</v>
+      </c>
+      <c r="L94" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B95" s="14">
+        <v>517896914</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" s="8">
+        <v>150</v>
+      </c>
+      <c r="E95" s="8">
+        <v>150</v>
+      </c>
+      <c r="F95" s="8">
+        <v>0</v>
+      </c>
+      <c r="G95" s="8">
+        <v>0</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I95" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K95" t="s">
+        <v>264</v>
+      </c>
+      <c r="L95" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B96" s="14">
+        <v>534527758</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" s="8">
+        <v>150</v>
+      </c>
+      <c r="E96" s="8">
+        <v>150</v>
+      </c>
+      <c r="F96" s="8">
+        <v>0</v>
+      </c>
+      <c r="G96" s="8">
+        <v>0</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K96" t="s">
+        <v>264</v>
+      </c>
+      <c r="L96" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B97" s="14">
+        <v>512308478</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" s="8">
+        <v>150</v>
+      </c>
+      <c r="E97" s="8">
+        <v>150</v>
+      </c>
+      <c r="F97" s="8">
+        <v>0</v>
+      </c>
+      <c r="G97" s="8">
+        <v>0</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K97" t="s">
+        <v>264</v>
+      </c>
+      <c r="L97" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B98" s="14">
+        <v>3124361577</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D98" s="8">
+        <v>150</v>
+      </c>
+      <c r="E98" s="8">
+        <v>150</v>
+      </c>
+      <c r="F98" s="8">
+        <v>300</v>
+      </c>
+      <c r="G98" s="8">
+        <v>200</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K98" t="s">
+        <v>264</v>
+      </c>
+      <c r="L98" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B99" s="14">
+        <v>512359025</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D99" s="8">
+        <v>150</v>
+      </c>
+      <c r="E99" s="8">
+        <v>150</v>
+      </c>
+      <c r="F99" s="8">
+        <v>300</v>
+      </c>
+      <c r="G99" s="8">
+        <v>200</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K99" t="s">
+        <v>264</v>
+      </c>
+      <c r="L99" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B100" s="14">
+        <v>3124386981</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D100" s="8">
+        <v>150</v>
+      </c>
+      <c r="E100" s="8">
+        <v>150</v>
+      </c>
+      <c r="F100" s="8">
+        <v>300</v>
+      </c>
+      <c r="G100" s="8">
+        <v>200</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K100" t="s">
+        <v>264</v>
+      </c>
+      <c r="L100" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" s="14">
+        <v>2893722735</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D101" s="8">
+        <v>150</v>
+      </c>
+      <c r="E101" s="8">
+        <v>150</v>
+      </c>
+      <c r="F101" s="8">
+        <v>0</v>
+      </c>
+      <c r="G101" s="8">
+        <v>0</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K101" t="s">
+        <v>264</v>
+      </c>
+      <c r="L101" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B102" s="14">
+        <v>3108214911</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" s="8">
+        <v>150</v>
+      </c>
+      <c r="E102" s="8">
+        <v>150</v>
+      </c>
+      <c r="F102" s="8">
+        <v>300</v>
+      </c>
+      <c r="G102" s="8">
+        <v>200</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K102" t="s">
+        <v>264</v>
+      </c>
+      <c r="L102" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A24:A33">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://weibo.com/u/2814386685"/>
   </hyperlinks>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="64">
   <si>
     <t>名称</t>
   </si>
@@ -71,130 +71,154 @@
     <t>幽默搞笑</t>
   </si>
   <si>
-    <t>刘玲</t>
-  </si>
-  <si>
-    <t>X1712181338330003</t>
-  </si>
-  <si>
-    <t>淘宝购物必备宝典</t>
-  </si>
-  <si>
-    <t>淘宝天猫京东购物宝典</t>
-  </si>
-  <si>
-    <t>社会维权曝光</t>
-  </si>
-  <si>
-    <t>我知女人心女人成功秘籍</t>
-  </si>
-  <si>
-    <t>lovely模特营地</t>
-  </si>
-  <si>
-    <t>乐坏赵本山</t>
-  </si>
-  <si>
-    <t>时尚服装选购</t>
-  </si>
-  <si>
-    <t>淘宝天猫大比拼</t>
-  </si>
-  <si>
-    <t>娱乐新闻播报中</t>
-  </si>
-  <si>
-    <t>美容控2014</t>
-  </si>
-  <si>
-    <t>快乐的美容达人</t>
-  </si>
-  <si>
-    <t>时尚宝典本尊</t>
-  </si>
-  <si>
-    <t>美容达人1984</t>
-  </si>
-  <si>
-    <t>神秘变美绝招</t>
-  </si>
-  <si>
-    <t>财经达人2014</t>
-  </si>
-  <si>
-    <t>新闻事实播报</t>
-  </si>
-  <si>
-    <t>北京微热点</t>
-  </si>
-  <si>
-    <t>购物宝典妞妞</t>
-  </si>
-  <si>
-    <t>购物天堂2014</t>
-  </si>
-  <si>
-    <t>大美人购物秘籍</t>
-  </si>
-  <si>
-    <t>上海生活电视台</t>
-  </si>
-  <si>
-    <t>上海小资时尚生活</t>
-  </si>
-  <si>
-    <t>上海新闻资讯榜</t>
-  </si>
-  <si>
-    <t>上海时尚生活女郎</t>
-  </si>
-  <si>
-    <t>上海娱乐新闻资讯</t>
-  </si>
-  <si>
-    <t>摆平时尚</t>
-  </si>
-  <si>
-    <t>搞笑不用逗</t>
-  </si>
-  <si>
-    <t>搞笑全球2014</t>
-  </si>
-  <si>
-    <t>化妆宝典秘籍</t>
-  </si>
-  <si>
-    <t>财经宝典秘籍</t>
-  </si>
-  <si>
-    <t>上海滩娱乐中心</t>
-  </si>
-  <si>
-    <t>女装选购宝典</t>
-  </si>
-  <si>
-    <t>唯品会电商宝典</t>
-  </si>
-  <si>
-    <t>潮女选购中心</t>
-  </si>
-  <si>
-    <t>上海经融中心</t>
-  </si>
-  <si>
-    <t>电商</t>
-  </si>
-  <si>
     <t>新闻资讯</t>
   </si>
   <si>
-    <t>女性时尚</t>
-  </si>
-  <si>
-    <t>财经</t>
-  </si>
-  <si>
-    <t>X1801171007430208</t>
+    <t>骑驴找马的阿咪</t>
+  </si>
+  <si>
+    <t>萌了个神啊</t>
+  </si>
+  <si>
+    <t>娱乐八卦局局长</t>
+  </si>
+  <si>
+    <t>杠戏精</t>
+  </si>
+  <si>
+    <t>对象分配研究院</t>
+  </si>
+  <si>
+    <t>婊阿儿妹</t>
+  </si>
+  <si>
+    <t>星酷咩大王</t>
+  </si>
+  <si>
+    <t>周末玩乐酱</t>
+  </si>
+  <si>
+    <t>脚公主的无敌香气</t>
+  </si>
+  <si>
+    <t>马褂傍身走天下</t>
+  </si>
+  <si>
+    <t>愚乐根据地</t>
+  </si>
+  <si>
+    <t>路上徐侠客</t>
+  </si>
+  <si>
+    <t>科技狂想家</t>
+  </si>
+  <si>
+    <t>时尚星定义</t>
+  </si>
+  <si>
+    <t>你看我女子咩</t>
+  </si>
+  <si>
+    <t>育儿小词典</t>
+  </si>
+  <si>
+    <t>宝妈集结区</t>
+  </si>
+  <si>
+    <t>王牌搞笑特工</t>
+  </si>
+  <si>
+    <t>互联网新分析</t>
+  </si>
+  <si>
+    <t>浅评新鲜事</t>
+  </si>
+  <si>
+    <t>爱化妆的Tina</t>
+  </si>
+  <si>
+    <t>路人乙半仙</t>
+  </si>
+  <si>
+    <t>娱乐反应堆</t>
+  </si>
+  <si>
+    <t>极测评</t>
+  </si>
+  <si>
+    <t>IT互联网科技狂人</t>
+  </si>
+  <si>
+    <t>Linda时尚说</t>
+  </si>
+  <si>
+    <t>二狗影评</t>
+  </si>
+  <si>
+    <t>饭饭Kimi</t>
+  </si>
+  <si>
+    <t>Cindy营养课堂</t>
+  </si>
+  <si>
+    <t>Baby小课堂</t>
+  </si>
+  <si>
+    <t>春涧生活派</t>
+  </si>
+  <si>
+    <t>极品段纸姐</t>
+  </si>
+  <si>
+    <t>生活百味酱</t>
+  </si>
+  <si>
+    <t>生活热搜体质</t>
+  </si>
+  <si>
+    <t>圆子教你怎么穿</t>
+  </si>
+  <si>
+    <t>慕薯小丸子</t>
+  </si>
+  <si>
+    <t>小易带你逛吃逛吃</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>时尚</t>
+  </si>
+  <si>
+    <t>段子手</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>IT互联网</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>影视</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>刘汉梅</t>
+  </si>
+  <si>
+    <t>X1712181403400031</t>
+  </si>
+  <si>
+    <t>X1801050844481018</t>
   </si>
 </sst>
 </file>
@@ -563,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -626,1227 +650,1186 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>3089496214</v>
-      </c>
-      <c r="C2" s="1">
-        <v>413</v>
+        <v>5224324149</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F2" s="1">
-        <v>800</v>
+        <v>4150</v>
       </c>
       <c r="G2" s="1">
-        <v>800</v>
+        <v>3860</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>3090413750</v>
-      </c>
-      <c r="C3" s="1">
-        <v>411</v>
+        <v>1805840252</v>
       </c>
       <c r="D3" s="1">
+        <v>2200</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>800</v>
-      </c>
-      <c r="G3" s="1">
-        <v>800</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
-        <v>3089756342</v>
-      </c>
-      <c r="C4" s="1">
-        <v>365</v>
+        <v>1270800023</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F4" s="1">
-        <v>800</v>
+        <v>4300</v>
       </c>
       <c r="G4" s="1">
-        <v>800</v>
+        <v>3550</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
-        <v>3090409070</v>
-      </c>
-      <c r="C5" s="1">
-        <v>197</v>
+        <v>5303991884</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F5" s="1">
-        <v>800</v>
+        <v>3850</v>
       </c>
       <c r="G5" s="1">
-        <v>800</v>
+        <v>3400</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
-        <v>3884930890</v>
-      </c>
-      <c r="C6" s="1">
-        <v>164</v>
+        <v>5288661357</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F6" s="1">
-        <v>800</v>
+        <v>4150</v>
       </c>
       <c r="G6" s="1">
-        <v>800</v>
+        <v>3870</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3">
-        <v>3715558201</v>
-      </c>
-      <c r="C7" s="1">
-        <v>152</v>
+        <v>5267691875</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F7" s="1">
-        <v>800</v>
+        <v>4300</v>
       </c>
       <c r="G7" s="1">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
-        <v>3089575492</v>
-      </c>
-      <c r="C8" s="1">
-        <v>131</v>
+        <v>5268689257</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F8" s="1">
-        <v>800</v>
+        <v>3850</v>
       </c>
       <c r="G8" s="1">
-        <v>800</v>
+        <v>3400</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
-        <v>3090098464</v>
-      </c>
-      <c r="C9" s="1">
-        <v>124</v>
+        <v>5284150883</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F9" s="1">
-        <v>800</v>
+        <v>4150</v>
       </c>
       <c r="G9" s="1">
-        <v>800</v>
+        <v>3850</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
-        <v>3067763473</v>
-      </c>
-      <c r="C10" s="1">
-        <v>220</v>
+        <v>2472427760</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F10" s="1">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="G10" s="1">
-        <v>800</v>
+        <v>3550</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
-        <v>3885367037</v>
-      </c>
-      <c r="C11" s="1">
-        <v>32</v>
+        <v>2538981671</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F11" s="1">
-        <v>250</v>
+        <v>3400</v>
       </c>
       <c r="G11" s="1">
-        <v>250</v>
+        <v>3100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3">
-        <v>3885372265</v>
-      </c>
-      <c r="C12" s="1">
-        <v>32</v>
+        <v>2622509440</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F12" s="1">
-        <v>250</v>
+        <v>4150</v>
       </c>
       <c r="G12" s="1">
-        <v>250</v>
+        <v>3860</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
-        <v>3885508223</v>
-      </c>
-      <c r="C13" s="1">
-        <v>32</v>
+        <v>2450643671</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="1">
-        <v>250</v>
+        <v>3700</v>
       </c>
       <c r="G13" s="1">
-        <v>250</v>
+        <v>3260</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3">
-        <v>3885353935</v>
-      </c>
-      <c r="C14" s="1">
-        <v>32</v>
+        <v>2520040910</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F14" s="1">
-        <v>250</v>
+        <v>4300</v>
       </c>
       <c r="G14" s="1">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3">
-        <v>3885505371</v>
-      </c>
-      <c r="C15" s="1">
-        <v>32</v>
+        <v>2518477902</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F15" s="1">
-        <v>250</v>
+        <v>4450</v>
       </c>
       <c r="G15" s="1">
-        <v>250</v>
+        <v>3860</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3">
-        <v>3885581932</v>
-      </c>
-      <c r="C16" s="1">
-        <v>30</v>
+        <v>2622970052</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="F16" s="1">
-        <v>200</v>
+        <v>4150</v>
       </c>
       <c r="G16" s="1">
-        <v>200</v>
+        <v>3700</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3">
-        <v>3554793933</v>
-      </c>
-      <c r="C17" s="1">
-        <v>20</v>
+        <v>2472334630</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F17" s="1">
-        <v>200</v>
+        <v>3860</v>
       </c>
       <c r="G17" s="1">
-        <v>200</v>
+        <v>3400</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3">
-        <v>3889738833</v>
-      </c>
-      <c r="C18" s="1">
-        <v>18</v>
+        <v>2559278795</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="F18" s="1">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G18" s="1">
-        <v>200</v>
+        <v>3700</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3">
-        <v>3895600272</v>
-      </c>
-      <c r="C19" s="1">
-        <v>16</v>
+        <v>2639782272</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F19" s="1">
-        <v>200</v>
+        <v>4450</v>
       </c>
       <c r="G19" s="1">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3">
-        <v>3889816574</v>
-      </c>
-      <c r="C20" s="1">
-        <v>16</v>
+        <v>2545068725</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F20" s="1">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G20" s="1">
-        <v>200</v>
+        <v>3550</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3">
-        <v>3895600252</v>
-      </c>
-      <c r="C21" s="1">
-        <v>16</v>
+        <v>2625346300</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F21" s="1">
-        <v>200</v>
+        <v>3700</v>
       </c>
       <c r="G21" s="1">
-        <v>200</v>
+        <v>3260</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3">
-        <v>3885084936</v>
-      </c>
-      <c r="C22" s="1">
-        <v>16</v>
+        <v>2249272090</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F22" s="1">
-        <v>200</v>
+        <v>3860</v>
       </c>
       <c r="G22" s="1">
-        <v>200</v>
+        <v>3400</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
-        <v>3885552761</v>
-      </c>
-      <c r="C23" s="1">
-        <v>25</v>
+        <v>2451125283</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F23" s="1">
-        <v>200</v>
+        <v>4150</v>
       </c>
       <c r="G23" s="1">
-        <v>200</v>
+        <v>3860</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3">
-        <v>3884930935</v>
-      </c>
-      <c r="C24" s="1">
-        <v>25</v>
+        <v>2526546622</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F24" s="1">
-        <v>200</v>
+        <v>3860</v>
       </c>
       <c r="G24" s="1">
-        <v>200</v>
+        <v>3550</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3">
-        <v>3885280987</v>
-      </c>
-      <c r="C25" s="1">
-        <v>25</v>
+        <v>3313277145</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="F25" s="1">
-        <v>200</v>
+        <v>4150</v>
       </c>
       <c r="G25" s="1">
-        <v>200</v>
+        <v>3700</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3">
-        <v>3885096018</v>
-      </c>
-      <c r="C26" s="1">
-        <v>25</v>
+        <v>5904573582</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F26" s="1">
-        <v>200</v>
+        <v>3550</v>
       </c>
       <c r="G26" s="1">
-        <v>200</v>
+        <v>3260</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3">
-        <v>3885530160</v>
-      </c>
-      <c r="C27" s="1">
-        <v>25</v>
+        <v>5904559305</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F27" s="1">
-        <v>200</v>
+        <v>4450</v>
       </c>
       <c r="G27" s="1">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
-        <v>3885537541</v>
-      </c>
-      <c r="C28" s="1">
-        <v>14</v>
+        <v>5904301760</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F28" s="1">
-        <v>200</v>
+        <v>4300</v>
       </c>
       <c r="G28" s="1">
-        <v>200</v>
+        <v>3860</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3">
-        <v>3885120550</v>
-      </c>
-      <c r="C29" s="1">
-        <v>14</v>
+        <v>2521328672</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="1">
-        <v>200</v>
+        <v>4300</v>
       </c>
       <c r="G29" s="1">
-        <v>200</v>
+        <v>3860</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3">
-        <v>3873524353</v>
-      </c>
-      <c r="C30" s="1">
-        <v>14</v>
+        <v>2526387952</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F30" s="1">
-        <v>200</v>
+        <v>3400</v>
       </c>
       <c r="G30" s="1">
-        <v>200</v>
+        <v>3100</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3">
-        <v>3885111650</v>
-      </c>
-      <c r="C31" s="1">
-        <v>14</v>
+        <v>2519891050</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F31" s="1">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G31" s="1">
-        <v>200</v>
+        <v>3550</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3">
-        <v>3556160584</v>
-      </c>
-      <c r="C32" s="1">
-        <v>10</v>
+        <v>2622481502</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F32" s="1">
-        <v>200</v>
+        <v>3400</v>
       </c>
       <c r="G32" s="1">
-        <v>200</v>
+        <v>3100</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3">
-        <v>3556188432</v>
-      </c>
-      <c r="C33" s="1">
-        <v>9</v>
+        <v>2459758631</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F33" s="1">
-        <v>200</v>
+        <v>4150</v>
       </c>
       <c r="G33" s="1">
-        <v>200</v>
+        <v>3860</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3">
-        <v>3597787133</v>
-      </c>
-      <c r="C34" s="1">
-        <v>8</v>
+        <v>2521355642</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F34" s="1">
-        <v>200</v>
+        <v>3530</v>
       </c>
       <c r="G34" s="1">
-        <v>200</v>
+        <v>3100</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3">
-        <v>3556184995</v>
-      </c>
-      <c r="C35" s="1">
-        <v>8</v>
+        <v>2519626400</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F35" s="1">
-        <v>200</v>
+        <v>4300</v>
       </c>
       <c r="G35" s="1">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2518457380</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2200</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3550</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="3">
-        <v>3597833811</v>
-      </c>
-      <c r="C36" s="1">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>200</v>
-      </c>
-      <c r="G36" s="1">
-        <v>200</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>15</v>
+      <c r="B37" s="3">
+        <v>2625319752</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2300</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3700</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3260</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2623073632</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2200</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3860</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3550</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="82">
   <si>
     <t>名称</t>
   </si>
@@ -65,217 +65,214 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全球影视热榜</t>
-  </si>
-  <si>
-    <t>电影八哥</t>
-  </si>
-  <si>
-    <t>知名影帝</t>
-  </si>
-  <si>
-    <t>电影扒姨太</t>
-  </si>
-  <si>
-    <t>电影风云榜</t>
-  </si>
-  <si>
-    <t>电影刷神</t>
-  </si>
-  <si>
-    <t>电影毒评</t>
-  </si>
-  <si>
-    <t>影视追击令</t>
-  </si>
-  <si>
-    <t>追剧通缉令</t>
-  </si>
-  <si>
-    <t>收视率热榜</t>
-  </si>
-  <si>
-    <t>学妹爱追剧</t>
-  </si>
-  <si>
-    <t>卫视情报局</t>
-  </si>
-  <si>
-    <t>收视率头条</t>
-  </si>
-  <si>
-    <t>卫视一姐</t>
-  </si>
-  <si>
-    <t>毒舌剧评</t>
-  </si>
-  <si>
-    <t>卫视爆料</t>
-  </si>
-  <si>
-    <t>剧透婊</t>
-  </si>
-  <si>
-    <t>卫视圈头条</t>
-  </si>
-  <si>
-    <t>热剧首播</t>
-  </si>
-  <si>
-    <t>卫视评论人</t>
-  </si>
-  <si>
-    <t>全球综艺资讯</t>
-  </si>
-  <si>
-    <t>卫视热播</t>
-  </si>
-  <si>
-    <t>传媒卫视圈</t>
-  </si>
-  <si>
-    <t>热门网剧</t>
-  </si>
-  <si>
-    <t>网剧热播</t>
-  </si>
-  <si>
-    <t>网剧头条</t>
-  </si>
-  <si>
-    <t>网剧工厂</t>
-  </si>
-  <si>
-    <t>网大头条</t>
-  </si>
-  <si>
-    <t>娱司令</t>
-  </si>
-  <si>
-    <t>学妹爱八卦</t>
-  </si>
-  <si>
-    <t>娱乐密探</t>
-  </si>
-  <si>
-    <t>Youtube大神</t>
-  </si>
-  <si>
-    <t>全球趣事爆料</t>
-  </si>
-  <si>
-    <t>极品粉丝团</t>
-  </si>
-  <si>
-    <t>人人都爱劲歌王</t>
-  </si>
-  <si>
-    <t>音乐没有圈</t>
-  </si>
-  <si>
-    <t>8090音乐榜</t>
-  </si>
-  <si>
-    <t>Rap音乐君</t>
-  </si>
-  <si>
-    <t>热门歌单</t>
-  </si>
-  <si>
-    <t>音乐圈头条</t>
-  </si>
-  <si>
-    <t>音乐追击令</t>
-  </si>
-  <si>
-    <t>动漫迷</t>
-  </si>
-  <si>
-    <t>海贼记</t>
-  </si>
-  <si>
-    <t>二次元热点</t>
-  </si>
-  <si>
-    <t>ACG新番</t>
-  </si>
-  <si>
-    <t>二次元腐学长</t>
-  </si>
-  <si>
-    <t>君说新番</t>
-  </si>
-  <si>
-    <t>漫评君</t>
-  </si>
-  <si>
-    <t>二次元宅少女</t>
-  </si>
-  <si>
-    <t>动漫圈头条</t>
-  </si>
-  <si>
-    <t>动漫所长</t>
-  </si>
-  <si>
-    <t>全球潮人榜</t>
-  </si>
-  <si>
-    <t>创意潮人</t>
-  </si>
-  <si>
-    <t>家居圈头条</t>
-  </si>
-  <si>
-    <t>家居搭配手册</t>
-  </si>
-  <si>
-    <t>全球家居焦点</t>
-  </si>
-  <si>
-    <t>游北京</t>
-  </si>
-  <si>
-    <t>英国潮生活</t>
-  </si>
-  <si>
-    <t>美国潮生活</t>
-  </si>
-  <si>
-    <t>澳洲潮生活</t>
-  </si>
-  <si>
     <t>影视</t>
   </si>
   <si>
     <t>娱乐</t>
   </si>
   <si>
-    <t>幽默搞笑</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>动漫</t>
-  </si>
-  <si>
-    <t>女性时尚</t>
-  </si>
-  <si>
-    <t>家居</t>
-  </si>
-  <si>
-    <t>地域</t>
-  </si>
-  <si>
-    <t>X1801050845052392</t>
-  </si>
-  <si>
-    <t>刘玲</t>
-  </si>
-  <si>
-    <t>X1712181338330003</t>
+    <t>影视工匠</t>
+  </si>
+  <si>
+    <t>电影圈小胖</t>
+  </si>
+  <si>
+    <t>电影艺术痴</t>
+  </si>
+  <si>
+    <t>影视新推荐</t>
+  </si>
+  <si>
+    <t>影视圈探秘</t>
+  </si>
+  <si>
+    <t>青春透剧君</t>
+  </si>
+  <si>
+    <t>新剧周刊</t>
+  </si>
+  <si>
+    <t>娱乐追剧酱</t>
+  </si>
+  <si>
+    <t>追剧小事件</t>
+  </si>
+  <si>
+    <t>爱追剧酱</t>
+  </si>
+  <si>
+    <t>新剧继续追</t>
+  </si>
+  <si>
+    <t>乐不索取</t>
+  </si>
+  <si>
+    <t>星星乐剧</t>
+  </si>
+  <si>
+    <t>芒果捞星剧透</t>
+  </si>
+  <si>
+    <t>透剧多多</t>
+  </si>
+  <si>
+    <t>八组电影</t>
+  </si>
+  <si>
+    <t>天天泡剧</t>
+  </si>
+  <si>
+    <t>夜猫的追剧日常 </t>
+  </si>
+  <si>
+    <t>影视剧预告君</t>
+  </si>
+  <si>
+    <t>追剧神吐槽</t>
+  </si>
+  <si>
+    <t>追星酱</t>
+  </si>
+  <si>
+    <t>追剧鲜</t>
+  </si>
+  <si>
+    <t>剧不可待</t>
+  </si>
+  <si>
+    <t>宅剧日常</t>
+  </si>
+  <si>
+    <t>八组追剧少女</t>
+  </si>
+  <si>
+    <t>每日泡剧</t>
+  </si>
+  <si>
+    <t>新剧歇不停</t>
+  </si>
+  <si>
+    <t>娱事剧透</t>
+  </si>
+  <si>
+    <t>追剧爱豆</t>
+  </si>
+  <si>
+    <t>超级范剧</t>
+  </si>
+  <si>
+    <t>娱乐泡剧</t>
+  </si>
+  <si>
+    <t>片花剧集</t>
+  </si>
+  <si>
+    <t>一块去追剧</t>
+  </si>
+  <si>
+    <t>热播剧指南</t>
+  </si>
+  <si>
+    <t>娱乐追剧菌</t>
+  </si>
+  <si>
+    <t>追剧的少哖</t>
+  </si>
+  <si>
+    <t>剧透公子</t>
+  </si>
+  <si>
+    <t>圈姐泡剧</t>
+  </si>
+  <si>
+    <t>八组爱剧透</t>
+  </si>
+  <si>
+    <t>宅剧颂</t>
+  </si>
+  <si>
+    <t>辣椒追剧</t>
+  </si>
+  <si>
+    <t>追剧葛格</t>
+  </si>
+  <si>
+    <t>追剧不孤单</t>
+  </si>
+  <si>
+    <t>片段剧精彩</t>
+  </si>
+  <si>
+    <t>娱乐剧欢乐</t>
+  </si>
+  <si>
+    <t>圈内影视透</t>
+  </si>
+  <si>
+    <t>芒果捞剧好看</t>
+  </si>
+  <si>
+    <t>影视剧八婆</t>
+  </si>
+  <si>
+    <t>追剧的那点事</t>
+  </si>
+  <si>
+    <t>剧透那些事</t>
+  </si>
+  <si>
+    <t>日常追剧推荐</t>
+  </si>
+  <si>
+    <t>追剧的攻略</t>
+  </si>
+  <si>
+    <t>剧不错</t>
+  </si>
+  <si>
+    <t>会火电影</t>
+  </si>
+  <si>
+    <t>剧魅力</t>
+  </si>
+  <si>
+    <t>芒果新剧场</t>
+  </si>
+  <si>
+    <t>星闻探密者</t>
+  </si>
+  <si>
+    <t>追剧壹夏</t>
+  </si>
+  <si>
+    <t>娱乐影视热搜</t>
+  </si>
+  <si>
+    <t>娱乐,影视</t>
+  </si>
+  <si>
+    <t>X1810171551370270</t>
+  </si>
+  <si>
+    <t>剧荒少年</t>
+  </si>
+  <si>
+    <t>网瘾少年的追剧日常</t>
+  </si>
+  <si>
+    <t>娱乐剧探</t>
+  </si>
+  <si>
+    <t>八组追剧君</t>
+  </si>
+  <si>
+    <t>宅剧狂人</t>
+  </si>
+  <si>
+    <t>黄芳</t>
+  </si>
+  <si>
+    <t>X1712181221160001</t>
   </si>
 </sst>
 </file>
@@ -644,11 +641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:L61"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -707,514 +704,562 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3884616198</v>
+      </c>
+      <c r="C2" s="1">
+        <v>132</v>
+      </c>
+      <c r="D2" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2" s="1">
+        <v>640</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2" s="1">
+        <v>960</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
-        <v>6042536373</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1350</v>
-      </c>
-      <c r="E2" s="1">
-        <v>900</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1530</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1080</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
-        <v>1812609517</v>
+        <v>2930620831</v>
+      </c>
+      <c r="C3" s="1">
+        <v>105</v>
       </c>
       <c r="D3" s="1">
-        <v>1350</v>
+        <v>640</v>
       </c>
       <c r="E3" s="1">
-        <v>900</v>
+        <v>480</v>
       </c>
       <c r="F3" s="1">
-        <v>1530</v>
+        <v>800</v>
       </c>
       <c r="G3" s="1">
-        <v>1080</v>
+        <v>640</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
-        <v>6043856305</v>
+        <v>2816931680</v>
+      </c>
+      <c r="C4" s="1">
+        <v>66</v>
       </c>
       <c r="D4" s="1">
-        <v>1350</v>
+        <v>480</v>
       </c>
       <c r="E4" s="1">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="F4" s="1">
-        <v>1530</v>
+        <v>640</v>
       </c>
       <c r="G4" s="1">
-        <v>1080</v>
+        <v>480</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
-        <v>6042758507</v>
+        <v>3489943080</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
       </c>
       <c r="D5" s="1">
-        <v>1350</v>
+        <v>480</v>
       </c>
       <c r="E5" s="1">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="F5" s="1">
-        <v>1530</v>
+        <v>640</v>
       </c>
       <c r="G5" s="1">
-        <v>1080</v>
+        <v>480</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
-        <v>6042020349</v>
+        <v>6025449188</v>
+      </c>
+      <c r="C6" s="1">
+        <v>62</v>
       </c>
       <c r="D6" s="1">
-        <v>1350</v>
+        <v>480</v>
       </c>
       <c r="E6" s="1">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="F6" s="1">
-        <v>1530</v>
+        <v>640</v>
       </c>
       <c r="G6" s="1">
-        <v>1080</v>
+        <v>480</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
-        <v>6046610734</v>
+        <v>6444699496</v>
+      </c>
+      <c r="C7" s="1">
+        <v>35</v>
       </c>
       <c r="D7" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E7" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G7" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3">
-        <v>6249041968</v>
+        <v>6437888073</v>
+      </c>
+      <c r="C8" s="1">
+        <v>31</v>
       </c>
       <c r="D8" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E8" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F8" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G8" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>1819050323</v>
+        <v>6437421556</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
       </c>
       <c r="D9" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E9" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F9" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G9" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>6042546093</v>
+        <v>6437423518</v>
+      </c>
+      <c r="C10" s="1">
+        <v>28</v>
       </c>
       <c r="D10" s="1">
-        <v>2250</v>
+        <v>240</v>
       </c>
       <c r="E10" s="1">
-        <v>1800</v>
+        <v>160</v>
       </c>
       <c r="F10" s="1">
-        <v>2520</v>
+        <v>400</v>
       </c>
       <c r="G10" s="1">
-        <v>2070</v>
+        <v>240</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>6053009887</v>
+        <v>6437726725</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28</v>
       </c>
       <c r="D11" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E11" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F11" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G11" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3">
-        <v>6042483402</v>
+        <v>6443063014</v>
+      </c>
+      <c r="C12" s="1">
+        <v>28</v>
       </c>
       <c r="D12" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E12" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G12" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3">
-        <v>6043114532</v>
+        <v>6443357322</v>
+      </c>
+      <c r="C13" s="1">
+        <v>26</v>
       </c>
       <c r="D13" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E13" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F13" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G13" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3">
-        <v>6053477491</v>
+        <v>6424733318</v>
+      </c>
+      <c r="C14" s="1">
+        <v>26</v>
       </c>
       <c r="D14" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E14" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F14" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G14" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3">
-        <v>6043441140</v>
+        <v>6437890616</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26</v>
       </c>
       <c r="D15" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E15" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F15" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G15" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3">
-        <v>3744184307</v>
+        <v>5868330359</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25</v>
       </c>
       <c r="D16" s="1">
-        <v>1800</v>
+        <v>240</v>
       </c>
       <c r="E16" s="1">
-        <v>1350</v>
+        <v>160</v>
       </c>
       <c r="F16" s="1">
-        <v>2070</v>
+        <v>400</v>
       </c>
       <c r="G16" s="1">
-        <v>1530</v>
+        <v>240</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B17" s="3">
-        <v>6046616614</v>
+        <v>6437887851</v>
+      </c>
+      <c r="C17" s="1">
+        <v>24</v>
       </c>
       <c r="D17" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E17" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F17" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G17" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1222,31 +1267,34 @@
         <v>28</v>
       </c>
       <c r="B18" s="3">
-        <v>6042250081</v>
+        <v>6443609979</v>
+      </c>
+      <c r="C18" s="1">
+        <v>23</v>
       </c>
       <c r="D18" s="1">
-        <v>1800</v>
+        <v>240</v>
       </c>
       <c r="E18" s="1">
-        <v>1350</v>
+        <v>160</v>
       </c>
       <c r="F18" s="1">
-        <v>2070</v>
+        <v>400</v>
       </c>
       <c r="G18" s="1">
-        <v>1530</v>
+        <v>240</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1254,31 +1302,34 @@
         <v>29</v>
       </c>
       <c r="B19" s="3">
-        <v>6042474585</v>
+        <v>6523231129</v>
+      </c>
+      <c r="C19" s="1">
+        <v>23</v>
       </c>
       <c r="D19" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E19" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F19" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G19" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1286,1343 +1337,1644 @@
         <v>30</v>
       </c>
       <c r="B20" s="3">
-        <v>6053477304</v>
+        <v>6437582405</v>
+      </c>
+      <c r="C20" s="1">
+        <v>22</v>
       </c>
       <c r="D20" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E20" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F20" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G20" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B21" s="3">
-        <v>6042222661</v>
+        <v>6443062870</v>
+      </c>
+      <c r="C21" s="1">
+        <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E21" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G21" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3">
-        <v>6042479721</v>
+        <v>6444285502</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22</v>
       </c>
       <c r="D22" s="1">
-        <v>1800</v>
+        <v>240</v>
       </c>
       <c r="E22" s="1">
-        <v>1350</v>
+        <v>160</v>
       </c>
       <c r="F22" s="1">
-        <v>2070</v>
+        <v>400</v>
       </c>
       <c r="G22" s="1">
-        <v>1530</v>
+        <v>240</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3">
-        <v>6048953488</v>
+        <v>5304974657</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
       </c>
       <c r="D23" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E23" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F23" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G23" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3">
-        <v>6042524240</v>
+        <v>6437726323</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E24" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F24" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G24" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3">
-        <v>6042754927</v>
+        <v>2759588501</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15</v>
       </c>
       <c r="D25" s="1">
-        <v>1800</v>
+        <v>240</v>
       </c>
       <c r="E25" s="1">
-        <v>1350</v>
+        <v>160</v>
       </c>
       <c r="F25" s="1">
-        <v>2070</v>
+        <v>400</v>
       </c>
       <c r="G25" s="1">
-        <v>1530</v>
+        <v>240</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3">
-        <v>6041955776</v>
+        <v>6437601650</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15</v>
       </c>
       <c r="D26" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E26" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F26" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G26" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3">
-        <v>3678334824</v>
+        <v>6444421963</v>
+      </c>
+      <c r="C27" s="1">
+        <v>15</v>
       </c>
       <c r="D27" s="1">
-        <v>2250</v>
+        <v>240</v>
       </c>
       <c r="E27" s="1">
-        <v>1800</v>
+        <v>160</v>
       </c>
       <c r="F27" s="1">
-        <v>2520</v>
+        <v>400</v>
       </c>
       <c r="G27" s="1">
-        <v>2070</v>
+        <v>240</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3">
-        <v>1824094940</v>
+        <v>6444700311</v>
+      </c>
+      <c r="C28" s="1">
+        <v>15</v>
       </c>
       <c r="D28" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E28" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F28" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G28" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="3">
-        <v>3744128760</v>
+        <v>6444701575</v>
+      </c>
+      <c r="C29" s="1">
+        <v>15</v>
       </c>
       <c r="D29" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E29" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F29" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G29" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3">
-        <v>6042753650</v>
+        <v>6437650091</v>
+      </c>
+      <c r="C30" s="1">
+        <v>15</v>
       </c>
       <c r="D30" s="1">
-        <v>2250</v>
+        <v>240</v>
       </c>
       <c r="E30" s="1">
-        <v>1800</v>
+        <v>160</v>
       </c>
       <c r="F30" s="1">
-        <v>2520</v>
+        <v>400</v>
       </c>
       <c r="G30" s="1">
-        <v>2070</v>
+        <v>240</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3">
-        <v>6042776719</v>
+        <v>6437952625</v>
+      </c>
+      <c r="C31" s="1">
+        <v>15</v>
       </c>
       <c r="D31" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E31" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F31" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G31" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3">
-        <v>6042474017</v>
+        <v>6437649317</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15</v>
       </c>
       <c r="D32" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E32" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F32" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G32" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3">
-        <v>6048290715</v>
+        <v>6444695996</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15</v>
       </c>
       <c r="D33" s="1">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="E33" s="1">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="F33" s="1">
-        <v>1530</v>
+        <v>400</v>
       </c>
       <c r="G33" s="1">
-        <v>1080</v>
+        <v>240</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3">
-        <v>6044864639</v>
+        <v>6444279665</v>
+      </c>
+      <c r="C34" s="1">
+        <v>16</v>
       </c>
       <c r="D34" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E34" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F34" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G34" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3">
-        <v>6042747890</v>
+        <v>6437421686</v>
+      </c>
+      <c r="C35" s="1">
+        <v>17</v>
       </c>
       <c r="D35" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F35" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G35" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3">
-        <v>3672979027</v>
+        <v>6443059448</v>
+      </c>
+      <c r="C36" s="1">
+        <v>16</v>
       </c>
       <c r="D36" s="1">
-        <v>1800</v>
+        <v>80</v>
       </c>
       <c r="E36" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="F36" s="1">
-        <v>2070</v>
+        <v>160</v>
       </c>
       <c r="G36" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3">
-        <v>6044108050</v>
+        <v>6437423812</v>
+      </c>
+      <c r="C37" s="1">
+        <v>16</v>
       </c>
       <c r="D37" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E37" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F37" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G37" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3">
-        <v>3279847622</v>
+        <v>6437950151</v>
+      </c>
+      <c r="C38" s="1">
+        <v>15</v>
       </c>
       <c r="D38" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E38" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F38" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G38" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B39" s="3">
-        <v>6044107166</v>
+        <v>6444282521</v>
+      </c>
+      <c r="C39" s="1">
+        <v>14</v>
       </c>
       <c r="D39" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E39" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F39" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G39" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3">
-        <v>6043487567</v>
+        <v>6437601650</v>
+      </c>
+      <c r="C40" s="1">
+        <v>14</v>
       </c>
       <c r="D40" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E40" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F40" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G40" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3">
-        <v>6043109439</v>
+        <v>6444416860</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F41" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G41" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3">
-        <v>6042798294</v>
+        <v>6431653034</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
       </c>
       <c r="D42" s="1">
-        <v>1800</v>
+        <v>80</v>
       </c>
       <c r="E42" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="F42" s="1">
-        <v>2070</v>
+        <v>160</v>
       </c>
       <c r="G42" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3">
-        <v>6043119544</v>
+        <v>6444419875</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10</v>
       </c>
       <c r="D43" s="1">
-        <v>1800</v>
+        <v>80</v>
       </c>
       <c r="E43" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="F43" s="1">
-        <v>2070</v>
+        <v>160</v>
       </c>
       <c r="G43" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3">
-        <v>6053478216</v>
+        <v>6444699280</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
       </c>
       <c r="D44" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E44" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F44" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G44" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3">
-        <v>6042744406</v>
+        <v>6427110682</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F45" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G45" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" s="3">
-        <v>6042481130</v>
+        <v>6444703514</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10</v>
       </c>
       <c r="D46" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E46" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F46" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G46" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B47" s="3">
-        <v>6042481130</v>
+        <v>6444558641</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10</v>
       </c>
       <c r="D47" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E47" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F47" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G47" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B48" s="3">
-        <v>6081450991</v>
+        <v>6444282554</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10</v>
       </c>
       <c r="D48" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E48" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F48" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G48" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B49" s="3">
-        <v>6048432175</v>
+        <v>6437648444</v>
+      </c>
+      <c r="C49" s="1">
+        <v>10</v>
       </c>
       <c r="D49" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E49" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F49" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G49" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B50" s="3">
-        <v>6081452823</v>
+        <v>6444421243</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E50" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F50" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G50" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B51" s="3">
-        <v>5096930010</v>
+        <v>6437952520</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E51" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F51" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G51" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B52" s="3">
-        <v>6043483939</v>
+        <v>6437952491</v>
+      </c>
+      <c r="C52" s="1">
+        <v>11</v>
       </c>
       <c r="D52" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E52" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F52" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G52" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B53" s="3">
-        <v>3680907222</v>
+        <v>6431889035</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10</v>
       </c>
       <c r="D53" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E53" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F53" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G53" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B54" s="3">
-        <v>6042266415</v>
+        <v>6437955110</v>
+      </c>
+      <c r="C54" s="1">
+        <v>11</v>
       </c>
       <c r="D54" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E54" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F54" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G54" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B55" s="3">
-        <v>6042821626</v>
+        <v>6437843739</v>
+      </c>
+      <c r="C55" s="1">
+        <v>10</v>
       </c>
       <c r="D55" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E55" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F55" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G55" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B56" s="3">
-        <v>3677384951</v>
+        <v>6437964077</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10</v>
       </c>
       <c r="D56" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E56" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F56" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G56" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B57" s="3">
-        <v>5086532048</v>
+        <v>6437423553</v>
+      </c>
+      <c r="C57" s="1">
+        <v>11</v>
       </c>
       <c r="D57" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E57" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F57" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G57" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B58" s="3">
-        <v>6044105983</v>
+        <v>6437423605</v>
+      </c>
+      <c r="C58" s="1">
+        <v>10</v>
       </c>
       <c r="D58" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E58" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F58" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G58" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B59" s="3">
-        <v>3676004903</v>
+        <v>6437726886</v>
+      </c>
+      <c r="C59" s="1">
+        <v>10</v>
       </c>
       <c r="D59" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E59" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F59" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G59" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B60" s="3">
-        <v>3674315995</v>
+        <v>6444705106</v>
+      </c>
+      <c r="C60" s="1">
+        <v>11</v>
       </c>
       <c r="D60" s="1">
-        <v>1350</v>
+        <v>80</v>
       </c>
       <c r="E60" s="1">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="F60" s="1">
-        <v>1530</v>
+        <v>160</v>
       </c>
       <c r="G60" s="1">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="3">
+        <v>6633174163</v>
+      </c>
+      <c r="C61" s="1">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1">
+        <v>80</v>
+      </c>
+      <c r="E61" s="1">
+        <v>80</v>
+      </c>
+      <c r="F61" s="1">
+        <v>160</v>
+      </c>
+      <c r="G61" s="1">
+        <v>160</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5308728137</v>
+      </c>
+      <c r="C62" s="1">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
+        <v>80</v>
+      </c>
+      <c r="E62" s="1">
+        <v>80</v>
+      </c>
+      <c r="F62" s="1">
+        <v>160</v>
+      </c>
+      <c r="G62" s="1">
+        <v>160</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="3">
+        <v>3612727685</v>
+      </c>
+      <c r="C63" s="1">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1">
+        <v>80</v>
+      </c>
+      <c r="E63" s="1">
+        <v>80</v>
+      </c>
+      <c r="F63" s="1">
+        <v>160</v>
+      </c>
+      <c r="G63" s="1">
+        <v>160</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5093870575</v>
+      </c>
+      <c r="C64" s="1">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1">
+        <v>80</v>
+      </c>
+      <c r="E64" s="1">
+        <v>80</v>
+      </c>
+      <c r="F64" s="1">
+        <v>160</v>
+      </c>
+      <c r="G64" s="1">
+        <v>160</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="3">
-        <v>3675999661</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1350</v>
-      </c>
-      <c r="E61" s="1">
-        <v>900</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1530</v>
-      </c>
-      <c r="G61" s="1">
-        <v>1080</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>82</v>
+      <c r="B65" s="3">
+        <v>6437538935</v>
+      </c>
+      <c r="C65" s="1">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1">
+        <v>80</v>
+      </c>
+      <c r="E65" s="1">
+        <v>80</v>
+      </c>
+      <c r="F65" s="1">
+        <v>160</v>
+      </c>
+      <c r="G65" s="1">
+        <v>160</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5590083779</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1">
+        <v>80</v>
+      </c>
+      <c r="E66" s="1">
+        <v>80</v>
+      </c>
+      <c r="F66" s="1">
+        <v>160</v>
+      </c>
+      <c r="G66" s="1">
+        <v>160</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="89">
   <si>
     <t>名称</t>
   </si>
@@ -65,214 +65,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影视</t>
-  </si>
-  <si>
     <t>娱乐</t>
   </si>
   <si>
-    <t>影视工匠</t>
-  </si>
-  <si>
-    <t>电影圈小胖</t>
-  </si>
-  <si>
-    <t>电影艺术痴</t>
-  </si>
-  <si>
-    <t>影视新推荐</t>
-  </si>
-  <si>
-    <t>影视圈探秘</t>
-  </si>
-  <si>
-    <t>青春透剧君</t>
-  </si>
-  <si>
-    <t>新剧周刊</t>
-  </si>
-  <si>
-    <t>娱乐追剧酱</t>
-  </si>
-  <si>
-    <t>追剧小事件</t>
-  </si>
-  <si>
-    <t>爱追剧酱</t>
-  </si>
-  <si>
-    <t>新剧继续追</t>
-  </si>
-  <si>
-    <t>乐不索取</t>
-  </si>
-  <si>
-    <t>星星乐剧</t>
-  </si>
-  <si>
-    <t>芒果捞星剧透</t>
-  </si>
-  <si>
-    <t>透剧多多</t>
-  </si>
-  <si>
-    <t>八组电影</t>
-  </si>
-  <si>
-    <t>天天泡剧</t>
-  </si>
-  <si>
-    <t>夜猫的追剧日常 </t>
-  </si>
-  <si>
-    <t>影视剧预告君</t>
-  </si>
-  <si>
-    <t>追剧神吐槽</t>
-  </si>
-  <si>
-    <t>追星酱</t>
-  </si>
-  <si>
-    <t>追剧鲜</t>
-  </si>
-  <si>
-    <t>剧不可待</t>
-  </si>
-  <si>
-    <t>宅剧日常</t>
-  </si>
-  <si>
-    <t>八组追剧少女</t>
-  </si>
-  <si>
-    <t>每日泡剧</t>
-  </si>
-  <si>
-    <t>新剧歇不停</t>
-  </si>
-  <si>
-    <t>娱事剧透</t>
-  </si>
-  <si>
-    <t>追剧爱豆</t>
-  </si>
-  <si>
-    <t>超级范剧</t>
-  </si>
-  <si>
-    <t>娱乐泡剧</t>
-  </si>
-  <si>
-    <t>片花剧集</t>
-  </si>
-  <si>
-    <t>一块去追剧</t>
-  </si>
-  <si>
-    <t>热播剧指南</t>
-  </si>
-  <si>
-    <t>娱乐追剧菌</t>
-  </si>
-  <si>
-    <t>追剧的少哖</t>
-  </si>
-  <si>
-    <t>剧透公子</t>
-  </si>
-  <si>
-    <t>圈姐泡剧</t>
-  </si>
-  <si>
-    <t>八组爱剧透</t>
-  </si>
-  <si>
-    <t>宅剧颂</t>
-  </si>
-  <si>
-    <t>辣椒追剧</t>
-  </si>
-  <si>
-    <t>追剧葛格</t>
-  </si>
-  <si>
-    <t>追剧不孤单</t>
-  </si>
-  <si>
-    <t>片段剧精彩</t>
-  </si>
-  <si>
-    <t>娱乐剧欢乐</t>
-  </si>
-  <si>
-    <t>圈内影视透</t>
-  </si>
-  <si>
-    <t>芒果捞剧好看</t>
-  </si>
-  <si>
-    <t>影视剧八婆</t>
-  </si>
-  <si>
-    <t>追剧的那点事</t>
-  </si>
-  <si>
-    <t>剧透那些事</t>
-  </si>
-  <si>
-    <t>日常追剧推荐</t>
-  </si>
-  <si>
-    <t>追剧的攻略</t>
-  </si>
-  <si>
-    <t>剧不错</t>
-  </si>
-  <si>
-    <t>会火电影</t>
-  </si>
-  <si>
-    <t>剧魅力</t>
-  </si>
-  <si>
-    <t>芒果新剧场</t>
-  </si>
-  <si>
-    <t>星闻探密者</t>
-  </si>
-  <si>
-    <t>追剧壹夏</t>
-  </si>
-  <si>
-    <t>娱乐影视热搜</t>
-  </si>
-  <si>
-    <t>娱乐,影视</t>
-  </si>
-  <si>
-    <t>X1810171551370270</t>
-  </si>
-  <si>
-    <t>剧荒少年</t>
-  </si>
-  <si>
-    <t>网瘾少年的追剧日常</t>
-  </si>
-  <si>
-    <t>娱乐剧探</t>
-  </si>
-  <si>
-    <t>八组追剧君</t>
-  </si>
-  <si>
-    <t>宅剧狂人</t>
-  </si>
-  <si>
-    <t>黄芳</t>
-  </si>
-  <si>
-    <t>X1712181221160001</t>
+    <t>全球精选头条</t>
+  </si>
+  <si>
+    <t>最热门流行榜</t>
+  </si>
+  <si>
+    <t>头条频道</t>
+  </si>
+  <si>
+    <t>热门精选头条</t>
+  </si>
+  <si>
+    <t>最热门娱乐</t>
+  </si>
+  <si>
+    <t>全球微博排行榜</t>
+  </si>
+  <si>
+    <t>头条新闻社</t>
+  </si>
+  <si>
+    <t>热门话题资讯</t>
+  </si>
+  <si>
+    <t>头条新闻视界</t>
+  </si>
+  <si>
+    <t>今日热门头条</t>
+  </si>
+  <si>
+    <t>最热门榜</t>
+  </si>
+  <si>
+    <t>头条新闻频道</t>
+  </si>
+  <si>
+    <t>今日热点搜罗</t>
+  </si>
+  <si>
+    <t>全球资讯圈</t>
+  </si>
+  <si>
+    <t>环球话题推荐</t>
+  </si>
+  <si>
+    <t>最热门新闻</t>
+  </si>
+  <si>
+    <t>今日热点推荐</t>
+  </si>
+  <si>
+    <t>新闻最热点</t>
+  </si>
+  <si>
+    <t>热门微博聚焦</t>
+  </si>
+  <si>
+    <t>环球创意搜罗</t>
+  </si>
+  <si>
+    <t>民声爆料</t>
+  </si>
+  <si>
+    <t>热门焦点</t>
+  </si>
+  <si>
+    <t>今日资讯频道</t>
+  </si>
+  <si>
+    <t>全球头条播报</t>
+  </si>
+  <si>
+    <t>热点推荐榜</t>
+  </si>
+  <si>
+    <t>全球体育新闻主编-KOB</t>
+  </si>
+  <si>
+    <t>体育解说猿</t>
+  </si>
+  <si>
+    <t>主编说车</t>
+  </si>
+  <si>
+    <t>请叫我育儿妈妈</t>
+  </si>
+  <si>
+    <t>船长娱乐</t>
+  </si>
+  <si>
+    <t>娱乐白娘子</t>
+  </si>
+  <si>
+    <t>请叫我资讯君</t>
+  </si>
+  <si>
+    <t>请叫我体育迷</t>
+  </si>
+  <si>
+    <t>成都生活新闻资讯</t>
+  </si>
+  <si>
+    <t>娱乐圈财神爷</t>
+  </si>
+  <si>
+    <t>头条新闻点评猿</t>
+  </si>
+  <si>
+    <t>圈内诸葛亮</t>
+  </si>
+  <si>
+    <t>今日头条说</t>
+  </si>
+  <si>
+    <t>苏州头条大热门</t>
+  </si>
+  <si>
+    <t>武汉头条大热门</t>
+  </si>
+  <si>
+    <t>请叫我重庆君</t>
+  </si>
+  <si>
+    <t>请叫我深圳君</t>
+  </si>
+  <si>
+    <t>南京头条大热门</t>
+  </si>
+  <si>
+    <t>重庆头条大热门</t>
+  </si>
+  <si>
+    <t>娱乐牛人</t>
+  </si>
+  <si>
+    <t>请叫我广州君</t>
+  </si>
+  <si>
+    <t>娱乐圈清流君</t>
+  </si>
+  <si>
+    <t>请叫我娱乐家</t>
+  </si>
+  <si>
+    <t>请叫我家居君</t>
+  </si>
+  <si>
+    <t>大师家居排行榜</t>
+  </si>
+  <si>
+    <t>请叫我生活君</t>
+  </si>
+  <si>
+    <t>段子手微博</t>
+  </si>
+  <si>
+    <t>请叫我笑话君</t>
+  </si>
+  <si>
+    <t>请叫我情感君</t>
+  </si>
+  <si>
+    <t>新车资讯编辑</t>
+  </si>
+  <si>
+    <t>请叫我搞笑幽默君</t>
+  </si>
+  <si>
+    <t>请叫我音乐君</t>
+  </si>
+  <si>
+    <t>我就是头条君</t>
+  </si>
+  <si>
+    <t>新闻资讯</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>地域</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>幽默搞笑</t>
+  </si>
+  <si>
+    <t>情感</t>
+  </si>
+  <si>
+    <t>X1809291106170055</t>
+  </si>
+  <si>
+    <t>X1804041744054374</t>
+  </si>
+  <si>
+    <t>王佳</t>
+  </si>
+  <si>
+    <t>X1712181349070011</t>
+  </si>
+  <si>
+    <t>扒娱姐</t>
+  </si>
+  <si>
+    <t>青岛头条大热门</t>
+  </si>
+  <si>
+    <t>请叫我热搜君</t>
+  </si>
+  <si>
+    <t>娱乐圈评论家</t>
+  </si>
+  <si>
+    <t>长沙头条大热门</t>
+  </si>
+  <si>
+    <t>娱乐小唐唐</t>
   </si>
 </sst>
 </file>
@@ -641,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -704,247 +725,247 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3">
-        <v>3884616198</v>
+        <v>3262546114</v>
       </c>
       <c r="C2" s="1">
-        <v>132</v>
+        <v>169.68629999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E2" s="1">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="F2" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="1">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>2930620831</v>
+        <v>3124379191</v>
       </c>
       <c r="C3" s="1">
-        <v>105</v>
+        <v>159.0137</v>
       </c>
       <c r="D3" s="1">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F3" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="1">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3">
-        <v>2816931680</v>
+        <v>3124386981</v>
       </c>
       <c r="C4" s="1">
-        <v>66</v>
+        <v>176.1344</v>
       </c>
       <c r="D4" s="1">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="G4" s="1">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>3489943080</v>
+        <v>3107795253</v>
       </c>
       <c r="C5" s="1">
-        <v>50</v>
+        <v>169.8201</v>
       </c>
       <c r="D5" s="1">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="G5" s="1">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
-        <v>6025449188</v>
+        <v>2196932955</v>
       </c>
       <c r="C6" s="1">
-        <v>62</v>
+        <v>156.76150000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="G6" s="1">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3">
-        <v>6444699496</v>
+        <v>3125331393</v>
       </c>
       <c r="C7" s="1">
-        <v>35</v>
+        <v>154.83750000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G7" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
-        <v>6437888073</v>
+        <v>3125335161</v>
       </c>
       <c r="C8" s="1">
-        <v>31</v>
+        <v>151.1583</v>
       </c>
       <c r="D8" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G8" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -952,34 +973,34 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>6437421556</v>
+        <v>3109142441</v>
       </c>
       <c r="C9" s="1">
-        <v>30</v>
+        <v>141.88810000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G9" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -987,34 +1008,34 @@
         <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>6437423518</v>
+        <v>3108214911</v>
       </c>
       <c r="C10" s="1">
-        <v>28</v>
+        <v>138.3954</v>
       </c>
       <c r="D10" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G10" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1022,34 +1043,34 @@
         <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>6437726725</v>
+        <v>1864620033</v>
       </c>
       <c r="C11" s="1">
-        <v>28</v>
+        <v>135.05070000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1">
         <v>400</v>
       </c>
       <c r="G11" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1057,34 +1078,34 @@
         <v>23</v>
       </c>
       <c r="B12" s="3">
-        <v>6443063014</v>
+        <v>2893722735</v>
       </c>
       <c r="C12" s="1">
-        <v>28</v>
+        <v>126.8326</v>
       </c>
       <c r="D12" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G12" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1092,34 +1113,34 @@
         <v>24</v>
       </c>
       <c r="B13" s="3">
-        <v>6443357322</v>
+        <v>3219155811</v>
       </c>
       <c r="C13" s="1">
-        <v>26</v>
+        <v>122.83540000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G13" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1127,34 +1148,34 @@
         <v>25</v>
       </c>
       <c r="B14" s="3">
-        <v>6424733318</v>
+        <v>3124361577</v>
       </c>
       <c r="C14" s="1">
-        <v>26</v>
+        <v>121.4671</v>
       </c>
       <c r="D14" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G14" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1162,34 +1183,34 @@
         <v>26</v>
       </c>
       <c r="B15" s="3">
-        <v>6437890616</v>
+        <v>3125331541</v>
       </c>
       <c r="C15" s="1">
-        <v>26</v>
+        <v>120.536</v>
       </c>
       <c r="D15" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1">
+        <v>500</v>
+      </c>
+      <c r="G15" s="1">
         <v>400</v>
       </c>
-      <c r="G15" s="1">
-        <v>240</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1197,769 +1218,769 @@
         <v>27</v>
       </c>
       <c r="B16" s="3">
-        <v>5868330359</v>
+        <v>517896914</v>
       </c>
       <c r="C16" s="1">
-        <v>25</v>
+        <v>120.1083</v>
       </c>
       <c r="D16" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G16" s="1">
-        <v>240</v>
+        <v>1600</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
-        <v>6437887851</v>
+        <v>1608674751</v>
       </c>
       <c r="C17" s="1">
-        <v>24</v>
+        <v>118.40309999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G17" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3">
-        <v>6443609979</v>
+        <v>3108237161</v>
       </c>
       <c r="C18" s="1">
-        <v>23</v>
+        <v>104.746</v>
       </c>
       <c r="D18" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G18" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3">
-        <v>6523231129</v>
+        <v>534527758</v>
       </c>
       <c r="C19" s="1">
-        <v>23</v>
+        <v>103.402</v>
       </c>
       <c r="D19" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1">
         <v>400</v>
       </c>
       <c r="G19" s="1">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>6437582405</v>
+        <v>2706972244</v>
       </c>
       <c r="C20" s="1">
-        <v>22</v>
+        <v>101.3284</v>
       </c>
       <c r="D20" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G20" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>6443062870</v>
+        <v>2710632311</v>
       </c>
       <c r="C21" s="1">
-        <v>22</v>
+        <v>101.0827</v>
       </c>
       <c r="D21" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G21" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3">
-        <v>6444285502</v>
+        <v>2610564391</v>
       </c>
       <c r="C22" s="1">
-        <v>22</v>
+        <v>86.058300000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G22" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3">
-        <v>5304974657</v>
+        <v>2489256703</v>
       </c>
       <c r="C23" s="1">
-        <v>22</v>
+        <v>80.054500000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G23" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3">
-        <v>6437726323</v>
+        <v>5723040974</v>
       </c>
       <c r="C24" s="1">
-        <v>20</v>
+        <v>106.3656</v>
       </c>
       <c r="D24" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="G24" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3">
-        <v>2759588501</v>
+        <v>5723041130</v>
       </c>
       <c r="C25" s="1">
-        <v>15</v>
+        <v>105.65170000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G25" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3">
-        <v>6437601650</v>
+        <v>5723332162</v>
       </c>
       <c r="C26" s="1">
-        <v>15</v>
+        <v>105.40470000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G26" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3">
-        <v>6444421963</v>
+        <v>1068684827</v>
       </c>
       <c r="C27" s="1">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D27" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G27" s="1">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3">
-        <v>6444700311</v>
+        <v>1305668693</v>
       </c>
       <c r="C28" s="1">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D28" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G28" s="1">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3">
-        <v>6444701575</v>
+        <v>1722791403</v>
       </c>
       <c r="C29" s="1">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D29" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G29" s="1">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3">
-        <v>6437650091</v>
+        <v>2487823845</v>
       </c>
       <c r="C30" s="1">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G30" s="1">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3">
-        <v>6437952625</v>
+        <v>2648917767</v>
       </c>
       <c r="C31" s="1">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D31" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G31" s="1">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B32" s="3">
-        <v>6437649317</v>
+        <v>1573925541</v>
       </c>
       <c r="C32" s="1">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D32" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G32" s="1">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3">
-        <v>6444695996</v>
+        <v>1311184994</v>
       </c>
       <c r="C33" s="1">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D33" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G33" s="1">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3">
-        <v>6444279665</v>
+        <v>1598178330</v>
       </c>
       <c r="C34" s="1">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D34" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G34" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="3">
-        <v>6437421686</v>
+        <v>2691920484</v>
       </c>
       <c r="C35" s="1">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="D35" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G35" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="3">
-        <v>6443059448</v>
+        <v>2102610202</v>
       </c>
       <c r="C36" s="1">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D36" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G36" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3">
-        <v>6437423812</v>
+        <v>1276444137</v>
       </c>
       <c r="C37" s="1">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D37" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G37" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1967,209 +1988,209 @@
         <v>47</v>
       </c>
       <c r="B38" s="3">
-        <v>6437950151</v>
+        <v>2127925447</v>
       </c>
       <c r="C38" s="1">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D38" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G38" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3">
-        <v>6444282521</v>
+        <v>2175601821</v>
       </c>
       <c r="C39" s="1">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="D39" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G39" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3">
-        <v>6437601650</v>
+        <v>1276025411</v>
       </c>
       <c r="C40" s="1">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="D40" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G40" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3">
-        <v>6444416860</v>
+        <v>1562263991</v>
       </c>
       <c r="C41" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G41" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B42" s="3">
-        <v>6431653034</v>
+        <v>2185282761</v>
       </c>
       <c r="C42" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D42" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G42" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B43" s="3">
-        <v>6444419875</v>
+        <v>1132598122</v>
       </c>
       <c r="C43" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D43" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G43" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2177,34 +2198,34 @@
         <v>51</v>
       </c>
       <c r="B44" s="3">
-        <v>6444699280</v>
+        <v>1152720980</v>
       </c>
       <c r="C44" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G44" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2212,34 +2233,34 @@
         <v>52</v>
       </c>
       <c r="B45" s="3">
-        <v>6427110682</v>
+        <v>1092858123</v>
       </c>
       <c r="C45" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D45" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G45" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2247,104 +2268,104 @@
         <v>53</v>
       </c>
       <c r="B46" s="3">
-        <v>6444703514</v>
+        <v>1663004533</v>
       </c>
       <c r="C46" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D46" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G46" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B47" s="3">
-        <v>6444558641</v>
+        <v>1242093361</v>
       </c>
       <c r="C47" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D47" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G47" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3">
-        <v>6444282554</v>
+        <v>1661883532</v>
       </c>
       <c r="C48" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D48" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G48" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2352,34 +2373,34 @@
         <v>55</v>
       </c>
       <c r="B49" s="3">
-        <v>6437648444</v>
+        <v>1017388380</v>
       </c>
       <c r="C49" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D49" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G49" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2387,594 +2408,559 @@
         <v>56</v>
       </c>
       <c r="B50" s="3">
-        <v>6444421243</v>
+        <v>1160201920</v>
       </c>
       <c r="C50" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D50" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G50" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B51" s="3">
-        <v>6437952520</v>
+        <v>1599439535</v>
       </c>
       <c r="C51" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D51" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G51" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="3">
-        <v>6437952491</v>
+        <v>1445847354</v>
       </c>
       <c r="C52" s="1">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D52" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G52" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3">
-        <v>6431889035</v>
+        <v>1561629840</v>
       </c>
       <c r="C53" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D53" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G53" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="3">
-        <v>6437955110</v>
+        <v>1162222662</v>
       </c>
       <c r="C54" s="1">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D54" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G54" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="3">
-        <v>6437843739</v>
+        <v>1653355314</v>
       </c>
       <c r="C55" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D55" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="G55" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="3">
-        <v>6437964077</v>
+        <v>5043809469</v>
       </c>
       <c r="C56" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D56" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="G56" s="1">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3">
-        <v>6437423553</v>
+        <v>5041811601</v>
       </c>
       <c r="C57" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D57" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="G57" s="1">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="3">
-        <v>6437423605</v>
+        <v>5043959157</v>
       </c>
       <c r="C58" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="G58" s="1">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="3">
-        <v>6437726886</v>
+        <v>5043030747</v>
       </c>
       <c r="C59" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="G59" s="1">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="3">
-        <v>6444705106</v>
+        <v>3937508045</v>
       </c>
       <c r="C60" s="1">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="G60" s="1">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="3">
-        <v>6633174163</v>
+        <v>5044719010</v>
       </c>
       <c r="C61" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D61" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="G61" s="1">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="3">
-        <v>5308728137</v>
+        <v>5044654888</v>
       </c>
       <c r="C62" s="1">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D62" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="G62" s="1">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="3">
-        <v>3612727685</v>
+        <v>3933839796</v>
       </c>
       <c r="C63" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D63" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="G63" s="1">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="3">
-        <v>5093870575</v>
+        <v>3941771713</v>
       </c>
       <c r="C64" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D64" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="G64" s="1">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3943149172</v>
+      </c>
+      <c r="C65" s="1">
+        <v>100</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="3">
-        <v>6437538935</v>
-      </c>
-      <c r="C65" s="1">
-        <v>10</v>
-      </c>
-      <c r="D65" s="1">
-        <v>80</v>
-      </c>
-      <c r="E65" s="1">
-        <v>80</v>
-      </c>
-      <c r="F65" s="1">
-        <v>160</v>
-      </c>
-      <c r="G65" s="1">
-        <v>160</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J65" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="3">
-        <v>5590083779</v>
-      </c>
-      <c r="C66" s="1">
-        <v>10</v>
-      </c>
-      <c r="D66" s="1">
-        <v>80</v>
-      </c>
-      <c r="E66" s="1">
-        <v>80</v>
-      </c>
-      <c r="F66" s="1">
-        <v>160</v>
-      </c>
-      <c r="G66" s="1">
-        <v>160</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="116">
   <si>
     <t>名称</t>
   </si>
@@ -68,232 +68,313 @@
     <t>娱乐</t>
   </si>
   <si>
-    <t>全球精选头条</t>
-  </si>
-  <si>
-    <t>最热门流行榜</t>
-  </si>
-  <si>
-    <t>头条频道</t>
-  </si>
-  <si>
-    <t>热门精选头条</t>
-  </si>
-  <si>
-    <t>最热门娱乐</t>
-  </si>
-  <si>
-    <t>全球微博排行榜</t>
-  </si>
-  <si>
-    <t>头条新闻社</t>
-  </si>
-  <si>
-    <t>热门话题资讯</t>
-  </si>
-  <si>
-    <t>头条新闻视界</t>
-  </si>
-  <si>
-    <t>今日热门头条</t>
-  </si>
-  <si>
-    <t>最热门榜</t>
-  </si>
-  <si>
-    <t>头条新闻频道</t>
-  </si>
-  <si>
-    <t>今日热点搜罗</t>
-  </si>
-  <si>
-    <t>全球资讯圈</t>
-  </si>
-  <si>
-    <t>环球话题推荐</t>
-  </si>
-  <si>
-    <t>最热门新闻</t>
-  </si>
-  <si>
-    <t>今日热点推荐</t>
-  </si>
-  <si>
-    <t>新闻最热点</t>
-  </si>
-  <si>
-    <t>热门微博聚焦</t>
-  </si>
-  <si>
-    <t>环球创意搜罗</t>
-  </si>
-  <si>
-    <t>民声爆料</t>
-  </si>
-  <si>
-    <t>热门焦点</t>
-  </si>
-  <si>
-    <t>今日资讯频道</t>
-  </si>
-  <si>
-    <t>全球头条播报</t>
-  </si>
-  <si>
-    <t>热点推荐榜</t>
-  </si>
-  <si>
-    <t>全球体育新闻主编-KOB</t>
-  </si>
-  <si>
-    <t>体育解说猿</t>
-  </si>
-  <si>
-    <t>主编说车</t>
-  </si>
-  <si>
-    <t>请叫我育儿妈妈</t>
-  </si>
-  <si>
-    <t>船长娱乐</t>
-  </si>
-  <si>
-    <t>娱乐白娘子</t>
-  </si>
-  <si>
-    <t>请叫我资讯君</t>
-  </si>
-  <si>
-    <t>请叫我体育迷</t>
-  </si>
-  <si>
-    <t>成都生活新闻资讯</t>
-  </si>
-  <si>
-    <t>娱乐圈财神爷</t>
-  </si>
-  <si>
-    <t>头条新闻点评猿</t>
-  </si>
-  <si>
-    <t>圈内诸葛亮</t>
-  </si>
-  <si>
-    <t>今日头条说</t>
-  </si>
-  <si>
-    <t>苏州头条大热门</t>
-  </si>
-  <si>
-    <t>武汉头条大热门</t>
-  </si>
-  <si>
-    <t>请叫我重庆君</t>
-  </si>
-  <si>
-    <t>请叫我深圳君</t>
-  </si>
-  <si>
-    <t>南京头条大热门</t>
-  </si>
-  <si>
-    <t>重庆头条大热门</t>
-  </si>
-  <si>
-    <t>娱乐牛人</t>
-  </si>
-  <si>
-    <t>请叫我广州君</t>
-  </si>
-  <si>
-    <t>娱乐圈清流君</t>
-  </si>
-  <si>
-    <t>请叫我娱乐家</t>
-  </si>
-  <si>
-    <t>请叫我家居君</t>
-  </si>
-  <si>
-    <t>大师家居排行榜</t>
-  </si>
-  <si>
-    <t>请叫我生活君</t>
-  </si>
-  <si>
-    <t>段子手微博</t>
-  </si>
-  <si>
-    <t>请叫我笑话君</t>
-  </si>
-  <si>
-    <t>请叫我情感君</t>
-  </si>
-  <si>
-    <t>新车资讯编辑</t>
-  </si>
-  <si>
-    <t>请叫我搞笑幽默君</t>
-  </si>
-  <si>
-    <t>请叫我音乐君</t>
-  </si>
-  <si>
-    <t>我就是头条君</t>
-  </si>
-  <si>
-    <t>新闻资讯</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>母婴</t>
-  </si>
-  <si>
-    <t>地域</t>
-  </si>
-  <si>
-    <t>生活</t>
-  </si>
-  <si>
-    <t>幽默搞笑</t>
-  </si>
-  <si>
-    <t>情感</t>
-  </si>
-  <si>
-    <t>X1809291106170055</t>
-  </si>
-  <si>
-    <t>X1804041744054374</t>
-  </si>
-  <si>
-    <t>王佳</t>
-  </si>
-  <si>
-    <t>X1712181349070011</t>
-  </si>
-  <si>
-    <t>扒娱姐</t>
-  </si>
-  <si>
-    <t>青岛头条大热门</t>
-  </si>
-  <si>
-    <t>请叫我热搜君</t>
-  </si>
-  <si>
-    <t>娱乐圈评论家</t>
-  </si>
-  <si>
-    <t>长沙头条大热门</t>
-  </si>
-  <si>
-    <t>娱乐小唐唐</t>
+    <t>娱闻记</t>
+  </si>
+  <si>
+    <t>这八卦太劲爆了</t>
+  </si>
+  <si>
+    <t>娱乐少先队</t>
+  </si>
+  <si>
+    <t>娱圈扒姐</t>
+  </si>
+  <si>
+    <t>东邪西娱</t>
+  </si>
+  <si>
+    <t>扒父</t>
+  </si>
+  <si>
+    <t>热剧君</t>
+  </si>
+  <si>
+    <t>剧荒杀手</t>
+  </si>
+  <si>
+    <t>热剧追捕</t>
+  </si>
+  <si>
+    <t>八剧君</t>
+  </si>
+  <si>
+    <t>新剧快递员</t>
+  </si>
+  <si>
+    <t>少女追剧吐槽日常</t>
+  </si>
+  <si>
+    <t>潮JPG</t>
+  </si>
+  <si>
+    <t>迷妹的时尚日常</t>
+  </si>
+  <si>
+    <t>美妆时尚大咖</t>
+  </si>
+  <si>
+    <t>时尚教父mark</t>
+  </si>
+  <si>
+    <t>娱乐圈吃瓜小仙女</t>
+  </si>
+  <si>
+    <t>Fashion情报社</t>
+  </si>
+  <si>
+    <t>潮范生活</t>
+  </si>
+  <si>
+    <t>明星街拍馆长</t>
+  </si>
+  <si>
+    <t>品搭师</t>
+  </si>
+  <si>
+    <t>值得推荐的一部电影</t>
+  </si>
+  <si>
+    <t>娱扒刊</t>
+  </si>
+  <si>
+    <t>综艺界</t>
+  </si>
+  <si>
+    <t>星闻局</t>
+  </si>
+  <si>
+    <t>一部好剧</t>
+  </si>
+  <si>
+    <t>娱圈最有料</t>
+  </si>
+  <si>
+    <t>扒卦圈</t>
+  </si>
+  <si>
+    <t>音悦刊</t>
+  </si>
+  <si>
+    <t>娱唠叨</t>
+  </si>
+  <si>
+    <t>预告菌</t>
+  </si>
+  <si>
+    <t>看点料</t>
+  </si>
+  <si>
+    <t>这太潮了</t>
+  </si>
+  <si>
+    <t>时尚闻记</t>
+  </si>
+  <si>
+    <t>时尚特辑</t>
+  </si>
+  <si>
+    <t>新剧ob</t>
+  </si>
+  <si>
+    <t>热影指南</t>
+  </si>
+  <si>
+    <t>娱大V</t>
+  </si>
+  <si>
+    <t>娱圈小学弟</t>
+  </si>
+  <si>
+    <t>娱圈红人</t>
+  </si>
+  <si>
+    <t>吃瓜少年的八卦日常</t>
+  </si>
+  <si>
+    <t>娱圈爆料君</t>
+  </si>
+  <si>
+    <t>要扒请深扒</t>
+  </si>
+  <si>
+    <t>星扒妹</t>
+  </si>
+  <si>
+    <t>娱圈女神</t>
+  </si>
+  <si>
+    <t>明星圈内事儿</t>
+  </si>
+  <si>
+    <t>影圈大咖</t>
+  </si>
+  <si>
+    <t>影视电影资讯</t>
+  </si>
+  <si>
+    <t>热电影推荐</t>
+  </si>
+  <si>
+    <t>综艺有点料</t>
+  </si>
+  <si>
+    <t>吃瓜Mark</t>
+  </si>
+  <si>
+    <t>娱乐圈没有瓜</t>
+  </si>
+  <si>
+    <t>娱记人</t>
+  </si>
+  <si>
+    <t>老阿姨的追剧吃瓜日常</t>
+  </si>
+  <si>
+    <t>八卦有瓜吃</t>
+  </si>
+  <si>
+    <t>你们太八卦了</t>
+  </si>
+  <si>
+    <t>娱圈壹姐</t>
+  </si>
+  <si>
+    <t>娱乐圈吃瓜少年</t>
+  </si>
+  <si>
+    <t>娱圈有料</t>
+  </si>
+  <si>
+    <t>娱圈博主</t>
+  </si>
+  <si>
+    <t>吃瓜扒姐</t>
+  </si>
+  <si>
+    <t>Fashion娱乐</t>
+  </si>
+  <si>
+    <t>综艺扒爷</t>
+  </si>
+  <si>
+    <t>八卦话</t>
+  </si>
+  <si>
+    <t>扒剧说</t>
+  </si>
+  <si>
+    <t>网瘾少年的吃瓜日常</t>
+  </si>
+  <si>
+    <t>明星探班社</t>
+  </si>
+  <si>
+    <t>老阿姨的吃瓜日常</t>
+  </si>
+  <si>
+    <t>老阿姨扒剧日常</t>
+  </si>
+  <si>
+    <t>老阿姨带你追剧</t>
+  </si>
+  <si>
+    <t>新剧情报员</t>
+  </si>
+  <si>
+    <t>这剧太好看了</t>
+  </si>
+  <si>
+    <t>娱乐星闻社</t>
+  </si>
+  <si>
+    <t>东娱西邪</t>
+  </si>
+  <si>
+    <t>壹周猫眼娱乐</t>
+  </si>
+  <si>
+    <t>娱乐情爆社</t>
+  </si>
+  <si>
+    <t>扒娱社</t>
+  </si>
+  <si>
+    <t>FBI娱情局</t>
+  </si>
+  <si>
+    <t>不二娱叔</t>
+  </si>
+  <si>
+    <t>娱乐都统</t>
+  </si>
+  <si>
+    <t>娱乐上校</t>
+  </si>
+  <si>
+    <t>大概八点发</t>
+  </si>
+  <si>
+    <t>papi娱乐</t>
+  </si>
+  <si>
+    <t>娱乐综艺教父</t>
+  </si>
+  <si>
+    <t>娱评局</t>
+  </si>
+  <si>
+    <t>不知名娱乐评论人</t>
+  </si>
+  <si>
+    <t>天眼娱乐</t>
+  </si>
+  <si>
+    <t>情报剧</t>
+  </si>
+  <si>
+    <t>剧荒女生</t>
+  </si>
+  <si>
+    <t>吃瓜少女的追剧日常</t>
+  </si>
+  <si>
+    <t>泡面下剧</t>
+  </si>
+  <si>
+    <t>老阿姨陪你追剧</t>
+  </si>
+  <si>
+    <t>追剧红人</t>
+  </si>
+  <si>
+    <t>剧荒酱</t>
+  </si>
+  <si>
+    <t>这剧Pick一下</t>
+  </si>
+  <si>
+    <t>追剧侦探社</t>
+  </si>
+  <si>
+    <t>热剧王</t>
+  </si>
+  <si>
+    <t>热剧通缉</t>
+  </si>
+  <si>
+    <t>影视</t>
+  </si>
+  <si>
+    <t>女性时尚</t>
+  </si>
+  <si>
+    <t>X1811151628187468</t>
+  </si>
+  <si>
+    <t>黄芳</t>
+  </si>
+  <si>
+    <t>X1712181221160001</t>
   </si>
 </sst>
 </file>
@@ -662,11 +743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -728,10 +809,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3">
-        <v>3262546114</v>
-      </c>
-      <c r="C2" s="1">
-        <v>169.68629999999999</v>
+        <v>1422595970</v>
       </c>
       <c r="D2" s="1">
         <v>200</v>
@@ -740,22 +818,22 @@
         <v>200</v>
       </c>
       <c r="F2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -763,10 +841,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>3124379191</v>
-      </c>
-      <c r="C3" s="1">
-        <v>159.0137</v>
+        <v>2493344264</v>
       </c>
       <c r="D3" s="1">
         <v>200</v>
@@ -775,22 +850,22 @@
         <v>200</v>
       </c>
       <c r="F3" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -798,34 +873,31 @@
         <v>15</v>
       </c>
       <c r="B4" s="3">
-        <v>3124386981</v>
-      </c>
-      <c r="C4" s="1">
-        <v>176.1344</v>
+        <v>2410215354</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F4" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -833,34 +905,31 @@
         <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>3107795253</v>
-      </c>
-      <c r="C5" s="1">
-        <v>169.8201</v>
+        <v>1361244121</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -868,34 +937,31 @@
         <v>17</v>
       </c>
       <c r="B6" s="3">
-        <v>2196932955</v>
-      </c>
-      <c r="C6" s="1">
-        <v>156.76150000000001</v>
+        <v>1293246540</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -903,34 +969,31 @@
         <v>18</v>
       </c>
       <c r="B7" s="3">
-        <v>3125331393</v>
-      </c>
-      <c r="C7" s="1">
-        <v>154.83750000000001</v>
+        <v>2230755857</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -938,34 +1001,31 @@
         <v>19</v>
       </c>
       <c r="B8" s="3">
-        <v>3125335161</v>
-      </c>
-      <c r="C8" s="1">
-        <v>151.1583</v>
+        <v>1463099637</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -973,34 +1033,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>3109142441</v>
-      </c>
-      <c r="C9" s="1">
-        <v>141.88810000000001</v>
+        <v>1158205155</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1008,34 +1065,31 @@
         <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>3108214911</v>
-      </c>
-      <c r="C10" s="1">
-        <v>138.3954</v>
+        <v>2461685194</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1043,34 +1097,31 @@
         <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>1864620033</v>
-      </c>
-      <c r="C11" s="1">
-        <v>135.05070000000001</v>
+        <v>2392009802</v>
       </c>
       <c r="D11" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E11" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F11" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1078,34 +1129,31 @@
         <v>23</v>
       </c>
       <c r="B12" s="3">
-        <v>2893722735</v>
-      </c>
-      <c r="C12" s="1">
-        <v>126.8326</v>
+        <v>2439235322</v>
       </c>
       <c r="D12" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F12" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1113,34 +1161,31 @@
         <v>24</v>
       </c>
       <c r="B13" s="3">
-        <v>3219155811</v>
-      </c>
-      <c r="C13" s="1">
-        <v>122.83540000000001</v>
+        <v>2231764352</v>
       </c>
       <c r="D13" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F13" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1148,34 +1193,31 @@
         <v>25</v>
       </c>
       <c r="B14" s="3">
-        <v>3124361577</v>
-      </c>
-      <c r="C14" s="1">
-        <v>121.4671</v>
+        <v>1176267011</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E14" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F14" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1183,34 +1225,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="3">
-        <v>3125331541</v>
-      </c>
-      <c r="C15" s="1">
-        <v>120.536</v>
+        <v>1144309661</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1218,34 +1257,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="3">
-        <v>517896914</v>
-      </c>
-      <c r="C16" s="1">
-        <v>120.1083</v>
+        <v>2465035250</v>
       </c>
       <c r="D16" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F16" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1253,34 +1289,31 @@
         <v>28</v>
       </c>
       <c r="B17" s="3">
-        <v>1608674751</v>
-      </c>
-      <c r="C17" s="1">
-        <v>118.40309999999999</v>
+        <v>2391945312</v>
       </c>
       <c r="D17" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1288,34 +1321,31 @@
         <v>29</v>
       </c>
       <c r="B18" s="3">
-        <v>3108237161</v>
-      </c>
-      <c r="C18" s="1">
-        <v>104.746</v>
+        <v>2552109130</v>
       </c>
       <c r="D18" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F18" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1323,34 +1353,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="3">
-        <v>534527758</v>
-      </c>
-      <c r="C19" s="1">
-        <v>103.402</v>
+        <v>1320266963</v>
       </c>
       <c r="D19" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E19" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F19" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1358,34 +1385,31 @@
         <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>2706972244</v>
-      </c>
-      <c r="C20" s="1">
-        <v>101.3284</v>
+        <v>1281943747</v>
       </c>
       <c r="D20" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F20" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1393,34 +1417,31 @@
         <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>2710632311</v>
-      </c>
-      <c r="C21" s="1">
-        <v>101.0827</v>
+        <v>1223402855</v>
       </c>
       <c r="D21" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E21" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1428,34 +1449,31 @@
         <v>33</v>
       </c>
       <c r="B22" s="3">
-        <v>2610564391</v>
-      </c>
-      <c r="C22" s="1">
-        <v>86.058300000000003</v>
+        <v>1156054853</v>
       </c>
       <c r="D22" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1463,34 +1481,31 @@
         <v>34</v>
       </c>
       <c r="B23" s="3">
-        <v>2489256703</v>
-      </c>
-      <c r="C23" s="1">
-        <v>80.054500000000004</v>
+        <v>1254896512</v>
       </c>
       <c r="D23" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F23" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,34 +1513,31 @@
         <v>35</v>
       </c>
       <c r="B24" s="3">
-        <v>5723040974</v>
-      </c>
-      <c r="C24" s="1">
-        <v>106.3656</v>
+        <v>6740961596</v>
       </c>
       <c r="D24" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F24" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1533,34 +1545,31 @@
         <v>36</v>
       </c>
       <c r="B25" s="3">
-        <v>5723041130</v>
-      </c>
-      <c r="C25" s="1">
-        <v>105.65170000000001</v>
+        <v>6741944778</v>
       </c>
       <c r="D25" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E25" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F25" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1568,34 +1577,31 @@
         <v>37</v>
       </c>
       <c r="B26" s="3">
-        <v>5723332162</v>
-      </c>
-      <c r="C26" s="1">
-        <v>105.40470000000001</v>
+        <v>6741985456</v>
       </c>
       <c r="D26" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F26" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1603,34 +1609,31 @@
         <v>38</v>
       </c>
       <c r="B27" s="3">
-        <v>1068684827</v>
-      </c>
-      <c r="C27" s="1">
-        <v>200</v>
+        <v>6742023728</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F27" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1638,34 +1641,31 @@
         <v>39</v>
       </c>
       <c r="B28" s="3">
-        <v>1305668693</v>
-      </c>
-      <c r="C28" s="1">
-        <v>200</v>
+        <v>6739970389</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F28" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1673,34 +1673,31 @@
         <v>40</v>
       </c>
       <c r="B29" s="3">
-        <v>1722791403</v>
-      </c>
-      <c r="C29" s="1">
-        <v>200</v>
+        <v>6740929016</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F29" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1708,34 +1705,31 @@
         <v>41</v>
       </c>
       <c r="B30" s="3">
-        <v>2487823845</v>
-      </c>
-      <c r="C30" s="1">
-        <v>200</v>
+        <v>6754237926</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F30" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1743,1224 +1737,2207 @@
         <v>42</v>
       </c>
       <c r="B31" s="3">
-        <v>2648917767</v>
-      </c>
-      <c r="C31" s="1">
-        <v>200</v>
+        <v>6753317780</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F31" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3">
-        <v>1573925541</v>
-      </c>
-      <c r="C32" s="1">
-        <v>200</v>
+        <v>5539927075</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3">
-        <v>1311184994</v>
-      </c>
-      <c r="C33" s="1">
-        <v>200</v>
+        <v>5977305346</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F33" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3">
-        <v>1598178330</v>
-      </c>
-      <c r="C34" s="1">
-        <v>200</v>
+        <v>5977621508</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F34" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3">
-        <v>2691920484</v>
-      </c>
-      <c r="C35" s="1">
-        <v>200</v>
+        <v>6044800179</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F35" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3">
-        <v>2102610202</v>
-      </c>
-      <c r="C36" s="1">
-        <v>200</v>
+        <v>6045874552</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F36" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3">
-        <v>1276444137</v>
-      </c>
-      <c r="C37" s="1">
-        <v>200</v>
+        <v>6439425173</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F37" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="3">
-        <v>2127925447</v>
-      </c>
-      <c r="C38" s="1">
-        <v>200</v>
+        <v>6444574509</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F38" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3">
-        <v>2175601821</v>
-      </c>
-      <c r="C39" s="1">
-        <v>200</v>
+        <v>2440280470</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F39" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3">
-        <v>1276025411</v>
-      </c>
-      <c r="C40" s="1">
-        <v>200</v>
+        <v>2108171961</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F40" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3">
-        <v>1562263991</v>
-      </c>
-      <c r="C41" s="1">
-        <v>200</v>
+        <v>2447880894</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3">
-        <v>2185282761</v>
-      </c>
-      <c r="C42" s="1">
-        <v>200</v>
+        <v>2095513147</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F42" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B43" s="3">
-        <v>1132598122</v>
-      </c>
-      <c r="C43" s="1">
-        <v>200</v>
+        <v>2439008190</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F43" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B44" s="3">
-        <v>1152720980</v>
-      </c>
-      <c r="C44" s="1">
-        <v>200</v>
+        <v>2447891464</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F44" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B45" s="3">
-        <v>1092858123</v>
-      </c>
-      <c r="C45" s="1">
-        <v>200</v>
+        <v>2244701034</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F45" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3">
-        <v>1663004533</v>
-      </c>
-      <c r="C46" s="1">
-        <v>200</v>
+        <v>2392001612</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B47" s="3">
-        <v>1242093361</v>
-      </c>
-      <c r="C47" s="1">
-        <v>200</v>
+        <v>2426750454</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F47" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B48" s="3">
-        <v>1661883532</v>
-      </c>
-      <c r="C48" s="1">
-        <v>200</v>
+        <v>2448428594</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F48" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B49" s="3">
-        <v>1017388380</v>
-      </c>
-      <c r="C49" s="1">
-        <v>200</v>
+        <v>1240174221</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F49" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B50" s="3">
-        <v>1160201920</v>
-      </c>
-      <c r="C50" s="1">
-        <v>200</v>
+        <v>1255797612</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F50" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3">
-        <v>1599439535</v>
-      </c>
-      <c r="C51" s="1">
-        <v>200</v>
+        <v>5107667587</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F51" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B52" s="3">
-        <v>1445847354</v>
-      </c>
-      <c r="C52" s="1">
-        <v>200</v>
+        <v>5103391629</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F52" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B53" s="3">
-        <v>1561629840</v>
-      </c>
-      <c r="C53" s="1">
-        <v>200</v>
+        <v>5107660526</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F53" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B54" s="3">
-        <v>1162222662</v>
-      </c>
-      <c r="C54" s="1">
-        <v>200</v>
+        <v>5042964228</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F54" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B55" s="3">
-        <v>1653355314</v>
-      </c>
-      <c r="C55" s="1">
-        <v>200</v>
+        <v>5102507085</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F55" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B56" s="3">
-        <v>5043809469</v>
-      </c>
-      <c r="C56" s="1">
-        <v>100</v>
+        <v>5103384505</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F56" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B57" s="3">
-        <v>5041811601</v>
-      </c>
-      <c r="C57" s="1">
-        <v>100</v>
+        <v>5107673125</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B58" s="3">
-        <v>5043959157</v>
-      </c>
-      <c r="C58" s="1">
-        <v>100</v>
+        <v>5325213498</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F58" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B59" s="3">
-        <v>5043030747</v>
-      </c>
-      <c r="C59" s="1">
-        <v>100</v>
+        <v>5104948830</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F59" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B60" s="3">
-        <v>3937508045</v>
-      </c>
-      <c r="C60" s="1">
-        <v>100</v>
+        <v>5107646802</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F60" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B61" s="3">
-        <v>5044719010</v>
-      </c>
-      <c r="C61" s="1">
-        <v>100</v>
+        <v>5044651241</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B62" s="3">
-        <v>5044654888</v>
-      </c>
-      <c r="C62" s="1">
-        <v>100</v>
+        <v>5044656389</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F62" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B63" s="3">
-        <v>3933839796</v>
-      </c>
-      <c r="C63" s="1">
-        <v>100</v>
+        <v>5107643740</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F63" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B64" s="3">
-        <v>3941771713</v>
-      </c>
-      <c r="C64" s="1">
-        <v>100</v>
+        <v>5043862913</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F64" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B65" s="3">
-        <v>3943149172</v>
-      </c>
-      <c r="C65" s="1">
+        <v>5043857925</v>
+      </c>
+      <c r="D65" s="1">
+        <v>200</v>
+      </c>
+      <c r="E65" s="1">
+        <v>200</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5042463789</v>
+      </c>
+      <c r="D66" s="1">
+        <v>200</v>
+      </c>
+      <c r="E66" s="1">
+        <v>200</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="3">
+        <v>5042980444</v>
+      </c>
+      <c r="D67" s="1">
+        <v>200</v>
+      </c>
+      <c r="E67" s="1">
+        <v>200</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="3">
+        <v>5331182453</v>
+      </c>
+      <c r="D68" s="1">
+        <v>200</v>
+      </c>
+      <c r="E68" s="1">
+        <v>200</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="3">
+        <v>5165316349</v>
+      </c>
+      <c r="D69" s="1">
+        <v>200</v>
+      </c>
+      <c r="E69" s="1">
+        <v>200</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="3">
+        <v>5325233245</v>
+      </c>
+      <c r="D70" s="1">
+        <v>200</v>
+      </c>
+      <c r="E70" s="1">
+        <v>200</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="3">
+        <v>5320274555</v>
+      </c>
+      <c r="D71" s="1">
+        <v>200</v>
+      </c>
+      <c r="E71" s="1">
+        <v>200</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5320043666</v>
+      </c>
+      <c r="D72" s="1">
+        <v>200</v>
+      </c>
+      <c r="E72" s="1">
+        <v>200</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5046424817</v>
+      </c>
+      <c r="D73" s="1">
+        <v>200</v>
+      </c>
+      <c r="E73" s="1">
+        <v>200</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="3">
+        <v>5329099796</v>
+      </c>
+      <c r="D74" s="1">
+        <v>200</v>
+      </c>
+      <c r="E74" s="1">
+        <v>200</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="3">
+        <v>5326788830</v>
+      </c>
+      <c r="D75" s="1">
+        <v>200</v>
+      </c>
+      <c r="E75" s="1">
+        <v>200</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="3">
+        <v>5331988254</v>
+      </c>
+      <c r="D76" s="1">
+        <v>200</v>
+      </c>
+      <c r="E76" s="1">
+        <v>200</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="3">
+        <v>5312326984</v>
+      </c>
+      <c r="D77" s="1">
+        <v>200</v>
+      </c>
+      <c r="E77" s="1">
+        <v>200</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="3">
+        <v>5327591523</v>
+      </c>
+      <c r="D78" s="1">
+        <v>200</v>
+      </c>
+      <c r="E78" s="1">
+        <v>200</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="3">
+        <v>5335518235</v>
+      </c>
+      <c r="D79" s="1">
+        <v>200</v>
+      </c>
+      <c r="E79" s="1">
+        <v>200</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5324248980</v>
+      </c>
+      <c r="D80" s="1">
+        <v>200</v>
+      </c>
+      <c r="E80" s="1">
+        <v>200</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5328651602</v>
+      </c>
+      <c r="D81" s="1">
+        <v>200</v>
+      </c>
+      <c r="E81" s="1">
+        <v>200</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="3">
+        <v>5328944255</v>
+      </c>
+      <c r="D82" s="1">
+        <v>200</v>
+      </c>
+      <c r="E82" s="1">
+        <v>200</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="3">
+        <v>5331210202</v>
+      </c>
+      <c r="D83" s="1">
+        <v>200</v>
+      </c>
+      <c r="E83" s="1">
+        <v>200</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="3">
+        <v>5327769125</v>
+      </c>
+      <c r="D84" s="1">
+        <v>200</v>
+      </c>
+      <c r="E84" s="1">
+        <v>200</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="3">
+        <v>5326539224</v>
+      </c>
+      <c r="D85" s="1">
+        <v>200</v>
+      </c>
+      <c r="E85" s="1">
+        <v>200</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="3">
+        <v>5328912283</v>
+      </c>
+      <c r="D86" s="1">
+        <v>200</v>
+      </c>
+      <c r="E86" s="1">
+        <v>200</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5329220719</v>
+      </c>
+      <c r="D87" s="1">
+        <v>200</v>
+      </c>
+      <c r="E87" s="1">
+        <v>200</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="3">
+        <v>5327722434</v>
+      </c>
+      <c r="D88" s="1">
+        <v>200</v>
+      </c>
+      <c r="E88" s="1">
+        <v>200</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1100</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>82</v>
+      <c r="B89" s="3">
+        <v>5042447388</v>
+      </c>
+      <c r="D89" s="1">
+        <v>200</v>
+      </c>
+      <c r="E89" s="1">
+        <v>200</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5104940048</v>
+      </c>
+      <c r="D90" s="1">
+        <v>200</v>
+      </c>
+      <c r="E90" s="1">
+        <v>200</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="3">
+        <v>5104938950</v>
+      </c>
+      <c r="D91" s="1">
+        <v>200</v>
+      </c>
+      <c r="E91" s="1">
+        <v>200</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="3">
+        <v>5104938233</v>
+      </c>
+      <c r="D92" s="1">
+        <v>200</v>
+      </c>
+      <c r="E92" s="1">
+        <v>200</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="3">
+        <v>5107648073</v>
+      </c>
+      <c r="D93" s="1">
+        <v>200</v>
+      </c>
+      <c r="E93" s="1">
+        <v>200</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="3">
+        <v>5043840623</v>
+      </c>
+      <c r="D94" s="1">
+        <v>200</v>
+      </c>
+      <c r="E94" s="1">
+        <v>200</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="3">
+        <v>5042447820</v>
+      </c>
+      <c r="D95" s="1">
+        <v>200</v>
+      </c>
+      <c r="E95" s="1">
+        <v>200</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="3">
+        <v>5044654738</v>
+      </c>
+      <c r="D96" s="1">
+        <v>200</v>
+      </c>
+      <c r="E96" s="1">
+        <v>200</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5042478308</v>
+      </c>
+      <c r="D97" s="1">
+        <v>200</v>
+      </c>
+      <c r="E97" s="1">
+        <v>200</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="3">
+        <v>5042478130</v>
+      </c>
+      <c r="D98" s="1">
+        <v>200</v>
+      </c>
+      <c r="E98" s="1">
+        <v>200</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="3">
+        <v>5103362532</v>
+      </c>
+      <c r="D99" s="1">
+        <v>200</v>
+      </c>
+      <c r="E99" s="1">
+        <v>200</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="144">
   <si>
     <t>名称</t>
   </si>
@@ -68,313 +68,397 @@
     <t>娱乐</t>
   </si>
   <si>
-    <t>娱闻记</t>
-  </si>
-  <si>
-    <t>这八卦太劲爆了</t>
-  </si>
-  <si>
-    <t>娱乐少先队</t>
-  </si>
-  <si>
-    <t>娱圈扒姐</t>
-  </si>
-  <si>
-    <t>东邪西娱</t>
-  </si>
-  <si>
-    <t>扒父</t>
-  </si>
-  <si>
-    <t>热剧君</t>
-  </si>
-  <si>
-    <t>剧荒杀手</t>
-  </si>
-  <si>
-    <t>热剧追捕</t>
-  </si>
-  <si>
-    <t>八剧君</t>
-  </si>
-  <si>
-    <t>新剧快递员</t>
-  </si>
-  <si>
-    <t>少女追剧吐槽日常</t>
-  </si>
-  <si>
-    <t>潮JPG</t>
-  </si>
-  <si>
-    <t>迷妹的时尚日常</t>
-  </si>
-  <si>
-    <t>美妆时尚大咖</t>
-  </si>
-  <si>
-    <t>时尚教父mark</t>
-  </si>
-  <si>
-    <t>娱乐圈吃瓜小仙女</t>
-  </si>
-  <si>
-    <t>Fashion情报社</t>
-  </si>
-  <si>
-    <t>潮范生活</t>
-  </si>
-  <si>
-    <t>明星街拍馆长</t>
-  </si>
-  <si>
-    <t>品搭师</t>
-  </si>
-  <si>
-    <t>值得推荐的一部电影</t>
-  </si>
-  <si>
-    <t>娱扒刊</t>
-  </si>
-  <si>
-    <t>综艺界</t>
-  </si>
-  <si>
-    <t>星闻局</t>
-  </si>
-  <si>
-    <t>一部好剧</t>
-  </si>
-  <si>
-    <t>娱圈最有料</t>
-  </si>
-  <si>
-    <t>扒卦圈</t>
-  </si>
-  <si>
-    <t>音悦刊</t>
-  </si>
-  <si>
-    <t>娱唠叨</t>
-  </si>
-  <si>
-    <t>预告菌</t>
-  </si>
-  <si>
-    <t>看点料</t>
-  </si>
-  <si>
-    <t>这太潮了</t>
-  </si>
-  <si>
-    <t>时尚闻记</t>
-  </si>
-  <si>
-    <t>时尚特辑</t>
-  </si>
-  <si>
-    <t>新剧ob</t>
-  </si>
-  <si>
-    <t>热影指南</t>
-  </si>
-  <si>
-    <t>娱大V</t>
-  </si>
-  <si>
-    <t>娱圈小学弟</t>
-  </si>
-  <si>
-    <t>娱圈红人</t>
-  </si>
-  <si>
-    <t>吃瓜少年的八卦日常</t>
-  </si>
-  <si>
-    <t>娱圈爆料君</t>
-  </si>
-  <si>
-    <t>要扒请深扒</t>
-  </si>
-  <si>
-    <t>星扒妹</t>
-  </si>
-  <si>
-    <t>娱圈女神</t>
-  </si>
-  <si>
-    <t>明星圈内事儿</t>
-  </si>
-  <si>
-    <t>影圈大咖</t>
-  </si>
-  <si>
-    <t>影视电影资讯</t>
-  </si>
-  <si>
-    <t>热电影推荐</t>
-  </si>
-  <si>
-    <t>综艺有点料</t>
-  </si>
-  <si>
-    <t>吃瓜Mark</t>
-  </si>
-  <si>
-    <t>娱乐圈没有瓜</t>
-  </si>
-  <si>
-    <t>娱记人</t>
-  </si>
-  <si>
-    <t>老阿姨的追剧吃瓜日常</t>
-  </si>
-  <si>
-    <t>八卦有瓜吃</t>
-  </si>
-  <si>
-    <t>你们太八卦了</t>
-  </si>
-  <si>
-    <t>娱圈壹姐</t>
-  </si>
-  <si>
-    <t>娱乐圈吃瓜少年</t>
-  </si>
-  <si>
-    <t>娱圈有料</t>
-  </si>
-  <si>
-    <t>娱圈博主</t>
-  </si>
-  <si>
-    <t>吃瓜扒姐</t>
-  </si>
-  <si>
-    <t>Fashion娱乐</t>
-  </si>
-  <si>
-    <t>综艺扒爷</t>
-  </si>
-  <si>
-    <t>八卦话</t>
-  </si>
-  <si>
-    <t>扒剧说</t>
-  </si>
-  <si>
-    <t>网瘾少年的吃瓜日常</t>
-  </si>
-  <si>
-    <t>明星探班社</t>
-  </si>
-  <si>
-    <t>老阿姨的吃瓜日常</t>
-  </si>
-  <si>
-    <t>老阿姨扒剧日常</t>
-  </si>
-  <si>
-    <t>老阿姨带你追剧</t>
-  </si>
-  <si>
-    <t>新剧情报员</t>
-  </si>
-  <si>
-    <t>这剧太好看了</t>
-  </si>
-  <si>
-    <t>娱乐星闻社</t>
-  </si>
-  <si>
-    <t>东娱西邪</t>
-  </si>
-  <si>
-    <t>壹周猫眼娱乐</t>
-  </si>
-  <si>
-    <t>娱乐情爆社</t>
-  </si>
-  <si>
-    <t>扒娱社</t>
-  </si>
-  <si>
-    <t>FBI娱情局</t>
-  </si>
-  <si>
-    <t>不二娱叔</t>
-  </si>
-  <si>
-    <t>娱乐都统</t>
-  </si>
-  <si>
-    <t>娱乐上校</t>
-  </si>
-  <si>
-    <t>大概八点发</t>
-  </si>
-  <si>
-    <t>papi娱乐</t>
-  </si>
-  <si>
-    <t>娱乐综艺教父</t>
-  </si>
-  <si>
-    <t>娱评局</t>
-  </si>
-  <si>
-    <t>不知名娱乐评论人</t>
-  </si>
-  <si>
-    <t>天眼娱乐</t>
-  </si>
-  <si>
-    <t>情报剧</t>
-  </si>
-  <si>
-    <t>剧荒女生</t>
-  </si>
-  <si>
-    <t>吃瓜少女的追剧日常</t>
-  </si>
-  <si>
-    <t>泡面下剧</t>
-  </si>
-  <si>
-    <t>老阿姨陪你追剧</t>
-  </si>
-  <si>
-    <t>追剧红人</t>
-  </si>
-  <si>
-    <t>剧荒酱</t>
-  </si>
-  <si>
-    <t>这剧Pick一下</t>
-  </si>
-  <si>
-    <t>追剧侦探社</t>
-  </si>
-  <si>
-    <t>热剧王</t>
-  </si>
-  <si>
-    <t>热剧通缉</t>
-  </si>
-  <si>
-    <t>影视</t>
-  </si>
-  <si>
     <t>女性时尚</t>
   </si>
   <si>
-    <t>X1811151628187468</t>
-  </si>
-  <si>
-    <t>黄芳</t>
-  </si>
-  <si>
-    <t>X1712181221160001</t>
+    <t>诡匠</t>
+  </si>
+  <si>
+    <t>机智大夫</t>
+  </si>
+  <si>
+    <t>全壁纸</t>
+  </si>
+  <si>
+    <t>FashionLanding</t>
+  </si>
+  <si>
+    <t>最天秤</t>
+  </si>
+  <si>
+    <t>馋嘴好吃鬼</t>
+  </si>
+  <si>
+    <t>爱吃的甜饼怪</t>
+  </si>
+  <si>
+    <t>马男波杰克Mr</t>
+  </si>
+  <si>
+    <t>情话笔录</t>
+  </si>
+  <si>
+    <t>不二达人</t>
+  </si>
+  <si>
+    <t>小铁来扎心啊</t>
+  </si>
+  <si>
+    <t>马克波杰克</t>
+  </si>
+  <si>
+    <t>知书博士</t>
+  </si>
+  <si>
+    <t>安妮的笔录</t>
+  </si>
+  <si>
+    <t>冬菇滑稽饭</t>
+  </si>
+  <si>
+    <t>那你不是好棒棒喔</t>
+  </si>
+  <si>
+    <t>顶风尿浪浪</t>
+  </si>
+  <si>
+    <t>蔴花藤</t>
+  </si>
+  <si>
+    <t>修图笔记</t>
+  </si>
+  <si>
+    <t>FemineStyle</t>
+  </si>
+  <si>
+    <t>前恋旧梦</t>
+  </si>
+  <si>
+    <t>一日一美女</t>
+  </si>
+  <si>
+    <t>最美女神</t>
+  </si>
+  <si>
+    <t>狮子座秘语</t>
+  </si>
+  <si>
+    <t>环球生活百科</t>
+  </si>
+  <si>
+    <t>毒舌娱评</t>
+  </si>
+  <si>
+    <t>星师太</t>
+  </si>
+  <si>
+    <t>美容剪</t>
+  </si>
+  <si>
+    <t>影评小辣椒</t>
+  </si>
+  <si>
+    <t>特流行</t>
+  </si>
+  <si>
+    <t>挖影匠</t>
+  </si>
+  <si>
+    <t>娱乐八卦爆料社</t>
+  </si>
+  <si>
+    <t>电影圈</t>
+  </si>
+  <si>
+    <t>环球娱影宝贝</t>
+  </si>
+  <si>
+    <t>圈内八卦姐</t>
+  </si>
+  <si>
+    <t>时尚妖姬</t>
+  </si>
+  <si>
+    <t>扒星闻</t>
+  </si>
+  <si>
+    <t>热门生活快报</t>
+  </si>
+  <si>
+    <t>潮妈亲子乐园</t>
+  </si>
+  <si>
+    <t>IT数码前沿</t>
+  </si>
+  <si>
+    <t>旅游生活攻略</t>
+  </si>
+  <si>
+    <t>生活头条圈</t>
+  </si>
+  <si>
+    <t>圈内八卦爷</t>
+  </si>
+  <si>
+    <t>毒舌小妖姬</t>
+  </si>
+  <si>
+    <t>时尚潮流话题榜</t>
+  </si>
+  <si>
+    <t>经典影视娱乐</t>
+  </si>
+  <si>
+    <t>综艺微博</t>
+  </si>
+  <si>
+    <t>星闻情报站</t>
+  </si>
+  <si>
+    <t>新片点评</t>
+  </si>
+  <si>
+    <t>挖星匠</t>
+  </si>
+  <si>
+    <t>生活贴士</t>
+  </si>
+  <si>
+    <t>时尚圈教主</t>
+  </si>
+  <si>
+    <t>财经商业观察</t>
+  </si>
+  <si>
+    <t>车分享</t>
+  </si>
+  <si>
+    <t>懂食帝</t>
+  </si>
+  <si>
+    <t>全球时尚看点</t>
+  </si>
+  <si>
+    <t>旅游体验官</t>
+  </si>
+  <si>
+    <t>搜食君</t>
+  </si>
+  <si>
+    <t>全球热点资讯聚焦</t>
+  </si>
+  <si>
+    <t>健康生活秀</t>
+  </si>
+  <si>
+    <t>综艺娱乐小队长</t>
+  </si>
+  <si>
+    <t>都市潮生活</t>
+  </si>
+  <si>
+    <t>时尚生活汇馆</t>
+  </si>
+  <si>
+    <t>最IN潮流风向标</t>
+  </si>
+  <si>
+    <t>精选头条菌</t>
+  </si>
+  <si>
+    <t>游戏动漫乐园</t>
+  </si>
+  <si>
+    <t>生活最热议</t>
+  </si>
+  <si>
+    <t>全球IT圈</t>
+  </si>
+  <si>
+    <t>电竞观察</t>
+  </si>
+  <si>
+    <t>车星探</t>
+  </si>
+  <si>
+    <t>流行风尚</t>
+  </si>
+  <si>
+    <t>财经头条看点</t>
+  </si>
+  <si>
+    <t>圈内八卦壹姐</t>
+  </si>
+  <si>
+    <t>八卦皮皮酱</t>
+  </si>
+  <si>
+    <t>八卦娱乐头条播报</t>
+  </si>
+  <si>
+    <t>潮妈亲子育儿</t>
+  </si>
+  <si>
+    <t>环球IT时报</t>
+  </si>
+  <si>
+    <t>影视揭秘王</t>
+  </si>
+  <si>
+    <t>环球旅拍SHOW</t>
+  </si>
+  <si>
+    <t>名车看点</t>
+  </si>
+  <si>
+    <t>搞笑娱乐搜罗</t>
+  </si>
+  <si>
+    <t>掌上娱乐</t>
+  </si>
+  <si>
+    <t>热门生活头条</t>
+  </si>
+  <si>
+    <t>旅游摄影百科</t>
+  </si>
+  <si>
+    <t>广州要闻</t>
+  </si>
+  <si>
+    <t>时尚家居匠</t>
+  </si>
+  <si>
+    <t>娱乐新花样</t>
+  </si>
+  <si>
+    <t>掌上资讯中心</t>
+  </si>
+  <si>
+    <t>互联网大事报</t>
+  </si>
+  <si>
+    <t>家居装饰指南</t>
+  </si>
+  <si>
+    <t>时尚红人圈</t>
+  </si>
+  <si>
+    <t>热门时尚流行榜</t>
+  </si>
+  <si>
+    <t>成都要闻</t>
+  </si>
+  <si>
+    <t>驴友旅游指南</t>
+  </si>
+  <si>
+    <t>聚焦上海</t>
+  </si>
+  <si>
+    <t>IT数码港</t>
+  </si>
+  <si>
+    <t>育儿生活指南</t>
+  </si>
+  <si>
+    <t>杭州要闻</t>
+  </si>
+  <si>
+    <t>聚焦深圳</t>
+  </si>
+  <si>
+    <t>北京要闻</t>
+  </si>
+  <si>
+    <t>潮妈小贴士</t>
+  </si>
+  <si>
+    <t>互联网视觉</t>
+  </si>
+  <si>
+    <t>全民玩车</t>
+  </si>
+  <si>
+    <t>游戏全资讯</t>
+  </si>
+  <si>
+    <t>新闻话题资讯</t>
+  </si>
+  <si>
+    <t>时尚潮流百科</t>
+  </si>
+  <si>
+    <t>娱闻快报</t>
+  </si>
+  <si>
+    <t>女郎天生爱美丽</t>
+  </si>
+  <si>
+    <t>财经经济报</t>
+  </si>
+  <si>
+    <t>美容护肤风尚</t>
+  </si>
+  <si>
+    <t>文学文化</t>
+  </si>
+  <si>
+    <t>情感</t>
+  </si>
+  <si>
+    <t>星座</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>财经</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>新闻资讯</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>IT互联网</t>
+  </si>
+  <si>
+    <t>财经、商业</t>
+  </si>
+  <si>
+    <t>地域</t>
+  </si>
+  <si>
+    <t>家居</t>
+  </si>
+  <si>
+    <t>X1801050845152882</t>
+  </si>
+  <si>
+    <t>X1801031422260140</t>
+  </si>
+  <si>
+    <t>刘玲</t>
+  </si>
+  <si>
+    <t>X1712181338330003</t>
   </si>
 </sst>
 </file>
@@ -743,11 +827,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -806,778 +890,853 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>1422595970</v>
+        <v>5879271287</v>
+      </c>
+      <c r="C2" s="1">
+        <v>161</v>
       </c>
       <c r="D2" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
-        <v>2493344264</v>
+        <v>5940597074</v>
+      </c>
+      <c r="C3" s="1">
+        <v>366</v>
       </c>
       <c r="D3" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>7300</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
-        <v>2410215354</v>
+        <v>5970485835</v>
+      </c>
+      <c r="C4" s="1">
+        <v>102</v>
       </c>
       <c r="D4" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
-        <v>1361244121</v>
+        <v>1759533535</v>
+      </c>
+      <c r="C5" s="1">
+        <v>374</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
-        <v>1293246540</v>
+        <v>2158697171</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1442</v>
       </c>
       <c r="D6" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
-        <v>2230755857</v>
+        <v>5546028811</v>
+      </c>
+      <c r="C7" s="1">
+        <v>120</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
-        <v>1463099637</v>
+        <v>2016468463</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1560</v>
       </c>
       <c r="D8" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>1158205155</v>
+        <v>5176615750</v>
+      </c>
+      <c r="C9" s="1">
+        <v>111</v>
       </c>
       <c r="D9" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3">
-        <v>2461685194</v>
+        <v>5667879972</v>
+      </c>
+      <c r="C10" s="1">
+        <v>224</v>
       </c>
       <c r="D10" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3">
-        <v>2392009802</v>
+        <v>6307904117</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45</v>
       </c>
       <c r="D11" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3">
-        <v>2439235322</v>
+        <v>6315946352</v>
+      </c>
+      <c r="C12" s="1">
+        <v>60</v>
       </c>
       <c r="D12" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
-        <v>2231764352</v>
+        <v>6212661352</v>
+      </c>
+      <c r="C13" s="1">
+        <v>109</v>
       </c>
       <c r="D13" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3">
-        <v>1176267011</v>
+        <v>6314600572</v>
+      </c>
+      <c r="C14" s="1">
+        <v>60</v>
       </c>
       <c r="D14" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3">
-        <v>1144309661</v>
+        <v>6314640179</v>
+      </c>
+      <c r="C15" s="1">
+        <v>92</v>
       </c>
       <c r="D15" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3">
-        <v>2465035250</v>
+        <v>6299364140</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3">
-        <v>2391945312</v>
+        <v>6303424789</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13</v>
       </c>
       <c r="D17" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3">
-        <v>2552109130</v>
+        <v>6299400957</v>
+      </c>
+      <c r="C18" s="1">
+        <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3">
-        <v>1320266963</v>
+        <v>6303375006</v>
+      </c>
+      <c r="C19" s="1">
+        <v>14</v>
       </c>
       <c r="D19" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
-        <v>1281943747</v>
+        <v>2573294892</v>
+      </c>
+      <c r="C20" s="1">
+        <v>96</v>
       </c>
       <c r="D20" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3">
-        <v>1223402855</v>
+        <v>1701580461</v>
+      </c>
+      <c r="C21" s="1">
+        <v>332</v>
       </c>
       <c r="D21" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3">
-        <v>1156054853</v>
+        <v>5969730136</v>
+      </c>
+      <c r="C22" s="1">
+        <v>75</v>
       </c>
       <c r="D22" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3">
-        <v>1254896512</v>
+        <v>1732625303</v>
+      </c>
+      <c r="C23" s="1">
+        <v>241</v>
       </c>
       <c r="D23" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3">
-        <v>6740961596</v>
+        <v>1763276065</v>
+      </c>
+      <c r="C24" s="1">
+        <v>315</v>
       </c>
       <c r="D24" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3">
-        <v>6741944778</v>
+        <v>2187276562</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
       </c>
       <c r="D25" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3">
-        <v>6741985456</v>
+        <v>3124390531</v>
+      </c>
+      <c r="C26" s="1">
+        <v>171</v>
       </c>
       <c r="D26" s="1">
         <v>200</v>
@@ -1586,30 +1745,33 @@
         <v>200</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3">
-        <v>6742023728</v>
+        <v>1058325267</v>
+      </c>
+      <c r="C27" s="1">
+        <v>155</v>
       </c>
       <c r="D27" s="1">
         <v>200</v>
@@ -1618,30 +1780,33 @@
         <v>200</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3">
-        <v>6739970389</v>
+        <v>1581923063</v>
+      </c>
+      <c r="C28" s="1">
+        <v>153</v>
       </c>
       <c r="D28" s="1">
         <v>200</v>
@@ -1650,30 +1815,33 @@
         <v>200</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3">
-        <v>6740929016</v>
+        <v>1676459911</v>
+      </c>
+      <c r="C29" s="1">
+        <v>147</v>
       </c>
       <c r="D29" s="1">
         <v>200</v>
@@ -1682,30 +1850,33 @@
         <v>200</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3">
-        <v>6754237926</v>
+        <v>2786857854</v>
+      </c>
+      <c r="C30" s="1">
+        <v>141</v>
       </c>
       <c r="D30" s="1">
         <v>200</v>
@@ -1714,30 +1885,33 @@
         <v>200</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3">
-        <v>6753317780</v>
+        <v>1898047697</v>
+      </c>
+      <c r="C31" s="1">
+        <v>137</v>
       </c>
       <c r="D31" s="1">
         <v>200</v>
@@ -1746,30 +1920,33 @@
         <v>200</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3">
-        <v>5539927075</v>
+        <v>2709624351</v>
+      </c>
+      <c r="C32" s="1">
+        <v>130</v>
       </c>
       <c r="D32" s="1">
         <v>200</v>
@@ -1778,30 +1955,33 @@
         <v>200</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3">
-        <v>5977305346</v>
+        <v>3640219554</v>
+      </c>
+      <c r="C33" s="1">
+        <v>122</v>
       </c>
       <c r="D33" s="1">
         <v>200</v>
@@ -1810,30 +1990,33 @@
         <v>200</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3">
-        <v>5977621508</v>
+        <v>5055504525</v>
+      </c>
+      <c r="C34" s="1">
+        <v>120</v>
       </c>
       <c r="D34" s="1">
         <v>200</v>
@@ -1842,30 +2025,33 @@
         <v>200</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3">
-        <v>6044800179</v>
+        <v>5722515877</v>
+      </c>
+      <c r="C35" s="1">
+        <v>113</v>
       </c>
       <c r="D35" s="1">
         <v>200</v>
@@ -1874,30 +2060,33 @@
         <v>200</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3">
-        <v>6045874552</v>
+        <v>5101956860</v>
+      </c>
+      <c r="C36" s="1">
+        <v>111</v>
       </c>
       <c r="D36" s="1">
         <v>200</v>
@@ -1906,30 +2095,33 @@
         <v>200</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3">
-        <v>6439425173</v>
+        <v>3699091850</v>
+      </c>
+      <c r="C37" s="1">
+        <v>114</v>
       </c>
       <c r="D37" s="1">
         <v>200</v>
@@ -1938,30 +2130,33 @@
         <v>200</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="3">
-        <v>6444574509</v>
+        <v>5722518513</v>
+      </c>
+      <c r="C38" s="1">
+        <v>100</v>
       </c>
       <c r="D38" s="1">
         <v>200</v>
@@ -1970,30 +2165,33 @@
         <v>200</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="3">
-        <v>2440280470</v>
+        <v>5723333519</v>
+      </c>
+      <c r="C39" s="1">
+        <v>100</v>
       </c>
       <c r="D39" s="1">
         <v>200</v>
@@ -2002,30 +2200,33 @@
         <v>200</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="3">
-        <v>2108171961</v>
+        <v>5723332939</v>
+      </c>
+      <c r="C40" s="1">
+        <v>100</v>
       </c>
       <c r="D40" s="1">
         <v>200</v>
@@ -2034,30 +2235,33 @@
         <v>200</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="3">
-        <v>2447880894</v>
+        <v>5723332577</v>
+      </c>
+      <c r="C41" s="1">
+        <v>100</v>
       </c>
       <c r="D41" s="1">
         <v>200</v>
@@ -2066,30 +2270,33 @@
         <v>200</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3">
-        <v>2095513147</v>
+        <v>5723040752</v>
+      </c>
+      <c r="C42" s="1">
+        <v>100</v>
       </c>
       <c r="D42" s="1">
         <v>200</v>
@@ -2098,30 +2305,33 @@
         <v>200</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="3">
-        <v>2439008190</v>
+        <v>5722518196</v>
+      </c>
+      <c r="C43" s="1">
+        <v>100</v>
       </c>
       <c r="D43" s="1">
         <v>200</v>
@@ -2130,30 +2340,33 @@
         <v>200</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="3">
-        <v>2447891464</v>
+        <v>5722518866</v>
+      </c>
+      <c r="C44" s="1">
+        <v>100</v>
       </c>
       <c r="D44" s="1">
         <v>200</v>
@@ -2162,30 +2375,33 @@
         <v>200</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3">
-        <v>2244701034</v>
+        <v>5722518966</v>
+      </c>
+      <c r="C45" s="1">
+        <v>100</v>
       </c>
       <c r="D45" s="1">
         <v>200</v>
@@ -2194,1750 +2410,2332 @@
         <v>200</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="3">
-        <v>2392001612</v>
+        <v>1920756762</v>
+      </c>
+      <c r="C46" s="1">
+        <v>158</v>
       </c>
       <c r="D46" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E46" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="3">
-        <v>2426750454</v>
+        <v>1648352181</v>
+      </c>
+      <c r="C47" s="1">
+        <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E47" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3">
-        <v>2448428594</v>
+        <v>1658884633</v>
+      </c>
+      <c r="C48" s="1">
+        <v>150</v>
       </c>
       <c r="D48" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E48" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="3">
-        <v>1240174221</v>
+        <v>1593960480</v>
+      </c>
+      <c r="C49" s="1">
+        <v>150</v>
       </c>
       <c r="D49" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E49" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3">
-        <v>1255797612</v>
+        <v>1528501244</v>
+      </c>
+      <c r="C50" s="1">
+        <v>148</v>
       </c>
       <c r="D50" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E50" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="3">
-        <v>5107667587</v>
+        <v>1950746934</v>
+      </c>
+      <c r="C51" s="1">
+        <v>147</v>
       </c>
       <c r="D51" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E51" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="3">
-        <v>5103391629</v>
+        <v>1651103063</v>
+      </c>
+      <c r="C52" s="1">
+        <v>144</v>
       </c>
       <c r="D52" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E52" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="3">
-        <v>5107660526</v>
+        <v>1341169664</v>
+      </c>
+      <c r="C53" s="1">
+        <v>142</v>
       </c>
       <c r="D53" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E53" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="3">
-        <v>5042964228</v>
+        <v>3949833928</v>
+      </c>
+      <c r="C54" s="1">
+        <v>142</v>
       </c>
       <c r="D54" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E54" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="3">
-        <v>5102507085</v>
+        <v>3003230682</v>
+      </c>
+      <c r="C55" s="1">
+        <v>140</v>
       </c>
       <c r="D55" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E55" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="3">
-        <v>5103384505</v>
+        <v>1093672727</v>
+      </c>
+      <c r="C56" s="1">
+        <v>133</v>
       </c>
       <c r="D56" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E56" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="3">
-        <v>5107673125</v>
+        <v>3125331963</v>
+      </c>
+      <c r="C57" s="1">
+        <v>130</v>
       </c>
       <c r="D57" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E57" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="3">
-        <v>5325213498</v>
+        <v>1859624513</v>
+      </c>
+      <c r="C58" s="1">
+        <v>130</v>
       </c>
       <c r="D58" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E58" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F58" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="3">
-        <v>5104948830</v>
+        <v>1591748087</v>
+      </c>
+      <c r="C59" s="1">
+        <v>129</v>
       </c>
       <c r="D59" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E59" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="3">
-        <v>5107646802</v>
+        <v>3756188093</v>
+      </c>
+      <c r="C60" s="1">
+        <v>129</v>
       </c>
       <c r="D60" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E60" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="3">
-        <v>5044651241</v>
+        <v>2185963485</v>
+      </c>
+      <c r="C61" s="1">
+        <v>129</v>
       </c>
       <c r="D61" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E61" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B62" s="3">
-        <v>5044656389</v>
+        <v>1737562914</v>
+      </c>
+      <c r="C62" s="1">
+        <v>128</v>
       </c>
       <c r="D62" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E62" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F62" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B63" s="3">
-        <v>5107643740</v>
+        <v>2720890453</v>
+      </c>
+      <c r="C63" s="1">
+        <v>128</v>
       </c>
       <c r="D63" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E63" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64" s="3">
-        <v>5043862913</v>
+        <v>2007273857</v>
+      </c>
+      <c r="C64" s="1">
+        <v>128</v>
       </c>
       <c r="D64" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E64" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G64" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="3">
-        <v>5043857925</v>
+        <v>2607220350</v>
+      </c>
+      <c r="C65" s="1">
+        <v>127</v>
       </c>
       <c r="D65" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E65" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66" s="3">
-        <v>5042463789</v>
+        <v>2297366023</v>
+      </c>
+      <c r="C66" s="1">
+        <v>126</v>
       </c>
       <c r="D66" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E66" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G66" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" s="3">
-        <v>5042980444</v>
+        <v>3983980118</v>
+      </c>
+      <c r="C67" s="1">
+        <v>122</v>
       </c>
       <c r="D67" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E67" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" s="3">
-        <v>5331182453</v>
+        <v>3519063474</v>
+      </c>
+      <c r="C68" s="1">
+        <v>121</v>
       </c>
       <c r="D68" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E68" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F68" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" s="3">
-        <v>5165316349</v>
+        <v>2120514384</v>
+      </c>
+      <c r="C69" s="1">
+        <v>121</v>
       </c>
       <c r="D69" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E69" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G69" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" s="3">
-        <v>5325233245</v>
+        <v>5057965206</v>
+      </c>
+      <c r="C70" s="1">
+        <v>120</v>
       </c>
       <c r="D70" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E70" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" s="3">
-        <v>5320274555</v>
+        <v>5587842059</v>
+      </c>
+      <c r="C71" s="1">
+        <v>120</v>
       </c>
       <c r="D71" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E71" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="3">
-        <v>5320043666</v>
+        <v>5054499848</v>
+      </c>
+      <c r="C72" s="1">
+        <v>120</v>
       </c>
       <c r="D72" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E72" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G72" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" s="3">
-        <v>5046424817</v>
+        <v>2075059163</v>
+      </c>
+      <c r="C73" s="1">
+        <v>117</v>
       </c>
       <c r="D73" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E73" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F73" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G73" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" s="3">
-        <v>5329099796</v>
+        <v>3944820732</v>
+      </c>
+      <c r="C74" s="1">
+        <v>113</v>
       </c>
       <c r="D74" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E74" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F74" s="1">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G74" s="1">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="3">
-        <v>5326788830</v>
+        <v>1566566751</v>
+      </c>
+      <c r="C75" s="1">
+        <v>112</v>
       </c>
       <c r="D75" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E75" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F75" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G75" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="3">
-        <v>5331988254</v>
+        <v>3985470692</v>
+      </c>
+      <c r="C76" s="1">
+        <v>111</v>
       </c>
       <c r="D76" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E76" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G76" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="3">
-        <v>5312326984</v>
+        <v>1705321064</v>
+      </c>
+      <c r="C77" s="1">
+        <v>110</v>
       </c>
       <c r="D77" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E77" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F77" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" s="3">
-        <v>5327591523</v>
+        <v>1534930123</v>
+      </c>
+      <c r="C78" s="1">
+        <v>110</v>
       </c>
       <c r="D78" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E78" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G78" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B79" s="3">
-        <v>5335518235</v>
+        <v>1271805222</v>
+      </c>
+      <c r="C79" s="1">
+        <v>110</v>
       </c>
       <c r="D79" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E79" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G79" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B80" s="3">
-        <v>5324248980</v>
+        <v>5402077843</v>
+      </c>
+      <c r="C80" s="1">
+        <v>110</v>
       </c>
       <c r="D80" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E80" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G80" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="3">
-        <v>5328651602</v>
+        <v>1316822631</v>
+      </c>
+      <c r="C81" s="1">
+        <v>108</v>
       </c>
       <c r="D81" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E81" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F81" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G81" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="3">
-        <v>5328944255</v>
+        <v>1746852034</v>
+      </c>
+      <c r="C82" s="1">
+        <v>106</v>
       </c>
       <c r="D82" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E82" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F82" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G82" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="3">
-        <v>5331210202</v>
+        <v>5722521600</v>
+      </c>
+      <c r="C83" s="1">
+        <v>105</v>
       </c>
       <c r="D83" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E83" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F83" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G83" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="3">
-        <v>5327769125</v>
+        <v>5723045896</v>
+      </c>
+      <c r="C84" s="1">
+        <v>105</v>
       </c>
       <c r="D84" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E84" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F84" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G84" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B85" s="3">
-        <v>5326539224</v>
+        <v>5711480347</v>
+      </c>
+      <c r="C85" s="1">
+        <v>104</v>
       </c>
       <c r="D85" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E85" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F85" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G85" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B86" s="3">
-        <v>5328912283</v>
+        <v>5711457585</v>
+      </c>
+      <c r="C86" s="1">
+        <v>103</v>
       </c>
       <c r="D86" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E86" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F86" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G86" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B87" s="3">
-        <v>5329220719</v>
+        <v>5342367981</v>
+      </c>
+      <c r="C87" s="1">
+        <v>101</v>
       </c>
       <c r="D87" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E87" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F87" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G87" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B88" s="3">
-        <v>5327722434</v>
+        <v>3975879431</v>
+      </c>
+      <c r="C88" s="1">
+        <v>101</v>
       </c>
       <c r="D88" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E88" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G88" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B89" s="3">
-        <v>5042447388</v>
+        <v>6358576585</v>
+      </c>
+      <c r="C89" s="1">
+        <v>101</v>
       </c>
       <c r="D89" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E89" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F89" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G89" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B90" s="3">
-        <v>5104940048</v>
+        <v>2706851592</v>
+      </c>
+      <c r="C90" s="1">
+        <v>100</v>
       </c>
       <c r="D90" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E90" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F90" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G90" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B91" s="3">
-        <v>5104938950</v>
+        <v>1304143660</v>
+      </c>
+      <c r="C91" s="1">
+        <v>100</v>
       </c>
       <c r="D91" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E91" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F91" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G91" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B92" s="3">
-        <v>5104938233</v>
+        <v>6121825533</v>
+      </c>
+      <c r="C92" s="1">
+        <v>100</v>
       </c>
       <c r="D92" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E92" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F92" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B93" s="3">
-        <v>5107648073</v>
+        <v>5710673352</v>
+      </c>
+      <c r="C93" s="1">
+        <v>100</v>
       </c>
       <c r="D93" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E93" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F93" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G93" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="3">
-        <v>5043840623</v>
+        <v>2802417634</v>
+      </c>
+      <c r="C94" s="1">
+        <v>100</v>
       </c>
       <c r="D94" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E94" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F94" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" s="3">
-        <v>5042447820</v>
+        <v>5723332832</v>
+      </c>
+      <c r="C95" s="1">
+        <v>100</v>
       </c>
       <c r="D95" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E95" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F95" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G95" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B96" s="3">
-        <v>5044654738</v>
+        <v>5711811584</v>
+      </c>
+      <c r="C96" s="1">
+        <v>100</v>
       </c>
       <c r="D96" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E96" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F96" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G96" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B97" s="3">
-        <v>5042478308</v>
+        <v>3116179975</v>
+      </c>
+      <c r="C97" s="1">
+        <v>100</v>
       </c>
       <c r="D97" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E97" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F97" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G97" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B98" s="3">
-        <v>5042478130</v>
+        <v>5723045816</v>
+      </c>
+      <c r="C98" s="1">
+        <v>100</v>
       </c>
       <c r="D98" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E98" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G98" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B99" s="3">
-        <v>5103362532</v>
+        <v>5711842568</v>
+      </c>
+      <c r="C99" s="1">
+        <v>94</v>
       </c>
       <c r="D99" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E99" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F99" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G99" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="J99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="3">
+        <v>5710735957</v>
+      </c>
+      <c r="C100" s="1">
+        <v>93</v>
+      </c>
+      <c r="D100" s="1">
+        <v>150</v>
+      </c>
+      <c r="E100" s="1">
+        <v>150</v>
+      </c>
+      <c r="F100" s="1">
+        <v>200</v>
+      </c>
+      <c r="G100" s="1">
+        <v>200</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="B101" s="3">
+        <v>5711893974</v>
+      </c>
+      <c r="C101" s="1">
+        <v>93</v>
+      </c>
+      <c r="D101" s="1">
+        <v>150</v>
+      </c>
+      <c r="E101" s="1">
+        <v>150</v>
+      </c>
+      <c r="F101" s="1">
+        <v>200</v>
+      </c>
+      <c r="G101" s="1">
+        <v>200</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="B102" s="3">
+        <v>1571917044</v>
+      </c>
+      <c r="C102" s="1">
+        <v>91</v>
+      </c>
+      <c r="D102" s="1">
+        <v>150</v>
+      </c>
+      <c r="E102" s="1">
+        <v>150</v>
+      </c>
+      <c r="F102" s="1">
+        <v>300</v>
+      </c>
+      <c r="G102" s="1">
+        <v>200</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="B103" s="3">
+        <v>5723040482</v>
+      </c>
+      <c r="C103" s="1">
+        <v>88</v>
+      </c>
+      <c r="D103" s="1">
+        <v>150</v>
+      </c>
+      <c r="E103" s="1">
+        <v>150</v>
+      </c>
+      <c r="F103" s="1">
+        <v>200</v>
+      </c>
+      <c r="G103" s="1">
+        <v>200</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="3">
+        <v>5722820463</v>
+      </c>
+      <c r="C104" s="1">
+        <v>80</v>
+      </c>
+      <c r="D104" s="1">
+        <v>150</v>
+      </c>
+      <c r="E104" s="1">
+        <v>150</v>
+      </c>
+      <c r="F104" s="1">
+        <v>200</v>
+      </c>
+      <c r="G104" s="1">
+        <v>200</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2636637834</v>
+      </c>
+      <c r="C105" s="1">
+        <v>80</v>
+      </c>
+      <c r="D105" s="1">
+        <v>150</v>
+      </c>
+      <c r="E105" s="1">
+        <v>150</v>
+      </c>
+      <c r="F105" s="1">
+        <v>300</v>
+      </c>
+      <c r="G105" s="1">
+        <v>200</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="3">
+        <v>5722817194</v>
+      </c>
+      <c r="C106" s="1">
+        <v>76</v>
+      </c>
+      <c r="D106" s="1">
+        <v>150</v>
+      </c>
+      <c r="E106" s="1">
+        <v>150</v>
+      </c>
+      <c r="F106" s="1">
+        <v>300</v>
+      </c>
+      <c r="G106" s="1">
+        <v>200</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="3">
+        <v>5723334216</v>
+      </c>
+      <c r="C107" s="1">
+        <v>70</v>
+      </c>
+      <c r="D107" s="1">
+        <v>150</v>
+      </c>
+      <c r="E107" s="1">
+        <v>150</v>
+      </c>
+      <c r="F107" s="1">
+        <v>300</v>
+      </c>
+      <c r="G107" s="1">
+        <v>200</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="3">
+        <v>5723334859</v>
+      </c>
+      <c r="C108" s="1">
+        <v>70</v>
+      </c>
+      <c r="D108" s="1">
+        <v>150</v>
+      </c>
+      <c r="E108" s="1">
+        <v>150</v>
+      </c>
+      <c r="F108" s="1">
+        <v>200</v>
+      </c>
+      <c r="G108" s="1">
+        <v>200</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="3">
+        <v>5722820664</v>
+      </c>
+      <c r="C109" s="1">
+        <v>70</v>
+      </c>
+      <c r="D109" s="1">
+        <v>150</v>
+      </c>
+      <c r="E109" s="1">
+        <v>150</v>
+      </c>
+      <c r="F109" s="1">
+        <v>300</v>
+      </c>
+      <c r="G109" s="1">
+        <v>200</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="3">
+        <v>5722822375</v>
+      </c>
+      <c r="C110" s="1">
+        <v>70</v>
+      </c>
+      <c r="D110" s="1">
+        <v>150</v>
+      </c>
+      <c r="E110" s="1">
+        <v>150</v>
+      </c>
+      <c r="F110" s="1">
+        <v>200</v>
+      </c>
+      <c r="G110" s="1">
+        <v>200</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="3">
+        <v>5723334347</v>
+      </c>
+      <c r="C111" s="1">
+        <v>60</v>
+      </c>
+      <c r="D111" s="1">
+        <v>150</v>
+      </c>
+      <c r="E111" s="1">
+        <v>150</v>
+      </c>
+      <c r="F111" s="1">
+        <v>200</v>
+      </c>
+      <c r="G111" s="1">
+        <v>200</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="132">
   <si>
     <t>名称</t>
   </si>
@@ -65,67 +65,358 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">火箭中文网Rockets     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">休斯顿火箭论坛              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">篮球实战教学            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">勇士动态              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">詹姆斯官微              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">哈登之家              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">凯里欧文吧         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">韦德资讯            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">尚洛体育            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">见证湖人               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">隆多吧                  </t>
-  </si>
-  <si>
-    <t>哈登中文网Harden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">伊戈达拉吧官博          </t>
-  </si>
-  <si>
-    <t>马刺球迷协会SpursChina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骑士球迷大本营        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">尼克杨中文网NickYoung </t>
-  </si>
-  <si>
-    <t>扬尼斯-阿德托昆博-中文网</t>
-  </si>
-  <si>
-    <t>勒布朗·詹姆斯中文网</t>
-  </si>
-  <si>
-    <t>微观湖人</t>
+    <t>校园</t>
+  </si>
+  <si>
+    <t>旅游户外摄影</t>
+  </si>
+  <si>
+    <t>第一生活资讯</t>
+  </si>
+  <si>
+    <t>全球热门趣味馆</t>
+  </si>
+  <si>
+    <t>生活娱乐汇</t>
+  </si>
+  <si>
+    <t>乐活时尚生活馆</t>
+  </si>
+  <si>
+    <t>今日热搜看点</t>
+  </si>
+  <si>
+    <t>评车达人蓝雨飞</t>
+  </si>
+  <si>
+    <t>全球娱乐趣味搞</t>
+  </si>
+  <si>
+    <t>全球奇闻趣味事</t>
+  </si>
+  <si>
+    <t>全球娱乐八卦汇</t>
+  </si>
+  <si>
+    <t>今日热搜看点榜</t>
+  </si>
+  <si>
+    <t>娱乐时尚八卦</t>
+  </si>
+  <si>
+    <t>娱乐八卦生活丶</t>
+  </si>
+  <si>
+    <t>娱乐时尙热点</t>
+  </si>
+  <si>
+    <t>全球娯乐热点</t>
+  </si>
+  <si>
+    <t>全球娯乐现场</t>
+  </si>
+  <si>
+    <t>全球娱乐八卦秀</t>
+  </si>
+  <si>
+    <t>深圳热点全资讯丶</t>
+  </si>
+  <si>
+    <t>全球热门排行搜罗</t>
+  </si>
+  <si>
+    <t>全球热门排行錧</t>
+  </si>
+  <si>
+    <t>全球热门搜罗地</t>
+  </si>
+  <si>
+    <t>围脖时尚热门</t>
+  </si>
+  <si>
+    <t>全球热门收罗榜</t>
+  </si>
+  <si>
+    <t>全球最大百科</t>
+  </si>
+  <si>
+    <t>收罗全球热门</t>
+  </si>
+  <si>
+    <t>时尚女性一族</t>
+  </si>
+  <si>
+    <t>热点潮流风尙</t>
+  </si>
+  <si>
+    <t>全球最时尙前线</t>
+  </si>
+  <si>
+    <t>奢侈品珠宝名表</t>
+  </si>
+  <si>
+    <t>生活脑科普</t>
+  </si>
+  <si>
+    <t>生活热点早知道</t>
+  </si>
+  <si>
+    <t>实用性小百科</t>
+  </si>
+  <si>
+    <t>全球时尙小资生活</t>
+  </si>
+  <si>
+    <t>热门围博小百科</t>
+  </si>
+  <si>
+    <t>吃喝玩乐生活通</t>
+  </si>
+  <si>
+    <t>全球热门时尙生活</t>
+  </si>
+  <si>
+    <t>生活小智慧丶</t>
+  </si>
+  <si>
+    <t>热门微视频微电影</t>
+  </si>
+  <si>
+    <t>网罗全球流行音乐</t>
+  </si>
+  <si>
+    <t>全球热门影视音乐</t>
+  </si>
+  <si>
+    <t>全球电影全收录</t>
+  </si>
+  <si>
+    <t>经典热门微视频</t>
+  </si>
+  <si>
+    <t>全球热门娱乐视频</t>
+  </si>
+  <si>
+    <t>林霄虹</t>
+  </si>
+  <si>
+    <t>妈妈育婴陈谦</t>
+  </si>
+  <si>
+    <t>亲子育儿生活馆</t>
+  </si>
+  <si>
+    <t>辣妈亲子教室</t>
+  </si>
+  <si>
+    <t>经典亲子育儿经</t>
+  </si>
+  <si>
+    <t>妈妈亲子育儿经</t>
+  </si>
+  <si>
+    <t>妈咪亲子课堂</t>
+  </si>
+  <si>
+    <t>母婴资讯育儿指南</t>
+  </si>
+  <si>
+    <t>互联网热门丶</t>
+  </si>
+  <si>
+    <t>全球IT数码排行</t>
+  </si>
+  <si>
+    <t>IT数码互联网大热门</t>
+  </si>
+  <si>
+    <t>IT数码圈中客</t>
+  </si>
+  <si>
+    <t>校园数码安卓达人</t>
+  </si>
+  <si>
+    <t>数码科技新潮流</t>
+  </si>
+  <si>
+    <t>创意数码IT科技</t>
+  </si>
+  <si>
+    <t>全球IT数码业界</t>
+  </si>
+  <si>
+    <t>数码IT时尚生活</t>
+  </si>
+  <si>
+    <t>全球IT数码精英</t>
+  </si>
+  <si>
+    <t>全球IT数码安卓汇</t>
+  </si>
+  <si>
+    <t>全球IT数码科技汇</t>
+  </si>
+  <si>
+    <t>全球IT数码聚焦</t>
+  </si>
+  <si>
+    <t>IT数码互联科技资讯</t>
+  </si>
+  <si>
+    <t>IT族时尚生活</t>
+  </si>
+  <si>
+    <t>互联网的热点事</t>
+  </si>
+  <si>
+    <t>全球IT数码精选榜</t>
+  </si>
+  <si>
+    <t>电商大数据研究观察</t>
+  </si>
+  <si>
+    <t>全球互联网热门丶</t>
+  </si>
+  <si>
+    <t>我不想加</t>
+  </si>
+  <si>
+    <t>全球财经资讯榜</t>
+  </si>
+  <si>
+    <t>财经地产金融丶</t>
+  </si>
+  <si>
+    <t>全球体育集锦</t>
+  </si>
+  <si>
+    <t>全球体育精选集</t>
+  </si>
+  <si>
+    <t>大话体育微博</t>
+  </si>
+  <si>
+    <t>聚焦体育赛事</t>
+  </si>
+  <si>
+    <t>生活创意工坊</t>
+  </si>
+  <si>
+    <t>创意铺子工坊</t>
+  </si>
+  <si>
+    <t>健康vs百科</t>
+  </si>
+  <si>
+    <t>健康养生全百科</t>
+  </si>
+  <si>
+    <t>健康生活直达车</t>
+  </si>
+  <si>
+    <t>都市女性美容</t>
+  </si>
+  <si>
+    <t>女性健康美容</t>
+  </si>
+  <si>
+    <t>美容时尚达人刘美丽</t>
+  </si>
+  <si>
+    <t>大学里的新鲜事</t>
+  </si>
+  <si>
+    <t>爱心公益环保热</t>
+  </si>
+  <si>
+    <t>精选健康养生</t>
+  </si>
+  <si>
+    <t>世界足球速递-</t>
+  </si>
+  <si>
+    <t>吴江医生</t>
+  </si>
+  <si>
+    <t>李红林医生</t>
+  </si>
+  <si>
+    <t>健康百科生活资讯</t>
+  </si>
+  <si>
+    <t>生活健康小秘笈</t>
+  </si>
+  <si>
+    <t>学点健康养生</t>
+  </si>
+  <si>
+    <t>健康养生通</t>
+  </si>
+  <si>
+    <t>生活健康大智慧</t>
+  </si>
+  <si>
+    <t>围博热门头条资讯</t>
+  </si>
+  <si>
+    <t>每日健康生活养生</t>
+  </si>
+  <si>
+    <t>生活健康助手</t>
+  </si>
+  <si>
+    <t>旅游，摄影</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>地域</t>
+  </si>
+  <si>
+    <t>女性时尚</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>摄影</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>IT互联网</t>
+  </si>
+  <si>
+    <t>数码科技</t>
+  </si>
+  <si>
+    <t>财经</t>
   </si>
   <si>
     <t>体育</t>
   </si>
   <si>
-    <t>X1801050844430204</t>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>公益</t>
+  </si>
+  <si>
+    <t>X1801050844440354</t>
+  </si>
+  <si>
+    <t>7折折后价</t>
   </si>
   <si>
     <t>胡江超</t>
@@ -500,11 +791,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -563,610 +854,2873 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3">
-        <v>5312638979</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3000</v>
+        <v>2072694674</v>
       </c>
       <c r="F2" s="1">
-        <v>3300</v>
+        <v>350</v>
       </c>
       <c r="G2" s="1">
-        <v>4300</v>
+        <v>350</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>3314313317</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3000</v>
+        <v>1661200593</v>
       </c>
       <c r="F3" s="1">
-        <v>3300</v>
+        <v>350</v>
       </c>
       <c r="G3" s="1">
-        <v>4300</v>
+        <v>350</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3">
-        <v>3194551947</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3000</v>
+        <v>2058198170</v>
       </c>
       <c r="F4" s="1">
-        <v>3300</v>
+        <v>350</v>
       </c>
       <c r="G4" s="1">
-        <v>4300</v>
+        <v>350</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>3200272271</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3000</v>
+        <v>2058220260</v>
       </c>
       <c r="F5" s="1">
-        <v>3300</v>
+        <v>350</v>
       </c>
       <c r="G5" s="1">
-        <v>4300</v>
+        <v>350</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
-        <v>5414220409</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3000</v>
+        <v>1735878705</v>
       </c>
       <c r="F6" s="1">
-        <v>3300</v>
+        <v>350</v>
       </c>
       <c r="G6" s="1">
-        <v>4300</v>
+        <v>350</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3">
-        <v>2002098011</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3000</v>
+        <v>2058218520</v>
       </c>
       <c r="F7" s="1">
-        <v>3300</v>
+        <v>350</v>
       </c>
       <c r="G7" s="1">
-        <v>4300</v>
+        <v>350</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
-        <v>2187097613</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3000</v>
+        <v>3881197139</v>
       </c>
       <c r="F8" s="1">
-        <v>3300</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1">
-        <v>4300</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>114</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>5426375504</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3000</v>
+        <v>2072696564</v>
       </c>
       <c r="F9" s="1">
-        <v>3300</v>
+        <v>175</v>
       </c>
       <c r="G9" s="1">
-        <v>4300</v>
+        <v>175</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>6330644396</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3000</v>
+        <v>2006817960</v>
       </c>
       <c r="F10" s="1">
-        <v>3300</v>
+        <v>350</v>
       </c>
       <c r="G10" s="1">
-        <v>4300</v>
+        <v>350</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>6456476836</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3500</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2500</v>
+        <v>2006955612</v>
       </c>
       <c r="F11" s="1">
-        <v>2800</v>
+        <v>175</v>
       </c>
       <c r="G11" s="1">
-        <v>3800</v>
+        <v>175</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3">
-        <v>2431485513</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3500</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2500</v>
+        <v>1661071511</v>
       </c>
       <c r="F12" s="1">
-        <v>2800</v>
+        <v>350</v>
       </c>
       <c r="G12" s="1">
-        <v>3800</v>
+        <v>350</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3">
-        <v>5625376270</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3500</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2500</v>
+        <v>1825707263</v>
       </c>
       <c r="F13" s="1">
-        <v>2800</v>
+        <v>350</v>
       </c>
       <c r="G13" s="1">
-        <v>3800</v>
+        <v>350</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3">
-        <v>2386517807</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3500</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2500</v>
+        <v>2014430750</v>
       </c>
       <c r="F14" s="1">
-        <v>2800</v>
+        <v>350</v>
       </c>
       <c r="G14" s="1">
-        <v>3800</v>
+        <v>350</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3">
-        <v>5122052400</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3500</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2500</v>
+        <v>2006334850</v>
       </c>
       <c r="F15" s="1">
-        <v>2800</v>
+        <v>175</v>
       </c>
       <c r="G15" s="1">
-        <v>3800</v>
+        <v>175</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3">
-        <v>5186087252</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3500</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2500</v>
+        <v>2014328822</v>
       </c>
       <c r="F16" s="1">
-        <v>2800</v>
+        <v>175</v>
       </c>
       <c r="G16" s="1">
-        <v>3800</v>
+        <v>175</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
-        <v>5533335129</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3500</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2500</v>
+        <v>1660188272</v>
       </c>
       <c r="F17" s="1">
-        <v>2800</v>
+        <v>175</v>
       </c>
       <c r="G17" s="1">
-        <v>3800</v>
+        <v>175</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3">
-        <v>1810814861</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3500</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2500</v>
+        <v>1660194234</v>
       </c>
       <c r="F18" s="1">
-        <v>2800</v>
+        <v>175</v>
       </c>
       <c r="G18" s="1">
-        <v>3800</v>
+        <v>175</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3">
-        <v>5284577962</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3500</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2500</v>
+        <v>1808276732</v>
       </c>
       <c r="F19" s="1">
-        <v>2800</v>
+        <v>175</v>
       </c>
       <c r="G19" s="1">
-        <v>3800</v>
+        <v>175</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>116</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>6446620323</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2000</v>
+        <v>2058219204</v>
       </c>
       <c r="F20" s="1">
-        <v>2300</v>
+        <v>350</v>
       </c>
       <c r="G20" s="1">
-        <v>3300</v>
+        <v>350</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="B21" s="3">
+        <v>2058195450</v>
+      </c>
+      <c r="F21" s="1">
+        <v>350</v>
+      </c>
+      <c r="G21" s="1">
+        <v>350</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="B22" s="3">
+        <v>2058198794</v>
+      </c>
+      <c r="F22" s="1">
+        <v>175</v>
+      </c>
+      <c r="G22" s="1">
+        <v>175</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2058219960</v>
+      </c>
+      <c r="F23" s="1">
+        <v>175</v>
+      </c>
+      <c r="G23" s="1">
+        <v>175</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2006994430</v>
+      </c>
+      <c r="F24" s="1">
+        <v>175</v>
+      </c>
+      <c r="G24" s="1">
+        <v>175</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2014254992</v>
+      </c>
+      <c r="F25" s="1">
+        <v>175</v>
+      </c>
+      <c r="G25" s="1">
+        <v>175</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2014496090</v>
+      </c>
+      <c r="F26" s="1">
+        <v>175</v>
+      </c>
+      <c r="G26" s="1">
+        <v>175</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1660199295</v>
+      </c>
+      <c r="F27" s="1">
+        <v>175</v>
+      </c>
+      <c r="G27" s="1">
+        <v>175</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1826231657</v>
+      </c>
+      <c r="F28" s="1">
+        <v>175</v>
+      </c>
+      <c r="G28" s="1">
+        <v>175</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1826252531</v>
+      </c>
+      <c r="F29" s="1">
+        <v>175</v>
+      </c>
+      <c r="G29" s="1">
+        <v>175</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2058219352</v>
+      </c>
+      <c r="F30" s="1">
+        <v>175</v>
+      </c>
+      <c r="G30" s="1">
+        <v>175</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2014446434</v>
+      </c>
+      <c r="F31" s="1">
+        <v>350</v>
+      </c>
+      <c r="G31" s="1">
+        <v>350</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1834572032</v>
+      </c>
+      <c r="F32" s="1">
+        <v>175</v>
+      </c>
+      <c r="G32" s="1">
+        <v>175</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2006862570</v>
+      </c>
+      <c r="F33" s="1">
+        <v>175</v>
+      </c>
+      <c r="G33" s="1">
+        <v>175</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1660177187</v>
+      </c>
+      <c r="F34" s="1">
+        <v>175</v>
+      </c>
+      <c r="G34" s="1">
+        <v>175</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2014392672</v>
+      </c>
+      <c r="F35" s="1">
+        <v>175</v>
+      </c>
+      <c r="G35" s="1">
+        <v>175</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2058198610</v>
+      </c>
+      <c r="F36" s="1">
+        <v>175</v>
+      </c>
+      <c r="G36" s="1">
+        <v>175</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1661214867</v>
+      </c>
+      <c r="F37" s="1">
+        <v>175</v>
+      </c>
+      <c r="G37" s="1">
+        <v>175</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2058199410</v>
+      </c>
+      <c r="F38" s="1">
+        <v>175</v>
+      </c>
+      <c r="G38" s="1">
+        <v>175</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1661051094</v>
+      </c>
+      <c r="F39" s="1">
+        <v>350</v>
+      </c>
+      <c r="G39" s="1">
+        <v>350</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1796639750</v>
+      </c>
+      <c r="F40" s="1">
+        <v>175</v>
+      </c>
+      <c r="G40" s="1">
+        <v>175</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1795017914</v>
+      </c>
+      <c r="F41" s="1">
+        <v>175</v>
+      </c>
+      <c r="G41" s="1">
+        <v>175</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2014444124</v>
+      </c>
+      <c r="F42" s="1">
+        <v>175</v>
+      </c>
+      <c r="G42" s="1">
+        <v>175</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2014380342</v>
+      </c>
+      <c r="F43" s="1">
+        <v>175</v>
+      </c>
+      <c r="G43" s="1">
+        <v>175</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2032556423</v>
+      </c>
+      <c r="F44" s="1">
+        <v>175</v>
+      </c>
+      <c r="G44" s="1">
+        <v>175</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3922518845</v>
+      </c>
+      <c r="F45" s="1">
+        <v>70</v>
+      </c>
+      <c r="G45" s="1">
+        <v>70</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3881216476</v>
+      </c>
+      <c r="F46" s="1">
+        <v>70</v>
+      </c>
+      <c r="G46" s="1">
+        <v>70</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1998828403</v>
+      </c>
+      <c r="F47" s="1">
+        <v>175</v>
+      </c>
+      <c r="G47" s="1">
+        <v>175</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1790939773</v>
+      </c>
+      <c r="F48" s="1">
+        <v>350</v>
+      </c>
+      <c r="G48" s="1">
+        <v>350</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2014355692</v>
+      </c>
+      <c r="F49" s="1">
+        <v>175</v>
+      </c>
+      <c r="G49" s="1">
+        <v>175</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2014190000</v>
+      </c>
+      <c r="F50" s="1">
+        <v>175</v>
+      </c>
+      <c r="G50" s="1">
+        <v>175</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2014354332</v>
+      </c>
+      <c r="F51" s="1">
+        <v>175</v>
+      </c>
+      <c r="G51" s="1">
+        <v>175</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2058198874</v>
+      </c>
+      <c r="F52" s="1">
+        <v>175</v>
+      </c>
+      <c r="G52" s="1">
+        <v>175</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2014449444</v>
+      </c>
+      <c r="F53" s="1">
+        <v>350</v>
+      </c>
+      <c r="G53" s="1">
+        <v>350</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2014380324</v>
+      </c>
+      <c r="F54" s="1">
+        <v>175</v>
+      </c>
+      <c r="G54" s="1">
+        <v>175</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2058197614</v>
+      </c>
+      <c r="F55" s="1">
+        <v>175</v>
+      </c>
+      <c r="G55" s="1">
+        <v>175</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1912412887</v>
+      </c>
+      <c r="F56" s="1">
+        <v>175</v>
+      </c>
+      <c r="G56" s="1">
+        <v>175</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2013166182</v>
+      </c>
+      <c r="F57" s="1">
+        <v>175</v>
+      </c>
+      <c r="G57" s="1">
+        <v>175</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2058198254</v>
+      </c>
+      <c r="F58" s="1">
+        <v>175</v>
+      </c>
+      <c r="G58" s="1">
+        <v>175</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2014205940</v>
+      </c>
+      <c r="F59" s="1">
+        <v>175</v>
+      </c>
+      <c r="G59" s="1">
+        <v>175</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2014267224</v>
+      </c>
+      <c r="F60" s="1">
+        <v>175</v>
+      </c>
+      <c r="G60" s="1">
+        <v>175</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2014203140</v>
+      </c>
+      <c r="F61" s="1">
+        <v>175</v>
+      </c>
+      <c r="G61" s="1">
+        <v>175</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2014196892</v>
+      </c>
+      <c r="F62" s="1">
+        <v>175</v>
+      </c>
+      <c r="G62" s="1">
+        <v>175</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2014229294</v>
+      </c>
+      <c r="F63" s="1">
+        <v>175</v>
+      </c>
+      <c r="G63" s="1">
+        <v>175</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2014526734</v>
+      </c>
+      <c r="F64" s="1">
+        <v>175</v>
+      </c>
+      <c r="G64" s="1">
+        <v>175</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2014207130</v>
+      </c>
+      <c r="F65" s="1">
+        <v>175</v>
+      </c>
+      <c r="G65" s="1">
+        <v>175</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="3">
+        <v>531536781</v>
+      </c>
+      <c r="F66" s="1">
+        <v>175</v>
+      </c>
+      <c r="G66" s="1">
+        <v>175</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2013159890</v>
+      </c>
+      <c r="F67" s="1">
+        <v>175</v>
+      </c>
+      <c r="G67" s="1">
+        <v>175</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2013149224</v>
+      </c>
+      <c r="F68" s="1">
+        <v>175</v>
+      </c>
+      <c r="G68" s="1">
+        <v>175</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1832151932</v>
+      </c>
+      <c r="F69" s="1">
+        <v>175</v>
+      </c>
+      <c r="G69" s="1">
+        <v>175</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2014375402</v>
+      </c>
+      <c r="F70" s="1">
+        <v>175</v>
+      </c>
+      <c r="G70" s="1">
+        <v>175</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1826252511</v>
+      </c>
+      <c r="F71" s="1">
+        <v>175</v>
+      </c>
+      <c r="G71" s="1">
+        <v>175</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1826231677</v>
+      </c>
+      <c r="F72" s="1">
+        <v>70</v>
+      </c>
+      <c r="G72" s="1">
+        <v>70</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2072693290</v>
+      </c>
+      <c r="F73" s="1">
+        <v>175</v>
+      </c>
+      <c r="G73" s="1">
+        <v>175</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1661044692</v>
+      </c>
+      <c r="F74" s="1">
+        <v>175</v>
+      </c>
+      <c r="G74" s="1">
+        <v>175</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2014369372</v>
+      </c>
+      <c r="F75" s="1">
+        <v>175</v>
+      </c>
+      <c r="G75" s="1">
+        <v>175</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2014428194</v>
+      </c>
+      <c r="F76" s="1">
+        <v>175</v>
+      </c>
+      <c r="G76" s="1">
+        <v>175</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1661057554</v>
+      </c>
+      <c r="F77" s="1">
+        <v>350</v>
+      </c>
+      <c r="G77" s="1">
+        <v>350</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2058218964</v>
+      </c>
+      <c r="F78" s="1">
+        <v>175</v>
+      </c>
+      <c r="G78" s="1">
+        <v>175</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2058196042</v>
+      </c>
+      <c r="F79" s="1">
+        <v>350</v>
+      </c>
+      <c r="G79" s="1">
+        <v>350</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2014222170</v>
+      </c>
+      <c r="F80" s="1">
+        <v>175</v>
+      </c>
+      <c r="G80" s="1">
+        <v>175</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2058220360</v>
+      </c>
+      <c r="F81" s="1">
+        <v>175</v>
+      </c>
+      <c r="G81" s="1">
+        <v>175</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2014326642</v>
+      </c>
+      <c r="F82" s="1">
+        <v>175</v>
+      </c>
+      <c r="G82" s="1">
+        <v>175</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1660934270</v>
+      </c>
+      <c r="F83" s="1">
+        <v>175</v>
+      </c>
+      <c r="G83" s="1">
+        <v>175</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1660938461</v>
+      </c>
+      <c r="F84" s="1">
+        <v>350</v>
+      </c>
+      <c r="G84" s="1">
+        <v>350</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2072695110</v>
+      </c>
+      <c r="F85" s="1">
+        <v>350</v>
+      </c>
+      <c r="G85" s="1">
+        <v>350</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2014212154</v>
+      </c>
+      <c r="F86" s="1">
+        <v>175</v>
+      </c>
+      <c r="G86" s="1">
+        <v>175</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2014426234</v>
+      </c>
+      <c r="F87" s="1">
+        <v>175</v>
+      </c>
+      <c r="G87" s="1">
+        <v>175</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1795094984</v>
+      </c>
+      <c r="F88" s="1">
+        <v>175</v>
+      </c>
+      <c r="G88" s="1">
+        <v>175</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1808036054</v>
+      </c>
+      <c r="F89" s="1">
+        <v>175</v>
+      </c>
+      <c r="G89" s="1">
+        <v>175</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1808285132</v>
+      </c>
+      <c r="F90" s="1">
+        <v>175</v>
+      </c>
+      <c r="G90" s="1">
+        <v>175</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1808101454</v>
+      </c>
+      <c r="F91" s="1">
+        <v>175</v>
+      </c>
+      <c r="G91" s="1">
+        <v>175</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1826253475</v>
+      </c>
+      <c r="F92" s="1">
+        <v>175</v>
+      </c>
+      <c r="G92" s="1">
+        <v>175</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1808035614</v>
+      </c>
+      <c r="F93" s="1">
+        <v>175</v>
+      </c>
+      <c r="G93" s="1">
+        <v>175</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1826252661</v>
+      </c>
+      <c r="F94" s="1">
+        <v>175</v>
+      </c>
+      <c r="G94" s="1">
+        <v>175</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1826232403</v>
+      </c>
+      <c r="F95" s="1">
+        <v>175</v>
+      </c>
+      <c r="G95" s="1">
+        <v>175</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1826231833</v>
+      </c>
+      <c r="F96" s="1">
+        <v>175</v>
+      </c>
+      <c r="G96" s="1">
+        <v>175</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1808278064</v>
+      </c>
+      <c r="F97" s="1">
+        <v>175</v>
+      </c>
+      <c r="G97" s="1">
+        <v>175</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1808095554</v>
+      </c>
+      <c r="F98" s="1">
+        <v>175</v>
+      </c>
+      <c r="G98" s="1">
+        <v>175</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1842648290</v>
+      </c>
+      <c r="F99" s="1">
+        <v>175</v>
+      </c>
+      <c r="G99" s="1">
+        <v>175</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1842648250</v>
+      </c>
+      <c r="F100" s="1">
+        <v>175</v>
+      </c>
+      <c r="G100" s="1">
+        <v>175</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="199">
   <si>
     <t>名称</t>
   </si>
@@ -71,111 +71,9 @@
     <t>娱乐</t>
   </si>
   <si>
-    <t>地域</t>
-  </si>
-  <si>
-    <t>数码科技</t>
-  </si>
-  <si>
     <t>财经</t>
   </si>
   <si>
-    <t>冯璧晴</t>
-  </si>
-  <si>
-    <t>Model李畅</t>
-  </si>
-  <si>
-    <t>育儿宝贝</t>
-  </si>
-  <si>
-    <t>亲子教育堂</t>
-  </si>
-  <si>
-    <t>育儿成功课堂</t>
-  </si>
-  <si>
-    <t>掌门说育儿</t>
-  </si>
-  <si>
-    <t>XGANG街头社群基地</t>
-  </si>
-  <si>
-    <t>掌门说车</t>
-  </si>
-  <si>
-    <t>斗逗车</t>
-  </si>
-  <si>
-    <t>车懂帝</t>
-  </si>
-  <si>
-    <t>XgangChannel</t>
-  </si>
-  <si>
-    <t>天津吃喝玩乐榜</t>
-  </si>
-  <si>
-    <t>极品馋货</t>
-  </si>
-  <si>
-    <t>掌门说美食</t>
-  </si>
-  <si>
-    <t>美食魔力</t>
-  </si>
-  <si>
-    <t>好游戏</t>
-  </si>
-  <si>
-    <t>旅行中的事儿</t>
-  </si>
-  <si>
-    <t>背包天下行</t>
-  </si>
-  <si>
-    <t>我去环游全世界</t>
-  </si>
-  <si>
-    <t>牵她去旅行</t>
-  </si>
-  <si>
-    <t>掌门说旅行</t>
-  </si>
-  <si>
-    <t>情感深处</t>
-  </si>
-  <si>
-    <t>思想信条</t>
-  </si>
-  <si>
-    <t>情感心树</t>
-  </si>
-  <si>
-    <t>掌门有话说</t>
-  </si>
-  <si>
-    <t>运动在线</t>
-  </si>
-  <si>
-    <t>金融探索</t>
-  </si>
-  <si>
-    <t>金融老总</t>
-  </si>
-  <si>
-    <t>新新数码</t>
-  </si>
-  <si>
-    <t>华泰科技</t>
-  </si>
-  <si>
-    <t>手机IT</t>
-  </si>
-  <si>
-    <t>明星名人</t>
-  </si>
-  <si>
     <t>母婴育儿</t>
   </si>
   <si>
@@ -185,25 +83,548 @@
     <t>游戏</t>
   </si>
   <si>
-    <t>旅游</t>
-  </si>
-  <si>
-    <t>情感</t>
-  </si>
-  <si>
-    <t>运动</t>
-  </si>
-  <si>
-    <t>X1801171007430208</t>
-  </si>
-  <si>
-    <t>刘玲</t>
-  </si>
-  <si>
-    <t>X1712181338330003</t>
-  </si>
-  <si>
-    <t>通用金融</t>
+    <t>我叫王宇</t>
+  </si>
+  <si>
+    <t>魔太郎饭团</t>
+  </si>
+  <si>
+    <t>蜜桃姗子</t>
+  </si>
+  <si>
+    <t>樱桃八木</t>
+  </si>
+  <si>
+    <t>南国妈咪呀</t>
+  </si>
+  <si>
+    <t>隐形的月半子</t>
+  </si>
+  <si>
+    <t>科技小蜀黍</t>
+  </si>
+  <si>
+    <t>我的老公腿很长</t>
+  </si>
+  <si>
+    <t>淘手粉小姐</t>
+  </si>
+  <si>
+    <t>栗子的萌宠生活</t>
+  </si>
+  <si>
+    <t>奶爹汪司徒</t>
+  </si>
+  <si>
+    <t>少女琪琪酱</t>
+  </si>
+  <si>
+    <t>小嘴吃酱</t>
+  </si>
+  <si>
+    <t>剧情有点咸</t>
+  </si>
+  <si>
+    <t>饭团萌萌酱</t>
+  </si>
+  <si>
+    <t>嗨趣闻_</t>
+  </si>
+  <si>
+    <t>娱乐速报社</t>
+  </si>
+  <si>
+    <t>综艺少女爱吐槽</t>
+  </si>
+  <si>
+    <t>电竞中郎节</t>
+  </si>
+  <si>
+    <t>一块面团大人</t>
+  </si>
+  <si>
+    <t>二次元的幻想家客栈</t>
+  </si>
+  <si>
+    <t>钓鱼有高招</t>
+  </si>
+  <si>
+    <t>狗子撩剧</t>
+  </si>
+  <si>
+    <t>热门体育大推荐</t>
+  </si>
+  <si>
+    <t>我的老婆腿很短</t>
+  </si>
+  <si>
+    <t>娱乐匪娘</t>
+  </si>
+  <si>
+    <t>娱乐圈小木瓜</t>
+  </si>
+  <si>
+    <t>南昌文艺汇</t>
+  </si>
+  <si>
+    <t>娱乐四方</t>
+  </si>
+  <si>
+    <t>南昌新鲜趣事</t>
+  </si>
+  <si>
+    <t>栀恍偌浮云</t>
+  </si>
+  <si>
+    <t>娱我而言</t>
+  </si>
+  <si>
+    <t>璐璐爱八卦</t>
+  </si>
+  <si>
+    <t>小苗讲娱乐</t>
+  </si>
+  <si>
+    <t>娱乐共享吧</t>
+  </si>
+  <si>
+    <t>fire体坛</t>
+  </si>
+  <si>
+    <t>啃噬综艺少女</t>
+  </si>
+  <si>
+    <t>娱乐故事楼</t>
+  </si>
+  <si>
+    <t>娱乐小怪咖</t>
+  </si>
+  <si>
+    <t>综艺吐槽萌萌酱</t>
+  </si>
+  <si>
+    <t>娱乐喵喵叫</t>
+  </si>
+  <si>
+    <t>最强娱乐圈</t>
+  </si>
+  <si>
+    <t>不然综艺</t>
+  </si>
+  <si>
+    <t>八戒讲电影</t>
+  </si>
+  <si>
+    <t>非常娱乐屋</t>
+  </si>
+  <si>
+    <t>娱乐画中人</t>
+  </si>
+  <si>
+    <t>综艺小灯泡</t>
+  </si>
+  <si>
+    <t>港澳时间轴</t>
+  </si>
+  <si>
+    <t>搞机先驱</t>
+  </si>
+  <si>
+    <t>综艺小裤头</t>
+  </si>
+  <si>
+    <t>娱子成说</t>
+  </si>
+  <si>
+    <t>小小人听娱乐</t>
+  </si>
+  <si>
+    <t>娱乐小小报</t>
+  </si>
+  <si>
+    <t>世俗少女爱清净</t>
+  </si>
+  <si>
+    <t>娱乐小强人</t>
+  </si>
+  <si>
+    <t>娱乐小故事</t>
+  </si>
+  <si>
+    <t>综艺纸飞机</t>
+  </si>
+  <si>
+    <t>一桶三国娱乐酱</t>
+  </si>
+  <si>
+    <t>扶风一过</t>
+  </si>
+  <si>
+    <t>常常讲八卦</t>
+  </si>
+  <si>
+    <t>娱乐小咨询</t>
+  </si>
+  <si>
+    <t>娱乐利斯塔</t>
+  </si>
+  <si>
+    <t>兜里数码</t>
+  </si>
+  <si>
+    <t>娱乐少女吐槽</t>
+  </si>
+  <si>
+    <t>怀念剧</t>
+  </si>
+  <si>
+    <t>叶麟学长蔡徐坤</t>
+  </si>
+  <si>
+    <t>娱乐萌主王大婶</t>
+  </si>
+  <si>
+    <t>综艺巴扎嘿</t>
+  </si>
+  <si>
+    <t>娱蜀蜀</t>
+  </si>
+  <si>
+    <t>娱乐黑白配</t>
+  </si>
+  <si>
+    <t>你土不娱乐蜀黍</t>
+  </si>
+  <si>
+    <t>粉红太阳呀</t>
+  </si>
+  <si>
+    <t>娱乐桃子西</t>
+  </si>
+  <si>
+    <t>NBA鹿先森</t>
+  </si>
+  <si>
+    <t>欧美经典电影大推荐</t>
+  </si>
+  <si>
+    <t>鹿人咖</t>
+  </si>
+  <si>
+    <t>娱乐有点豆</t>
+  </si>
+  <si>
+    <t>扒扒课代表</t>
+  </si>
+  <si>
+    <t>星探妖妖小帅哥</t>
+  </si>
+  <si>
+    <t>你土不娱乐小哥</t>
+  </si>
+  <si>
+    <t>娱乐戏班主</t>
+  </si>
+  <si>
+    <t>笔尖科技</t>
+  </si>
+  <si>
+    <t>胸小女孩都贴心</t>
+  </si>
+  <si>
+    <t>星空天闻</t>
+  </si>
+  <si>
+    <t>抱紧我的大腿快</t>
+  </si>
+  <si>
+    <t>克磊特</t>
+  </si>
+  <si>
+    <t>剧好看u</t>
+  </si>
+  <si>
+    <t>八卦故事中心</t>
+  </si>
+  <si>
+    <t>娱乐简单说</t>
+  </si>
+  <si>
+    <t>星娱范儿姐</t>
+  </si>
+  <si>
+    <t>生活小小人说</t>
+  </si>
+  <si>
+    <t>财经点金手</t>
+  </si>
+  <si>
+    <t>美食教学酱</t>
+  </si>
+  <si>
+    <t>厨娘美食酱</t>
+  </si>
+  <si>
+    <t>娱乐天地等你报道</t>
+  </si>
+  <si>
+    <t>橙子酱吃不饱</t>
+  </si>
+  <si>
+    <t>熊熊撩大片</t>
+  </si>
+  <si>
+    <t>白糖柚子茶</t>
+  </si>
+  <si>
+    <t>一只善良的cat</t>
+  </si>
+  <si>
+    <t>星娱吐槽君</t>
+  </si>
+  <si>
+    <t>星娱有料</t>
+  </si>
+  <si>
+    <t>星娱影视菌</t>
+  </si>
+  <si>
+    <t>星娱热评</t>
+  </si>
+  <si>
+    <t>美妞小酒窝</t>
+  </si>
+  <si>
+    <t>一块发糕大人</t>
+  </si>
+  <si>
+    <t>一块五花哟</t>
+  </si>
+  <si>
+    <t>红妖掌柜</t>
+  </si>
+  <si>
+    <t>美食猪太郎</t>
+  </si>
+  <si>
+    <t>水原柚子酱</t>
+  </si>
+  <si>
+    <t>科学怪妈</t>
+  </si>
+  <si>
+    <t>好车品鉴</t>
+  </si>
+  <si>
+    <t>种草少女木木酱</t>
+  </si>
+  <si>
+    <t>小诺撩大片</t>
+  </si>
+  <si>
+    <t>皮皮影视馆</t>
+  </si>
+  <si>
+    <t>凡人撩大片</t>
+  </si>
+  <si>
+    <t>不二放映室</t>
+  </si>
+  <si>
+    <t>猴哥讲故事</t>
+  </si>
+  <si>
+    <t>老崔侃大片</t>
+  </si>
+  <si>
+    <t>文艺影君子</t>
+  </si>
+  <si>
+    <t>柯南影片馆</t>
+  </si>
+  <si>
+    <t>一休影片馆</t>
+  </si>
+  <si>
+    <t>声说汇影</t>
+  </si>
+  <si>
+    <t>九月讲故事</t>
+  </si>
+  <si>
+    <t>便当讲电影</t>
+  </si>
+  <si>
+    <t>厄舍信使</t>
+  </si>
+  <si>
+    <t>星娱草莓酱</t>
+  </si>
+  <si>
+    <t>星娱长腿少女</t>
+  </si>
+  <si>
+    <t>星娱趣事</t>
+  </si>
+  <si>
+    <t>星娱桃花酱</t>
+  </si>
+  <si>
+    <t>易弥烊光</t>
+  </si>
+  <si>
+    <t>星娱官人</t>
+  </si>
+  <si>
+    <t>星娱喵星人</t>
+  </si>
+  <si>
+    <t>星娱澜小绿</t>
+  </si>
+  <si>
+    <t>星娱小哥哥</t>
+  </si>
+  <si>
+    <t>星娱一朵气质花</t>
+  </si>
+  <si>
+    <t>逛影十二君</t>
+  </si>
+  <si>
+    <t>星娱卡布叻</t>
+  </si>
+  <si>
+    <t>星娱尼尔</t>
+  </si>
+  <si>
+    <t>星娱伏地魔大佬</t>
+  </si>
+  <si>
+    <t>魔力时尚涨姿势</t>
+  </si>
+  <si>
+    <t>深夜娱乐鸡汤</t>
+  </si>
+  <si>
+    <t>西瓜娱乐热八卦</t>
+  </si>
+  <si>
+    <t>娱乐独木舟</t>
+  </si>
+  <si>
+    <t>娱乐综艺传真机</t>
+  </si>
+  <si>
+    <t>综艺娱乐小警花</t>
+  </si>
+  <si>
+    <t>音乐摇滚班</t>
+  </si>
+  <si>
+    <t>劲歌金曲排行</t>
+  </si>
+  <si>
+    <t>劲音乐金曲库</t>
+  </si>
+  <si>
+    <t>经典音乐时刻</t>
+  </si>
+  <si>
+    <t>网络流行金曲榜</t>
+  </si>
+  <si>
+    <t>半旧时尚新生活</t>
+  </si>
+  <si>
+    <t>时尚咖青年社</t>
+  </si>
+  <si>
+    <t>烹饪生活圈</t>
+  </si>
+  <si>
+    <t>烘焙少女杂记</t>
+  </si>
+  <si>
+    <t>二次元喵妹</t>
+  </si>
+  <si>
+    <t>萌妹喵说动漫</t>
+  </si>
+  <si>
+    <t>动漫咻咻咻</t>
+  </si>
+  <si>
+    <t>喵娘的日常</t>
+  </si>
+  <si>
+    <t>动漫听你说</t>
+  </si>
+  <si>
+    <t>艾米说电影</t>
+  </si>
+  <si>
+    <t>斑马姐说</t>
+  </si>
+  <si>
+    <t>豪哥讲电影</t>
+  </si>
+  <si>
+    <t>浪哥说故事</t>
+  </si>
+  <si>
+    <t>麦子故事人生</t>
+  </si>
+  <si>
+    <t>猫妹影视解说</t>
+  </si>
+  <si>
+    <t>少年说故事</t>
+  </si>
+  <si>
+    <t>纯姐说</t>
+  </si>
+  <si>
+    <t>玲妹说电影</t>
+  </si>
+  <si>
+    <t>跟风电影</t>
+  </si>
+  <si>
+    <t>X1812191116106886</t>
+  </si>
+  <si>
+    <t>动漫</t>
+  </si>
+  <si>
+    <t>女性时尚</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>数码</t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>影视</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>李璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1712181347380009</t>
   </si>
 </sst>
 </file>
@@ -572,11 +993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="L165" sqref="L165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -635,930 +1056,4396 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3">
-        <v>1706948865</v>
-      </c>
-      <c r="C2" s="1">
-        <v>200</v>
+        <v>6561918352</v>
       </c>
       <c r="F2" s="1">
-        <v>900</v>
+        <v>2528</v>
       </c>
       <c r="G2" s="1">
-        <v>900</v>
+        <v>2063</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
-        <v>3068305520</v>
-      </c>
-      <c r="C3" s="1">
-        <v>80</v>
+        <v>6679673107</v>
       </c>
       <c r="F3" s="1">
-        <v>900</v>
+        <v>1838</v>
       </c>
       <c r="G3" s="1">
-        <v>900</v>
+        <v>1530</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
-        <v>3038264174</v>
-      </c>
-      <c r="C4" s="1">
-        <v>143</v>
+        <v>6677945695</v>
       </c>
       <c r="F4" s="1">
-        <v>900</v>
+        <v>1238</v>
       </c>
       <c r="G4" s="1">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3">
-        <v>3214590583</v>
-      </c>
-      <c r="C5" s="1">
-        <v>141</v>
+        <v>6677970705</v>
       </c>
       <c r="F5" s="1">
-        <v>900</v>
+        <v>1238</v>
       </c>
       <c r="G5" s="1">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3">
-        <v>2917138393</v>
-      </c>
-      <c r="C6" s="1">
-        <v>203</v>
+        <v>6655428214</v>
       </c>
       <c r="F6" s="1">
-        <v>900</v>
+        <v>915</v>
       </c>
       <c r="G6" s="1">
-        <v>900</v>
+        <v>735</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3">
-        <v>2925189864</v>
-      </c>
-      <c r="C7" s="1">
-        <v>202</v>
+        <v>6420900940</v>
       </c>
       <c r="F7" s="1">
-        <v>900</v>
+        <v>3060</v>
       </c>
       <c r="G7" s="1">
-        <v>900</v>
+        <v>2753</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
-        <v>6621300144</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6.5</v>
+        <v>6391433477</v>
       </c>
       <c r="F8" s="1">
-        <v>900</v>
+        <v>3825</v>
       </c>
       <c r="G8" s="1">
-        <v>900</v>
+        <v>3518</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>2921213141</v>
-      </c>
-      <c r="C9" s="1">
-        <v>202</v>
+        <v>6400788223</v>
       </c>
       <c r="F9" s="1">
-        <v>900</v>
+        <v>3060</v>
       </c>
       <c r="G9" s="1">
-        <v>900</v>
+        <v>2753</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3">
-        <v>2917268417</v>
-      </c>
-      <c r="C10" s="1">
-        <v>202</v>
+        <v>6391154771</v>
       </c>
       <c r="F10" s="1">
-        <v>900</v>
+        <v>3368</v>
       </c>
       <c r="G10" s="1">
-        <v>900</v>
+        <v>3060</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3">
-        <v>2925962110</v>
-      </c>
-      <c r="C11" s="1">
-        <v>199</v>
+        <v>6391154759</v>
       </c>
       <c r="F11" s="1">
-        <v>900</v>
+        <v>2910</v>
       </c>
       <c r="G11" s="1">
-        <v>900</v>
+        <v>2603</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3">
-        <v>3885502113</v>
-      </c>
-      <c r="C12" s="1">
-        <v>35</v>
+        <v>6400788248</v>
       </c>
       <c r="F12" s="1">
-        <v>900</v>
+        <v>2910</v>
       </c>
       <c r="G12" s="1">
-        <v>900</v>
+        <v>2603</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3">
-        <v>3069067070</v>
-      </c>
-      <c r="C13" s="1">
-        <v>101</v>
+        <v>6400788233</v>
       </c>
       <c r="F13" s="1">
-        <v>900</v>
+        <v>3368</v>
       </c>
       <c r="G13" s="1">
-        <v>900</v>
+        <v>3060</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3">
-        <v>2925912622</v>
-      </c>
-      <c r="C14" s="1">
-        <v>202</v>
+        <v>6401085680</v>
       </c>
       <c r="F14" s="1">
-        <v>900</v>
+        <v>2910</v>
       </c>
       <c r="G14" s="1">
-        <v>900</v>
+        <v>2603</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3">
-        <v>2927754554</v>
-      </c>
-      <c r="C15" s="1">
-        <v>202</v>
+        <v>6414243073</v>
       </c>
       <c r="F15" s="1">
-        <v>900</v>
+        <v>2295</v>
       </c>
       <c r="G15" s="1">
-        <v>900</v>
+        <v>2063</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3">
-        <v>2956842650</v>
-      </c>
-      <c r="C16" s="1">
-        <v>202</v>
+        <v>6391433484</v>
       </c>
       <c r="F16" s="1">
-        <v>900</v>
+        <v>2910</v>
       </c>
       <c r="G16" s="1">
-        <v>900</v>
+        <v>2603</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3">
-        <v>3095007634</v>
-      </c>
-      <c r="C17" s="1">
-        <v>143</v>
+        <v>6400788238</v>
       </c>
       <c r="F17" s="1">
-        <v>900</v>
+        <v>2910</v>
       </c>
       <c r="G17" s="1">
-        <v>900</v>
+        <v>2603</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3">
-        <v>3095115052</v>
-      </c>
-      <c r="C18" s="1">
-        <v>132</v>
+        <v>6414541964</v>
       </c>
       <c r="F18" s="1">
-        <v>900</v>
+        <v>2295</v>
       </c>
       <c r="G18" s="1">
-        <v>900</v>
+        <v>2063</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3">
-        <v>3037394930</v>
-      </c>
-      <c r="C19" s="1">
-        <v>161</v>
+        <v>6414242992</v>
       </c>
       <c r="F19" s="1">
-        <v>900</v>
+        <v>2295</v>
       </c>
       <c r="G19" s="1">
-        <v>900</v>
+        <v>2063</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3">
-        <v>3214049267</v>
-      </c>
-      <c r="C20" s="1">
-        <v>151</v>
+        <v>6400788227</v>
       </c>
       <c r="F20" s="1">
-        <v>900</v>
+        <v>1695</v>
       </c>
       <c r="G20" s="1">
-        <v>900</v>
+        <v>1455</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3">
-        <v>3038286534</v>
-      </c>
-      <c r="C21" s="1">
-        <v>102</v>
+        <v>6391154760</v>
       </c>
       <c r="F21" s="1">
-        <v>900</v>
+        <v>2910</v>
       </c>
       <c r="G21" s="1">
-        <v>900</v>
+        <v>2603</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3">
-        <v>3095021502</v>
-      </c>
-      <c r="C22" s="1">
-        <v>173</v>
+        <v>6391154757</v>
       </c>
       <c r="F22" s="1">
-        <v>900</v>
+        <v>2063</v>
       </c>
       <c r="G22" s="1">
-        <v>900</v>
+        <v>1838</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3">
-        <v>3038258102</v>
-      </c>
-      <c r="C23" s="1">
-        <v>125</v>
+        <v>6401085653</v>
       </c>
       <c r="F23" s="1">
-        <v>900</v>
+        <v>2295</v>
       </c>
       <c r="G23" s="1">
-        <v>900</v>
+        <v>2063</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3">
-        <v>3214587067</v>
-      </c>
-      <c r="C24" s="1">
-        <v>159</v>
+        <v>6400788245</v>
       </c>
       <c r="F24" s="1">
-        <v>900</v>
+        <v>1695</v>
       </c>
       <c r="G24" s="1">
-        <v>900</v>
+        <v>1455</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3">
-        <v>3094070474</v>
-      </c>
-      <c r="C25" s="1">
-        <v>128</v>
+        <v>6401085627</v>
       </c>
       <c r="F25" s="1">
-        <v>900</v>
+        <v>1695</v>
       </c>
       <c r="G25" s="1">
-        <v>900</v>
+        <v>1455</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3">
-        <v>3094067374</v>
-      </c>
-      <c r="C26" s="1">
-        <v>111</v>
+        <v>6421122292</v>
       </c>
       <c r="F26" s="1">
-        <v>900</v>
+        <v>1380</v>
       </c>
       <c r="G26" s="1">
-        <v>900</v>
+        <v>1073</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3">
-        <v>3038265264</v>
-      </c>
-      <c r="C27" s="1">
-        <v>166</v>
+        <v>6414541967</v>
       </c>
       <c r="F27" s="1">
-        <v>900</v>
+        <v>1380</v>
       </c>
       <c r="G27" s="1">
-        <v>900</v>
+        <v>1073</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3">
-        <v>3038056492</v>
-      </c>
-      <c r="C28" s="1">
-        <v>140</v>
+        <v>6421122271</v>
       </c>
       <c r="F28" s="1">
-        <v>900</v>
+        <v>1380</v>
       </c>
       <c r="G28" s="1">
-        <v>900</v>
+        <v>1073</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3">
-        <v>3212995687</v>
-      </c>
-      <c r="C29" s="1">
-        <v>150</v>
+        <v>6414541977</v>
       </c>
       <c r="F29" s="1">
-        <v>900</v>
+        <v>1380</v>
       </c>
       <c r="G29" s="1">
-        <v>900</v>
+        <v>1073</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3">
-        <v>3095017092</v>
-      </c>
-      <c r="C30" s="1">
-        <v>135</v>
+        <v>6414542025</v>
       </c>
       <c r="F30" s="1">
-        <v>900</v>
+        <v>735</v>
       </c>
       <c r="G30" s="1">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="3">
-        <v>3095010242</v>
-      </c>
-      <c r="C31" s="1">
-        <v>129</v>
+        <v>6414542031</v>
       </c>
       <c r="F31" s="1">
-        <v>900</v>
+        <v>735</v>
       </c>
       <c r="G31" s="1">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3">
-        <v>3094139724</v>
-      </c>
-      <c r="C32" s="1">
-        <v>109</v>
+        <v>6414542035</v>
       </c>
       <c r="F32" s="1">
-        <v>900</v>
+        <v>735</v>
       </c>
       <c r="G32" s="1">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" s="3">
-        <v>3116491485</v>
-      </c>
-      <c r="C33" s="1">
+        <v>6414243033</v>
+      </c>
+      <c r="F33" s="1">
+        <v>735</v>
+      </c>
+      <c r="G33" s="1">
+        <v>660</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6421122241</v>
+      </c>
+      <c r="F34" s="1">
+        <v>735</v>
+      </c>
+      <c r="G34" s="1">
+        <v>660</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6420900850</v>
+      </c>
+      <c r="F35" s="1">
+        <v>735</v>
+      </c>
+      <c r="G35" s="1">
+        <v>660</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6414541981</v>
+      </c>
+      <c r="F36" s="1">
+        <v>735</v>
+      </c>
+      <c r="G36" s="1">
+        <v>660</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6400788222</v>
+      </c>
+      <c r="F37" s="1">
+        <v>735</v>
+      </c>
+      <c r="G37" s="1">
+        <v>660</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="3">
+        <v>6421122287</v>
+      </c>
+      <c r="F38" s="1">
+        <v>735</v>
+      </c>
+      <c r="G38" s="1">
+        <v>660</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6414541975</v>
+      </c>
+      <c r="F39" s="1">
+        <v>735</v>
+      </c>
+      <c r="G39" s="1">
+        <v>660</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6414542043</v>
+      </c>
+      <c r="F40" s="1">
+        <v>735</v>
+      </c>
+      <c r="G40" s="1">
+        <v>660</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6414542016</v>
+      </c>
+      <c r="F41" s="1">
+        <v>735</v>
+      </c>
+      <c r="G41" s="1">
+        <v>660</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6420900976</v>
+      </c>
+      <c r="F42" s="1">
+        <v>735</v>
+      </c>
+      <c r="G42" s="1">
+        <v>660</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6414542003</v>
+      </c>
+      <c r="F43" s="1">
+        <v>735</v>
+      </c>
+      <c r="G43" s="1">
+        <v>660</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6420900863</v>
+      </c>
+      <c r="F44" s="1">
+        <v>735</v>
+      </c>
+      <c r="G44" s="1">
+        <v>660</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="3">
+        <v>6421122209</v>
+      </c>
+      <c r="F45" s="1">
+        <v>735</v>
+      </c>
+      <c r="G45" s="1">
+        <v>660</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="3">
+        <v>6420900824</v>
+      </c>
+      <c r="F46" s="1">
+        <v>735</v>
+      </c>
+      <c r="G46" s="1">
+        <v>660</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6421122159</v>
+      </c>
+      <c r="F47" s="1">
+        <v>735</v>
+      </c>
+      <c r="G47" s="1">
+        <v>660</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="3">
+        <v>6420900882</v>
+      </c>
+      <c r="F48" s="1">
+        <v>735</v>
+      </c>
+      <c r="G48" s="1">
+        <v>660</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="3">
+        <v>6421122195</v>
+      </c>
+      <c r="F49" s="1">
+        <v>735</v>
+      </c>
+      <c r="G49" s="1">
+        <v>660</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="3">
+        <v>6391433481</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1223</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1073</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="3">
+        <v>6421122283</v>
+      </c>
+      <c r="F51" s="1">
+        <v>735</v>
+      </c>
+      <c r="G51" s="1">
+        <v>660</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="3">
+        <v>6421122202</v>
+      </c>
+      <c r="F52" s="1">
+        <v>735</v>
+      </c>
+      <c r="G52" s="1">
+        <v>660</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6414243055</v>
+      </c>
+      <c r="F53" s="1">
+        <v>735</v>
+      </c>
+      <c r="G53" s="1">
+        <v>660</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6420900793</v>
+      </c>
+      <c r="F54" s="1">
+        <v>735</v>
+      </c>
+      <c r="G54" s="1">
+        <v>660</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6421122250</v>
+      </c>
+      <c r="F55" s="1">
+        <v>735</v>
+      </c>
+      <c r="G55" s="1">
+        <v>660</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="3">
+        <v>6421122220</v>
+      </c>
+      <c r="F56" s="1">
+        <v>735</v>
+      </c>
+      <c r="G56" s="1">
+        <v>660</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6401085654</v>
+      </c>
+      <c r="F57" s="1">
+        <v>735</v>
+      </c>
+      <c r="G57" s="1">
+        <v>660</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6414243063</v>
+      </c>
+      <c r="F58" s="1">
+        <v>735</v>
+      </c>
+      <c r="G58" s="1">
+        <v>660</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="3">
+        <v>6420900893</v>
+      </c>
+      <c r="F59" s="1">
+        <v>735</v>
+      </c>
+      <c r="G59" s="1">
+        <v>660</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="3">
+        <v>6421122198</v>
+      </c>
+      <c r="F60" s="1">
+        <v>735</v>
+      </c>
+      <c r="G60" s="1">
+        <v>660</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="3">
+        <v>6414243013</v>
+      </c>
+      <c r="F61" s="1">
+        <v>735</v>
+      </c>
+      <c r="G61" s="1">
+        <v>660</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="3">
+        <v>6414243060</v>
+      </c>
+      <c r="F62" s="1">
+        <v>735</v>
+      </c>
+      <c r="G62" s="1">
+        <v>660</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="3">
+        <v>6421122214</v>
+      </c>
+      <c r="F63" s="1">
+        <v>735</v>
+      </c>
+      <c r="G63" s="1">
+        <v>660</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="3">
+        <v>6400788256</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1223</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1073</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="3">
+        <v>6420900836</v>
+      </c>
+      <c r="F65" s="1">
+        <v>735</v>
+      </c>
+      <c r="G65" s="1">
+        <v>660</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="3">
+        <v>6421122193</v>
+      </c>
+      <c r="F66" s="1">
+        <v>735</v>
+      </c>
+      <c r="G66" s="1">
+        <v>660</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="3">
+        <v>6421122230</v>
+      </c>
+      <c r="F67" s="1">
+        <v>735</v>
+      </c>
+      <c r="G67" s="1">
+        <v>660</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="3">
+        <v>6421122263</v>
+      </c>
+      <c r="F68" s="1">
+        <v>735</v>
+      </c>
+      <c r="G68" s="1">
+        <v>660</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="3">
+        <v>6421122302</v>
+      </c>
+      <c r="F69" s="1">
+        <v>735</v>
+      </c>
+      <c r="G69" s="1">
+        <v>660</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="3">
+        <v>6421122167</v>
+      </c>
+      <c r="F70" s="1">
+        <v>735</v>
+      </c>
+      <c r="G70" s="1">
+        <v>660</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="3">
+        <v>6421122299</v>
+      </c>
+      <c r="F71" s="1">
+        <v>735</v>
+      </c>
+      <c r="G71" s="1">
+        <v>660</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="3">
+        <v>6421122256</v>
+      </c>
+      <c r="F72" s="1">
+        <v>735</v>
+      </c>
+      <c r="G72" s="1">
+        <v>660</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="3">
+        <v>6414541982</v>
+      </c>
+      <c r="F73" s="1">
+        <v>735</v>
+      </c>
+      <c r="G73" s="1">
+        <v>660</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="3">
+        <v>6421122306</v>
+      </c>
+      <c r="F74" s="1">
+        <v>735</v>
+      </c>
+      <c r="G74" s="1">
+        <v>660</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="3">
+        <v>6400788229</v>
+      </c>
+      <c r="F75" s="1">
+        <v>735</v>
+      </c>
+      <c r="G75" s="1">
+        <v>660</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="3">
+        <v>6414243004</v>
+      </c>
+      <c r="F76" s="1">
+        <v>735</v>
+      </c>
+      <c r="G76" s="1">
+        <v>660</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="3">
+        <v>6420900890</v>
+      </c>
+      <c r="F77" s="1">
+        <v>735</v>
+      </c>
+      <c r="G77" s="1">
+        <v>660</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="3">
+        <v>6414243044</v>
+      </c>
+      <c r="F78" s="1">
+        <v>735</v>
+      </c>
+      <c r="G78" s="1">
+        <v>660</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="3">
+        <v>6414541994</v>
+      </c>
+      <c r="F79" s="1">
+        <v>735</v>
+      </c>
+      <c r="G79" s="1">
+        <v>660</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="3">
+        <v>6414242990</v>
+      </c>
+      <c r="F80" s="1">
+        <v>735</v>
+      </c>
+      <c r="G80" s="1">
+        <v>660</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="3">
+        <v>6421122179</v>
+      </c>
+      <c r="F81" s="1">
+        <v>735</v>
+      </c>
+      <c r="G81" s="1">
+        <v>660</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="3">
+        <v>6420900870</v>
+      </c>
+      <c r="F82" s="1">
+        <v>735</v>
+      </c>
+      <c r="G82" s="1">
+        <v>660</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="3">
+        <v>6401085669</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1223</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1073</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="3">
+        <v>6414541972</v>
+      </c>
+      <c r="F84" s="1">
+        <v>735</v>
+      </c>
+      <c r="G84" s="1">
+        <v>660</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="3">
+        <v>6401085660</v>
+      </c>
+      <c r="F85" s="1">
+        <v>735</v>
+      </c>
+      <c r="G85" s="1">
+        <v>660</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="3">
+        <v>6421122350</v>
+      </c>
+      <c r="F86" s="1">
+        <v>735</v>
+      </c>
+      <c r="G86" s="1">
+        <v>660</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="3">
+        <v>6401085675</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1223</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1073</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="3">
+        <v>6421122161</v>
+      </c>
+      <c r="F88" s="1">
+        <v>735</v>
+      </c>
+      <c r="G88" s="1">
+        <v>660</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="3">
+        <v>6414243014</v>
+      </c>
+      <c r="F89" s="1">
+        <v>735</v>
+      </c>
+      <c r="G89" s="1">
+        <v>660</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="3">
+        <v>6420900982</v>
+      </c>
+      <c r="F90" s="1">
+        <v>735</v>
+      </c>
+      <c r="G90" s="1">
+        <v>660</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="3">
+        <v>6420900873</v>
+      </c>
+      <c r="F91" s="1">
+        <v>735</v>
+      </c>
+      <c r="G91" s="1">
+        <v>660</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="3">
+        <v>6414243057</v>
+      </c>
+      <c r="F92" s="1">
+        <v>735</v>
+      </c>
+      <c r="G92" s="1">
+        <v>660</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="3">
+        <v>6391154775</v>
+      </c>
+      <c r="F93" s="1">
+        <v>735</v>
+      </c>
+      <c r="G93" s="1">
+        <v>660</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="3">
+        <v>6391154777</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1223</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1073</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="3">
+        <v>6400788242</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1223</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1073</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="3">
+        <v>6421122311</v>
+      </c>
+      <c r="F96" s="1">
+        <v>735</v>
+      </c>
+      <c r="G96" s="1">
+        <v>660</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="3">
+        <v>6677058282</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1238</v>
+      </c>
+      <c r="G97" s="1">
+        <v>885</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="3">
+        <v>6678223956</v>
+      </c>
+      <c r="F98" s="1">
+        <v>915</v>
+      </c>
+      <c r="G98" s="1">
+        <v>735</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="3">
+        <v>6677067353</v>
+      </c>
+      <c r="F99" s="1">
+        <v>915</v>
+      </c>
+      <c r="G99" s="1">
+        <v>735</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="3">
+        <v>6683111740</v>
+      </c>
+      <c r="F100" s="1">
+        <v>915</v>
+      </c>
+      <c r="G100" s="1">
+        <v>735</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1810165223</v>
+      </c>
+      <c r="F101" s="1">
+        <v>735</v>
+      </c>
+      <c r="G101" s="1">
+        <v>660</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="3">
+        <v>6724821995</v>
+      </c>
+      <c r="F102" s="1">
+        <v>735</v>
+      </c>
+      <c r="G102" s="1">
+        <v>660</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="3">
+        <v>6724184734</v>
+      </c>
+      <c r="F103" s="1">
+        <v>735</v>
+      </c>
+      <c r="G103" s="1">
+        <v>660</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="3">
+        <v>6656466221</v>
+      </c>
+      <c r="F104" s="1">
+        <v>150</v>
+      </c>
+      <c r="G104" s="1">
+        <v>75</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="3">
+        <v>6677942226</v>
+      </c>
+      <c r="F105" s="1">
+        <v>915</v>
+      </c>
+      <c r="G105" s="1">
+        <v>735</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="3">
+        <v>6343517841</v>
+      </c>
+      <c r="F106" s="1">
+        <v>915</v>
+      </c>
+      <c r="G106" s="1">
+        <v>735</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="3">
+        <v>6677067540</v>
+      </c>
+      <c r="F107" s="1">
+        <v>915</v>
+      </c>
+      <c r="G107" s="1">
+        <v>735</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="3">
+        <v>6677090202</v>
+      </c>
+      <c r="F108" s="1">
+        <v>915</v>
+      </c>
+      <c r="G108" s="1">
+        <v>735</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="3">
+        <v>6641927941</v>
+      </c>
+      <c r="F109" s="1">
+        <v>915</v>
+      </c>
+      <c r="G109" s="1">
+        <v>735</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="3">
+        <v>6655425839</v>
+      </c>
+      <c r="F110" s="1">
+        <v>915</v>
+      </c>
+      <c r="G110" s="1">
+        <v>735</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" s="3">
+        <v>6683098325</v>
+      </c>
+      <c r="F111" s="1">
+        <v>915</v>
+      </c>
+      <c r="G111" s="1">
+        <v>735</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" s="3">
+        <v>6656469839</v>
+      </c>
+      <c r="F112" s="1">
+        <v>915</v>
+      </c>
+      <c r="G112" s="1">
+        <v>735</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="3">
+        <v>6368203982</v>
+      </c>
+      <c r="F113" s="1">
+        <v>915</v>
+      </c>
+      <c r="G113" s="1">
+        <v>735</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" s="3">
+        <v>6723987725</v>
+      </c>
+      <c r="F114" s="1">
+        <v>150</v>
+      </c>
+      <c r="G114" s="1">
+        <v>75</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" s="3">
+        <v>6724826785</v>
+      </c>
+      <c r="F115" s="1">
+        <v>150</v>
+      </c>
+      <c r="G115" s="1">
+        <v>75</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" s="3">
+        <v>6724818432</v>
+      </c>
+      <c r="F116" s="1">
+        <v>150</v>
+      </c>
+      <c r="G116" s="1">
+        <v>75</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="3">
+        <v>6723986862</v>
+      </c>
+      <c r="F117" s="1">
+        <v>150</v>
+      </c>
+      <c r="G117" s="1">
+        <v>75</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118" s="3">
+        <v>6724864690</v>
+      </c>
+      <c r="F118" s="1">
+        <v>150</v>
+      </c>
+      <c r="G118" s="1">
+        <v>75</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" s="3">
+        <v>6724165658</v>
+      </c>
+      <c r="F119" s="1">
+        <v>150</v>
+      </c>
+      <c r="G119" s="1">
+        <v>75</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" s="3">
+        <v>6723976249</v>
+      </c>
+      <c r="F120" s="1">
+        <v>150</v>
+      </c>
+      <c r="G120" s="1">
+        <v>75</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121" s="3">
+        <v>6723975921</v>
+      </c>
+      <c r="F121" s="1">
+        <v>150</v>
+      </c>
+      <c r="G121" s="1">
+        <v>75</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" s="3">
+        <v>6724013377</v>
+      </c>
+      <c r="F122" s="1">
+        <v>150</v>
+      </c>
+      <c r="G122" s="1">
+        <v>75</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="3">
+        <v>6724172766</v>
+      </c>
+      <c r="F123" s="1">
+        <v>150</v>
+      </c>
+      <c r="G123" s="1">
+        <v>75</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" s="3">
+        <v>6725061552</v>
+      </c>
+      <c r="F124" s="1">
+        <v>150</v>
+      </c>
+      <c r="G124" s="1">
+        <v>75</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="1">
-        <v>900</v>
-      </c>
-      <c r="G33" s="1">
-        <v>900</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>57</v>
+      <c r="B125" s="3">
+        <v>6724216084</v>
+      </c>
+      <c r="F125" s="1">
+        <v>150</v>
+      </c>
+      <c r="G125" s="1">
+        <v>75</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" s="3">
+        <v>6723981271</v>
+      </c>
+      <c r="F126" s="1">
+        <v>150</v>
+      </c>
+      <c r="G126" s="1">
+        <v>75</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" s="3">
+        <v>6724855021</v>
+      </c>
+      <c r="F127" s="1">
+        <v>150</v>
+      </c>
+      <c r="G127" s="1">
+        <v>75</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128" s="3">
+        <v>6724823137</v>
+      </c>
+      <c r="F128" s="1">
+        <v>150</v>
+      </c>
+      <c r="G128" s="1">
+        <v>75</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" s="3">
+        <v>6724831572</v>
+      </c>
+      <c r="F129" s="1">
+        <v>150</v>
+      </c>
+      <c r="G129" s="1">
+        <v>75</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130" s="3">
+        <v>6724818695</v>
+      </c>
+      <c r="F130" s="1">
+        <v>150</v>
+      </c>
+      <c r="G130" s="1">
+        <v>75</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" s="3">
+        <v>6724216615</v>
+      </c>
+      <c r="F131" s="1">
+        <v>150</v>
+      </c>
+      <c r="G131" s="1">
+        <v>75</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132" s="3">
+        <v>935034538</v>
+      </c>
+      <c r="F132" s="1">
+        <v>150</v>
+      </c>
+      <c r="G132" s="1">
+        <v>75</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1810246033</v>
+      </c>
+      <c r="F133" s="1">
+        <v>150</v>
+      </c>
+      <c r="G133" s="1">
+        <v>75</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" s="3">
+        <v>811428819</v>
+      </c>
+      <c r="F134" s="1">
+        <v>150</v>
+      </c>
+      <c r="G134" s="1">
+        <v>75</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" s="3">
+        <v>6656481752</v>
+      </c>
+      <c r="F135" s="1">
+        <v>150</v>
+      </c>
+      <c r="G135" s="1">
+        <v>75</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" s="3">
+        <v>6037277324</v>
+      </c>
+      <c r="F136" s="1">
+        <v>150</v>
+      </c>
+      <c r="G136" s="1">
+        <v>75</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" s="3">
+        <v>6723992845</v>
+      </c>
+      <c r="F137" s="1">
+        <v>150</v>
+      </c>
+      <c r="G137" s="1">
+        <v>75</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1809831311</v>
+      </c>
+      <c r="F138" s="1">
+        <v>150</v>
+      </c>
+      <c r="G138" s="1">
+        <v>75</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" s="3">
+        <v>6724819939</v>
+      </c>
+      <c r="F139" s="1">
+        <v>150</v>
+      </c>
+      <c r="G139" s="1">
+        <v>75</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B140" s="3">
+        <v>6723987624</v>
+      </c>
+      <c r="F140" s="1">
+        <v>150</v>
+      </c>
+      <c r="G140" s="1">
+        <v>75</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" s="3">
+        <v>6421122139</v>
+      </c>
+      <c r="F141" s="1">
+        <v>413</v>
+      </c>
+      <c r="G141" s="1">
+        <v>383</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="3">
+        <v>6414541947</v>
+      </c>
+      <c r="F142" s="1">
+        <v>413</v>
+      </c>
+      <c r="G142" s="1">
+        <v>383</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" s="3">
+        <v>6420900753</v>
+      </c>
+      <c r="F143" s="1">
+        <v>413</v>
+      </c>
+      <c r="G143" s="1">
+        <v>383</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" s="3">
+        <v>6420900757</v>
+      </c>
+      <c r="F144" s="1">
+        <v>413</v>
+      </c>
+      <c r="G144" s="1">
+        <v>383</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" s="3">
+        <v>6414541954</v>
+      </c>
+      <c r="F145" s="1">
+        <v>413</v>
+      </c>
+      <c r="G145" s="1">
+        <v>383</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="3">
+        <v>6421122137</v>
+      </c>
+      <c r="F146" s="1">
+        <v>413</v>
+      </c>
+      <c r="G146" s="1">
+        <v>383</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" s="3">
+        <v>6421122112</v>
+      </c>
+      <c r="F147" s="1">
+        <v>413</v>
+      </c>
+      <c r="G147" s="1">
+        <v>383</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B148" s="3">
+        <v>6420900747</v>
+      </c>
+      <c r="F148" s="1">
+        <v>413</v>
+      </c>
+      <c r="G148" s="1">
+        <v>383</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B149" s="3">
+        <v>6421122117</v>
+      </c>
+      <c r="F149" s="1">
+        <v>413</v>
+      </c>
+      <c r="G149" s="1">
+        <v>383</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B150" s="3">
+        <v>6421122122</v>
+      </c>
+      <c r="F150" s="1">
+        <v>413</v>
+      </c>
+      <c r="G150" s="1">
+        <v>383</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" s="3">
+        <v>6414242969</v>
+      </c>
+      <c r="F151" s="1">
+        <v>413</v>
+      </c>
+      <c r="G151" s="1">
+        <v>383</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" s="3">
+        <v>6420900772</v>
+      </c>
+      <c r="F152" s="1">
+        <v>413</v>
+      </c>
+      <c r="G152" s="1">
+        <v>383</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" s="3">
+        <v>6421122153</v>
+      </c>
+      <c r="F153" s="1">
+        <v>413</v>
+      </c>
+      <c r="G153" s="1">
+        <v>383</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="3">
+        <v>6421122146</v>
+      </c>
+      <c r="F154" s="1">
+        <v>413</v>
+      </c>
+      <c r="G154" s="1">
+        <v>383</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" s="3">
+        <v>6420900769</v>
+      </c>
+      <c r="F155" s="1">
+        <v>413</v>
+      </c>
+      <c r="G155" s="1">
+        <v>383</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B156" s="3">
+        <v>6414242949</v>
+      </c>
+      <c r="F156" s="1">
+        <v>413</v>
+      </c>
+      <c r="G156" s="1">
+        <v>383</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" s="3">
+        <v>6420900733</v>
+      </c>
+      <c r="F157" s="1">
+        <v>413</v>
+      </c>
+      <c r="G157" s="1">
+        <v>383</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B158" s="3">
+        <v>6414242954</v>
+      </c>
+      <c r="F158" s="1">
+        <v>413</v>
+      </c>
+      <c r="G158" s="1">
+        <v>383</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159" s="3">
+        <v>6421122108</v>
+      </c>
+      <c r="F159" s="1">
+        <v>413</v>
+      </c>
+      <c r="G159" s="1">
+        <v>383</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B160" s="3">
+        <v>6420900744</v>
+      </c>
+      <c r="F160" s="1">
+        <v>413</v>
+      </c>
+      <c r="G160" s="1">
+        <v>383</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B161" s="3">
+        <v>6420900703</v>
+      </c>
+      <c r="F161" s="1">
+        <v>413</v>
+      </c>
+      <c r="G161" s="1">
+        <v>383</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" s="3">
+        <v>6420900706</v>
+      </c>
+      <c r="F162" s="1">
+        <v>413</v>
+      </c>
+      <c r="G162" s="1">
+        <v>383</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B163" s="3">
+        <v>6421122065</v>
+      </c>
+      <c r="F163" s="1">
+        <v>413</v>
+      </c>
+      <c r="G163" s="1">
+        <v>383</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B164" s="3">
+        <v>6421122072</v>
+      </c>
+      <c r="F164" s="1">
+        <v>413</v>
+      </c>
+      <c r="G164" s="1">
+        <v>383</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B165" s="3">
+        <v>6414242936</v>
+      </c>
+      <c r="F165" s="1">
+        <v>413</v>
+      </c>
+      <c r="G165" s="1">
+        <v>383</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B166" s="3">
+        <v>6421122081</v>
+      </c>
+      <c r="F166" s="1">
+        <v>413</v>
+      </c>
+      <c r="G166" s="1">
+        <v>383</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B167" s="3">
+        <v>6414242944</v>
+      </c>
+      <c r="F167" s="1">
+        <v>413</v>
+      </c>
+      <c r="G167" s="1">
+        <v>383</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B168" s="3">
+        <v>6421122086</v>
+      </c>
+      <c r="F168" s="1">
+        <v>413</v>
+      </c>
+      <c r="G168" s="1">
+        <v>383</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B169" s="3">
+        <v>6421122091</v>
+      </c>
+      <c r="F169" s="1">
+        <v>413</v>
+      </c>
+      <c r="G169" s="1">
+        <v>383</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B170" s="3">
+        <v>6414541934</v>
+      </c>
+      <c r="F170" s="1">
+        <v>413</v>
+      </c>
+      <c r="G170" s="1">
+        <v>383</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="70">
   <si>
     <t>名称</t>
   </si>
@@ -65,79 +65,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厦门地铁通</t>
-  </si>
-  <si>
-    <t>厦门商圈</t>
-  </si>
-  <si>
-    <t>厦门周边吃喝玩乐</t>
-  </si>
-  <si>
-    <t>厦门软件园圈</t>
-  </si>
-  <si>
-    <t>吃货吃遍厦门</t>
-  </si>
-  <si>
-    <t>厦门高校热点</t>
-  </si>
-  <si>
-    <t>厦门旅游美食</t>
-  </si>
-  <si>
-    <t>同安身边事</t>
-  </si>
-  <si>
-    <t>集美那些事</t>
-  </si>
-  <si>
-    <t>翔安那点事</t>
-  </si>
-  <si>
-    <t>海沧身边事</t>
-  </si>
-  <si>
-    <t>聚厦门网</t>
-  </si>
-  <si>
-    <t>吃喝玩乐IN泉州</t>
-  </si>
-  <si>
-    <t>吃货吃遍泉州</t>
-  </si>
-  <si>
-    <t>吃喝玩乐在金门</t>
-  </si>
-  <si>
-    <t>福州每日头条</t>
-  </si>
-  <si>
-    <t>吃喝玩乐游福州</t>
-  </si>
-  <si>
-    <t>吃喝玩乐在莆田</t>
-  </si>
-  <si>
-    <t>乐活在莆田</t>
-  </si>
-  <si>
-    <t>乐活在龙岩</t>
-  </si>
-  <si>
-    <t>乐活在三明</t>
-  </si>
-  <si>
     <t>地域</t>
   </si>
   <si>
-    <t>黄芳</t>
-  </si>
-  <si>
-    <t>X1712181221160001</t>
-  </si>
-  <si>
-    <t>X1801050855003855</t>
+    <t>出道吧校花</t>
+  </si>
+  <si>
+    <t>出道吧校草</t>
+  </si>
+  <si>
+    <t>北京校花榜</t>
+  </si>
+  <si>
+    <t>北京校草榜</t>
+  </si>
+  <si>
+    <t>潮天津</t>
+  </si>
+  <si>
+    <t>津门学子</t>
+  </si>
+  <si>
+    <t>津门校花</t>
+  </si>
+  <si>
+    <t>津门校草</t>
+  </si>
+  <si>
+    <t>成都校花榜</t>
+  </si>
+  <si>
+    <t>成都校草榜</t>
+  </si>
+  <si>
+    <t>就爱成都</t>
+  </si>
+  <si>
+    <t>上海校花榜</t>
+  </si>
+  <si>
+    <t>魔都校草榜</t>
+  </si>
+  <si>
+    <t>武汉校花榜</t>
+  </si>
+  <si>
+    <t>武汉校草榜</t>
+  </si>
+  <si>
+    <t>重庆校花榜</t>
+  </si>
+  <si>
+    <t>重庆校草榜</t>
+  </si>
+  <si>
+    <t>新疆校花榜</t>
+  </si>
+  <si>
+    <t>新疆校草榜</t>
+  </si>
+  <si>
+    <t>长沙校花榜</t>
+  </si>
+  <si>
+    <t>长沙校草榜</t>
+  </si>
+  <si>
+    <t>广州校花榜</t>
+  </si>
+  <si>
+    <t>广州校草榜</t>
+  </si>
+  <si>
+    <t>杭州校花榜</t>
+  </si>
+  <si>
+    <t>杭州校草榜</t>
+  </si>
+  <si>
+    <t>金陵校花榜</t>
+  </si>
+  <si>
+    <t>南京校草榜</t>
+  </si>
+  <si>
+    <t>西安校花榜</t>
+  </si>
+  <si>
+    <t>西安校草榜</t>
+  </si>
+  <si>
+    <t>青岛校花榜</t>
+  </si>
+  <si>
+    <t>青岛校草榜</t>
+  </si>
+  <si>
+    <t>海南校花榜</t>
+  </si>
+  <si>
+    <t>郑州校花榜</t>
+  </si>
+  <si>
+    <t>昆明校花榜</t>
+  </si>
+  <si>
+    <t>昆明校草榜</t>
+  </si>
+  <si>
+    <t>在长沙</t>
+  </si>
+  <si>
+    <t>长株潭生活圈</t>
+  </si>
+  <si>
+    <t>大长沙头条</t>
+  </si>
+  <si>
+    <t>长沙大学城儿</t>
+  </si>
+  <si>
+    <t>长沙校园事</t>
+  </si>
+  <si>
+    <t>长沙美食攻略</t>
+  </si>
+  <si>
+    <t>长沙旅游</t>
+  </si>
+  <si>
+    <t>长沙说事</t>
+  </si>
+  <si>
+    <t>说长沙</t>
+  </si>
+  <si>
+    <t>长沙微分享</t>
+  </si>
+  <si>
+    <t>老长沙故事</t>
+  </si>
+  <si>
+    <t>湖南头条</t>
+  </si>
+  <si>
+    <t>长沙月老牵线</t>
+  </si>
+  <si>
+    <t>北京校园生活</t>
+  </si>
+  <si>
+    <t>校园</t>
+  </si>
+  <si>
+    <t>校园，地域</t>
+  </si>
+  <si>
+    <t>7折折后价</t>
+  </si>
+  <si>
+    <t>8折折后价</t>
+  </si>
+  <si>
+    <t>X1901151441515041</t>
+  </si>
+  <si>
+    <t>X1901151455325481</t>
+  </si>
+  <si>
+    <t>胡江超</t>
+  </si>
+  <si>
+    <t>X1712181337040001</t>
   </si>
 </sst>
 </file>
@@ -506,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -569,611 +668,1717 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3">
-        <v>2017683591</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
+        <v>6041763283</v>
       </c>
       <c r="D2" s="1">
-        <v>240</v>
+        <v>1750</v>
       </c>
       <c r="E2" s="1">
-        <v>160</v>
+        <v>1750</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>2440647425</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5.3</v>
+        <v>6120706139</v>
       </c>
       <c r="D3" s="1">
-        <v>240</v>
+        <v>1260</v>
       </c>
       <c r="E3" s="1">
-        <v>160</v>
+        <v>1260</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3">
-        <v>2041316690</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5.5</v>
+        <v>5891103941</v>
       </c>
       <c r="D4" s="1">
-        <v>240</v>
+        <v>2450</v>
       </c>
       <c r="E4" s="1">
-        <v>160</v>
+        <v>2450</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>2877491870</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.6</v>
+        <v>6366554079</v>
       </c>
       <c r="D5" s="1">
-        <v>240</v>
+        <v>1260</v>
       </c>
       <c r="E5" s="1">
-        <v>160</v>
+        <v>1260</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
-        <v>2058579810</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5.6</v>
+        <v>5388908261</v>
       </c>
       <c r="D6" s="1">
-        <v>240</v>
+        <v>1750</v>
       </c>
       <c r="E6" s="1">
-        <v>160</v>
+        <v>1750</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3">
-        <v>2048318902</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5.5</v>
+        <v>2273569443</v>
       </c>
       <c r="D7" s="1">
-        <v>240</v>
+        <v>1750</v>
       </c>
       <c r="E7" s="1">
-        <v>160</v>
+        <v>1750</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
-        <v>2395347424</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5.3</v>
+        <v>5938784617</v>
       </c>
       <c r="D8" s="1">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="E8" s="1">
-        <v>160</v>
+        <v>700</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>3142281702</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
+        <v>6362365573</v>
       </c>
       <c r="D9" s="1">
-        <v>40</v>
+        <v>700</v>
       </c>
       <c r="E9" s="1">
-        <v>16</v>
+        <v>700</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>2117136780</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.1000000000000001</v>
+        <v>5888036327</v>
       </c>
       <c r="D10" s="1">
-        <v>120</v>
+        <v>1750</v>
       </c>
       <c r="E10" s="1">
-        <v>80</v>
+        <v>1750</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>2034084250</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.1000000000000001</v>
+        <v>6362827209</v>
       </c>
       <c r="D11" s="1">
-        <v>120</v>
+        <v>1050</v>
       </c>
       <c r="E11" s="1">
-        <v>80</v>
+        <v>1050</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3">
-        <v>2131591812</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.2</v>
+        <v>6132848456</v>
       </c>
       <c r="D12" s="1">
-        <v>120</v>
+        <v>1400</v>
       </c>
       <c r="E12" s="1">
-        <v>80</v>
+        <v>1400</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3">
-        <v>2044105962</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.3</v>
+        <v>5903939978</v>
       </c>
       <c r="D13" s="1">
-        <v>120</v>
+        <v>1750</v>
       </c>
       <c r="E13" s="1">
-        <v>80</v>
+        <v>1750</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3">
-        <v>2846822785</v>
-      </c>
-      <c r="C14" s="1">
-        <v>17</v>
+        <v>6364501609</v>
       </c>
       <c r="D14" s="1">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="E14" s="1">
-        <v>640</v>
+        <v>700</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3">
-        <v>3223961675</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5.2</v>
+        <v>5677889072</v>
       </c>
       <c r="D15" s="1">
-        <v>240</v>
+        <v>1750</v>
       </c>
       <c r="E15" s="1">
-        <v>200</v>
+        <v>1750</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3">
-        <v>2383320580</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
+        <v>6364514465</v>
       </c>
       <c r="D16" s="1">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="E16" s="1">
-        <v>200</v>
+        <v>700</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
-        <v>2108882030</v>
-      </c>
-      <c r="C17" s="1">
-        <v>15</v>
+        <v>6037166324</v>
       </c>
       <c r="D17" s="1">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="1">
-        <v>560</v>
+        <v>1400</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3">
-        <v>5331433264</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
+        <v>6366540981</v>
       </c>
       <c r="D18" s="1">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="E18" s="1">
-        <v>200</v>
+        <v>700</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3">
-        <v>2630830554</v>
-      </c>
-      <c r="C19" s="1">
-        <v>15.3</v>
+        <v>6098376526</v>
       </c>
       <c r="D19" s="1">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="E19" s="1">
-        <v>560</v>
+        <v>2100</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>1973980121</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
+        <v>6368449336</v>
       </c>
       <c r="D20" s="1">
-        <v>120</v>
+        <v>840</v>
       </c>
       <c r="E20" s="1">
-        <v>80</v>
+        <v>840</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>2269007454</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5</v>
+        <v>6093491820</v>
       </c>
       <c r="D21" s="1">
-        <v>240</v>
+        <v>1750</v>
       </c>
       <c r="E21" s="1">
-        <v>200</v>
+        <v>1750</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3">
-        <v>1973240383</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5</v>
+        <v>6368445359</v>
       </c>
       <c r="D22" s="1">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="E22" s="1">
-        <v>200</v>
+        <v>700</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6098375049</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1750</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1750</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6364507112</v>
+      </c>
+      <c r="D24" s="1">
+        <v>700</v>
+      </c>
+      <c r="E24" s="1">
+        <v>700</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>35</v>
+      <c r="B25" s="3">
+        <v>6094153024</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1540</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1540</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6367932209</v>
+      </c>
+      <c r="D26" s="1">
+        <v>700</v>
+      </c>
+      <c r="E26" s="1">
+        <v>700</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6094152594</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1750</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1750</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6367934465</v>
+      </c>
+      <c r="D28" s="1">
+        <v>700</v>
+      </c>
+      <c r="E28" s="1">
+        <v>700</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6107559880</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1750</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1750</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6368447835</v>
+      </c>
+      <c r="D30" s="1">
+        <v>700</v>
+      </c>
+      <c r="E30" s="1">
+        <v>700</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6420910014</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6424239470</v>
+      </c>
+      <c r="D32" s="1">
+        <v>350</v>
+      </c>
+      <c r="E32" s="1">
+        <v>350</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6420907506</v>
+      </c>
+      <c r="D33" s="1">
+        <v>700</v>
+      </c>
+      <c r="E33" s="1">
+        <v>700</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6130625460</v>
+      </c>
+      <c r="D34" s="1">
+        <v>700</v>
+      </c>
+      <c r="E34" s="1">
+        <v>700</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6420657816</v>
+      </c>
+      <c r="D35" s="1">
+        <v>350</v>
+      </c>
+      <c r="E35" s="1">
+        <v>350</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6426106413</v>
+      </c>
+      <c r="D36" s="1">
+        <v>350</v>
+      </c>
+      <c r="E36" s="1">
+        <v>350</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1935622204</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4000</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1971747904</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1040</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2500</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6034787470</v>
+      </c>
+      <c r="D39" s="1">
+        <v>640</v>
+      </c>
+      <c r="E39" s="1">
+        <v>480</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6079550516</v>
+      </c>
+      <c r="D40" s="1">
+        <v>640</v>
+      </c>
+      <c r="E40" s="1">
+        <v>480</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3285701780</v>
+      </c>
+      <c r="D41" s="1">
+        <v>800</v>
+      </c>
+      <c r="E41" s="1">
+        <v>640</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5109072518</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1040</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2500</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3237939930</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1040</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2500</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5636021313</v>
+      </c>
+      <c r="D44" s="1">
+        <v>800</v>
+      </c>
+      <c r="E44" s="1">
+        <v>640</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3474891910</v>
+      </c>
+      <c r="D45" s="1">
+        <v>800</v>
+      </c>
+      <c r="E45" s="1">
+        <v>640</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2159527751</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1440</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5817263452</v>
+      </c>
+      <c r="D47" s="1">
+        <v>800</v>
+      </c>
+      <c r="E47" s="1">
+        <v>640</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="3">
+        <v>5397115022</v>
+      </c>
+      <c r="D48" s="1">
+        <v>800</v>
+      </c>
+      <c r="E48" s="1">
+        <v>640</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="3">
+        <v>5560859967</v>
+      </c>
+      <c r="D49" s="1">
+        <v>800</v>
+      </c>
+      <c r="E49" s="1">
+        <v>640</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5694052324</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="110">
   <si>
     <t>名称</t>
   </si>
@@ -68,175 +68,295 @@
     <t>地域</t>
   </si>
   <si>
-    <t>出道吧校花</t>
-  </si>
-  <si>
-    <t>出道吧校草</t>
-  </si>
-  <si>
-    <t>北京校花榜</t>
-  </si>
-  <si>
-    <t>北京校草榜</t>
-  </si>
-  <si>
-    <t>潮天津</t>
-  </si>
-  <si>
-    <t>津门学子</t>
-  </si>
-  <si>
-    <t>津门校花</t>
-  </si>
-  <si>
-    <t>津门校草</t>
-  </si>
-  <si>
-    <t>成都校花榜</t>
-  </si>
-  <si>
-    <t>成都校草榜</t>
-  </si>
-  <si>
-    <t>就爱成都</t>
-  </si>
-  <si>
-    <t>上海校花榜</t>
-  </si>
-  <si>
-    <t>魔都校草榜</t>
-  </si>
-  <si>
-    <t>武汉校花榜</t>
-  </si>
-  <si>
-    <t>武汉校草榜</t>
-  </si>
-  <si>
-    <t>重庆校花榜</t>
-  </si>
-  <si>
-    <t>重庆校草榜</t>
-  </si>
-  <si>
-    <t>新疆校花榜</t>
-  </si>
-  <si>
-    <t>新疆校草榜</t>
-  </si>
-  <si>
-    <t>长沙校花榜</t>
-  </si>
-  <si>
-    <t>长沙校草榜</t>
-  </si>
-  <si>
-    <t>广州校花榜</t>
-  </si>
-  <si>
-    <t>广州校草榜</t>
-  </si>
-  <si>
-    <t>杭州校花榜</t>
-  </si>
-  <si>
-    <t>杭州校草榜</t>
-  </si>
-  <si>
-    <t>金陵校花榜</t>
-  </si>
-  <si>
-    <t>南京校草榜</t>
-  </si>
-  <si>
-    <t>西安校花榜</t>
-  </si>
-  <si>
-    <t>西安校草榜</t>
-  </si>
-  <si>
-    <t>青岛校花榜</t>
-  </si>
-  <si>
-    <t>青岛校草榜</t>
-  </si>
-  <si>
-    <t>海南校花榜</t>
-  </si>
-  <si>
-    <t>郑州校花榜</t>
-  </si>
-  <si>
-    <t>昆明校花榜</t>
-  </si>
-  <si>
-    <t>昆明校草榜</t>
-  </si>
-  <si>
-    <t>在长沙</t>
-  </si>
-  <si>
-    <t>长株潭生活圈</t>
-  </si>
-  <si>
-    <t>大长沙头条</t>
-  </si>
-  <si>
-    <t>长沙大学城儿</t>
-  </si>
-  <si>
-    <t>长沙校园事</t>
-  </si>
-  <si>
-    <t>长沙美食攻略</t>
-  </si>
-  <si>
-    <t>长沙旅游</t>
-  </si>
-  <si>
-    <t>长沙说事</t>
-  </si>
-  <si>
-    <t>说长沙</t>
-  </si>
-  <si>
-    <t>长沙微分享</t>
-  </si>
-  <si>
-    <t>老长沙故事</t>
-  </si>
-  <si>
-    <t>湖南头条</t>
-  </si>
-  <si>
-    <t>长沙月老牵线</t>
-  </si>
-  <si>
-    <t>北京校园生活</t>
-  </si>
-  <si>
-    <t>校园</t>
-  </si>
-  <si>
-    <t>校园，地域</t>
-  </si>
-  <si>
-    <t>7折折后价</t>
-  </si>
-  <si>
-    <t>8折折后价</t>
-  </si>
-  <si>
-    <t>X1901151441515041</t>
-  </si>
-  <si>
-    <t>X1901151455325481</t>
-  </si>
-  <si>
-    <t>胡江超</t>
-  </si>
-  <si>
-    <t>X1712181337040001</t>
+    <t>IT偏执狂--Charles</t>
+  </si>
+  <si>
+    <t>2810382344</t>
+  </si>
+  <si>
+    <t>IT互联网</t>
+  </si>
+  <si>
+    <t>X1801031719010407</t>
+  </si>
+  <si>
+    <t>刘玲</t>
+  </si>
+  <si>
+    <t>玩数码耍围脖</t>
+  </si>
+  <si>
+    <t>2810950824</t>
+  </si>
+  <si>
+    <t>电商新视野</t>
+  </si>
+  <si>
+    <t>2369495491</t>
+  </si>
+  <si>
+    <t>中国汽车之友会_君浩</t>
+  </si>
+  <si>
+    <t>1654678793</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>汽车玩主-昊霆</t>
+  </si>
+  <si>
+    <t>1654679213</t>
+  </si>
+  <si>
+    <t>幼儿教育专家_宋晨</t>
+  </si>
+  <si>
+    <t>1654793044</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>育儿小百科_雪儿老师</t>
+  </si>
+  <si>
+    <t>3034911062</t>
+  </si>
+  <si>
+    <t>育儿百问百答-雅琳</t>
+  </si>
+  <si>
+    <t>3114825</t>
+  </si>
+  <si>
+    <t>家长课堂讲师</t>
+  </si>
+  <si>
+    <t>3034911082</t>
+  </si>
+  <si>
+    <t>电影路路通策划沈家乐</t>
+  </si>
+  <si>
+    <t>3215619285</t>
+  </si>
+  <si>
+    <t>影视</t>
+  </si>
+  <si>
+    <t>影视评论人任宝鸣</t>
+  </si>
+  <si>
+    <t>1704424164</t>
+  </si>
+  <si>
+    <t>Monica爱电影</t>
+  </si>
+  <si>
+    <t>1653908995</t>
+  </si>
+  <si>
+    <t>全球潮流周报</t>
+  </si>
+  <si>
+    <t>3037226432</t>
+  </si>
+  <si>
+    <t>女性时尚</t>
+  </si>
+  <si>
+    <t>全球时尚潮爆</t>
+  </si>
+  <si>
+    <t>1653429105</t>
+  </si>
+  <si>
+    <t>全球时尚女人帮</t>
+  </si>
+  <si>
+    <t>1653431114</t>
+  </si>
+  <si>
+    <t>魅力夏小夕</t>
+  </si>
+  <si>
+    <t>2811490264</t>
+  </si>
+  <si>
+    <t>靓丽俏佳人_Cherry</t>
+  </si>
+  <si>
+    <t>3035045390</t>
+  </si>
+  <si>
+    <t>吃喝玩乐行在广州</t>
+  </si>
+  <si>
+    <t>3120352934</t>
+  </si>
+  <si>
+    <t>深圳生活趣事</t>
+  </si>
+  <si>
+    <t>3035091474</t>
+  </si>
+  <si>
+    <t>深圳热门搜索</t>
+  </si>
+  <si>
+    <t>3035091542</t>
+  </si>
+  <si>
+    <t>深圳生活导报</t>
+  </si>
+  <si>
+    <t>3035091482</t>
+  </si>
+  <si>
+    <t>上海玩乐推荐</t>
+  </si>
+  <si>
+    <t>3035085080</t>
+  </si>
+  <si>
+    <t>北京玩乐推荐</t>
+  </si>
+  <si>
+    <t>3035091510</t>
+  </si>
+  <si>
+    <t>玩转大长沙</t>
+  </si>
+  <si>
+    <t>1226814812</t>
+  </si>
+  <si>
+    <t>长沙吃喝玩乐行</t>
+  </si>
+  <si>
+    <t>3115084</t>
+  </si>
+  <si>
+    <t>郎哥看财经</t>
+  </si>
+  <si>
+    <t>2808784854</t>
+  </si>
+  <si>
+    <t>财经</t>
+  </si>
+  <si>
+    <t>财经编辑老顽童</t>
+  </si>
+  <si>
+    <t>2810957000</t>
+  </si>
+  <si>
+    <t>新财经播报记者</t>
+  </si>
+  <si>
+    <t>3035021334</t>
+  </si>
+  <si>
+    <t>全球时尚旅游资讯</t>
+  </si>
+  <si>
+    <t>1644741193</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>背包畅游天下阿坤</t>
+  </si>
+  <si>
+    <t>1844941054</t>
+  </si>
+  <si>
+    <t>地图志主编弘伟</t>
+  </si>
+  <si>
+    <t>1653707295</t>
+  </si>
+  <si>
+    <t>新自助游主编高朗</t>
+  </si>
+  <si>
+    <t>1653915204</t>
+  </si>
+  <si>
+    <t>旅游攻略宝典</t>
+  </si>
+  <si>
+    <t>2415273261</t>
+  </si>
+  <si>
+    <t>牵手世界游</t>
+  </si>
+  <si>
+    <t>1654691624</t>
+  </si>
+  <si>
+    <t>旅行锐视角</t>
+  </si>
+  <si>
+    <t>2712293721</t>
+  </si>
+  <si>
+    <t>健康生活百科报</t>
+  </si>
+  <si>
+    <t>3035045382</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>唐僧耍贫嘴</t>
+  </si>
+  <si>
+    <t>2808695180</t>
+  </si>
+  <si>
+    <t>热门资讯</t>
+  </si>
+  <si>
+    <t>时事观察员_老赵</t>
+  </si>
+  <si>
+    <t>2809596572</t>
+  </si>
+  <si>
+    <t>记者阿咏</t>
+  </si>
+  <si>
+    <t>2811493520</t>
+  </si>
+  <si>
+    <t>互联网思想者</t>
+  </si>
+  <si>
+    <t>2818427882</t>
+  </si>
+  <si>
+    <t>娱乐潮八卦</t>
+  </si>
+  <si>
+    <t>3034917464</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>热点榜中榜</t>
+  </si>
+  <si>
+    <t>2165845423</t>
+  </si>
+  <si>
+    <t>X1712181338330003</t>
   </si>
 </sst>
 </file>
@@ -605,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -670,1715 +790,1470 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3">
-        <v>6041763283</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>79.735799999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>1750</v>
+        <v>540</v>
       </c>
       <c r="E2" s="1">
-        <v>1750</v>
+        <v>540</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3">
-        <v>6120706139</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>69.510000000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>1260</v>
+        <v>450</v>
       </c>
       <c r="E3" s="1">
-        <v>1260</v>
+        <v>450</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>54.122199999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>270</v>
+      </c>
+      <c r="E4" s="1">
+        <v>270</v>
+      </c>
+      <c r="F4" s="1">
+        <v>450</v>
+      </c>
+      <c r="G4" s="1">
+        <v>450</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
-        <v>5891103941</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2450</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2450</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3">
-        <v>6366554079</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>38.555900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>1260</v>
+        <v>270</v>
       </c>
       <c r="E5" s="1">
-        <v>1260</v>
+        <v>270</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5388908261</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>37.133699999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>1750</v>
+        <v>270</v>
       </c>
       <c r="E6" s="1">
-        <v>1750</v>
+        <v>270</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2273569443</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>65.998099999999994</v>
       </c>
       <c r="D7" s="1">
-        <v>1750</v>
+        <v>360</v>
       </c>
       <c r="E7" s="1">
-        <v>1750</v>
+        <v>360</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5938784617</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>67.509299999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="E8" s="1">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6362365573</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>66.512500000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="E9" s="1">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5888036327</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>67.275800000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>1750</v>
+        <v>360</v>
       </c>
       <c r="E10" s="1">
-        <v>1750</v>
+        <v>360</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6362827209</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <v>46.037599999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>1050</v>
+        <v>270</v>
       </c>
       <c r="E11" s="1">
-        <v>1050</v>
+        <v>270</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3">
-        <v>6132848456</v>
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>36.242699999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>1400</v>
+        <v>270</v>
       </c>
       <c r="E12" s="1">
-        <v>1400</v>
+        <v>270</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5903939978</v>
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
+        <v>35.431899999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>1750</v>
+        <v>270</v>
       </c>
       <c r="E13" s="1">
-        <v>1750</v>
+        <v>270</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3">
-        <v>6364501609</v>
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1">
+        <v>53.816099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="E14" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5677889072</v>
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1">
+        <v>53.808799999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>1750</v>
+        <v>270</v>
       </c>
       <c r="E15" s="1">
-        <v>1750</v>
+        <v>270</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3">
-        <v>6364514465</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1">
+        <v>52.6295</v>
       </c>
       <c r="D16" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="E16" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3">
-        <v>6037166324</v>
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1">
+        <v>39.590600000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>1400</v>
+        <v>270</v>
       </c>
       <c r="E17" s="1">
-        <v>1400</v>
+        <v>270</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="3">
-        <v>6366540981</v>
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30.874300000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="E18" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3">
-        <v>6098376526</v>
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1">
+        <v>53.090800000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>2100</v>
+        <v>360</v>
       </c>
       <c r="E19" s="1">
-        <v>2100</v>
+        <v>360</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3">
-        <v>6368449336</v>
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1">
+        <v>52.649500000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>840</v>
+        <v>360</v>
       </c>
       <c r="E20" s="1">
-        <v>840</v>
+        <v>360</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3">
-        <v>6093491820</v>
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1">
+        <v>53.003900000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>1750</v>
+        <v>360</v>
       </c>
       <c r="E21" s="1">
-        <v>1750</v>
+        <v>360</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="3">
-        <v>6368445359</v>
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1">
+        <v>52.658099999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="E22" s="1">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="3">
-        <v>6098375049</v>
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1">
+        <v>52.570399999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>1750</v>
+        <v>360</v>
       </c>
       <c r="E23" s="1">
-        <v>1750</v>
+        <v>360</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="3">
-        <v>6364507112</v>
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1">
+        <v>48.090899999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="E24" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3">
-        <v>6094153024</v>
+        <v>66</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1">
+        <v>52.674999999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>1540</v>
+        <v>360</v>
       </c>
       <c r="E25" s="1">
-        <v>1540</v>
+        <v>360</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="3">
-        <v>6367932209</v>
+        <v>68</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1">
+        <v>31.761700000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="E26" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="3">
-        <v>6094152594</v>
+        <v>70</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45.022399999999998</v>
       </c>
       <c r="D27" s="1">
-        <v>1750</v>
+        <v>360</v>
       </c>
       <c r="E27" s="1">
-        <v>1750</v>
+        <v>360</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="3">
-        <v>6367934465</v>
+        <v>73</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1">
+        <v>41.484299999999998</v>
       </c>
       <c r="D28" s="1">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="E28" s="1">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6107559880</v>
+        <v>75</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="1">
+        <v>32.164900000000003</v>
       </c>
       <c r="D29" s="1">
-        <v>1750</v>
+        <v>270</v>
       </c>
       <c r="E29" s="1">
-        <v>1750</v>
+        <v>270</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="3">
-        <v>6368447835</v>
+        <v>77</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44.371400000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="E30" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="3">
-        <v>6420910014</v>
+        <v>80</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="1">
+        <v>36.813499999999998</v>
       </c>
       <c r="D31" s="1">
-        <v>1400</v>
+        <v>270</v>
       </c>
       <c r="E31" s="1">
-        <v>1400</v>
+        <v>270</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="3">
-        <v>6424239470</v>
+        <v>82</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="1">
+        <v>35.763500000000001</v>
       </c>
       <c r="D32" s="1">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="E32" s="1">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="3">
-        <v>6420907506</v>
+        <v>84</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30.753399999999999</v>
       </c>
       <c r="D33" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="E33" s="1">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="3">
-        <v>6130625460</v>
+        <v>86</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="1">
+        <v>22.896100000000001</v>
       </c>
       <c r="D34" s="1">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="E34" s="1">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="3">
-        <v>6420657816</v>
+        <v>88</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1">
+        <v>22.874700000000001</v>
       </c>
       <c r="D35" s="1">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="E35" s="1">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="3">
-        <v>6426106413</v>
+        <v>90</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="1">
+        <v>23.001999999999999</v>
       </c>
       <c r="D36" s="1">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="E36" s="1">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1935622204</v>
+        <v>92</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1">
+        <v>52.563499999999998</v>
       </c>
       <c r="D37" s="1">
-        <v>2000</v>
+        <v>270</v>
       </c>
       <c r="E37" s="1">
-        <v>1440</v>
+        <v>270</v>
       </c>
       <c r="F37" s="1">
-        <v>4000</v>
+        <v>450</v>
       </c>
       <c r="G37" s="1">
-        <v>4000</v>
+        <v>450</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1971747904</v>
+        <v>95</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44.4816</v>
       </c>
       <c r="D38" s="1">
-        <v>1200</v>
+        <v>270</v>
       </c>
       <c r="E38" s="1">
-        <v>1040</v>
+        <v>270</v>
       </c>
       <c r="F38" s="1">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="G38" s="1">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="3">
-        <v>6034787470</v>
+        <v>98</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42.978099999999998</v>
       </c>
       <c r="D39" s="1">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="E39" s="1">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="F39" s="1">
-        <v>1800</v>
+        <v>450</v>
       </c>
       <c r="G39" s="1">
-        <v>1800</v>
+        <v>450</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="3">
-        <v>6079550516</v>
+        <v>100</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="1">
+        <v>37.9114</v>
       </c>
       <c r="D40" s="1">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="E40" s="1">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="F40" s="1">
-        <v>1800</v>
+        <v>450</v>
       </c>
       <c r="G40" s="1">
-        <v>1800</v>
+        <v>450</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3285701780</v>
+        <v>102</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="1">
+        <v>30.108699999999999</v>
       </c>
       <c r="D41" s="1">
-        <v>800</v>
+        <v>270</v>
       </c>
       <c r="E41" s="1">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="F41" s="1">
-        <v>2000</v>
+        <v>450</v>
       </c>
       <c r="G41" s="1">
-        <v>2000</v>
+        <v>450</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="3">
-        <v>5109072518</v>
+        <v>104</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="1">
+        <v>51.603999999999999</v>
       </c>
       <c r="D42" s="1">
-        <v>1200</v>
+        <v>270</v>
       </c>
       <c r="E42" s="1">
-        <v>1040</v>
+        <v>270</v>
       </c>
       <c r="F42" s="1">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="G42" s="1">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="3">
-        <v>3237939930</v>
+        <v>107</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="1">
+        <v>9.8155000000000001</v>
       </c>
       <c r="D43" s="1">
-        <v>1200</v>
+        <v>180</v>
       </c>
       <c r="E43" s="1">
-        <v>1040</v>
+        <v>180</v>
       </c>
       <c r="F43" s="1">
-        <v>2500</v>
+        <v>360</v>
       </c>
       <c r="G43" s="1">
-        <v>2500</v>
+        <v>360</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="3">
-        <v>5636021313</v>
-      </c>
-      <c r="D44" s="1">
-        <v>800</v>
-      </c>
-      <c r="E44" s="1">
-        <v>640</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="3">
-        <v>3474891910</v>
-      </c>
-      <c r="D45" s="1">
-        <v>800</v>
-      </c>
-      <c r="E45" s="1">
-        <v>640</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G45" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="3">
-        <v>2159527751</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1440</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F46" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G46" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="3">
-        <v>5817263452</v>
-      </c>
-      <c r="D47" s="1">
-        <v>800</v>
-      </c>
-      <c r="E47" s="1">
-        <v>640</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G47" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="3">
-        <v>5397115022</v>
-      </c>
-      <c r="D48" s="1">
-        <v>800</v>
-      </c>
-      <c r="E48" s="1">
-        <v>640</v>
-      </c>
-      <c r="F48" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G48" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="3">
-        <v>5560859967</v>
-      </c>
-      <c r="D49" s="1">
-        <v>800</v>
-      </c>
-      <c r="E49" s="1">
-        <v>640</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="3">
-        <v>5694052324</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1600</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1600</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G50" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="93">
   <si>
     <t>名称</t>
   </si>
@@ -65,298 +65,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地域</t>
-  </si>
-  <si>
-    <t>IT偏执狂--Charles</t>
-  </si>
-  <si>
-    <t>2810382344</t>
-  </si>
-  <si>
     <t>IT互联网</t>
   </si>
   <si>
-    <t>X1801031719010407</t>
-  </si>
-  <si>
-    <t>刘玲</t>
-  </si>
-  <si>
-    <t>玩数码耍围脖</t>
-  </si>
-  <si>
-    <t>2810950824</t>
-  </si>
-  <si>
-    <t>电商新视野</t>
-  </si>
-  <si>
-    <t>2369495491</t>
-  </si>
-  <si>
-    <t>中国汽车之友会_君浩</t>
-  </si>
-  <si>
-    <t>1654678793</t>
-  </si>
-  <si>
     <t>汽车</t>
   </si>
   <si>
-    <t>汽车玩主-昊霆</t>
-  </si>
-  <si>
-    <t>1654679213</t>
-  </si>
-  <si>
-    <t>幼儿教育专家_宋晨</t>
-  </si>
-  <si>
-    <t>1654793044</t>
-  </si>
-  <si>
     <t>母婴</t>
   </si>
   <si>
-    <t>育儿小百科_雪儿老师</t>
-  </si>
-  <si>
-    <t>3034911062</t>
-  </si>
-  <si>
-    <t>育儿百问百答-雅琳</t>
-  </si>
-  <si>
-    <t>3114825</t>
-  </si>
-  <si>
-    <t>家长课堂讲师</t>
-  </si>
-  <si>
-    <t>3034911082</t>
-  </si>
-  <si>
-    <t>电影路路通策划沈家乐</t>
-  </si>
-  <si>
-    <t>3215619285</t>
-  </si>
-  <si>
-    <t>影视</t>
-  </si>
-  <si>
-    <t>影视评论人任宝鸣</t>
-  </si>
-  <si>
-    <t>1704424164</t>
-  </si>
-  <si>
-    <t>Monica爱电影</t>
-  </si>
-  <si>
-    <t>1653908995</t>
-  </si>
-  <si>
-    <t>全球潮流周报</t>
-  </si>
-  <si>
-    <t>3037226432</t>
-  </si>
-  <si>
-    <t>女性时尚</t>
-  </si>
-  <si>
-    <t>全球时尚潮爆</t>
-  </si>
-  <si>
-    <t>1653429105</t>
-  </si>
-  <si>
-    <t>全球时尚女人帮</t>
-  </si>
-  <si>
-    <t>1653431114</t>
-  </si>
-  <si>
-    <t>魅力夏小夕</t>
-  </si>
-  <si>
-    <t>2811490264</t>
-  </si>
-  <si>
-    <t>靓丽俏佳人_Cherry</t>
-  </si>
-  <si>
-    <t>3035045390</t>
-  </si>
-  <si>
-    <t>吃喝玩乐行在广州</t>
-  </si>
-  <si>
-    <t>3120352934</t>
-  </si>
-  <si>
-    <t>深圳生活趣事</t>
-  </si>
-  <si>
-    <t>3035091474</t>
-  </si>
-  <si>
-    <t>深圳热门搜索</t>
-  </si>
-  <si>
-    <t>3035091542</t>
-  </si>
-  <si>
-    <t>深圳生活导报</t>
-  </si>
-  <si>
-    <t>3035091482</t>
-  </si>
-  <si>
-    <t>上海玩乐推荐</t>
-  </si>
-  <si>
-    <t>3035085080</t>
-  </si>
-  <si>
-    <t>北京玩乐推荐</t>
-  </si>
-  <si>
-    <t>3035091510</t>
-  </si>
-  <si>
-    <t>玩转大长沙</t>
-  </si>
-  <si>
-    <t>1226814812</t>
-  </si>
-  <si>
-    <t>长沙吃喝玩乐行</t>
-  </si>
-  <si>
-    <t>3115084</t>
-  </si>
-  <si>
-    <t>郎哥看财经</t>
-  </si>
-  <si>
-    <t>2808784854</t>
-  </si>
-  <si>
-    <t>财经</t>
-  </si>
-  <si>
-    <t>财经编辑老顽童</t>
-  </si>
-  <si>
-    <t>2810957000</t>
-  </si>
-  <si>
-    <t>新财经播报记者</t>
-  </si>
-  <si>
-    <t>3035021334</t>
-  </si>
-  <si>
-    <t>全球时尚旅游资讯</t>
-  </si>
-  <si>
-    <t>1644741193</t>
-  </si>
-  <si>
     <t>旅游</t>
   </si>
   <si>
-    <t>背包畅游天下阿坤</t>
-  </si>
-  <si>
-    <t>1844941054</t>
-  </si>
-  <si>
-    <t>地图志主编弘伟</t>
-  </si>
-  <si>
-    <t>1653707295</t>
-  </si>
-  <si>
-    <t>新自助游主编高朗</t>
-  </si>
-  <si>
-    <t>1653915204</t>
-  </si>
-  <si>
-    <t>旅游攻略宝典</t>
-  </si>
-  <si>
-    <t>2415273261</t>
-  </si>
-  <si>
-    <t>牵手世界游</t>
-  </si>
-  <si>
-    <t>1654691624</t>
-  </si>
-  <si>
-    <t>旅行锐视角</t>
-  </si>
-  <si>
-    <t>2712293721</t>
-  </si>
-  <si>
-    <t>健康生活百科报</t>
-  </si>
-  <si>
-    <t>3035045382</t>
-  </si>
-  <si>
-    <t>生活</t>
-  </si>
-  <si>
-    <t>唐僧耍贫嘴</t>
-  </si>
-  <si>
-    <t>2808695180</t>
-  </si>
-  <si>
-    <t>热门资讯</t>
-  </si>
-  <si>
-    <t>时事观察员_老赵</t>
-  </si>
-  <si>
-    <t>2809596572</t>
-  </si>
-  <si>
-    <t>记者阿咏</t>
-  </si>
-  <si>
-    <t>2811493520</t>
-  </si>
-  <si>
-    <t>互联网思想者</t>
-  </si>
-  <si>
-    <t>2818427882</t>
-  </si>
-  <si>
-    <t>娱乐潮八卦</t>
-  </si>
-  <si>
-    <t>3034917464</t>
-  </si>
-  <si>
-    <t>娱乐</t>
-  </si>
-  <si>
-    <t>热点榜中榜</t>
-  </si>
-  <si>
-    <t>2165845423</t>
-  </si>
-  <si>
-    <t>X1712181338330003</t>
+    <t xml:space="preserve">汽车之梦 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">酷车讯 </t>
+  </si>
+  <si>
+    <t>汽车眼睛</t>
+  </si>
+  <si>
+    <t>汽车频道</t>
+  </si>
+  <si>
+    <t>车博会</t>
+  </si>
+  <si>
+    <t>美车志</t>
+  </si>
+  <si>
+    <t>车神说车</t>
+  </si>
+  <si>
+    <t>玩车王</t>
+  </si>
+  <si>
+    <t>购车之家</t>
+  </si>
+  <si>
+    <t>汽车视觉</t>
+  </si>
+  <si>
+    <t>汽车车迷</t>
+  </si>
+  <si>
+    <t>名博汽车</t>
+  </si>
+  <si>
+    <t>汽车讯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玩车之王 </t>
+  </si>
+  <si>
+    <t>汽车车模</t>
+  </si>
+  <si>
+    <t>汽车糗事</t>
+  </si>
+  <si>
+    <t>全球车语</t>
+  </si>
+  <si>
+    <t>车神笔记</t>
+  </si>
+  <si>
+    <t>玩车大师</t>
+  </si>
+  <si>
+    <t>旅人说</t>
+  </si>
+  <si>
+    <t>旅人录</t>
+  </si>
+  <si>
+    <t>掌盛无限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旅游美图 </t>
+  </si>
+  <si>
+    <t>旅游美景精选</t>
+  </si>
+  <si>
+    <t>旅行画卷</t>
+  </si>
+  <si>
+    <t>旅游邦</t>
+  </si>
+  <si>
+    <t>旅行美景</t>
+  </si>
+  <si>
+    <t>最美旅图</t>
+  </si>
+  <si>
+    <t>最美行摄</t>
+  </si>
+  <si>
+    <t>全球科技</t>
+  </si>
+  <si>
+    <t>每日IT</t>
+  </si>
+  <si>
+    <t>IT数码控</t>
+  </si>
+  <si>
+    <t>环球科技</t>
+  </si>
+  <si>
+    <t>IT杂志</t>
+  </si>
+  <si>
+    <t>实用健康小百科</t>
+  </si>
+  <si>
+    <t>健康说</t>
+  </si>
+  <si>
+    <t>美容健康减肥</t>
+  </si>
+  <si>
+    <t>母婴健康录</t>
+  </si>
+  <si>
+    <t>母婴健康秘诀</t>
+  </si>
+  <si>
+    <t>女性健康秘诀</t>
+  </si>
+  <si>
+    <t>健康养生诀窍</t>
+  </si>
+  <si>
+    <t>时尚养生小诀窍</t>
+  </si>
+  <si>
+    <t>我思故在</t>
+  </si>
+  <si>
+    <t>猫狗萌宠物</t>
+  </si>
+  <si>
+    <t>热美食搜罗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷笑话说 </t>
+  </si>
+  <si>
+    <t>电影的家</t>
+  </si>
+  <si>
+    <t>爱家居设计</t>
+  </si>
+  <si>
+    <t>唯美心情经典语录</t>
+  </si>
+  <si>
+    <t>学生励志语收录</t>
+  </si>
+  <si>
+    <t>治愈心情语录</t>
+  </si>
+  <si>
+    <t>大爱情话</t>
+  </si>
+  <si>
+    <t>潮搭美妆</t>
+  </si>
+  <si>
+    <t>时尚潮搭秀</t>
+  </si>
+  <si>
+    <t>美鞋子控</t>
+  </si>
+  <si>
+    <t xml:space="preserve">热时尚 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">热门時尙 </t>
+  </si>
+  <si>
+    <t>好神奇的视频</t>
+  </si>
+  <si>
+    <t>团宝网南昌站</t>
+  </si>
+  <si>
+    <t>团宝网广州站</t>
+  </si>
+  <si>
+    <t>禅定广州</t>
+  </si>
+  <si>
+    <t>广东热门</t>
+  </si>
+  <si>
+    <t>黄子华栋笃笑集锦</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>广告营销</t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>幽默搞笑</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>家居</t>
+  </si>
+  <si>
+    <t>情感</t>
+  </si>
+  <si>
+    <t>美妆</t>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>X1801050844470868</t>
+  </si>
+  <si>
+    <t>胡江超</t>
+  </si>
+  <si>
+    <t>X1712181337040001</t>
   </si>
 </sst>
 </file>
@@ -725,11 +674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -788,1472 +737,2018 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1982133893</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12500</v>
+      </c>
+      <c r="G2" s="1">
+        <v>12000</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1">
-        <v>79.735799999999998</v>
-      </c>
-      <c r="D2" s="1">
-        <v>540</v>
-      </c>
-      <c r="E2" s="1">
-        <v>540</v>
-      </c>
-      <c r="F2" s="1">
-        <v>810</v>
-      </c>
-      <c r="G2" s="1">
-        <v>810</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
-        <v>69.510000000000005</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1982115915</v>
       </c>
       <c r="D3" s="1">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>720</v>
+        <v>12500</v>
       </c>
       <c r="G3" s="1">
-        <v>720</v>
+        <v>12000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
-        <v>54.122199999999999</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2004957864</v>
       </c>
       <c r="D4" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>450</v>
+        <v>8000</v>
       </c>
       <c r="G4" s="1">
-        <v>450</v>
+        <v>7500</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1">
-        <v>38.555900000000001</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1986165552</v>
       </c>
       <c r="D5" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>450</v>
+        <v>8000</v>
       </c>
       <c r="G5" s="1">
-        <v>450</v>
+        <v>7500</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>37.133699999999997</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6317281683</v>
       </c>
       <c r="D6" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>450</v>
+        <v>9000</v>
       </c>
       <c r="G6" s="1">
-        <v>450</v>
+        <v>8500</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1">
-        <v>65.998099999999994</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6315342760</v>
       </c>
       <c r="D7" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>540</v>
+        <v>2500</v>
       </c>
       <c r="G7" s="1">
-        <v>540</v>
+        <v>2400</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1">
-        <v>67.509299999999996</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2027492644</v>
       </c>
       <c r="D8" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>540</v>
+        <v>2500</v>
       </c>
       <c r="G8" s="1">
-        <v>540</v>
+        <v>2400</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1">
-        <v>66.512500000000003</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1989406874</v>
       </c>
       <c r="D9" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>540</v>
+        <v>2500</v>
       </c>
       <c r="G9" s="1">
-        <v>540</v>
+        <v>2400</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1">
-        <v>67.275800000000004</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2358669342</v>
       </c>
       <c r="D10" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>540</v>
+        <v>2500</v>
       </c>
       <c r="G10" s="1">
-        <v>540</v>
+        <v>2400</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1">
-        <v>46.037599999999998</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2011030360</v>
       </c>
       <c r="D11" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>450</v>
+        <v>6500</v>
       </c>
       <c r="G11" s="1">
-        <v>450</v>
+        <v>6000</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1">
-        <v>36.242699999999999</v>
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6323751949</v>
       </c>
       <c r="D12" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>450</v>
+        <v>6500</v>
       </c>
       <c r="G12" s="1">
-        <v>450</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1">
-        <v>35.431899999999999</v>
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6314270494</v>
       </c>
       <c r="D13" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>450</v>
+        <v>6500</v>
       </c>
       <c r="G13" s="1">
-        <v>450</v>
+        <v>6000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1">
-        <v>53.816099999999999</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6342994984</v>
       </c>
       <c r="D14" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>450</v>
+        <v>6500</v>
       </c>
       <c r="G14" s="1">
-        <v>450</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1">
-        <v>53.808799999999998</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1998589204</v>
       </c>
       <c r="D15" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="1">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1">
-        <v>52.6295</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1930545242</v>
       </c>
       <c r="D16" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="1">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1">
-        <v>39.590600000000002</v>
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1998627674</v>
       </c>
       <c r="D17" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="1">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1">
-        <v>30.874300000000002</v>
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1924012141</v>
       </c>
       <c r="D18" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="1">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1">
-        <v>53.090800000000002</v>
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2011194734</v>
       </c>
       <c r="D19" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="G19" s="1">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="1">
-        <v>52.649500000000003</v>
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1997753270</v>
       </c>
       <c r="D20" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="1">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1">
-        <v>53.003900000000002</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1921359973</v>
       </c>
       <c r="D21" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>450</v>
+        <v>2500</v>
       </c>
       <c r="G21" s="1">
-        <v>450</v>
+        <v>2200</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1">
-        <v>52.658099999999997</v>
+        <v>36</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1918944004</v>
       </c>
       <c r="D22" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>450</v>
+        <v>3000</v>
       </c>
       <c r="G22" s="1">
-        <v>450</v>
+        <v>2600</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1">
-        <v>52.570399999999999</v>
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2028963857</v>
       </c>
       <c r="D23" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>450</v>
+        <v>2200</v>
       </c>
       <c r="G23" s="1">
-        <v>450</v>
+        <v>2000</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1">
-        <v>48.090899999999998</v>
+        <v>38</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1989574422</v>
       </c>
       <c r="D24" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="G24" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="1">
-        <v>52.674999999999997</v>
+        <v>39</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1989533460</v>
       </c>
       <c r="D25" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="G25" s="1">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="1">
-        <v>31.761700000000001</v>
+        <v>40</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2004974334</v>
       </c>
       <c r="D26" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>450</v>
+        <v>1600</v>
       </c>
       <c r="G26" s="1">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="1">
-        <v>45.022399999999998</v>
+        <v>41</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1998307244</v>
       </c>
       <c r="D27" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="G27" s="1">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="1">
-        <v>41.484299999999998</v>
+        <v>42</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1998552200</v>
       </c>
       <c r="D28" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="G28" s="1">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="1">
-        <v>32.164900000000003</v>
+        <v>43</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1918899432</v>
       </c>
       <c r="D29" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="G29" s="1">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="1">
-        <v>44.371400000000001</v>
+        <v>44</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2011704680</v>
       </c>
       <c r="D30" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="G30" s="1">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="1">
-        <v>36.813499999999998</v>
+        <v>45</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1923972555</v>
       </c>
       <c r="D31" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>450</v>
+        <v>4400</v>
       </c>
       <c r="G31" s="1">
-        <v>450</v>
+        <v>4100</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="1">
-        <v>35.763500000000001</v>
+        <v>46</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2013041757</v>
       </c>
       <c r="D32" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>450</v>
+        <v>2600</v>
       </c>
       <c r="G32" s="1">
-        <v>450</v>
+        <v>2500</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="1">
-        <v>30.753399999999999</v>
+        <v>47</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1998584004</v>
       </c>
       <c r="D33" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>450</v>
+        <v>2600</v>
       </c>
       <c r="G33" s="1">
-        <v>450</v>
+        <v>2500</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="1">
-        <v>22.896100000000001</v>
+        <v>48</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1998632400</v>
       </c>
       <c r="D34" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>360</v>
+        <v>2600</v>
       </c>
       <c r="G34" s="1">
-        <v>360</v>
+        <v>2500</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="1">
-        <v>22.874700000000001</v>
+        <v>49</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2011435330</v>
       </c>
       <c r="D35" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>360</v>
+        <v>2600</v>
       </c>
       <c r="G35" s="1">
-        <v>360</v>
+        <v>2500</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="1">
-        <v>23.001999999999999</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1998599014</v>
       </c>
       <c r="D36" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>360</v>
+        <v>2500</v>
       </c>
       <c r="G36" s="1">
-        <v>360</v>
+        <v>2400</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="1">
-        <v>52.563499999999998</v>
+        <v>51</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1998602102</v>
       </c>
       <c r="D37" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>450</v>
+        <v>2500</v>
       </c>
       <c r="G37" s="1">
-        <v>450</v>
+        <v>2400</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="1">
-        <v>44.4816</v>
+        <v>52</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1919139124</v>
       </c>
       <c r="D38" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>450</v>
+        <v>1500</v>
       </c>
       <c r="G38" s="1">
-        <v>450</v>
+        <v>1400</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="1">
-        <v>42.978099999999998</v>
+        <v>53</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1982048025</v>
       </c>
       <c r="D39" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>450</v>
+        <v>2500</v>
       </c>
       <c r="G39" s="1">
-        <v>450</v>
+        <v>2400</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="1">
-        <v>37.9114</v>
+        <v>54</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1801573511</v>
       </c>
       <c r="D40" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>450</v>
+        <v>3000</v>
       </c>
       <c r="G40" s="1">
-        <v>450</v>
+        <v>2800</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="1">
-        <v>30.108699999999999</v>
+        <v>55</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1930547414</v>
       </c>
       <c r="D41" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="G41" s="1">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="1">
-        <v>51.603999999999999</v>
+        <v>56</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1998614234</v>
       </c>
       <c r="D42" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="G42" s="1">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="1">
-        <v>9.8155000000000001</v>
+        <v>57</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2158124904</v>
       </c>
       <c r="D43" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="G43" s="1">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1239722905</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>600</v>
+      </c>
+      <c r="G44" s="1">
+        <v>500</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1920004035</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>600</v>
+      </c>
+      <c r="G45" s="1">
+        <v>500</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1997724052</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>600</v>
+      </c>
+      <c r="G46" s="1">
+        <v>500</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1799681174</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>600</v>
+      </c>
+      <c r="G47" s="1">
+        <v>500</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1989048832</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>900</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1998578220</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2200</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1791406610</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1920679277</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>500</v>
+      </c>
+      <c r="G51" s="1">
+        <v>400</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1928420427</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>500</v>
+      </c>
+      <c r="G52" s="1">
+        <v>400</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1887415863</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>500</v>
+      </c>
+      <c r="G53" s="1">
+        <v>400</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1925606231</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>500</v>
+      </c>
+      <c r="G54" s="1">
+        <v>400</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2002049495</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>500</v>
+      </c>
+      <c r="G55" s="1">
+        <v>400</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1926748641</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>500</v>
+      </c>
+      <c r="G56" s="1">
+        <v>400</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2358608150</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>500</v>
+      </c>
+      <c r="G57" s="1">
+        <v>400</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1924021887</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2005008370</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2200</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2100</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1870650092</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2800</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1858759292</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2800</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1927512045</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>900</v>
+      </c>
+      <c r="G62" s="1">
+        <v>800</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2011199554</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>900</v>
+      </c>
+      <c r="G63" s="1">
+        <v>800</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1961150260</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="94">
   <si>
     <t>名称</t>
   </si>
@@ -65,247 +65,250 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IT互联网</t>
-  </si>
-  <si>
     <t>汽车</t>
   </si>
   <si>
     <t>母婴</t>
   </si>
   <si>
-    <t>旅游</t>
-  </si>
-  <si>
-    <t xml:space="preserve">汽车之梦 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">酷车讯 </t>
-  </si>
-  <si>
-    <t>汽车眼睛</t>
-  </si>
-  <si>
-    <t>汽车频道</t>
-  </si>
-  <si>
-    <t>车博会</t>
-  </si>
-  <si>
-    <t>美车志</t>
-  </si>
-  <si>
-    <t>车神说车</t>
-  </si>
-  <si>
-    <t>玩车王</t>
-  </si>
-  <si>
-    <t>购车之家</t>
-  </si>
-  <si>
-    <t>汽车视觉</t>
-  </si>
-  <si>
-    <t>汽车车迷</t>
-  </si>
-  <si>
-    <t>名博汽车</t>
-  </si>
-  <si>
-    <t>汽车讯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">玩车之王 </t>
-  </si>
-  <si>
-    <t>汽车车模</t>
-  </si>
-  <si>
-    <t>汽车糗事</t>
-  </si>
-  <si>
-    <t>全球车语</t>
-  </si>
-  <si>
-    <t>车神笔记</t>
-  </si>
-  <si>
-    <t>玩车大师</t>
-  </si>
-  <si>
-    <t>旅人说</t>
-  </si>
-  <si>
-    <t>旅人录</t>
-  </si>
-  <si>
-    <t>掌盛无限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">旅游美图 </t>
-  </si>
-  <si>
-    <t>旅游美景精选</t>
-  </si>
-  <si>
-    <t>旅行画卷</t>
-  </si>
-  <si>
-    <t>旅游邦</t>
-  </si>
-  <si>
-    <t>旅行美景</t>
-  </si>
-  <si>
-    <t>最美旅图</t>
-  </si>
-  <si>
-    <t>最美行摄</t>
-  </si>
-  <si>
-    <t>全球科技</t>
-  </si>
-  <si>
-    <t>每日IT</t>
-  </si>
-  <si>
-    <t>IT数码控</t>
-  </si>
-  <si>
-    <t>环球科技</t>
-  </si>
-  <si>
-    <t>IT杂志</t>
-  </si>
-  <si>
-    <t>实用健康小百科</t>
-  </si>
-  <si>
-    <t>健康说</t>
-  </si>
-  <si>
-    <t>美容健康减肥</t>
-  </si>
-  <si>
-    <t>母婴健康录</t>
-  </si>
-  <si>
-    <t>母婴健康秘诀</t>
-  </si>
-  <si>
-    <t>女性健康秘诀</t>
-  </si>
-  <si>
-    <t>健康养生诀窍</t>
-  </si>
-  <si>
-    <t>时尚养生小诀窍</t>
-  </si>
-  <si>
-    <t>我思故在</t>
-  </si>
-  <si>
-    <t>猫狗萌宠物</t>
-  </si>
-  <si>
-    <t>热美食搜罗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冷笑话说 </t>
-  </si>
-  <si>
-    <t>电影的家</t>
-  </si>
-  <si>
-    <t>爱家居设计</t>
-  </si>
-  <si>
-    <t>唯美心情经典语录</t>
-  </si>
-  <si>
-    <t>学生励志语收录</t>
-  </si>
-  <si>
-    <t>治愈心情语录</t>
-  </si>
-  <si>
-    <t>大爱情话</t>
-  </si>
-  <si>
-    <t>潮搭美妆</t>
-  </si>
-  <si>
-    <t>时尚潮搭秀</t>
-  </si>
-  <si>
-    <t>美鞋子控</t>
-  </si>
-  <si>
-    <t xml:space="preserve">热时尚 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">热门時尙 </t>
-  </si>
-  <si>
-    <t>好神奇的视频</t>
-  </si>
-  <si>
-    <t>团宝网南昌站</t>
-  </si>
-  <si>
-    <t>团宝网广州站</t>
-  </si>
-  <si>
-    <t>禅定广州</t>
-  </si>
-  <si>
-    <t>广东热门</t>
-  </si>
-  <si>
-    <t>黄子华栋笃笑集锦</t>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>广告营销</t>
-  </si>
-  <si>
-    <t>宠物</t>
-  </si>
-  <si>
     <t>美食</t>
   </si>
   <si>
-    <t>幽默搞笑</t>
-  </si>
-  <si>
-    <t>电影</t>
-  </si>
-  <si>
-    <t>家居</t>
-  </si>
-  <si>
-    <t>情感</t>
-  </si>
-  <si>
-    <t>美妆</t>
-  </si>
-  <si>
-    <t>视频</t>
-  </si>
-  <si>
-    <t>区域</t>
-  </si>
-  <si>
-    <t>X1801050844470868</t>
-  </si>
-  <si>
-    <t>胡江超</t>
-  </si>
-  <si>
-    <t>X1712181337040001</t>
+    <t>全球电影资讯速递</t>
+  </si>
+  <si>
+    <t>全球电影排行资讯榜</t>
+  </si>
+  <si>
+    <t>全球热门电影推荐榜</t>
+  </si>
+  <si>
+    <t>娱乐影音资讯</t>
+  </si>
+  <si>
+    <t>热播影视资讯播报</t>
+  </si>
+  <si>
+    <t>影视音乐资讯榜</t>
+  </si>
+  <si>
+    <t>财经资讯播报</t>
+  </si>
+  <si>
+    <t>学术快报网</t>
+  </si>
+  <si>
+    <t>财经热点资讯榜</t>
+  </si>
+  <si>
+    <t>全球财经热点话题</t>
+  </si>
+  <si>
+    <t>全球热门财经速递</t>
+  </si>
+  <si>
+    <t>财经资讯周刊</t>
+  </si>
+  <si>
+    <t>全球财经要闻</t>
+  </si>
+  <si>
+    <t>要闻早餐</t>
+  </si>
+  <si>
+    <t>全球商业经济学</t>
+  </si>
+  <si>
+    <t>全球商业启示录</t>
+  </si>
+  <si>
+    <t>财经综合资讯</t>
+  </si>
+  <si>
+    <t>全球理财宝典</t>
+  </si>
+  <si>
+    <t>全球财经综合要闻</t>
+  </si>
+  <si>
+    <t>全球创业理财分析</t>
+  </si>
+  <si>
+    <t>职场丽人养成</t>
+  </si>
+  <si>
+    <t>创业心经搜罗</t>
+  </si>
+  <si>
+    <t>全球美食宴</t>
+  </si>
+  <si>
+    <t>摆在眼前的美食</t>
+  </si>
+  <si>
+    <t>环球美食大盘点</t>
+  </si>
+  <si>
+    <t>最潮数码汇</t>
+  </si>
+  <si>
+    <t>IT数码前沿资讯速递</t>
+  </si>
+  <si>
+    <t>IT数码精选榜</t>
+  </si>
+  <si>
+    <t>IT数码杂谈汇</t>
+  </si>
+  <si>
+    <t>最新IT科技</t>
+  </si>
+  <si>
+    <t>手机小助手大全</t>
+  </si>
+  <si>
+    <t>手机娱乐资讯</t>
+  </si>
+  <si>
+    <t>全球数码情报站</t>
+  </si>
+  <si>
+    <t>机情资讯快报</t>
+  </si>
+  <si>
+    <t>IT资讯榜</t>
+  </si>
+  <si>
+    <t>科技锐点</t>
+  </si>
+  <si>
+    <t>全球电器资讯榜</t>
+  </si>
+  <si>
+    <t>亲子健康中心</t>
+  </si>
+  <si>
+    <t>潮妈喂养学</t>
+  </si>
+  <si>
+    <t>全球母婴亲子乐园</t>
+  </si>
+  <si>
+    <t>全球母婴育儿百科</t>
+  </si>
+  <si>
+    <t>全球潮妈育儿学堂</t>
+  </si>
+  <si>
+    <t>辣妈的那点事儿</t>
+  </si>
+  <si>
+    <t>全球潮妈集中营</t>
+  </si>
+  <si>
+    <t>全球车头条</t>
+  </si>
+  <si>
+    <t>车融网官网</t>
+  </si>
+  <si>
+    <t>全球暴走车</t>
+  </si>
+  <si>
+    <t>全球品尚车居</t>
+  </si>
+  <si>
+    <t>车热评榜</t>
+  </si>
+  <si>
+    <t>车的那点事儿</t>
+  </si>
+  <si>
+    <t>热点车排行榜</t>
+  </si>
+  <si>
+    <t>全球车杂谈</t>
+  </si>
+  <si>
+    <t>全球车前瞻</t>
+  </si>
+  <si>
+    <t>全球车汇资讯</t>
+  </si>
+  <si>
+    <t>全球车报</t>
+  </si>
+  <si>
+    <t>天天看车资讯</t>
+  </si>
+  <si>
+    <t>全球好车排行榜</t>
+  </si>
+  <si>
+    <t>车前沿</t>
+  </si>
+  <si>
+    <t>全球豪车风尚标</t>
+  </si>
+  <si>
+    <t>全球豪车点评</t>
+  </si>
+  <si>
+    <t>全球车谍报</t>
+  </si>
+  <si>
+    <t>全球大搜车</t>
+  </si>
+  <si>
+    <t>环球旅行百事通</t>
+  </si>
+  <si>
+    <t>环球旅游小贴士</t>
+  </si>
+  <si>
+    <t>环球旅行小贴士</t>
+  </si>
+  <si>
+    <t>全球微旅游</t>
+  </si>
+  <si>
+    <t>去哪玩儿周刊</t>
+  </si>
+  <si>
+    <t>去那玩儿吧</t>
+  </si>
+  <si>
+    <t>全球游戏基地</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>财经</t>
+  </si>
+  <si>
+    <t>职场</t>
+  </si>
+  <si>
+    <t>数码科技</t>
+  </si>
+  <si>
+    <t>家电</t>
+  </si>
+  <si>
+    <t>旅行</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>X1902251727270130</t>
+  </si>
+  <si>
+    <t>黄芳</t>
+  </si>
+  <si>
+    <t>X1712181221160001</t>
   </si>
 </sst>
 </file>
@@ -674,11 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -737,2018 +740,1796 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>1982133893</v>
+        <v>5150534267</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>12500</v>
-      </c>
-      <c r="G2" s="1">
-        <v>12000</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>1982115915</v>
+        <v>3203275391</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>12500</v>
-      </c>
-      <c r="G3" s="1">
-        <v>12000</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
-        <v>2004957864</v>
+        <v>3081808720</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7500</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
-        <v>1986165552</v>
+        <v>3023556882</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7500</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
-        <v>6317281683</v>
+        <v>5210114103</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8500</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3">
-        <v>6315342760</v>
+        <v>3186430313</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2400</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
-        <v>2027492644</v>
+        <v>5209172213</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2400</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
-        <v>1989406874</v>
+        <v>5209816881</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2400</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
-        <v>2358669342</v>
+        <v>3186432387</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2400</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
-        <v>2011030360</v>
+        <v>5210067314</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6500</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3">
-        <v>6323751949</v>
+        <v>5210080273</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6500</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
-        <v>6314270494</v>
+        <v>3013705393</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6500</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3">
-        <v>6342994984</v>
+        <v>3013971875</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>6500</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3">
-        <v>1998589204</v>
+        <v>3205881017</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3">
-        <v>1930545242</v>
+        <v>3185636641</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3">
-        <v>1998627674</v>
+        <v>3080875002</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3">
-        <v>1924012141</v>
+        <v>3023407984</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3">
-        <v>2011194734</v>
+        <v>5210069098</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3">
-        <v>1997753270</v>
+        <v>3205879723</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3">
-        <v>1921359973</v>
+        <v>3275179365</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2200</v>
+        <v>50</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3">
-        <v>1918944004</v>
+        <v>5210635867</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2600</v>
+        <v>50</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
-        <v>2028963857</v>
+        <v>5210625667</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2200</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3">
-        <v>1989574422</v>
+        <v>3185619935</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>600</v>
-      </c>
-      <c r="G24" s="1">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3">
-        <v>1989533460</v>
+        <v>5209788053</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>600</v>
-      </c>
-      <c r="G25" s="1">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3">
-        <v>2004974334</v>
+        <v>3185348355</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1600</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1100</v>
+        <v>50</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3">
-        <v>1998307244</v>
+        <v>3185621421</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>700</v>
-      </c>
-      <c r="G27" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
-        <v>1998552200</v>
+        <v>3242245984</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>700</v>
-      </c>
-      <c r="G28" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3">
-        <v>1918899432</v>
+        <v>3253090531</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>700</v>
-      </c>
-      <c r="G29" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3">
-        <v>2011704680</v>
+        <v>3253090911</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>700</v>
-      </c>
-      <c r="G30" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3">
-        <v>1923972555</v>
+        <v>3229144884</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>4400</v>
-      </c>
-      <c r="G31" s="1">
-        <v>4100</v>
+        <v>50</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3">
-        <v>2013041757</v>
+        <v>3241008810</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2600</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3">
-        <v>1998584004</v>
+        <v>3277248025</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2600</v>
-      </c>
-      <c r="G33" s="1">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3">
-        <v>1998632400</v>
+        <v>3253082725</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2600</v>
-      </c>
-      <c r="G34" s="1">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3">
-        <v>2011435330</v>
+        <v>3252802944</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2600</v>
-      </c>
-      <c r="G35" s="1">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3">
-        <v>1998599014</v>
+        <v>3277239565</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2400</v>
+        <v>50</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="3">
-        <v>1998602102</v>
+        <v>3253085941</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2400</v>
+        <v>50</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3">
-        <v>1919139124</v>
+        <v>3229124160</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1400</v>
+        <v>50</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3">
-        <v>1982048025</v>
+        <v>3252804560</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2400</v>
+        <v>50</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3">
-        <v>1801573511</v>
+        <v>3229133612</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G40" s="1">
-        <v>2800</v>
+        <v>50</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="3">
-        <v>1930547414</v>
+        <v>3229133692</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>900</v>
-      </c>
-      <c r="G41" s="1">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3">
-        <v>1998614234</v>
+        <v>3252805432</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>900</v>
-      </c>
-      <c r="G42" s="1">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="3">
-        <v>2158124904</v>
+        <v>3253087971</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>900</v>
-      </c>
-      <c r="G43" s="1">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3">
-        <v>1239722905</v>
+        <v>3229139012</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>600</v>
-      </c>
-      <c r="G44" s="1">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3">
-        <v>1920004035</v>
+        <v>3277243501</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>600</v>
-      </c>
-      <c r="G45" s="1">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3">
-        <v>1997724052</v>
+        <v>3253088825</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>600</v>
-      </c>
-      <c r="G46" s="1">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="3">
-        <v>1799681174</v>
+        <v>3252808992</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>600</v>
-      </c>
-      <c r="G47" s="1">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3">
-        <v>1989048832</v>
+        <v>3252809320</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G48" s="1">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="3">
-        <v>1998578220</v>
+        <v>3253091331</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2200</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="3">
-        <v>1791406610</v>
+        <v>3252805304</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1300</v>
+        <v>50</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="3">
-        <v>1920679277</v>
+        <v>3252805504</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>500</v>
-      </c>
-      <c r="G51" s="1">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="3">
-        <v>1928420427</v>
+        <v>3229142144</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>500</v>
-      </c>
-      <c r="G52" s="1">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="3">
-        <v>1887415863</v>
+        <v>3241008122</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>500</v>
-      </c>
-      <c r="G53" s="1">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="3">
-        <v>1925606231</v>
+        <v>3229146880</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>500</v>
-      </c>
-      <c r="G54" s="1">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="3">
-        <v>2002049495</v>
+        <v>3252808240</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>500</v>
-      </c>
-      <c r="G55" s="1">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="3">
-        <v>1926748641</v>
+        <v>3277241495</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>500</v>
-      </c>
-      <c r="G56" s="1">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="3">
-        <v>2358608150</v>
+        <v>3253088251</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>500</v>
-      </c>
-      <c r="G57" s="1">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3">
-        <v>1924021887</v>
+        <v>3229138552</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1400</v>
+        <v>50</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3">
-        <v>2005008370</v>
+        <v>3251430955</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>2200</v>
-      </c>
-      <c r="G59" s="1">
-        <v>2100</v>
+        <v>50</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="3">
-        <v>1870650092</v>
+        <v>3225379684</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G60" s="1">
-        <v>2800</v>
+        <v>50</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="3">
-        <v>1858759292</v>
+        <v>3251432211</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G61" s="1">
-        <v>2800</v>
+        <v>50</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="3">
-        <v>1927512045</v>
+        <v>3249812492</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1">
-        <v>900</v>
-      </c>
-      <c r="G62" s="1">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="3">
-        <v>2011199554</v>
+        <v>3225380220</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>900</v>
-      </c>
-      <c r="G63" s="1">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="3">
+        <v>3305704313</v>
+      </c>
+      <c r="D64" s="1">
+        <v>50</v>
+      </c>
+      <c r="E64" s="1">
+        <v>50</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="3">
-        <v>1961150260</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G64" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H64" s="1" t="s">
+      <c r="B65" s="3">
+        <v>2673602545</v>
+      </c>
+      <c r="D65" s="1">
+        <v>50</v>
+      </c>
+      <c r="E65" s="1">
+        <v>50</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="3">
+        <v>3215817605</v>
+      </c>
+      <c r="D66" s="1">
+        <v>50</v>
+      </c>
+      <c r="E66" s="1">
+        <v>50</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2913028255</v>
+      </c>
+      <c r="D67" s="1">
+        <v>50</v>
+      </c>
+      <c r="E67" s="1">
+        <v>50</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3759965044</v>
+      </c>
+      <c r="D68" s="1">
+        <v>50</v>
+      </c>
+      <c r="E68" s="1">
+        <v>50</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3256181344</v>
+      </c>
+      <c r="D69" s="1">
+        <v>50</v>
+      </c>
+      <c r="E69" s="1">
+        <v>50</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="B70" s="3">
+        <v>2646384765</v>
+      </c>
+      <c r="D70" s="1">
+        <v>50</v>
+      </c>
+      <c r="E70" s="1">
+        <v>50</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>92</v>
+      <c r="J70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="137">
   <si>
     <t>名称</t>
   </si>
@@ -65,250 +65,379 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>母婴</t>
-  </si>
-  <si>
-    <t>美食</t>
-  </si>
-  <si>
-    <t>全球电影资讯速递</t>
-  </si>
-  <si>
-    <t>全球电影排行资讯榜</t>
-  </si>
-  <si>
-    <t>全球热门电影推荐榜</t>
-  </si>
-  <si>
-    <t>娱乐影音资讯</t>
-  </si>
-  <si>
-    <t>热播影视资讯播报</t>
-  </si>
-  <si>
-    <t>影视音乐资讯榜</t>
-  </si>
-  <si>
-    <t>财经资讯播报</t>
-  </si>
-  <si>
-    <t>学术快报网</t>
-  </si>
-  <si>
-    <t>财经热点资讯榜</t>
-  </si>
-  <si>
-    <t>全球财经热点话题</t>
-  </si>
-  <si>
-    <t>全球热门财经速递</t>
-  </si>
-  <si>
-    <t>财经资讯周刊</t>
-  </si>
-  <si>
-    <t>全球财经要闻</t>
-  </si>
-  <si>
-    <t>要闻早餐</t>
-  </si>
-  <si>
-    <t>全球商业经济学</t>
-  </si>
-  <si>
-    <t>全球商业启示录</t>
-  </si>
-  <si>
-    <t>财经综合资讯</t>
-  </si>
-  <si>
-    <t>全球理财宝典</t>
-  </si>
-  <si>
-    <t>全球财经综合要闻</t>
-  </si>
-  <si>
-    <t>全球创业理财分析</t>
-  </si>
-  <si>
-    <t>职场丽人养成</t>
-  </si>
-  <si>
-    <t>创业心经搜罗</t>
-  </si>
-  <si>
-    <t>全球美食宴</t>
-  </si>
-  <si>
-    <t>摆在眼前的美食</t>
-  </si>
-  <si>
-    <t>环球美食大盘点</t>
-  </si>
-  <si>
-    <t>最潮数码汇</t>
-  </si>
-  <si>
-    <t>IT数码前沿资讯速递</t>
-  </si>
-  <si>
-    <t>IT数码精选榜</t>
-  </si>
-  <si>
-    <t>IT数码杂谈汇</t>
-  </si>
-  <si>
-    <t>最新IT科技</t>
-  </si>
-  <si>
-    <t>手机小助手大全</t>
-  </si>
-  <si>
-    <t>手机娱乐资讯</t>
-  </si>
-  <si>
-    <t>全球数码情报站</t>
-  </si>
-  <si>
-    <t>机情资讯快报</t>
-  </si>
-  <si>
-    <t>IT资讯榜</t>
-  </si>
-  <si>
-    <t>科技锐点</t>
-  </si>
-  <si>
-    <t>全球电器资讯榜</t>
-  </si>
-  <si>
-    <t>亲子健康中心</t>
-  </si>
-  <si>
-    <t>潮妈喂养学</t>
-  </si>
-  <si>
-    <t>全球母婴亲子乐园</t>
-  </si>
-  <si>
-    <t>全球母婴育儿百科</t>
-  </si>
-  <si>
-    <t>全球潮妈育儿学堂</t>
-  </si>
-  <si>
-    <t>辣妈的那点事儿</t>
-  </si>
-  <si>
-    <t>全球潮妈集中营</t>
-  </si>
-  <si>
-    <t>全球车头条</t>
-  </si>
-  <si>
-    <t>车融网官网</t>
-  </si>
-  <si>
-    <t>全球暴走车</t>
-  </si>
-  <si>
-    <t>全球品尚车居</t>
-  </si>
-  <si>
-    <t>车热评榜</t>
-  </si>
-  <si>
-    <t>车的那点事儿</t>
-  </si>
-  <si>
-    <t>热点车排行榜</t>
-  </si>
-  <si>
-    <t>全球车杂谈</t>
-  </si>
-  <si>
-    <t>全球车前瞻</t>
-  </si>
-  <si>
-    <t>全球车汇资讯</t>
-  </si>
-  <si>
-    <t>全球车报</t>
-  </si>
-  <si>
-    <t>天天看车资讯</t>
-  </si>
-  <si>
-    <t>全球好车排行榜</t>
-  </si>
-  <si>
-    <t>车前沿</t>
-  </si>
-  <si>
-    <t>全球豪车风尚标</t>
-  </si>
-  <si>
-    <t>全球豪车点评</t>
-  </si>
-  <si>
-    <t>全球车谍报</t>
-  </si>
-  <si>
-    <t>全球大搜车</t>
-  </si>
-  <si>
-    <t>环球旅行百事通</t>
-  </si>
-  <si>
-    <t>环球旅游小贴士</t>
-  </si>
-  <si>
-    <t>环球旅行小贴士</t>
-  </si>
-  <si>
-    <t>全球微旅游</t>
-  </si>
-  <si>
-    <t>去哪玩儿周刊</t>
-  </si>
-  <si>
-    <t>去那玩儿吧</t>
-  </si>
-  <si>
-    <t>全球游戏基地</t>
-  </si>
-  <si>
     <t>娱乐</t>
   </si>
   <si>
-    <t>财经</t>
-  </si>
-  <si>
-    <t>职场</t>
-  </si>
-  <si>
-    <t>数码科技</t>
-  </si>
-  <si>
-    <t>家电</t>
-  </si>
-  <si>
-    <t>旅行</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>X1902251727270130</t>
-  </si>
-  <si>
     <t>黄芳</t>
   </si>
   <si>
     <t>X1712181221160001</t>
+  </si>
+  <si>
+    <t>芒果捞头条君</t>
+  </si>
+  <si>
+    <t>芒果捞会火</t>
+  </si>
+  <si>
+    <t>芒果捞兔区菌</t>
+  </si>
+  <si>
+    <t>一周人物周刊</t>
+  </si>
+  <si>
+    <t>综艺说事</t>
+  </si>
+  <si>
+    <t>八组新闻爆料</t>
+  </si>
+  <si>
+    <t>八组小事件</t>
+  </si>
+  <si>
+    <t>娱乐热一乐</t>
+  </si>
+  <si>
+    <t>娱星八卦</t>
+  </si>
+  <si>
+    <t>生活科普君</t>
+  </si>
+  <si>
+    <t>娱乐神回复</t>
+  </si>
+  <si>
+    <t>娱乐界的那点娱乐事</t>
+  </si>
+  <si>
+    <t>吃瓜少女的脑洞日常</t>
+  </si>
+  <si>
+    <t>娱评星探</t>
+  </si>
+  <si>
+    <t>娱乐界早探</t>
+  </si>
+  <si>
+    <t>娱家三少</t>
+  </si>
+  <si>
+    <t>芒果追星小事件</t>
+  </si>
+  <si>
+    <t>一条娱乐资讯</t>
+  </si>
+  <si>
+    <t>娱舅</t>
+  </si>
+  <si>
+    <t>一线娱乐资讯</t>
+  </si>
+  <si>
+    <t>爱饭一周娱乐</t>
+  </si>
+  <si>
+    <t>娱三炮</t>
+  </si>
+  <si>
+    <t>娱乐点点点将</t>
+  </si>
+  <si>
+    <t>星闻八卦君</t>
+  </si>
+  <si>
+    <t>娱乐星报社</t>
+  </si>
+  <si>
+    <t>芒果捞大婊哥</t>
+  </si>
+  <si>
+    <t>会吙娱乐</t>
+  </si>
+  <si>
+    <t>芒果捞新文</t>
+  </si>
+  <si>
+    <t>追剧新</t>
+  </si>
+  <si>
+    <t>追剧小秀咖</t>
+  </si>
+  <si>
+    <t>八卦星揭秘</t>
+  </si>
+  <si>
+    <t>巴啦啦追剧少女</t>
+  </si>
+  <si>
+    <t>追剧少年何弃疗</t>
+  </si>
+  <si>
+    <t>新闻娱乐追踪</t>
+  </si>
+  <si>
+    <t>娱乐加菜</t>
+  </si>
+  <si>
+    <t>娱乐界掌柜</t>
+  </si>
+  <si>
+    <t>娱神八卦</t>
+  </si>
+  <si>
+    <t>芒果捞小仙女</t>
+  </si>
+  <si>
+    <t>追星婶婶</t>
+  </si>
+  <si>
+    <t>娱评小生</t>
+  </si>
+  <si>
+    <t>芒果捞小咖</t>
+  </si>
+  <si>
+    <t>幽默神搞笑</t>
+  </si>
+  <si>
+    <t>娱乐是个圏</t>
+  </si>
+  <si>
+    <t>娱乐神厨</t>
+  </si>
+  <si>
+    <t>星闻揭蜜</t>
+  </si>
+  <si>
+    <t>时尚音乐小镇</t>
+  </si>
+  <si>
+    <t>娱乐笑佛爷</t>
+  </si>
+  <si>
+    <t>八组兔区曝料</t>
+  </si>
+  <si>
+    <t>娱乐外汉</t>
+  </si>
+  <si>
+    <t>新剧扒哥</t>
+  </si>
+  <si>
+    <t>八组星探</t>
+  </si>
+  <si>
+    <t>爱饭娱乐</t>
+  </si>
+  <si>
+    <t>娱情先知</t>
+  </si>
+  <si>
+    <t>娱乐少奶奶</t>
+  </si>
+  <si>
+    <t>微神热搜榜</t>
+  </si>
+  <si>
+    <t>娱神吐槽</t>
+  </si>
+  <si>
+    <t>娱评饭团</t>
+  </si>
+  <si>
+    <t>电影好故事</t>
+  </si>
+  <si>
+    <t>亚洲爱饭名人榜</t>
+  </si>
+  <si>
+    <t>爱扒娱乐</t>
+  </si>
+  <si>
+    <t>娱乐颠</t>
+  </si>
+  <si>
+    <t>超级剧</t>
+  </si>
+  <si>
+    <t>娱圈大爆料  </t>
+  </si>
+  <si>
+    <t>娱妖姬</t>
+  </si>
+  <si>
+    <t>娱三郎</t>
+  </si>
+  <si>
+    <t>娱乐频道来了</t>
+  </si>
+  <si>
+    <t>娱乐当家</t>
+  </si>
+  <si>
+    <t>陕西那点事儿</t>
+  </si>
+  <si>
+    <t>寻音缘</t>
+  </si>
+  <si>
+    <t>娱乐大白菜</t>
+  </si>
+  <si>
+    <t>娱乐圈小表弟</t>
+  </si>
+  <si>
+    <t>娱乐界神吐槽</t>
+  </si>
+  <si>
+    <t>娱大表哥</t>
+  </si>
+  <si>
+    <t>扒组娱乐</t>
+  </si>
+  <si>
+    <t>音花火树</t>
+  </si>
+  <si>
+    <t>娱来愚乐</t>
+  </si>
+  <si>
+    <t>娱不可稽</t>
+  </si>
+  <si>
+    <t>娱情娱理</t>
+  </si>
+  <si>
+    <t>不许动情马甲</t>
+  </si>
+  <si>
+    <t>娱乐圈范爷</t>
+  </si>
+  <si>
+    <t>圈内新鲜事儿</t>
+  </si>
+  <si>
+    <t>娱不羁</t>
+  </si>
+  <si>
+    <t>圈内大侦探</t>
+  </si>
+  <si>
+    <t>圈内八叔</t>
+  </si>
+  <si>
+    <t>金天琪</t>
+  </si>
+  <si>
+    <t>娱乐圈小情报</t>
+  </si>
+  <si>
+    <t>音悦哒人</t>
+  </si>
+  <si>
+    <t>一块去追剧</t>
+  </si>
+  <si>
+    <t>剧不思蜀</t>
+  </si>
+  <si>
+    <t>娱乐界星探</t>
+  </si>
+  <si>
+    <t>娱乐圈那点娱乐事</t>
+  </si>
+  <si>
+    <t>娱乐星饭社</t>
+  </si>
+  <si>
+    <t>娱乐圈胖哥</t>
+  </si>
+  <si>
+    <t>娱乐界明星</t>
+  </si>
+  <si>
+    <t>娱乐界小胖</t>
+  </si>
+  <si>
+    <t>娱乐喵侦探</t>
+  </si>
+  <si>
+    <t>娱乐界新鲜事</t>
+  </si>
+  <si>
+    <t>娱乐尚尚仟</t>
+  </si>
+  <si>
+    <t>星闻聚集</t>
+  </si>
+  <si>
+    <t>娱羁</t>
+  </si>
+  <si>
+    <t>八组事件</t>
+  </si>
+  <si>
+    <t>圈内八卦爆料</t>
+  </si>
+  <si>
+    <t>娱乐宣传科</t>
+  </si>
+  <si>
+    <t>娱葛格</t>
+  </si>
+  <si>
+    <t>八组头条</t>
+  </si>
+  <si>
+    <t>综合</t>
+  </si>
+  <si>
+    <t>影视</t>
+  </si>
+  <si>
+    <t>幽默搞笑</t>
+  </si>
+  <si>
+    <t>地域</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>X1805180938157030</t>
+  </si>
+  <si>
+    <t>娱乐圈捕娱</t>
+  </si>
+  <si>
+    <t>芒果捞蜀黎</t>
+  </si>
+  <si>
+    <t>娱乐大暴走</t>
+  </si>
+  <si>
+    <t>娱闻连播</t>
+  </si>
+  <si>
+    <t>星饭碗</t>
+  </si>
+  <si>
+    <t>娱幺鸡</t>
+  </si>
+  <si>
+    <t>虎纠身边事儿</t>
+  </si>
+  <si>
+    <t>渔夫娱乐</t>
+  </si>
+  <si>
+    <t>最火娱乐报料</t>
+  </si>
+  <si>
+    <t>非常娱乐揭秘</t>
+  </si>
+  <si>
+    <t>圈内扒姐姐</t>
   </si>
 </sst>
 </file>
@@ -677,11 +806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -743,25 +872,31 @@
         <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>5150534267</v>
+        <v>3283025384</v>
       </c>
       <c r="D2" s="1">
-        <v>50</v>
+        <v>1350</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>1080</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -769,25 +904,31 @@
         <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>3203275391</v>
+        <v>3205900913</v>
       </c>
       <c r="D3" s="1">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>720</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1200</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -795,25 +936,31 @@
         <v>17</v>
       </c>
       <c r="B4" s="3">
-        <v>3081808720</v>
+        <v>1670826254</v>
       </c>
       <c r="D4" s="1">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>720</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1200</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -821,25 +968,31 @@
         <v>18</v>
       </c>
       <c r="B5" s="3">
-        <v>3023556882</v>
+        <v>3103923973</v>
       </c>
       <c r="D5" s="1">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>720</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1200</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -847,1689 +1000,3583 @@
         <v>19</v>
       </c>
       <c r="B6" s="3">
-        <v>5210114103</v>
+        <v>3002533241</v>
       </c>
       <c r="D6" s="1">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>720</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1200</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="B7" s="3">
-        <v>3186430313</v>
+        <v>5909056048</v>
       </c>
       <c r="D7" s="1">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>720</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1200</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
-        <v>5209172213</v>
+        <v>5311912591</v>
       </c>
       <c r="D8" s="1">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>540</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>800</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>5209816881</v>
+        <v>2712090330</v>
       </c>
       <c r="D9" s="1">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>540</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>800</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3">
-        <v>3186432387</v>
+        <v>5579310768</v>
       </c>
       <c r="D10" s="1">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>540</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>800</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3">
-        <v>5210067314</v>
+        <v>5947704959</v>
       </c>
       <c r="D11" s="1">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>540</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>800</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3">
-        <v>5210080273</v>
+        <v>3313038814</v>
       </c>
       <c r="D12" s="1">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>540</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>800</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
-        <v>3013705393</v>
+        <v>6237051909</v>
       </c>
       <c r="D13" s="1">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="E13" s="1">
-        <v>50</v>
+        <v>540</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>800</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B14" s="3">
-        <v>3013971875</v>
+        <v>2478397532</v>
       </c>
       <c r="D14" s="1">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="E14" s="1">
-        <v>50</v>
+        <v>540</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>800</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3">
-        <v>3205881017</v>
+        <v>5283758856</v>
       </c>
       <c r="D15" s="1">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="E15" s="1">
-        <v>50</v>
+        <v>540</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>800</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3">
-        <v>3185636641</v>
+        <v>5321096294</v>
       </c>
       <c r="D16" s="1">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="E16" s="1">
-        <v>50</v>
+        <v>540</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>800</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
-        <v>3080875002</v>
+        <v>3884610489</v>
       </c>
       <c r="D17" s="1">
-        <v>50</v>
+        <v>540</v>
       </c>
       <c r="E17" s="1">
-        <v>50</v>
+        <v>450</v>
+      </c>
+      <c r="F17" s="1">
+        <v>800</v>
+      </c>
+      <c r="G17" s="1">
+        <v>600</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3">
-        <v>3023407984</v>
+        <v>2611508967</v>
       </c>
       <c r="D18" s="1">
-        <v>50</v>
+        <v>540</v>
       </c>
       <c r="E18" s="1">
-        <v>50</v>
+        <v>450</v>
+      </c>
+      <c r="F18" s="1">
+        <v>800</v>
+      </c>
+      <c r="G18" s="1">
+        <v>600</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3">
-        <v>5210069098</v>
+        <v>6185946983</v>
       </c>
       <c r="D19" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E19" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F19" s="1">
+        <v>600</v>
+      </c>
+      <c r="G19" s="1">
+        <v>500</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>3205879723</v>
+        <v>5100004968</v>
       </c>
       <c r="D20" s="1">
-        <v>50</v>
+        <v>540</v>
       </c>
       <c r="E20" s="1">
-        <v>50</v>
+        <v>450</v>
+      </c>
+      <c r="F20" s="1">
+        <v>800</v>
+      </c>
+      <c r="G20" s="1">
+        <v>600</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>3275179365</v>
+        <v>2820371404</v>
       </c>
       <c r="D21" s="1">
-        <v>50</v>
+        <v>540</v>
       </c>
       <c r="E21" s="1">
-        <v>50</v>
+        <v>450</v>
+      </c>
+      <c r="F21" s="1">
+        <v>800</v>
+      </c>
+      <c r="G21" s="1">
+        <v>600</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3">
-        <v>5210635867</v>
+        <v>6369711809</v>
       </c>
       <c r="D22" s="1">
-        <v>50</v>
+        <v>540</v>
       </c>
       <c r="E22" s="1">
-        <v>50</v>
+        <v>450</v>
+      </c>
+      <c r="F22" s="1">
+        <v>800</v>
+      </c>
+      <c r="G22" s="1">
+        <v>600</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3">
-        <v>5210625667</v>
+        <v>3186487853</v>
       </c>
       <c r="D23" s="1">
-        <v>50</v>
+        <v>540</v>
       </c>
       <c r="E23" s="1">
-        <v>50</v>
+        <v>450</v>
+      </c>
+      <c r="F23" s="1">
+        <v>800</v>
+      </c>
+      <c r="G23" s="1">
+        <v>600</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3">
-        <v>3185619935</v>
+        <v>2467233487</v>
       </c>
       <c r="D24" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E24" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F24" s="1">
+        <v>600</v>
+      </c>
+      <c r="G24" s="1">
+        <v>500</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3">
-        <v>5209788053</v>
+        <v>3019922741</v>
       </c>
       <c r="D25" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E25" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F25" s="1">
+        <v>600</v>
+      </c>
+      <c r="G25" s="1">
+        <v>500</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3">
-        <v>3185348355</v>
+        <v>6163255637</v>
       </c>
       <c r="D26" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E26" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F26" s="1">
+        <v>600</v>
+      </c>
+      <c r="G26" s="1">
+        <v>500</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3">
-        <v>3185621421</v>
+        <v>1794784892</v>
       </c>
       <c r="D27" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E27" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F27" s="1">
+        <v>600</v>
+      </c>
+      <c r="G27" s="1">
+        <v>500</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3">
-        <v>3242245984</v>
+        <v>6272721174</v>
       </c>
       <c r="D28" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E28" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F28" s="1">
+        <v>600</v>
+      </c>
+      <c r="G28" s="1">
+        <v>500</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3">
-        <v>3253090531</v>
+        <v>5706975906</v>
       </c>
       <c r="D29" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E29" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F29" s="1">
+        <v>600</v>
+      </c>
+      <c r="G29" s="1">
+        <v>500</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3">
-        <v>3253090911</v>
+        <v>1607378534</v>
       </c>
       <c r="D30" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E30" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F30" s="1">
+        <v>600</v>
+      </c>
+      <c r="G30" s="1">
+        <v>500</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3">
-        <v>3229144884</v>
+        <v>2883380800</v>
       </c>
       <c r="D31" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E31" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F31" s="1">
+        <v>600</v>
+      </c>
+      <c r="G31" s="1">
+        <v>500</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3">
-        <v>3241008810</v>
+        <v>5305272857</v>
       </c>
       <c r="D32" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E32" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F32" s="1">
+        <v>600</v>
+      </c>
+      <c r="G32" s="1">
+        <v>500</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3">
-        <v>3277248025</v>
+        <v>6444698478</v>
       </c>
       <c r="D33" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E33" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F33" s="1">
+        <v>600</v>
+      </c>
+      <c r="G33" s="1">
+        <v>500</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3">
-        <v>3253082725</v>
+        <v>6443357861</v>
       </c>
       <c r="D34" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E34" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F34" s="1">
+        <v>600</v>
+      </c>
+      <c r="G34" s="1">
+        <v>500</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B35" s="3">
-        <v>3252802944</v>
+        <v>3369192392</v>
       </c>
       <c r="D35" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E35" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F35" s="1">
+        <v>500</v>
+      </c>
+      <c r="G35" s="1">
+        <v>300</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="3">
-        <v>3277239565</v>
+        <v>6298787301</v>
       </c>
       <c r="D36" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E36" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F36" s="1">
+        <v>500</v>
+      </c>
+      <c r="G36" s="1">
+        <v>300</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3">
-        <v>3253085941</v>
+        <v>6329753306</v>
       </c>
       <c r="D37" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="F37" s="1">
+        <v>200</v>
+      </c>
+      <c r="G37" s="1">
+        <v>200</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3">
-        <v>3229124160</v>
+        <v>6500960822</v>
       </c>
       <c r="D38" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E38" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F38" s="1">
+        <v>500</v>
+      </c>
+      <c r="G38" s="1">
+        <v>300</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3">
-        <v>3252804560</v>
+        <v>6366790268</v>
       </c>
       <c r="D39" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E39" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F39" s="1">
+        <v>500</v>
+      </c>
+      <c r="G39" s="1">
+        <v>300</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3">
-        <v>3229133612</v>
+        <v>3980790013</v>
       </c>
       <c r="D40" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E40" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F40" s="1">
+        <v>600</v>
+      </c>
+      <c r="G40" s="1">
+        <v>500</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3">
-        <v>3229133692</v>
+        <v>6022439964</v>
       </c>
       <c r="D41" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E41" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F41" s="1">
+        <v>600</v>
+      </c>
+      <c r="G41" s="1">
+        <v>500</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="3">
-        <v>3252805432</v>
+        <v>6020533126</v>
       </c>
       <c r="D42" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E42" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F42" s="1">
+        <v>600</v>
+      </c>
+      <c r="G42" s="1">
+        <v>500</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B43" s="3">
-        <v>3253087971</v>
+        <v>5774544524</v>
       </c>
       <c r="D43" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E43" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F43" s="1">
+        <v>600</v>
+      </c>
+      <c r="G43" s="1">
+        <v>500</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3">
-        <v>3229139012</v>
+        <v>6038452164</v>
       </c>
       <c r="D44" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E44" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F44" s="1">
+        <v>600</v>
+      </c>
+      <c r="G44" s="1">
+        <v>500</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B45" s="3">
-        <v>3277243501</v>
+        <v>3757392062</v>
       </c>
       <c r="D45" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E45" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F45" s="1">
+        <v>600</v>
+      </c>
+      <c r="G45" s="1">
+        <v>500</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46" s="3">
-        <v>3253088825</v>
+        <v>5889969092</v>
       </c>
       <c r="D46" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E46" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F46" s="1">
+        <v>600</v>
+      </c>
+      <c r="G46" s="1">
+        <v>500</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B47" s="3">
-        <v>3252808992</v>
+        <v>5027864381</v>
       </c>
       <c r="D47" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E47" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F47" s="1">
+        <v>600</v>
+      </c>
+      <c r="G47" s="1">
+        <v>500</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B48" s="3">
-        <v>3252809320</v>
+        <v>5091052436</v>
       </c>
       <c r="D48" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E48" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F48" s="1">
+        <v>600</v>
+      </c>
+      <c r="G48" s="1">
+        <v>500</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B49" s="3">
-        <v>3253091331</v>
+        <v>1640338312</v>
       </c>
       <c r="D49" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E49" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F49" s="1">
+        <v>600</v>
+      </c>
+      <c r="G49" s="1">
+        <v>500</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B50" s="3">
-        <v>3252805304</v>
+        <v>6020533529</v>
       </c>
       <c r="D50" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E50" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F50" s="1">
+        <v>600</v>
+      </c>
+      <c r="G50" s="1">
+        <v>500</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B51" s="3">
-        <v>3252805504</v>
+        <v>6049859384</v>
       </c>
       <c r="D51" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E51" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F51" s="1">
+        <v>600</v>
+      </c>
+      <c r="G51" s="1">
+        <v>500</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B52" s="3">
-        <v>3229142144</v>
+        <v>2634126553</v>
       </c>
       <c r="D52" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E52" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F52" s="1">
+        <v>500</v>
+      </c>
+      <c r="G52" s="1">
+        <v>300</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3">
-        <v>3241008122</v>
+        <v>3501456557</v>
       </c>
       <c r="D53" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E53" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F53" s="1">
+        <v>600</v>
+      </c>
+      <c r="G53" s="1">
+        <v>500</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B54" s="3">
-        <v>3229146880</v>
+        <v>6269836968</v>
       </c>
       <c r="D54" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E54" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F54" s="1">
+        <v>500</v>
+      </c>
+      <c r="G54" s="1">
+        <v>300</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B55" s="3">
-        <v>3252808240</v>
+        <v>6444416076</v>
       </c>
       <c r="D55" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E55" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F55" s="1">
+        <v>600</v>
+      </c>
+      <c r="G55" s="1">
+        <v>500</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B56" s="3">
-        <v>3277241495</v>
+        <v>5088750024</v>
       </c>
       <c r="D56" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E56" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F56" s="1">
+        <v>600</v>
+      </c>
+      <c r="G56" s="1">
+        <v>500</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B57" s="3">
-        <v>3253088251</v>
+        <v>2013991490</v>
       </c>
       <c r="D57" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E57" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F57" s="1">
+        <v>600</v>
+      </c>
+      <c r="G57" s="1">
+        <v>500</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B58" s="3">
-        <v>3229138552</v>
+        <v>1657553541</v>
       </c>
       <c r="D58" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E58" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F58" s="1">
+        <v>600</v>
+      </c>
+      <c r="G58" s="1">
+        <v>500</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B59" s="3">
-        <v>3251430955</v>
+        <v>5245856079</v>
       </c>
       <c r="D59" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E59" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F59" s="1">
+        <v>600</v>
+      </c>
+      <c r="G59" s="1">
+        <v>500</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B60" s="3">
-        <v>3225379684</v>
+        <v>5583777884</v>
       </c>
       <c r="D60" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E60" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="F60" s="1">
+        <v>600</v>
+      </c>
+      <c r="G60" s="1">
+        <v>500</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B61" s="3">
-        <v>3251432211</v>
+        <v>2720758420</v>
       </c>
       <c r="D61" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E61" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F61" s="1">
+        <v>500</v>
+      </c>
+      <c r="G61" s="1">
+        <v>300</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B62" s="3">
-        <v>3249812492</v>
+        <v>6179116477</v>
       </c>
       <c r="D62" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E62" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F62" s="1">
+        <v>500</v>
+      </c>
+      <c r="G62" s="1">
+        <v>300</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B63" s="3">
-        <v>3225380220</v>
+        <v>5321512426</v>
       </c>
       <c r="D63" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E63" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F63" s="1">
+        <v>500</v>
+      </c>
+      <c r="G63" s="1">
+        <v>300</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B64" s="3">
-        <v>3305704313</v>
+        <v>6547394944</v>
       </c>
       <c r="D64" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E64" s="1">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="F64" s="1">
+        <v>200</v>
+      </c>
+      <c r="G64" s="1">
+        <v>200</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B65" s="3">
-        <v>2673602545</v>
+        <v>3756272387</v>
       </c>
       <c r="D65" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E65" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F65" s="1">
+        <v>500</v>
+      </c>
+      <c r="G65" s="1">
+        <v>300</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B66" s="3">
-        <v>3215817605</v>
+        <v>6017083456</v>
       </c>
       <c r="D66" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E66" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F66" s="1">
+        <v>500</v>
+      </c>
+      <c r="G66" s="1">
+        <v>300</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B67" s="3">
-        <v>2913028255</v>
+        <v>6179459760</v>
       </c>
       <c r="D67" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E67" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F67" s="1">
+        <v>500</v>
+      </c>
+      <c r="G67" s="1">
+        <v>300</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B68" s="3">
-        <v>3759965044</v>
+        <v>3921549029</v>
       </c>
       <c r="D68" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E68" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F68" s="1">
+        <v>500</v>
+      </c>
+      <c r="G68" s="1">
+        <v>300</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B69" s="3">
-        <v>3256181344</v>
+        <v>6444538951</v>
       </c>
       <c r="D69" s="1">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E69" s="1">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="F69" s="1">
+        <v>500</v>
+      </c>
+      <c r="G69" s="1">
+        <v>300</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="3">
+        <v>6580167376</v>
+      </c>
+      <c r="D70" s="1">
+        <v>90</v>
+      </c>
+      <c r="E70" s="1">
+        <v>90</v>
+      </c>
+      <c r="F70" s="1">
+        <v>200</v>
+      </c>
+      <c r="G70" s="1">
+        <v>200</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="3">
+        <v>6342307018</v>
+      </c>
+      <c r="D71" s="1">
+        <v>270</v>
+      </c>
+      <c r="E71" s="1">
+        <v>180</v>
+      </c>
+      <c r="F71" s="1">
+        <v>500</v>
+      </c>
+      <c r="G71" s="1">
+        <v>300</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="3">
+        <v>3769563533</v>
+      </c>
+      <c r="D72" s="1">
+        <v>90</v>
+      </c>
+      <c r="E72" s="1">
+        <v>90</v>
+      </c>
+      <c r="F72" s="1">
+        <v>200</v>
+      </c>
+      <c r="G72" s="1">
+        <v>200</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5994884007</v>
+      </c>
+      <c r="D73" s="1">
+        <v>180</v>
+      </c>
+      <c r="E73" s="1">
+        <v>90</v>
+      </c>
+      <c r="F73" s="1">
+        <v>200</v>
+      </c>
+      <c r="G73" s="1">
+        <v>200</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="3">
+        <v>6388648815</v>
+      </c>
+      <c r="D74" s="1">
+        <v>270</v>
+      </c>
+      <c r="E74" s="1">
+        <v>180</v>
+      </c>
+      <c r="F74" s="1">
+        <v>500</v>
+      </c>
+      <c r="G74" s="1">
+        <v>300</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="3">
+        <v>6330528374</v>
+      </c>
+      <c r="D75" s="1">
+        <v>270</v>
+      </c>
+      <c r="E75" s="1">
+        <v>180</v>
+      </c>
+      <c r="F75" s="1">
+        <v>500</v>
+      </c>
+      <c r="G75" s="1">
+        <v>300</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="3">
+        <v>6012758953</v>
+      </c>
+      <c r="D76" s="1">
+        <v>270</v>
+      </c>
+      <c r="E76" s="1">
+        <v>180</v>
+      </c>
+      <c r="F76" s="1">
+        <v>500</v>
+      </c>
+      <c r="G76" s="1">
+        <v>300</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="3">
-        <v>2646384765</v>
-      </c>
-      <c r="D70" s="1">
-        <v>50</v>
-      </c>
-      <c r="E70" s="1">
-        <v>50</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J70" s="2" t="s">
+      <c r="B77" s="3">
+        <v>5711222704</v>
+      </c>
+      <c r="D77" s="1">
+        <v>270</v>
+      </c>
+      <c r="E77" s="1">
+        <v>180</v>
+      </c>
+      <c r="F77" s="1">
+        <v>500</v>
+      </c>
+      <c r="G77" s="1">
+        <v>300</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="3">
+        <v>6391982404</v>
+      </c>
+      <c r="D78" s="1">
+        <v>270</v>
+      </c>
+      <c r="E78" s="1">
+        <v>180</v>
+      </c>
+      <c r="F78" s="1">
+        <v>500</v>
+      </c>
+      <c r="G78" s="1">
+        <v>300</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="3">
+        <v>6280696831</v>
+      </c>
+      <c r="D79" s="1">
+        <v>270</v>
+      </c>
+      <c r="E79" s="1">
+        <v>180</v>
+      </c>
+      <c r="F79" s="1">
+        <v>500</v>
+      </c>
+      <c r="G79" s="1">
+        <v>300</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5647729244</v>
+      </c>
+      <c r="D80" s="1">
+        <v>90</v>
+      </c>
+      <c r="E80" s="1">
+        <v>90</v>
+      </c>
+      <c r="F80" s="1">
+        <v>200</v>
+      </c>
+      <c r="G80" s="1">
+        <v>200</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5311914051</v>
+      </c>
+      <c r="D81" s="1">
+        <v>180</v>
+      </c>
+      <c r="E81" s="1">
+        <v>90</v>
+      </c>
+      <c r="F81" s="1">
+        <v>200</v>
+      </c>
+      <c r="G81" s="1">
+        <v>200</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="3">
+        <v>5305007379</v>
+      </c>
+      <c r="D82" s="1">
+        <v>180</v>
+      </c>
+      <c r="E82" s="1">
+        <v>90</v>
+      </c>
+      <c r="F82" s="1">
+        <v>200</v>
+      </c>
+      <c r="G82" s="1">
+        <v>200</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="3">
+        <v>5801469691</v>
+      </c>
+      <c r="D83" s="1">
+        <v>90</v>
+      </c>
+      <c r="E83" s="1">
+        <v>90</v>
+      </c>
+      <c r="F83" s="1">
+        <v>200</v>
+      </c>
+      <c r="G83" s="1">
+        <v>200</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="3">
+        <v>6548852123</v>
+      </c>
+      <c r="D84" s="1">
+        <v>90</v>
+      </c>
+      <c r="E84" s="1">
+        <v>90</v>
+      </c>
+      <c r="F84" s="1">
+        <v>200</v>
+      </c>
+      <c r="G84" s="1">
+        <v>200</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="B85" s="3">
+        <v>3174338701</v>
+      </c>
+      <c r="D85" s="1">
+        <v>90</v>
+      </c>
+      <c r="E85" s="1">
+        <v>90</v>
+      </c>
+      <c r="F85" s="1">
+        <v>200</v>
+      </c>
+      <c r="G85" s="1">
+        <v>200</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="B86" s="3">
+        <v>6437889171</v>
+      </c>
+      <c r="D86" s="1">
+        <v>90</v>
+      </c>
+      <c r="E86" s="1">
+        <v>90</v>
+      </c>
+      <c r="F86" s="1">
+        <v>200</v>
+      </c>
+      <c r="G86" s="1">
+        <v>200</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5304954658</v>
+      </c>
+      <c r="D87" s="1">
+        <v>180</v>
+      </c>
+      <c r="E87" s="1">
+        <v>90</v>
+      </c>
+      <c r="F87" s="1">
+        <v>200</v>
+      </c>
+      <c r="G87" s="1">
+        <v>200</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="3">
+        <v>6283790717</v>
+      </c>
+      <c r="D88" s="1">
+        <v>180</v>
+      </c>
+      <c r="E88" s="1">
+        <v>90</v>
+      </c>
+      <c r="F88" s="1">
+        <v>200</v>
+      </c>
+      <c r="G88" s="1">
+        <v>200</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="3">
+        <v>6229370321</v>
+      </c>
+      <c r="D89" s="1">
+        <v>180</v>
+      </c>
+      <c r="E89" s="1">
+        <v>90</v>
+      </c>
+      <c r="F89" s="1">
+        <v>200</v>
+      </c>
+      <c r="G89" s="1">
+        <v>200</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="3">
+        <v>3138135385</v>
+      </c>
+      <c r="D90" s="1">
+        <v>180</v>
+      </c>
+      <c r="E90" s="1">
+        <v>90</v>
+      </c>
+      <c r="F90" s="1">
+        <v>200</v>
+      </c>
+      <c r="G90" s="1">
+        <v>200</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3779401833</v>
+      </c>
+      <c r="D91" s="1">
+        <v>180</v>
+      </c>
+      <c r="E91" s="1">
+        <v>90</v>
+      </c>
+      <c r="F91" s="1">
+        <v>200</v>
+      </c>
+      <c r="G91" s="1">
+        <v>200</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="3">
+        <v>6229383889</v>
+      </c>
+      <c r="D92" s="1">
+        <v>180</v>
+      </c>
+      <c r="E92" s="1">
+        <v>90</v>
+      </c>
+      <c r="F92" s="1">
+        <v>200</v>
+      </c>
+      <c r="G92" s="1">
+        <v>200</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="3">
+        <v>6463224977</v>
+      </c>
+      <c r="D93" s="1">
+        <v>180</v>
+      </c>
+      <c r="E93" s="1">
+        <v>90</v>
+      </c>
+      <c r="F93" s="1">
+        <v>200</v>
+      </c>
+      <c r="G93" s="1">
+        <v>200</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="3">
+        <v>5307661439</v>
+      </c>
+      <c r="D94" s="1">
+        <v>180</v>
+      </c>
+      <c r="E94" s="1">
+        <v>90</v>
+      </c>
+      <c r="F94" s="1">
+        <v>200</v>
+      </c>
+      <c r="G94" s="1">
+        <v>200</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2896063545</v>
+      </c>
+      <c r="D95" s="1">
+        <v>180</v>
+      </c>
+      <c r="E95" s="1">
+        <v>90</v>
+      </c>
+      <c r="F95" s="1">
+        <v>200</v>
+      </c>
+      <c r="G95" s="1">
+        <v>200</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="3">
+        <v>6437423812</v>
+      </c>
+      <c r="D96" s="1">
+        <v>90</v>
+      </c>
+      <c r="E96" s="1">
+        <v>90</v>
+      </c>
+      <c r="F96" s="1">
+        <v>200</v>
+      </c>
+      <c r="G96" s="1">
+        <v>200</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="3">
+        <v>6437953429</v>
+      </c>
+      <c r="D97" s="1">
+        <v>90</v>
+      </c>
+      <c r="E97" s="1">
+        <v>90</v>
+      </c>
+      <c r="F97" s="1">
+        <v>200</v>
+      </c>
+      <c r="G97" s="1">
+        <v>200</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="3">
+        <v>6012262229</v>
+      </c>
+      <c r="D98" s="1">
+        <v>90</v>
+      </c>
+      <c r="E98" s="1">
+        <v>90</v>
+      </c>
+      <c r="F98" s="1">
+        <v>200</v>
+      </c>
+      <c r="G98" s="1">
+        <v>200</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="3">
+        <v>5054416335</v>
+      </c>
+      <c r="D99" s="1">
+        <v>90</v>
+      </c>
+      <c r="E99" s="1">
+        <v>90</v>
+      </c>
+      <c r="F99" s="1">
+        <v>200</v>
+      </c>
+      <c r="G99" s="1">
+        <v>200</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2709348133</v>
+      </c>
+      <c r="D100" s="1">
+        <v>90</v>
+      </c>
+      <c r="E100" s="1">
+        <v>90</v>
+      </c>
+      <c r="F100" s="1">
+        <v>200</v>
+      </c>
+      <c r="G100" s="1">
+        <v>200</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="3">
+        <v>6377374546</v>
+      </c>
+      <c r="D101" s="1">
+        <v>90</v>
+      </c>
+      <c r="E101" s="1">
+        <v>90</v>
+      </c>
+      <c r="F101" s="1">
+        <v>200</v>
+      </c>
+      <c r="G101" s="1">
+        <v>200</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="3">
+        <v>6399509871</v>
+      </c>
+      <c r="D102" s="1">
+        <v>90</v>
+      </c>
+      <c r="E102" s="1">
+        <v>90</v>
+      </c>
+      <c r="F102" s="1">
+        <v>200</v>
+      </c>
+      <c r="G102" s="1">
+        <v>200</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="3">
+        <v>6409059357</v>
+      </c>
+      <c r="D103" s="1">
+        <v>90</v>
+      </c>
+      <c r="E103" s="1">
+        <v>90</v>
+      </c>
+      <c r="F103" s="1">
+        <v>200</v>
+      </c>
+      <c r="G103" s="1">
+        <v>200</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="3">
+        <v>6528895593</v>
+      </c>
+      <c r="D104" s="1">
+        <v>90</v>
+      </c>
+      <c r="E104" s="1">
+        <v>90</v>
+      </c>
+      <c r="F104" s="1">
+        <v>200</v>
+      </c>
+      <c r="G104" s="1">
+        <v>200</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="3">
+        <v>6548931387</v>
+      </c>
+      <c r="D105" s="1">
+        <v>90</v>
+      </c>
+      <c r="E105" s="1">
+        <v>90</v>
+      </c>
+      <c r="F105" s="1">
+        <v>200</v>
+      </c>
+      <c r="G105" s="1">
+        <v>200</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="3">
+        <v>6444421153</v>
+      </c>
+      <c r="D106" s="1">
+        <v>90</v>
+      </c>
+      <c r="E106" s="1">
+        <v>90</v>
+      </c>
+      <c r="F106" s="1">
+        <v>200</v>
+      </c>
+      <c r="G106" s="1">
+        <v>200</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="3">
+        <v>6444415785</v>
+      </c>
+      <c r="D107" s="1">
+        <v>90</v>
+      </c>
+      <c r="E107" s="1">
+        <v>90</v>
+      </c>
+      <c r="F107" s="1">
+        <v>200</v>
+      </c>
+      <c r="G107" s="1">
+        <v>200</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="3">
+        <v>3191472671</v>
+      </c>
+      <c r="D108" s="1">
+        <v>90</v>
+      </c>
+      <c r="E108" s="1">
+        <v>90</v>
+      </c>
+      <c r="F108" s="1">
+        <v>200</v>
+      </c>
+      <c r="G108" s="1">
+        <v>200</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="3">
+        <v>5652379384</v>
+      </c>
+      <c r="D109" s="1">
+        <v>90</v>
+      </c>
+      <c r="E109" s="1">
+        <v>90</v>
+      </c>
+      <c r="F109" s="1">
+        <v>200</v>
+      </c>
+      <c r="G109" s="1">
+        <v>200</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="3">
+        <v>5307662399</v>
+      </c>
+      <c r="D110" s="1">
+        <v>90</v>
+      </c>
+      <c r="E110" s="1">
+        <v>90</v>
+      </c>
+      <c r="F110" s="1">
+        <v>200</v>
+      </c>
+      <c r="G110" s="1">
+        <v>200</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="3">
+        <v>5305007621</v>
+      </c>
+      <c r="D111" s="1">
+        <v>90</v>
+      </c>
+      <c r="E111" s="1">
+        <v>90</v>
+      </c>
+      <c r="F111" s="1">
+        <v>200</v>
+      </c>
+      <c r="G111" s="1">
+        <v>200</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2853278902</v>
+      </c>
+      <c r="D112" s="1">
+        <v>90</v>
+      </c>
+      <c r="E112" s="1">
+        <v>90</v>
+      </c>
+      <c r="F112" s="1">
+        <v>200</v>
+      </c>
+      <c r="G112" s="1">
+        <v>200</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="3">
+        <v>6523232350</v>
+      </c>
+      <c r="D113" s="1">
+        <v>90</v>
+      </c>
+      <c r="E113" s="1">
+        <v>90</v>
+      </c>
+      <c r="F113" s="1">
+        <v>200</v>
+      </c>
+      <c r="G113" s="1">
+        <v>200</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="3">
+        <v>5219842634</v>
+      </c>
+      <c r="D114" s="1">
+        <v>90</v>
+      </c>
+      <c r="E114" s="1">
+        <v>90</v>
+      </c>
+      <c r="F114" s="1">
+        <v>200</v>
+      </c>
+      <c r="G114" s="1">
+        <v>200</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="3">
+        <v>6231451320</v>
+      </c>
+      <c r="D115" s="1">
+        <v>90</v>
+      </c>
+      <c r="E115" s="1">
+        <v>90</v>
+      </c>
+      <c r="F115" s="1">
+        <v>200</v>
+      </c>
+      <c r="G115" s="1">
+        <v>200</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1960310475</v>
+      </c>
+      <c r="D116" s="1">
+        <v>90</v>
+      </c>
+      <c r="E116" s="1">
+        <v>90</v>
+      </c>
+      <c r="F116" s="1">
+        <v>200</v>
+      </c>
+      <c r="G116" s="1">
+        <v>200</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="3">
+        <v>5321502609</v>
+      </c>
+      <c r="D117" s="1">
+        <v>90</v>
+      </c>
+      <c r="E117" s="1">
+        <v>90</v>
+      </c>
+      <c r="F117" s="1">
+        <v>200</v>
+      </c>
+      <c r="G117" s="1">
+        <v>200</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="87">
   <si>
     <t>名称</t>
   </si>
@@ -65,148 +65,229 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>娱乐</t>
-  </si>
-  <si>
-    <t>综合</t>
-  </si>
-  <si>
-    <t>幽默搞笑</t>
-  </si>
-  <si>
     <t>地域</t>
   </si>
   <si>
-    <t>经典冷笑话排行榜</t>
-  </si>
-  <si>
-    <t>世界时尚博览</t>
-  </si>
-  <si>
-    <t>乖乖乖爱宝贝</t>
-  </si>
-  <si>
-    <t>我们爱上冷笑话</t>
-  </si>
-  <si>
-    <t>全球潮人品味</t>
-  </si>
-  <si>
-    <t>时尚企业家</t>
-  </si>
-  <si>
-    <t>全球娱乐搞笑大搜罗</t>
-  </si>
-  <si>
-    <t>经典时尚达人</t>
-  </si>
-  <si>
-    <t>潮品时尚</t>
-  </si>
-  <si>
-    <t>新新街拍妈妈</t>
-  </si>
-  <si>
-    <t>尚品上品</t>
-  </si>
-  <si>
-    <t>快乐小牛宝宝</t>
-  </si>
-  <si>
-    <t>当时我镇惊了</t>
-  </si>
-  <si>
-    <t>时尚inin</t>
-  </si>
-  <si>
-    <t>全球潮人风向标</t>
-  </si>
-  <si>
-    <t>围脖精粹博览</t>
-  </si>
-  <si>
-    <t>追求时尚的苇</t>
-  </si>
-  <si>
-    <t>热点来袭</t>
-  </si>
-  <si>
-    <t>摄影and旅行</t>
-  </si>
-  <si>
-    <t>广州小羽</t>
-  </si>
-  <si>
-    <t>育儿潮报</t>
-  </si>
-  <si>
-    <t>趣味语录馆</t>
-  </si>
-  <si>
-    <t>全球体育看台</t>
-  </si>
-  <si>
-    <t>大财经汇</t>
-  </si>
-  <si>
-    <t>辣妈时尚宝贝</t>
-  </si>
-  <si>
-    <t>合肥开心段子荟萃</t>
-  </si>
-  <si>
-    <t>环保低碳爱生活者</t>
-  </si>
-  <si>
-    <t>尹柔</t>
-  </si>
-  <si>
-    <t>闲仙书话</t>
-  </si>
-  <si>
-    <t>吹牛进行时</t>
-  </si>
-  <si>
-    <t>稀土分队</t>
-  </si>
-  <si>
-    <t>上海优娅化妆品</t>
-  </si>
-  <si>
-    <t>野生修炼者</t>
-  </si>
-  <si>
-    <t>生活</t>
-  </si>
-  <si>
-    <t>母婴</t>
-  </si>
-  <si>
-    <t>职场</t>
-  </si>
-  <si>
-    <t>女性时尚</t>
-  </si>
-  <si>
-    <t>摄影</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>财经</t>
-  </si>
-  <si>
-    <t>美妆</t>
-  </si>
-  <si>
-    <t>X1801050844430103</t>
-  </si>
-  <si>
-    <t>胡江超</t>
-  </si>
-  <si>
-    <t>X1712181337040001</t>
+    <t>跳跳小辣妈</t>
+  </si>
+  <si>
+    <t>3222654960</t>
+  </si>
+  <si>
+    <t>互联网狂人文海</t>
+  </si>
+  <si>
+    <t>3274049151</t>
+  </si>
+  <si>
+    <t>武汉乐活攻略</t>
+  </si>
+  <si>
+    <t>512310122</t>
+  </si>
+  <si>
+    <t>东莞吃喝玩乐攻略</t>
+  </si>
+  <si>
+    <t>3548454910</t>
+  </si>
+  <si>
+    <t>宁波吃喝玩乐攻略</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3222736292  </t>
+  </si>
+  <si>
+    <t>温州潮生活</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3274564301  </t>
+  </si>
+  <si>
+    <t>国际庄生活头条</t>
+  </si>
+  <si>
+    <t>3247095624</t>
+  </si>
+  <si>
+    <t>大连乐活攻略</t>
+  </si>
+  <si>
+    <t>522348910</t>
+  </si>
+  <si>
+    <t>银川吃喝玩乐爆料</t>
+  </si>
+  <si>
+    <t>3235870930</t>
+  </si>
+  <si>
+    <t>太原城潮生活</t>
+  </si>
+  <si>
+    <t>3274055265</t>
+  </si>
+  <si>
+    <t>南宁乐活攻略</t>
+  </si>
+  <si>
+    <t>3250316061</t>
+  </si>
+  <si>
+    <t>兰州生活播报</t>
+  </si>
+  <si>
+    <t>3247095752</t>
+  </si>
+  <si>
+    <t>合肥吃喝玩乐导航</t>
+  </si>
+  <si>
+    <t>537164123</t>
+  </si>
+  <si>
+    <t>沈阳生活头条</t>
+  </si>
+  <si>
+    <t>3250318141</t>
+  </si>
+  <si>
+    <t>哈尔滨吃喝玩乐爆料</t>
+  </si>
+  <si>
+    <t>3274051475</t>
+  </si>
+  <si>
+    <t>海南吃喝玩乐情报</t>
+  </si>
+  <si>
+    <t>538103450</t>
+  </si>
+  <si>
+    <t>长春吃喝玩乐导航</t>
+  </si>
+  <si>
+    <t>3274055075</t>
+  </si>
+  <si>
+    <t>南昌生活资讯</t>
+  </si>
+  <si>
+    <t>3247088160</t>
+  </si>
+  <si>
+    <t>济南生活导航</t>
+  </si>
+  <si>
+    <t>3202856651</t>
+  </si>
+  <si>
+    <t>北京吃喝玩乐导航</t>
+  </si>
+  <si>
+    <t>3222674280</t>
+  </si>
+  <si>
+    <t>新疆吃喝玩乐攻略</t>
+  </si>
+  <si>
+    <t>3247101220</t>
+  </si>
+  <si>
+    <t>内蒙吃喝玩乐攻略</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3222674012 </t>
+  </si>
+  <si>
+    <t>贵阳都市生活圈</t>
+  </si>
+  <si>
+    <t>3247088292</t>
+  </si>
+  <si>
+    <t>中山吃喝玩乐攻略</t>
+  </si>
+  <si>
+    <t>3250309745</t>
+  </si>
+  <si>
+    <t>重庆都市生活圈</t>
+  </si>
+  <si>
+    <t>3222633024</t>
+  </si>
+  <si>
+    <t>南京城潮生活</t>
+  </si>
+  <si>
+    <t>3237100252</t>
+  </si>
+  <si>
+    <t>长沙小资生活攻略</t>
+  </si>
+  <si>
+    <t>3274052715</t>
+  </si>
+  <si>
+    <t>成都热门搜罗</t>
+  </si>
+  <si>
+    <t>2885395354</t>
+  </si>
+  <si>
+    <t>我爱潮流上海</t>
+  </si>
+  <si>
+    <t>2159886400</t>
+  </si>
+  <si>
+    <t>上海热门排行榜</t>
+  </si>
+  <si>
+    <t>2159507702</t>
+  </si>
+  <si>
+    <t>吃喝玩乐High广州</t>
+  </si>
+  <si>
+    <t>2950133660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吃喝玩乐High深圳 </t>
+  </si>
+  <si>
+    <t>2949062400</t>
+  </si>
+  <si>
+    <t>深圳热门搜罗</t>
+  </si>
+  <si>
+    <t>2495941092</t>
+  </si>
+  <si>
+    <t>厦门热门搜罗</t>
+  </si>
+  <si>
+    <t>2949878914</t>
+  </si>
+  <si>
+    <t>母婴育儿</t>
+  </si>
+  <si>
+    <t>IT数码</t>
+  </si>
+  <si>
+    <t>X1801022152263528</t>
+  </si>
+  <si>
+    <t>X1801022152283579</t>
+  </si>
+  <si>
+    <t>邹春红</t>
+  </si>
+  <si>
+    <t>X1712181403060030</t>
   </si>
 </sst>
 </file>
@@ -575,11 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -638,860 +719,1090 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1271157454</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="E2" s="1">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="F2" s="1">
+        <v>550</v>
+      </c>
+      <c r="G2" s="1">
+        <v>550</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1900016855</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="1">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="E3" s="1">
-        <v>180</v>
+        <v>450</v>
+      </c>
+      <c r="F3" s="1">
+        <v>550</v>
+      </c>
+      <c r="G3" s="1">
+        <v>550</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
-        <v>1897601247</v>
-      </c>
       <c r="D4" s="1">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="E4" s="1">
-        <v>72</v>
+        <v>400</v>
+      </c>
+      <c r="F4" s="1">
+        <v>500</v>
+      </c>
+      <c r="G4" s="1">
+        <v>500</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
-        <v>1969442512</v>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="E5" s="1">
-        <v>72</v>
+        <v>400</v>
+      </c>
+      <c r="F5" s="1">
+        <v>500</v>
+      </c>
+      <c r="G5" s="1">
+        <v>500</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1903805817</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="E6" s="1">
-        <v>72</v>
+        <v>400</v>
+      </c>
+      <c r="F6" s="1">
+        <v>500</v>
+      </c>
+      <c r="G6" s="1">
+        <v>500</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1897631303</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="1">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="E7" s="1">
-        <v>72</v>
+        <v>400</v>
+      </c>
+      <c r="F7" s="1">
+        <v>500</v>
+      </c>
+      <c r="G7" s="1">
+        <v>500</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1897590363</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="1">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="E8" s="1">
-        <v>72</v>
+        <v>400</v>
+      </c>
+      <c r="F8" s="1">
+        <v>500</v>
+      </c>
+      <c r="G8" s="1">
+        <v>500</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1898985477</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="E9" s="1">
-        <v>72</v>
+        <v>400</v>
+      </c>
+      <c r="F9" s="1">
+        <v>500</v>
+      </c>
+      <c r="G9" s="1">
+        <v>500</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1897143093</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E10" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F10" s="1">
+        <v>450</v>
+      </c>
+      <c r="G10" s="1">
+        <v>450</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1900166067</v>
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E11" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F11" s="1">
+        <v>450</v>
+      </c>
+      <c r="G11" s="1">
+        <v>450</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1712992854</v>
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E12" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F12" s="1">
+        <v>450</v>
+      </c>
+      <c r="G12" s="1">
+        <v>450</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1923656617</v>
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E13" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F13" s="1">
+        <v>450</v>
+      </c>
+      <c r="G13" s="1">
+        <v>450</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1730592415</v>
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E14" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F14" s="1">
+        <v>450</v>
+      </c>
+      <c r="G14" s="1">
+        <v>450</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1396726963</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D15" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E15" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F15" s="1">
+        <v>450</v>
+      </c>
+      <c r="G15" s="1">
+        <v>450</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1271030134</v>
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D16" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E16" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F16" s="1">
+        <v>450</v>
+      </c>
+      <c r="G16" s="1">
+        <v>450</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1899283185</v>
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E17" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F17" s="1">
+        <v>450</v>
+      </c>
+      <c r="G17" s="1">
+        <v>450</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1900077601</v>
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D18" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E18" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F18" s="1">
+        <v>450</v>
+      </c>
+      <c r="G18" s="1">
+        <v>450</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1726912447</v>
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D19" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E19" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F19" s="1">
+        <v>450</v>
+      </c>
+      <c r="G19" s="1">
+        <v>450</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1897647627</v>
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D20" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E20" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F20" s="1">
+        <v>450</v>
+      </c>
+      <c r="G20" s="1">
+        <v>450</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1726918281</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D21" s="1">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="E21" s="1">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="F21" s="1">
+        <v>450</v>
+      </c>
+      <c r="G21" s="1">
+        <v>450</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1885238921</v>
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D22" s="1">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="E22" s="1">
-        <v>72</v>
+        <v>300</v>
+      </c>
+      <c r="F22" s="1">
+        <v>400</v>
+      </c>
+      <c r="G22" s="1">
+        <v>400</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1898990267</v>
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D23" s="1">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="E23" s="1">
-        <v>72</v>
+        <v>300</v>
+      </c>
+      <c r="F23" s="1">
+        <v>400</v>
+      </c>
+      <c r="G23" s="1">
+        <v>400</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1899344645</v>
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D24" s="1">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="E24" s="1">
-        <v>54</v>
+        <v>300</v>
+      </c>
+      <c r="F24" s="1">
+        <v>400</v>
+      </c>
+      <c r="G24" s="1">
+        <v>400</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1396725600</v>
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D25" s="1">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="E25" s="1">
-        <v>54</v>
+        <v>300</v>
+      </c>
+      <c r="F25" s="1">
+        <v>400</v>
+      </c>
+      <c r="G25" s="1">
+        <v>400</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1897488075</v>
+        <v>61</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D26" s="1">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="E26" s="1">
-        <v>54</v>
+        <v>300</v>
+      </c>
+      <c r="F26" s="1">
+        <v>400</v>
+      </c>
+      <c r="G26" s="1">
+        <v>400</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1897268455</v>
+        <v>63</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D27" s="1">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="E27" s="1">
-        <v>54</v>
+        <v>300</v>
+      </c>
+      <c r="F27" s="1">
+        <v>400</v>
+      </c>
+      <c r="G27" s="1">
+        <v>400</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1897635285</v>
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D28" s="1">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="E28" s="1">
-        <v>54</v>
+        <v>300</v>
+      </c>
+      <c r="F28" s="1">
+        <v>400</v>
+      </c>
+      <c r="G28" s="1">
+        <v>400</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1648562427</v>
+        <v>67</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D29" s="1">
-        <v>54</v>
+        <v>1800</v>
       </c>
       <c r="E29" s="1">
-        <v>54</v>
+        <v>1600</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2200</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2654595002</v>
+        <v>69</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D30" s="1">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="E30" s="1">
-        <v>54</v>
+        <v>200</v>
+      </c>
+      <c r="F30" s="1">
+        <v>450</v>
+      </c>
+      <c r="G30" s="1">
+        <v>400</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2654640370</v>
+        <v>71</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D31" s="1">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="E31" s="1">
-        <v>54</v>
+        <v>200</v>
+      </c>
+      <c r="F31" s="1">
+        <v>450</v>
+      </c>
+      <c r="G31" s="1">
+        <v>400</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2654594914</v>
+        <v>73</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D32" s="1">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="E32" s="1">
-        <v>54</v>
+        <v>300</v>
+      </c>
+      <c r="F32" s="1">
+        <v>550</v>
+      </c>
+      <c r="G32" s="1">
+        <v>500</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="3">
-        <v>3120136935</v>
+        <v>75</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D33" s="1">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="E33" s="1">
-        <v>54</v>
+        <v>300</v>
+      </c>
+      <c r="F33" s="1">
+        <v>550</v>
+      </c>
+      <c r="G33" s="1">
+        <v>500</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2518450847</v>
+        <v>77</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="E34" s="1">
-        <v>54</v>
+        <v>200</v>
+      </c>
+      <c r="F34" s="1">
+        <v>450</v>
+      </c>
+      <c r="G34" s="1">
+        <v>400</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1">
+        <v>250</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>450</v>
+      </c>
+      <c r="G35" s="1">
+        <v>400</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="258">
   <si>
     <t>名称</t>
   </si>
@@ -65,229 +65,742 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地域</t>
-  </si>
-  <si>
-    <t>跳跳小辣妈</t>
-  </si>
-  <si>
-    <t>3222654960</t>
-  </si>
-  <si>
-    <t>互联网狂人文海</t>
-  </si>
-  <si>
-    <t>3274049151</t>
-  </si>
-  <si>
-    <t>武汉乐活攻略</t>
-  </si>
-  <si>
-    <t>512310122</t>
-  </si>
-  <si>
-    <t>东莞吃喝玩乐攻略</t>
-  </si>
-  <si>
-    <t>3548454910</t>
-  </si>
-  <si>
-    <t>宁波吃喝玩乐攻略</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3222736292  </t>
-  </si>
-  <si>
-    <t>温州潮生活</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3274564301  </t>
-  </si>
-  <si>
-    <t>国际庄生活头条</t>
-  </si>
-  <si>
-    <t>3247095624</t>
-  </si>
-  <si>
-    <t>大连乐活攻略</t>
-  </si>
-  <si>
-    <t>522348910</t>
-  </si>
-  <si>
-    <t>银川吃喝玩乐爆料</t>
-  </si>
-  <si>
-    <t>3235870930</t>
-  </si>
-  <si>
-    <t>太原城潮生活</t>
-  </si>
-  <si>
-    <t>3274055265</t>
-  </si>
-  <si>
-    <t>南宁乐活攻略</t>
-  </si>
-  <si>
-    <t>3250316061</t>
-  </si>
-  <si>
-    <t>兰州生活播报</t>
-  </si>
-  <si>
-    <t>3247095752</t>
-  </si>
-  <si>
-    <t>合肥吃喝玩乐导航</t>
-  </si>
-  <si>
-    <t>537164123</t>
-  </si>
-  <si>
-    <t>沈阳生活头条</t>
-  </si>
-  <si>
-    <t>3250318141</t>
-  </si>
-  <si>
-    <t>哈尔滨吃喝玩乐爆料</t>
-  </si>
-  <si>
-    <t>3274051475</t>
-  </si>
-  <si>
-    <t>海南吃喝玩乐情报</t>
-  </si>
-  <si>
-    <t>538103450</t>
-  </si>
-  <si>
-    <t>长春吃喝玩乐导航</t>
-  </si>
-  <si>
-    <t>3274055075</t>
-  </si>
-  <si>
-    <t>南昌生活资讯</t>
-  </si>
-  <si>
-    <t>3247088160</t>
-  </si>
-  <si>
-    <t>济南生活导航</t>
-  </si>
-  <si>
-    <t>3202856651</t>
-  </si>
-  <si>
-    <t>北京吃喝玩乐导航</t>
-  </si>
-  <si>
-    <t>3222674280</t>
-  </si>
-  <si>
-    <t>新疆吃喝玩乐攻略</t>
-  </si>
-  <si>
-    <t>3247101220</t>
-  </si>
-  <si>
-    <t>内蒙吃喝玩乐攻略</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3222674012 </t>
-  </si>
-  <si>
-    <t>贵阳都市生活圈</t>
-  </si>
-  <si>
-    <t>3247088292</t>
-  </si>
-  <si>
-    <t>中山吃喝玩乐攻略</t>
-  </si>
-  <si>
-    <t>3250309745</t>
-  </si>
-  <si>
-    <t>重庆都市生活圈</t>
-  </si>
-  <si>
-    <t>3222633024</t>
-  </si>
-  <si>
-    <t>南京城潮生活</t>
-  </si>
-  <si>
-    <t>3237100252</t>
-  </si>
-  <si>
-    <t>长沙小资生活攻略</t>
-  </si>
-  <si>
-    <t>3274052715</t>
-  </si>
-  <si>
-    <t>成都热门搜罗</t>
-  </si>
-  <si>
-    <t>2885395354</t>
-  </si>
-  <si>
-    <t>我爱潮流上海</t>
-  </si>
-  <si>
-    <t>2159886400</t>
-  </si>
-  <si>
-    <t>上海热门排行榜</t>
-  </si>
-  <si>
-    <t>2159507702</t>
-  </si>
-  <si>
-    <t>吃喝玩乐High广州</t>
-  </si>
-  <si>
-    <t>2950133660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吃喝玩乐High深圳 </t>
-  </si>
-  <si>
-    <t>2949062400</t>
-  </si>
-  <si>
-    <t>深圳热门搜罗</t>
-  </si>
-  <si>
-    <t>2495941092</t>
-  </si>
-  <si>
-    <t>厦门热门搜罗</t>
-  </si>
-  <si>
-    <t>2949878914</t>
-  </si>
-  <si>
-    <t>母婴育儿</t>
-  </si>
-  <si>
-    <t>IT数码</t>
-  </si>
-  <si>
-    <t>X1801022152263528</t>
-  </si>
-  <si>
-    <t>X1801022152283579</t>
-  </si>
-  <si>
-    <t>邹春红</t>
-  </si>
-  <si>
-    <t>X1712181403060030</t>
+    <t>辣評娛樂圈</t>
+  </si>
+  <si>
+    <t>2332566353</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>X1804251115325397</t>
+  </si>
+  <si>
+    <t>八卦通缉令</t>
+  </si>
+  <si>
+    <t>2817227165</t>
+  </si>
+  <si>
+    <t>八卦</t>
+  </si>
+  <si>
+    <t>娱乐圈曝社</t>
+  </si>
+  <si>
+    <t>6150315109</t>
+  </si>
+  <si>
+    <t>星闻揭秘员</t>
+  </si>
+  <si>
+    <t>6232892773</t>
+  </si>
+  <si>
+    <t>影视揭秘君</t>
+  </si>
+  <si>
+    <t>1883128330</t>
+  </si>
+  <si>
+    <t>剧能曰</t>
+  </si>
+  <si>
+    <t>6311324951</t>
+  </si>
+  <si>
+    <t>影视圈老顽童</t>
+  </si>
+  <si>
+    <t>6343916471</t>
+  </si>
+  <si>
+    <t>不知名娱乐</t>
+  </si>
+  <si>
+    <t>6511454974</t>
+  </si>
+  <si>
+    <t>娱乐圈小师爷</t>
+  </si>
+  <si>
+    <t>6499952266</t>
+  </si>
+  <si>
+    <t>犀利娱评</t>
+  </si>
+  <si>
+    <t>6511458188</t>
+  </si>
+  <si>
+    <t>娱乐圈大嘴巴师太</t>
+  </si>
+  <si>
+    <t>6178920618</t>
+  </si>
+  <si>
+    <t>影视爆料者</t>
+  </si>
+  <si>
+    <t>6311407919</t>
+  </si>
+  <si>
+    <t>肉很多的智太太</t>
+  </si>
+  <si>
+    <t>6343915058</t>
+  </si>
+  <si>
+    <t>英澳代购</t>
+  </si>
+  <si>
+    <t>6401677414</t>
+  </si>
+  <si>
+    <t>娱乐红人馆长</t>
+  </si>
+  <si>
+    <t>6434721612</t>
+  </si>
+  <si>
+    <t>全网娱乐大搜罗</t>
+  </si>
+  <si>
+    <t>6434744536</t>
+  </si>
+  <si>
+    <t>影视第五季</t>
+  </si>
+  <si>
+    <t>6428935822</t>
+  </si>
+  <si>
+    <t>娱乐圈老五</t>
+  </si>
+  <si>
+    <t>6434744547</t>
+  </si>
+  <si>
+    <t>影视大葱哥</t>
+  </si>
+  <si>
+    <t>6434721644</t>
+  </si>
+  <si>
+    <t>一娱当先</t>
+  </si>
+  <si>
+    <t>6428937425</t>
+  </si>
+  <si>
+    <t>娱乐大婊砸</t>
+  </si>
+  <si>
+    <t>6428937428</t>
+  </si>
+  <si>
+    <t>耳朵的呐喊</t>
+  </si>
+  <si>
+    <t>6428937429</t>
+  </si>
+  <si>
+    <t>娱了吧唧</t>
+  </si>
+  <si>
+    <t>6434725135</t>
+  </si>
+  <si>
+    <t>娱媒舵手</t>
+  </si>
+  <si>
+    <t>6428935768</t>
+  </si>
+  <si>
+    <t>娱乐八卦集锦</t>
+  </si>
+  <si>
+    <t>6428935772</t>
+  </si>
+  <si>
+    <t>娱乐预告频道</t>
+  </si>
+  <si>
+    <t>6429205478</t>
+  </si>
+  <si>
+    <t>娱乐圈小师傅</t>
+  </si>
+  <si>
+    <t>6429205484</t>
+  </si>
+  <si>
+    <t>追剧小迷妹的日常</t>
+  </si>
+  <si>
+    <t>6434744475</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>影视综艺达人</t>
+  </si>
+  <si>
+    <t>6434744478</t>
+  </si>
+  <si>
+    <t>影圈工厂</t>
+  </si>
+  <si>
+    <t>6434721567</t>
+  </si>
+  <si>
+    <t>影视攻略菌</t>
+  </si>
+  <si>
+    <t>6434721575</t>
+  </si>
+  <si>
+    <t>影视娱乐达人</t>
+  </si>
+  <si>
+    <t>6434721578</t>
+  </si>
+  <si>
+    <t>娱了圈吧</t>
+  </si>
+  <si>
+    <t>6434721423</t>
+  </si>
+  <si>
+    <t>爆笑综艺</t>
+  </si>
+  <si>
+    <t>6434721430</t>
+  </si>
+  <si>
+    <t>娱乐综艺预告</t>
+  </si>
+  <si>
+    <t>6428935727</t>
+  </si>
+  <si>
+    <t>法兰西代购</t>
+  </si>
+  <si>
+    <t>6434744401</t>
+  </si>
+  <si>
+    <t>娱乐圈黑骑士</t>
+  </si>
+  <si>
+    <t>6434744409</t>
+  </si>
+  <si>
+    <t>影视热搜榜</t>
+  </si>
+  <si>
+    <t>娱乐时尚大揭秘</t>
+  </si>
+  <si>
+    <t>6434721501</t>
+  </si>
+  <si>
+    <t>娱乐曝社</t>
+  </si>
+  <si>
+    <t>6511454157</t>
+  </si>
+  <si>
+    <t>影娱贩</t>
+  </si>
+  <si>
+    <t>1590595581</t>
+  </si>
+  <si>
+    <t>电视</t>
+  </si>
+  <si>
+    <t>圈聚焦</t>
+  </si>
+  <si>
+    <t>5424095518</t>
+  </si>
+  <si>
+    <t>影视圈小密探</t>
+  </si>
+  <si>
+    <t>3245086291</t>
+  </si>
+  <si>
+    <t>影娱八婆</t>
+  </si>
+  <si>
+    <t>3092163811</t>
+  </si>
+  <si>
+    <t>音乐小魔仙</t>
+  </si>
+  <si>
+    <t>6436652527</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>追剧</t>
+  </si>
+  <si>
+    <t>6511453608</t>
+  </si>
+  <si>
+    <t>娱婆</t>
+  </si>
+  <si>
+    <t>6511176167</t>
+  </si>
+  <si>
+    <t>影视插班生</t>
+  </si>
+  <si>
+    <t>6511178494</t>
+  </si>
+  <si>
+    <t>八组吃瓜少女</t>
+  </si>
+  <si>
+    <t>6511184518</t>
+  </si>
+  <si>
+    <t>热播综艺</t>
+  </si>
+  <si>
+    <t>6511173552</t>
+  </si>
+  <si>
+    <t>6511456220</t>
+  </si>
+  <si>
+    <t>演唱会</t>
+  </si>
+  <si>
+    <t>6511456323</t>
+  </si>
+  <si>
+    <t>蜀黍电影</t>
+  </si>
+  <si>
+    <t>5540863989</t>
+  </si>
+  <si>
+    <t>电影台词特辑</t>
+  </si>
+  <si>
+    <t>5994688849</t>
+  </si>
+  <si>
+    <t>影视圈管家</t>
+  </si>
+  <si>
+    <t>5902130959</t>
+  </si>
+  <si>
+    <t>电影热映君</t>
+  </si>
+  <si>
+    <t>5922852703</t>
+  </si>
+  <si>
+    <t>有料电影</t>
+  </si>
+  <si>
+    <t>6434721605</t>
+  </si>
+  <si>
+    <t>全球电影馆长</t>
+  </si>
+  <si>
+    <t>6434744393</t>
+  </si>
+  <si>
+    <t>影视密探长</t>
+  </si>
+  <si>
+    <t>6499641700</t>
+  </si>
+  <si>
+    <t>电影视频达人</t>
+  </si>
+  <si>
+    <t>6500007110</t>
+  </si>
+  <si>
+    <t>影视圈盘点</t>
+  </si>
+  <si>
+    <t>6499640412</t>
+  </si>
+  <si>
+    <t>影视经典排行</t>
+  </si>
+  <si>
+    <t>6499640522</t>
+  </si>
+  <si>
+    <t>影视吐槽社</t>
+  </si>
+  <si>
+    <t>6499968761</t>
+  </si>
+  <si>
+    <t>影视圈探子</t>
+  </si>
+  <si>
+    <t>6499730015</t>
+  </si>
+  <si>
+    <t>影视花絮集</t>
+  </si>
+  <si>
+    <t>6499923381</t>
+  </si>
+  <si>
+    <t>影视神评君</t>
+  </si>
+  <si>
+    <t>6500009036</t>
+  </si>
+  <si>
+    <t>影视圈教授</t>
+  </si>
+  <si>
+    <t>6487177310</t>
+  </si>
+  <si>
+    <t>影视穿帮君</t>
+  </si>
+  <si>
+    <t>6499920410</t>
+  </si>
+  <si>
+    <t>影视趣闻君</t>
+  </si>
+  <si>
+    <t>6499920570</t>
+  </si>
+  <si>
+    <t>影视圈伯乐</t>
+  </si>
+  <si>
+    <t>6499731266</t>
+  </si>
+  <si>
+    <t>影视圈博士</t>
+  </si>
+  <si>
+    <t>6487194794</t>
+  </si>
+  <si>
+    <t>影视台词特辑</t>
+  </si>
+  <si>
+    <t>6499725259</t>
+  </si>
+  <si>
+    <t>影视圈掌门</t>
+  </si>
+  <si>
+    <t>6486908045</t>
+  </si>
+  <si>
+    <t>影视圈门主</t>
+  </si>
+  <si>
+    <t>6487176886</t>
+  </si>
+  <si>
+    <t>影视神评社</t>
+  </si>
+  <si>
+    <t>6499688883</t>
+  </si>
+  <si>
+    <t>票房</t>
+  </si>
+  <si>
+    <t>6500007985</t>
+  </si>
+  <si>
+    <t>全球影视集结</t>
+  </si>
+  <si>
+    <t>6520056875</t>
+  </si>
+  <si>
+    <t>影视圈曝社</t>
+  </si>
+  <si>
+    <t>6520063131</t>
+  </si>
+  <si>
+    <t>影视放映君</t>
+  </si>
+  <si>
+    <t>6520064679</t>
+  </si>
+  <si>
+    <t>影视毒舌菌</t>
+  </si>
+  <si>
+    <t>6500009945</t>
+  </si>
+  <si>
+    <t>音乐鲜报</t>
+  </si>
+  <si>
+    <t>1784505422</t>
+  </si>
+  <si>
+    <t>我与赛车的日常</t>
+  </si>
+  <si>
+    <t>2734645537</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>锦鲤有好运</t>
+  </si>
+  <si>
+    <t>6310045508</t>
+  </si>
+  <si>
+    <t>星座</t>
+  </si>
+  <si>
+    <t>锦鲤王妃</t>
+  </si>
+  <si>
+    <t>6140821853</t>
+  </si>
+  <si>
+    <t>上上签转运</t>
+  </si>
+  <si>
+    <t>6141053094</t>
+  </si>
+  <si>
+    <t>星座秘语解析</t>
+  </si>
+  <si>
+    <t>6434721669</t>
+  </si>
+  <si>
+    <t>天秤座解析君</t>
+  </si>
+  <si>
+    <t>6434744417</t>
+  </si>
+  <si>
+    <t>影视吐槽巨酱</t>
+  </si>
+  <si>
+    <t>6434744445</t>
+  </si>
+  <si>
+    <t>影视</t>
+  </si>
+  <si>
+    <t>白羊座解析</t>
+  </si>
+  <si>
+    <t>6428935781</t>
+  </si>
+  <si>
+    <t>影视图文君</t>
+  </si>
+  <si>
+    <t>6434721538</t>
+  </si>
+  <si>
+    <t>招财狗</t>
+  </si>
+  <si>
+    <t>6429205486</t>
+  </si>
+  <si>
+    <t>征婚网</t>
+  </si>
+  <si>
+    <t>6428935792</t>
+  </si>
+  <si>
+    <t>代购商</t>
+  </si>
+  <si>
+    <t>6434721571</t>
+  </si>
+  <si>
+    <t>好运锦鲤君</t>
+  </si>
+  <si>
+    <t>6428935806</t>
+  </si>
+  <si>
+    <t>金牛座解析君</t>
+  </si>
+  <si>
+    <t>6429205433</t>
+  </si>
+  <si>
+    <t>星座族长</t>
+  </si>
+  <si>
+    <t>6434721482</t>
+  </si>
+  <si>
+    <t>占卜师</t>
+  </si>
+  <si>
+    <t>6410903251</t>
+  </si>
+  <si>
+    <t>快看星座</t>
+  </si>
+  <si>
+    <t>6411127338</t>
+  </si>
+  <si>
+    <t>星座转运君</t>
+  </si>
+  <si>
+    <t>6574367712</t>
+  </si>
+  <si>
+    <t>免税店</t>
+  </si>
+  <si>
+    <t>6102574301</t>
+  </si>
+  <si>
+    <t>搞笑</t>
+  </si>
+  <si>
+    <t>1852328323</t>
+  </si>
+  <si>
+    <t>搞笑奇葩蜀黍</t>
+  </si>
+  <si>
+    <t>5399564972</t>
+  </si>
+  <si>
+    <t>穿校服的坏叔叔</t>
+  </si>
+  <si>
+    <t>6338455085</t>
+  </si>
+  <si>
+    <t>视频音乐蜀黍</t>
+  </si>
+  <si>
+    <t>6031519949</t>
+  </si>
+  <si>
+    <t>北美代購</t>
+  </si>
+  <si>
+    <t>6357812901</t>
+  </si>
+  <si>
+    <t>时尚</t>
+  </si>
+  <si>
+    <t>音乐频道集锦</t>
+  </si>
+  <si>
+    <t>6500012136</t>
+  </si>
+  <si>
+    <t>音乐秀达人</t>
+  </si>
+  <si>
+    <t>6434721616</t>
+  </si>
+  <si>
+    <t>听歌听心</t>
+  </si>
+  <si>
+    <t>6434721624</t>
+  </si>
+  <si>
+    <t>音乐虞美人</t>
+  </si>
+  <si>
+    <t>6434721635</t>
+  </si>
+  <si>
+    <t>听音识曲</t>
+  </si>
+  <si>
+    <t>6434721638</t>
+  </si>
+  <si>
+    <t>笑谈音乐</t>
+  </si>
+  <si>
+    <t>6429205520</t>
+  </si>
+  <si>
+    <t>音乐快乐达人</t>
+  </si>
+  <si>
+    <t>6434721657</t>
+  </si>
+  <si>
+    <t>音乐星道</t>
+  </si>
+  <si>
+    <t>6434748110</t>
+  </si>
+  <si>
+    <t>点歌</t>
+  </si>
+  <si>
+    <t>6434721455</t>
+  </si>
+  <si>
+    <t>中华成名曲</t>
+  </si>
+  <si>
+    <t>6434721458</t>
+  </si>
+  <si>
+    <t>音乐串烧</t>
+  </si>
+  <si>
+    <t>6434721461</t>
+  </si>
+  <si>
+    <t>音乐盛宴热榜</t>
+  </si>
+  <si>
+    <t>6434721480</t>
+  </si>
+  <si>
+    <t>刘玲</t>
+  </si>
+  <si>
+    <t>X1712181338330003</t>
+  </si>
+  <si>
+    <t>娱闻酱</t>
+  </si>
+  <si>
+    <t>代购·</t>
   </si>
 </sst>
 </file>
@@ -656,11 +1169,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -719,1090 +1232,4132 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1">
+        <v>194.56639999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4090</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3680</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1">
-        <v>450</v>
-      </c>
-      <c r="E2" s="1">
-        <v>450</v>
-      </c>
-      <c r="F2" s="1">
-        <v>550</v>
-      </c>
-      <c r="G2" s="1">
-        <v>550</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80.975399999999993</v>
       </c>
       <c r="D3" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="E3" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="F3" s="1">
-        <v>550</v>
+        <v>1030</v>
       </c>
       <c r="G3" s="1">
-        <v>550</v>
+        <v>1030</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>199.82220000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F4" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>99.458100000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E5" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G5" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>101.5716</v>
       </c>
       <c r="D6" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E6" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G6" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>93.203999999999994</v>
       </c>
       <c r="D7" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E7" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G7" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>90.468900000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F8" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="1">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12.1517</v>
       </c>
       <c r="D9" s="1">
         <v>400</v>
       </c>
       <c r="E9" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F9" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G9" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17.4314</v>
       </c>
       <c r="D10" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E10" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F10" s="1">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="G10" s="1">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15.596</v>
       </c>
       <c r="D11" s="1">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>17.325800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
+        <v>95.959100000000007</v>
       </c>
       <c r="D13" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E13" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F13" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G13" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C14" s="1">
+        <v>14.3873</v>
       </c>
       <c r="D14" s="1">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C15" s="1">
+        <v>23.415199999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E15" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F15" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G15" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14.3781</v>
       </c>
       <c r="D16" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E16" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F16" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G16" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14.022</v>
       </c>
       <c r="D17" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E17" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F17" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G17" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13.3116</v>
       </c>
       <c r="D18" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E18" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F18" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G18" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="C19" s="1">
+        <v>14.049899999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E19" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F19" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G19" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13.6167</v>
       </c>
       <c r="D20" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E20" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F20" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G20" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="C21" s="1">
+        <v>14.2248</v>
       </c>
       <c r="D21" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E21" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F21" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G21" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="C22" s="1">
+        <v>13.5806</v>
       </c>
       <c r="D22" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F22" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G22" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="C23" s="1">
+        <v>12.954000000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E23" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F23" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G23" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C24" s="1">
+        <v>13.616199999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F24" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G24" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C25" s="1">
+        <v>13.0335</v>
       </c>
       <c r="D25" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E25" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F25" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G25" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C26" s="1">
+        <v>14.6653</v>
       </c>
       <c r="D26" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E26" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F26" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G26" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13.477399999999999</v>
       </c>
       <c r="D27" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E27" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F27" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G27" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="C28" s="1">
+        <v>13.587899999999999</v>
       </c>
       <c r="D28" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E28" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F28" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G28" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="C29" s="1">
+        <v>15.056900000000001</v>
       </c>
       <c r="D29" s="1">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="E29" s="1">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="F29" s="1">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G29" s="1">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="C30" s="1">
+        <v>14.4589</v>
       </c>
       <c r="D30" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E30" s="1">
         <v>200</v>
       </c>
       <c r="F30" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G30" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>14.7995</v>
       </c>
       <c r="D31" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E31" s="1">
         <v>200</v>
       </c>
       <c r="F31" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G31" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="C32" s="1">
+        <v>13.922499999999999</v>
       </c>
       <c r="D32" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E32" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F32" s="1">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="G32" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13.6922</v>
       </c>
       <c r="D33" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E33" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F33" s="1">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="G33" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="C34" s="1">
+        <v>14.005599999999999</v>
       </c>
       <c r="D34" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E34" s="1">
         <v>200</v>
       </c>
       <c r="F34" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G34" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1">
+        <v>14.4758</v>
+      </c>
+      <c r="D35" s="1">
+        <v>300</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>500</v>
+      </c>
+      <c r="G35" s="1">
+        <v>300</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="1">
+        <v>14.0726</v>
+      </c>
+      <c r="D36" s="1">
+        <v>200</v>
+      </c>
+      <c r="E36" s="1">
+        <v>200</v>
+      </c>
+      <c r="F36" s="1">
+        <v>300</v>
+      </c>
+      <c r="G36" s="1">
+        <v>200</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="1">
+        <v>15.744899999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>200</v>
+      </c>
+      <c r="E37" s="1">
+        <v>200</v>
+      </c>
+      <c r="F37" s="1">
+        <v>300</v>
+      </c>
+      <c r="G37" s="1">
+        <v>200</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1">
+        <v>13.7165</v>
+      </c>
+      <c r="D38" s="1">
+        <v>200</v>
+      </c>
+      <c r="E38" s="1">
+        <v>200</v>
+      </c>
+      <c r="F38" s="1">
+        <v>300</v>
+      </c>
+      <c r="G38" s="1">
+        <v>200</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="1">
+        <v>13.9047</v>
+      </c>
+      <c r="D39" s="1">
+        <v>200</v>
+      </c>
+      <c r="E39" s="1">
+        <v>200</v>
+      </c>
+      <c r="F39" s="1">
+        <v>300</v>
+      </c>
+      <c r="G39" s="1">
+        <v>200</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1">
+        <v>13.193099999999999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>200</v>
+      </c>
+      <c r="E40" s="1">
+        <v>200</v>
+      </c>
+      <c r="F40" s="1">
+        <v>300</v>
+      </c>
+      <c r="G40" s="1">
+        <v>200</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1">
+        <v>15.379200000000001</v>
+      </c>
+      <c r="D41" s="1">
+        <v>100</v>
+      </c>
+      <c r="E41" s="1">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1">
+        <v>100</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1">
+        <v>77.69</v>
+      </c>
+      <c r="D42" s="1">
+        <v>500</v>
+      </c>
+      <c r="E42" s="1">
+        <v>500</v>
+      </c>
+      <c r="F42" s="1">
+        <v>500</v>
+      </c>
+      <c r="G42" s="1">
+        <v>500</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="1">
+        <v>50.185000000000002</v>
+      </c>
+      <c r="D43" s="1">
+        <v>300</v>
+      </c>
+      <c r="E43" s="1">
+        <v>300</v>
+      </c>
+      <c r="F43" s="1">
+        <v>300</v>
+      </c>
+      <c r="G43" s="1">
+        <v>300</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="1">
+        <v>61.8123</v>
+      </c>
+      <c r="D44" s="1">
+        <v>300</v>
+      </c>
+      <c r="E44" s="1">
+        <v>300</v>
+      </c>
+      <c r="F44" s="1">
+        <v>300</v>
+      </c>
+      <c r="G44" s="1">
+        <v>300</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="1">
+        <v>22.5566</v>
+      </c>
+      <c r="D45" s="1">
+        <v>300</v>
+      </c>
+      <c r="E45" s="1">
+        <v>300</v>
+      </c>
+      <c r="F45" s="1">
+        <v>300</v>
+      </c>
+      <c r="G45" s="1">
+        <v>300</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="1">
+        <v>80.225200000000001</v>
+      </c>
+      <c r="D46" s="1">
+        <v>500</v>
+      </c>
+      <c r="E46" s="1">
+        <v>500</v>
+      </c>
+      <c r="F46" s="1">
+        <v>500</v>
+      </c>
+      <c r="G46" s="1">
+        <v>500</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="1">
+        <v>120.45569999999999</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="1">
+        <v>800</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="1">
+        <v>105.4812</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="1">
+        <v>800</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1">
+        <v>108.2148</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="1">
+        <v>800</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="1">
+        <v>126.0085</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>800</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="1">
+        <v>112.4315</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E51" s="1">
+        <v>800</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G51" s="1">
+        <v>800</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="1">
+        <v>110.9072</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="1">
+        <v>800</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="1">
+        <v>18.386199999999999</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>800</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="1">
+        <v>112.98820000000001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2450</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2050</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="1">
+        <v>139.75470000000001</v>
+      </c>
+      <c r="D55" s="1">
+        <v>300</v>
+      </c>
+      <c r="E55" s="1">
+        <v>200</v>
+      </c>
+      <c r="F55" s="1">
+        <v>500</v>
+      </c>
+      <c r="G55" s="1">
+        <v>300</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="1">
+        <v>128.54300000000001</v>
+      </c>
+      <c r="D56" s="1">
+        <v>300</v>
+      </c>
+      <c r="E56" s="1">
+        <v>200</v>
+      </c>
+      <c r="F56" s="1">
+        <v>500</v>
+      </c>
+      <c r="G56" s="1">
+        <v>300</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1">
+        <v>170.69229999999999</v>
+      </c>
+      <c r="D57" s="1">
+        <v>300</v>
+      </c>
+      <c r="E57" s="1">
+        <v>200</v>
+      </c>
+      <c r="F57" s="1">
+        <v>500</v>
+      </c>
+      <c r="G57" s="1">
+        <v>300</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="1">
+        <v>242.14750000000001</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="1">
+        <v>13.8582</v>
+      </c>
+      <c r="D59" s="1">
+        <v>300</v>
+      </c>
+      <c r="E59" s="1">
+        <v>200</v>
+      </c>
+      <c r="F59" s="1">
+        <v>500</v>
+      </c>
+      <c r="G59" s="1">
+        <v>300</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="1">
+        <v>14.063000000000001</v>
+      </c>
+      <c r="D60" s="1">
+        <v>300</v>
+      </c>
+      <c r="E60" s="1">
+        <v>200</v>
+      </c>
+      <c r="F60" s="1">
+        <v>500</v>
+      </c>
+      <c r="G60" s="1">
+        <v>300</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="1">
+        <v>70.534300000000002</v>
+      </c>
+      <c r="D61" s="1">
+        <v>300</v>
+      </c>
+      <c r="E61" s="1">
+        <v>200</v>
+      </c>
+      <c r="F61" s="1">
+        <v>500</v>
+      </c>
+      <c r="G61" s="1">
+        <v>300</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="1">
+        <v>19.583100000000002</v>
+      </c>
+      <c r="D62" s="1">
+        <v>300</v>
+      </c>
+      <c r="E62" s="1">
+        <v>200</v>
+      </c>
+      <c r="F62" s="1">
+        <v>500</v>
+      </c>
+      <c r="G62" s="1">
+        <v>300</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="1">
+        <v>29.807099999999998</v>
+      </c>
+      <c r="D63" s="1">
+        <v>300</v>
+      </c>
+      <c r="E63" s="1">
+        <v>200</v>
+      </c>
+      <c r="F63" s="1">
+        <v>500</v>
+      </c>
+      <c r="G63" s="1">
+        <v>300</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="1">
+        <v>33.063699999999997</v>
+      </c>
+      <c r="D64" s="1">
+        <v>300</v>
+      </c>
+      <c r="E64" s="1">
+        <v>200</v>
+      </c>
+      <c r="F64" s="1">
+        <v>500</v>
+      </c>
+      <c r="G64" s="1">
+        <v>300</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="1">
+        <v>41.819800000000001</v>
+      </c>
+      <c r="D65" s="1">
+        <v>300</v>
+      </c>
+      <c r="E65" s="1">
+        <v>200</v>
+      </c>
+      <c r="F65" s="1">
+        <v>500</v>
+      </c>
+      <c r="G65" s="1">
+        <v>300</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="1">
+        <v>41.777500000000003</v>
+      </c>
+      <c r="D66" s="1">
+        <v>300</v>
+      </c>
+      <c r="E66" s="1">
+        <v>200</v>
+      </c>
+      <c r="F66" s="1">
+        <v>500</v>
+      </c>
+      <c r="G66" s="1">
+        <v>300</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="1">
+        <v>32.061300000000003</v>
+      </c>
+      <c r="D67" s="1">
+        <v>300</v>
+      </c>
+      <c r="E67" s="1">
+        <v>200</v>
+      </c>
+      <c r="F67" s="1">
+        <v>500</v>
+      </c>
+      <c r="G67" s="1">
+        <v>300</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="1">
+        <v>57.256399999999999</v>
+      </c>
+      <c r="D68" s="1">
+        <v>300</v>
+      </c>
+      <c r="E68" s="1">
+        <v>200</v>
+      </c>
+      <c r="F68" s="1">
+        <v>500</v>
+      </c>
+      <c r="G68" s="1">
+        <v>300</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="1">
+        <v>19.002199999999998</v>
+      </c>
+      <c r="D69" s="1">
+        <v>300</v>
+      </c>
+      <c r="E69" s="1">
+        <v>200</v>
+      </c>
+      <c r="F69" s="1">
+        <v>500</v>
+      </c>
+      <c r="G69" s="1">
+        <v>300</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="1">
+        <v>69.025499999999994</v>
+      </c>
+      <c r="D70" s="1">
+        <v>300</v>
+      </c>
+      <c r="E70" s="1">
+        <v>200</v>
+      </c>
+      <c r="F70" s="1">
+        <v>500</v>
+      </c>
+      <c r="G70" s="1">
+        <v>300</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="1">
+        <v>29.723099999999999</v>
+      </c>
+      <c r="D71" s="1">
+        <v>300</v>
+      </c>
+      <c r="E71" s="1">
+        <v>200</v>
+      </c>
+      <c r="F71" s="1">
+        <v>500</v>
+      </c>
+      <c r="G71" s="1">
+        <v>300</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="1">
+        <v>38.904600000000002</v>
+      </c>
+      <c r="D72" s="1">
+        <v>300</v>
+      </c>
+      <c r="E72" s="1">
+        <v>200</v>
+      </c>
+      <c r="F72" s="1">
+        <v>500</v>
+      </c>
+      <c r="G72" s="1">
+        <v>300</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="1">
+        <v>32.386499999999998</v>
+      </c>
+      <c r="D73" s="1">
+        <v>300</v>
+      </c>
+      <c r="E73" s="1">
+        <v>200</v>
+      </c>
+      <c r="F73" s="1">
+        <v>500</v>
+      </c>
+      <c r="G73" s="1">
+        <v>300</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="1">
+        <v>19.332799999999999</v>
+      </c>
+      <c r="D74" s="1">
+        <v>300</v>
+      </c>
+      <c r="E74" s="1">
+        <v>200</v>
+      </c>
+      <c r="F74" s="1">
+        <v>500</v>
+      </c>
+      <c r="G74" s="1">
+        <v>300</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="1">
+        <v>53.104700000000001</v>
+      </c>
+      <c r="D75" s="1">
+        <v>300</v>
+      </c>
+      <c r="E75" s="1">
+        <v>200</v>
+      </c>
+      <c r="F75" s="1">
+        <v>500</v>
+      </c>
+      <c r="G75" s="1">
+        <v>300</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="1">
+        <v>34.531599999999997</v>
+      </c>
+      <c r="D76" s="1">
+        <v>300</v>
+      </c>
+      <c r="E76" s="1">
+        <v>200</v>
+      </c>
+      <c r="F76" s="1">
+        <v>500</v>
+      </c>
+      <c r="G76" s="1">
+        <v>300</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="1">
+        <v>69.114199999999997</v>
+      </c>
+      <c r="D77" s="1">
+        <v>300</v>
+      </c>
+      <c r="E77" s="1">
+        <v>200</v>
+      </c>
+      <c r="F77" s="1">
+        <v>500</v>
+      </c>
+      <c r="G77" s="1">
+        <v>300</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="1">
+        <v>72.118300000000005</v>
+      </c>
+      <c r="D78" s="1">
+        <v>300</v>
+      </c>
+      <c r="E78" s="1">
+        <v>200</v>
+      </c>
+      <c r="F78" s="1">
+        <v>500</v>
+      </c>
+      <c r="G78" s="1">
+        <v>300</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="1">
+        <v>66.939400000000006</v>
+      </c>
+      <c r="D79" s="1">
+        <v>300</v>
+      </c>
+      <c r="E79" s="1">
+        <v>200</v>
+      </c>
+      <c r="F79" s="1">
+        <v>500</v>
+      </c>
+      <c r="G79" s="1">
+        <v>300</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" s="1">
+        <v>30.271799999999999</v>
+      </c>
+      <c r="D80" s="1">
+        <v>300</v>
+      </c>
+      <c r="E80" s="1">
+        <v>200</v>
+      </c>
+      <c r="F80" s="1">
+        <v>500</v>
+      </c>
+      <c r="G80" s="1">
+        <v>300</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="1">
+        <v>26.3797</v>
+      </c>
+      <c r="D81" s="1">
+        <v>300</v>
+      </c>
+      <c r="E81" s="1">
+        <v>200</v>
+      </c>
+      <c r="F81" s="1">
+        <v>500</v>
+      </c>
+      <c r="G81" s="1">
+        <v>300</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="1">
+        <v>38.295099999999998</v>
+      </c>
+      <c r="D82" s="1">
+        <v>300</v>
+      </c>
+      <c r="E82" s="1">
+        <v>200</v>
+      </c>
+      <c r="F82" s="1">
+        <v>500</v>
+      </c>
+      <c r="G82" s="1">
+        <v>300</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="1">
+        <v>81.5411</v>
+      </c>
+      <c r="D83" s="1">
+        <v>600</v>
+      </c>
+      <c r="E83" s="1">
+        <v>500</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1230</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1030</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="1">
+        <v>20.700700000000001</v>
+      </c>
+      <c r="D84" s="1">
+        <v>500</v>
+      </c>
+      <c r="E84" s="1">
+        <v>500</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1030</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1030</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="1">
+        <v>318.19810000000001</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="1">
+        <v>183.79089999999999</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="1">
+        <v>159.4486</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="1">
+        <v>39.911299999999997</v>
+      </c>
+      <c r="D88" s="1">
+        <v>400</v>
+      </c>
+      <c r="E88" s="1">
+        <v>300</v>
+      </c>
+      <c r="F88" s="1">
+        <v>500</v>
+      </c>
+      <c r="G88" s="1">
+        <v>400</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="1">
+        <v>43.0608</v>
+      </c>
+      <c r="D89" s="1">
+        <v>400</v>
+      </c>
+      <c r="E89" s="1">
+        <v>300</v>
+      </c>
+      <c r="F89" s="1">
+        <v>500</v>
+      </c>
+      <c r="G89" s="1">
+        <v>400</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="1">
+        <v>34.445099999999996</v>
+      </c>
+      <c r="D90" s="1">
+        <v>400</v>
+      </c>
+      <c r="E90" s="1">
+        <v>300</v>
+      </c>
+      <c r="F90" s="1">
+        <v>500</v>
+      </c>
+      <c r="G90" s="1">
+        <v>400</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="1">
+        <v>40.370800000000003</v>
+      </c>
+      <c r="D91" s="1">
+        <v>400</v>
+      </c>
+      <c r="E91" s="1">
+        <v>300</v>
+      </c>
+      <c r="F91" s="1">
+        <v>500</v>
+      </c>
+      <c r="G91" s="1">
+        <v>400</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="1">
+        <v>66.165899999999993</v>
+      </c>
+      <c r="D92" s="1">
+        <v>400</v>
+      </c>
+      <c r="E92" s="1">
+        <v>300</v>
+      </c>
+      <c r="F92" s="1">
+        <v>500</v>
+      </c>
+      <c r="G92" s="1">
+        <v>400</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" s="1">
+        <v>64.746600000000001</v>
+      </c>
+      <c r="D93" s="1">
+        <v>400</v>
+      </c>
+      <c r="E93" s="1">
+        <v>300</v>
+      </c>
+      <c r="F93" s="1">
+        <v>500</v>
+      </c>
+      <c r="G93" s="1">
+        <v>400</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="1">
+        <v>41.140500000000003</v>
+      </c>
+      <c r="D94" s="1">
+        <v>400</v>
+      </c>
+      <c r="E94" s="1">
+        <v>300</v>
+      </c>
+      <c r="F94" s="1">
+        <v>500</v>
+      </c>
+      <c r="G94" s="1">
+        <v>400</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="1">
+        <v>76.661500000000004</v>
+      </c>
+      <c r="D95" s="1">
+        <v>400</v>
+      </c>
+      <c r="E95" s="1">
+        <v>300</v>
+      </c>
+      <c r="F95" s="1">
+        <v>500</v>
+      </c>
+      <c r="G95" s="1">
+        <v>400</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="1">
+        <v>77.361099999999993</v>
+      </c>
+      <c r="D96" s="1">
+        <v>400</v>
+      </c>
+      <c r="E96" s="1">
+        <v>300</v>
+      </c>
+      <c r="F96" s="1">
+        <v>500</v>
+      </c>
+      <c r="G96" s="1">
+        <v>400</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" s="1">
+        <v>23.9435</v>
+      </c>
+      <c r="D97" s="1">
+        <v>400</v>
+      </c>
+      <c r="E97" s="1">
+        <v>300</v>
+      </c>
+      <c r="F97" s="1">
+        <v>500</v>
+      </c>
+      <c r="G97" s="1">
+        <v>400</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" s="1">
+        <v>17.119599999999998</v>
+      </c>
+      <c r="D98" s="1">
+        <v>400</v>
+      </c>
+      <c r="E98" s="1">
+        <v>300</v>
+      </c>
+      <c r="F98" s="1">
+        <v>500</v>
+      </c>
+      <c r="G98" s="1">
+        <v>400</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" s="1">
+        <v>201.26349999999999</v>
+      </c>
+      <c r="D99" s="1">
+        <v>400</v>
+      </c>
+      <c r="E99" s="1">
+        <v>300</v>
+      </c>
+      <c r="F99" s="1">
+        <v>500</v>
+      </c>
+      <c r="G99" s="1">
+        <v>400</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="1">
+        <v>188.2749</v>
+      </c>
+      <c r="D100" s="1">
+        <v>400</v>
+      </c>
+      <c r="E100" s="1">
+        <v>300</v>
+      </c>
+      <c r="F100" s="1">
+        <v>500</v>
+      </c>
+      <c r="G100" s="1">
+        <v>400</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" s="1">
+        <v>164.86240000000001</v>
+      </c>
+      <c r="D101" s="1">
+        <v>400</v>
+      </c>
+      <c r="E101" s="1">
+        <v>300</v>
+      </c>
+      <c r="F101" s="1">
+        <v>500</v>
+      </c>
+      <c r="G101" s="1">
+        <v>400</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="1">
+        <v>118.5582</v>
+      </c>
+      <c r="D102" s="1">
+        <v>600</v>
+      </c>
+      <c r="E102" s="1">
+        <v>500</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G102" s="1">
+        <v>800</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="1">
+        <v>185.88470000000001</v>
+      </c>
+      <c r="D103" s="1">
+        <v>600</v>
+      </c>
+      <c r="E103" s="1">
+        <v>500</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G103" s="1">
+        <v>800</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" s="1">
+        <v>156.2835</v>
+      </c>
+      <c r="D104" s="1">
+        <v>100</v>
+      </c>
+      <c r="E104" s="1">
         <v>80</v>
       </c>
-      <c r="D35" s="1">
+      <c r="F104" s="1">
+        <v>200</v>
+      </c>
+      <c r="G104" s="1">
+        <v>150</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C105" s="1">
+        <v>119.7139</v>
+      </c>
+      <c r="D105" s="1">
+        <v>600</v>
+      </c>
+      <c r="E105" s="1">
+        <v>500</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G105" s="1">
+        <v>800</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="1">
+        <v>74.518500000000003</v>
+      </c>
+      <c r="D106" s="1">
+        <v>100</v>
+      </c>
+      <c r="E106" s="1">
+        <v>100</v>
+      </c>
+      <c r="F106" s="1">
+        <v>200</v>
+      </c>
+      <c r="G106" s="1">
+        <v>150</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C107" s="1">
+        <v>93.541499999999999</v>
+      </c>
+      <c r="D107" s="1">
+        <v>100</v>
+      </c>
+      <c r="E107" s="1">
+        <v>100</v>
+      </c>
+      <c r="F107" s="1">
+        <v>200</v>
+      </c>
+      <c r="G107" s="1">
+        <v>150</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="1">
+        <v>19.588699999999999</v>
+      </c>
+      <c r="D108" s="1">
+        <v>100</v>
+      </c>
+      <c r="E108" s="1">
+        <v>100</v>
+      </c>
+      <c r="F108" s="1">
+        <v>200</v>
+      </c>
+      <c r="G108" s="1">
+        <v>150</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="1">
+        <v>13.6927</v>
+      </c>
+      <c r="D109" s="1">
+        <v>100</v>
+      </c>
+      <c r="E109" s="1">
+        <v>100</v>
+      </c>
+      <c r="F109" s="1">
+        <v>200</v>
+      </c>
+      <c r="G109" s="1">
+        <v>150</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="1">
+        <v>13.860200000000001</v>
+      </c>
+      <c r="D110" s="1">
+        <v>100</v>
+      </c>
+      <c r="E110" s="1">
+        <v>100</v>
+      </c>
+      <c r="F110" s="1">
+        <v>200</v>
+      </c>
+      <c r="G110" s="1">
+        <v>150</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="1">
+        <v>13.661199999999999</v>
+      </c>
+      <c r="D111" s="1">
+        <v>100</v>
+      </c>
+      <c r="E111" s="1">
+        <v>100</v>
+      </c>
+      <c r="F111" s="1">
+        <v>200</v>
+      </c>
+      <c r="G111" s="1">
+        <v>150</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="1">
+        <v>13.660500000000001</v>
+      </c>
+      <c r="D112" s="1">
+        <v>100</v>
+      </c>
+      <c r="E112" s="1">
+        <v>100</v>
+      </c>
+      <c r="F112" s="1">
+        <v>200</v>
+      </c>
+      <c r="G112" s="1">
+        <v>150</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="1">
+        <v>14.082800000000001</v>
+      </c>
+      <c r="D113" s="1">
+        <v>100</v>
+      </c>
+      <c r="E113" s="1">
+        <v>100</v>
+      </c>
+      <c r="F113" s="1">
+        <v>200</v>
+      </c>
+      <c r="G113" s="1">
+        <v>150</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="1">
+        <v>16.265000000000001</v>
+      </c>
+      <c r="D114" s="1">
+        <v>100</v>
+      </c>
+      <c r="E114" s="1">
+        <v>100</v>
+      </c>
+      <c r="F114" s="1">
+        <v>200</v>
+      </c>
+      <c r="G114" s="1">
+        <v>150</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" s="1">
+        <v>13.5951</v>
+      </c>
+      <c r="D115" s="1">
+        <v>100</v>
+      </c>
+      <c r="E115" s="1">
+        <v>100</v>
+      </c>
+      <c r="F115" s="1">
+        <v>200</v>
+      </c>
+      <c r="G115" s="1">
+        <v>150</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="1">
+        <v>14.073</v>
+      </c>
+      <c r="D116" s="1">
+        <v>100</v>
+      </c>
+      <c r="E116" s="1">
+        <v>100</v>
+      </c>
+      <c r="F116" s="1">
+        <v>200</v>
+      </c>
+      <c r="G116" s="1">
+        <v>150</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" s="1">
+        <v>12.8432</v>
+      </c>
+      <c r="D117" s="1">
+        <v>100</v>
+      </c>
+      <c r="E117" s="1">
+        <v>100</v>
+      </c>
+      <c r="F117" s="1">
+        <v>200</v>
+      </c>
+      <c r="G117" s="1">
+        <v>150</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E35" s="1">
-        <v>200</v>
-      </c>
-      <c r="F35" s="1">
-        <v>450</v>
-      </c>
-      <c r="G35" s="1">
-        <v>400</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>86</v>
+      <c r="B118" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="1">
+        <v>13.776999999999999</v>
+      </c>
+      <c r="D118" s="1">
+        <v>100</v>
+      </c>
+      <c r="E118" s="1">
+        <v>100</v>
+      </c>
+      <c r="F118" s="1">
+        <v>200</v>
+      </c>
+      <c r="G118" s="1">
+        <v>150</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" s="1">
+        <v>14.6959</v>
+      </c>
+      <c r="D119" s="1">
+        <v>100</v>
+      </c>
+      <c r="E119" s="1">
+        <v>100</v>
+      </c>
+      <c r="F119" s="1">
+        <v>200</v>
+      </c>
+      <c r="G119" s="1">
+        <v>150</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
   <si>
     <t>名称</t>
   </si>
@@ -65,76 +65,274 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>新闻资讯</t>
+  </si>
+  <si>
+    <t>校花的日常</t>
+  </si>
+  <si>
+    <t>5160857194</t>
+  </si>
+  <si>
     <t>娱乐</t>
   </si>
   <si>
-    <t>影视</t>
-  </si>
-  <si>
-    <t>有品电影</t>
-  </si>
-  <si>
-    <t>电影圈长</t>
-  </si>
-  <si>
-    <t>影瓜瓜</t>
-  </si>
-  <si>
-    <t>有品爸爸</t>
-  </si>
-  <si>
-    <t>影史最佳</t>
-  </si>
-  <si>
-    <t>电影大麦</t>
-  </si>
-  <si>
-    <t>传媒背后</t>
-  </si>
-  <si>
-    <t>热门站</t>
-  </si>
-  <si>
-    <t>青春剧影视</t>
-  </si>
-  <si>
-    <t>剧瓜</t>
-  </si>
-  <si>
-    <t>影视圈的女神经</t>
-  </si>
-  <si>
-    <t>剧火了</t>
-  </si>
-  <si>
-    <t>影斋</t>
-  </si>
-  <si>
-    <t>文娱教主</t>
-  </si>
-  <si>
-    <t>综艺站</t>
-  </si>
-  <si>
-    <t>八组小马甲</t>
-  </si>
-  <si>
-    <t>吃瓜鹅爆料社</t>
-  </si>
-  <si>
-    <t>洋气</t>
-  </si>
-  <si>
-    <t>女性时尚</t>
-  </si>
-  <si>
-    <t>X1905051407588962</t>
-  </si>
-  <si>
-    <t>黄芳</t>
-  </si>
-  <si>
-    <t>X1712181221160001</t>
+    <t>X1801050845152878</t>
+  </si>
+  <si>
+    <t>刘玲</t>
+  </si>
+  <si>
+    <t>校草收纳箱</t>
+  </si>
+  <si>
+    <t>5450389695</t>
+  </si>
+  <si>
+    <t>锅盖头司令</t>
+  </si>
+  <si>
+    <t>2099591797</t>
+  </si>
+  <si>
+    <t>IT互联网</t>
+  </si>
+  <si>
+    <t>传媒老王</t>
+  </si>
+  <si>
+    <t>1661598840</t>
+  </si>
+  <si>
+    <t>段郎说事</t>
+  </si>
+  <si>
+    <t>1807715644</t>
+  </si>
+  <si>
+    <t>江氏小盗龙</t>
+  </si>
+  <si>
+    <t>1200933465</t>
+  </si>
+  <si>
+    <t>军事</t>
+  </si>
+  <si>
+    <t>何天恩</t>
+  </si>
+  <si>
+    <t>1861477054</t>
+  </si>
+  <si>
+    <t>文学文化</t>
+  </si>
+  <si>
+    <t>高会民</t>
+  </si>
+  <si>
+    <t>2710739767</t>
+  </si>
+  <si>
+    <t>幽默搞笑</t>
+  </si>
+  <si>
+    <t>范炜</t>
+  </si>
+  <si>
+    <t>1029374230</t>
+  </si>
+  <si>
+    <t>陈里</t>
+  </si>
+  <si>
+    <t>1737979690</t>
+  </si>
+  <si>
+    <t>最全热门排行榜</t>
+  </si>
+  <si>
+    <t>2614543117</t>
+  </si>
+  <si>
+    <t>谁干的</t>
+  </si>
+  <si>
+    <t>6384956581</t>
+  </si>
+  <si>
+    <t>祖传单身狗</t>
+  </si>
+  <si>
+    <t>1912728955</t>
+  </si>
+  <si>
+    <t>鸡毛蒜皮</t>
+  </si>
+  <si>
+    <t>6157151766</t>
+  </si>
+  <si>
+    <t>挖图志</t>
+  </si>
+  <si>
+    <t>6342456079</t>
+  </si>
+  <si>
+    <t>正在更新</t>
+  </si>
+  <si>
+    <t>6398312241</t>
+  </si>
+  <si>
+    <t>减速度</t>
+  </si>
+  <si>
+    <t>6358321962</t>
+  </si>
+  <si>
+    <t>水分子</t>
+  </si>
+  <si>
+    <t>6367204564</t>
+  </si>
+  <si>
+    <t>吐槽社</t>
+  </si>
+  <si>
+    <t>5508249508</t>
+  </si>
+  <si>
+    <t>小八怪</t>
+  </si>
+  <si>
+    <t>5155570561</t>
+  </si>
+  <si>
+    <t>无忧开车</t>
+  </si>
+  <si>
+    <t>6387407979</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>人间故事会</t>
+  </si>
+  <si>
+    <t>6405076851</t>
+  </si>
+  <si>
+    <t>行走的酸姐</t>
+  </si>
+  <si>
+    <t>5105258789</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>别动我有法力O</t>
+  </si>
+  <si>
+    <t>6405349073</t>
+  </si>
+  <si>
+    <t>贫僧超渡了你</t>
+  </si>
+  <si>
+    <t>6395287056</t>
+  </si>
+  <si>
+    <t>愤怒回收站</t>
+  </si>
+  <si>
+    <t>6395287027</t>
+  </si>
+  <si>
+    <t>小火炮</t>
+  </si>
+  <si>
+    <t>6405076857</t>
+  </si>
+  <si>
+    <t>翻滚吧笑点菌</t>
+  </si>
+  <si>
+    <t>6405076802</t>
+  </si>
+  <si>
+    <t>思想牢笼</t>
+  </si>
+  <si>
+    <t>6379962066</t>
+  </si>
+  <si>
+    <t>情感</t>
+  </si>
+  <si>
+    <t>扶不起</t>
+  </si>
+  <si>
+    <t>6405349088</t>
+  </si>
+  <si>
+    <t>百姓杂谈</t>
+  </si>
+  <si>
+    <t>2803171563</t>
+  </si>
+  <si>
+    <t>一朵村花</t>
+  </si>
+  <si>
+    <t>6405076827</t>
+  </si>
+  <si>
+    <t>迷上我</t>
+  </si>
+  <si>
+    <t>6405076874</t>
+  </si>
+  <si>
+    <t>事后胜孔明</t>
+  </si>
+  <si>
+    <t>6405076884</t>
+  </si>
+  <si>
+    <t>挖掘鸡</t>
+  </si>
+  <si>
+    <t>6395287064</t>
+  </si>
+  <si>
+    <t>娱乐88君</t>
+  </si>
+  <si>
+    <t>5554305178</t>
+  </si>
+  <si>
+    <t>微博视频排行榜</t>
+  </si>
+  <si>
+    <t>1826713332</t>
+  </si>
+  <si>
+    <t>明星校草</t>
+  </si>
+  <si>
+    <t>2094674813</t>
+  </si>
+  <si>
+    <t>热门原图表情包</t>
+  </si>
+  <si>
+    <t>6126291039</t>
+  </si>
+  <si>
+    <t>X1712181338330003</t>
   </si>
 </sst>
 </file>
@@ -503,11 +701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -566,578 +764,1367 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3">
-        <v>2755263764</v>
+      <c r="C2" s="1">
+        <v>155</v>
       </c>
       <c r="D2" s="1">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E2" s="1">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F2" s="1">
-        <v>1800</v>
+        <v>1920</v>
       </c>
       <c r="G2" s="1">
-        <v>1700</v>
+        <v>1440</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5641450439</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>88</v>
       </c>
       <c r="D3" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
       </c>
       <c r="F3" s="1">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="G3" s="1">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1629562465</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>800</v>
       </c>
       <c r="D4" s="1">
-        <v>700</v>
+        <v>2600</v>
       </c>
       <c r="E4" s="1">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="F4" s="1">
-        <v>1000</v>
+        <v>3120</v>
       </c>
       <c r="G4" s="1">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5850320760</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>483</v>
       </c>
       <c r="D5" s="1">
-        <v>700</v>
+        <v>3600</v>
       </c>
       <c r="E5" s="1">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="F5" s="1">
-        <v>1000</v>
+        <v>4320</v>
       </c>
       <c r="G5" s="1">
-        <v>900</v>
+        <v>4200</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7039381971</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>220</v>
       </c>
       <c r="D6" s="1">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="E6" s="1">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="F6" s="1">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="G6" s="1">
-        <v>650</v>
+        <v>2760</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3218560853</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>711</v>
       </c>
       <c r="D7" s="1">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="E7" s="1">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F7" s="1">
-        <v>750</v>
+        <v>1920</v>
       </c>
       <c r="G7" s="1">
-        <v>650</v>
+        <v>1800</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2002659261</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>136</v>
       </c>
       <c r="D8" s="1">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E8" s="1">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="F8" s="1">
-        <v>1500</v>
+        <v>2160</v>
       </c>
       <c r="G8" s="1">
-        <v>1400</v>
+        <v>1920</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2233633612</v>
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>383</v>
       </c>
       <c r="D9" s="1">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="E9" s="1">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="F9" s="1">
-        <v>750</v>
+        <v>3600</v>
       </c>
       <c r="G9" s="1">
-        <v>650</v>
+        <v>3000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3101549795</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1">
+        <v>148</v>
       </c>
       <c r="D10" s="1">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="E10" s="1">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="F10" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G10" s="1">
-        <v>1400</v>
+        <v>2640</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2288502562</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3027</v>
       </c>
       <c r="D11" s="1">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="E11" s="1">
-        <v>400</v>
+        <v>8000</v>
       </c>
       <c r="F11" s="1">
-        <v>750</v>
+        <v>12000</v>
       </c>
       <c r="G11" s="1">
-        <v>650</v>
+        <v>9600</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3">
-        <v>6103552647</v>
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>457</v>
       </c>
       <c r="D12" s="1">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="E12" s="1">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="F12" s="1">
-        <v>750</v>
+        <v>3120</v>
       </c>
       <c r="G12" s="1">
-        <v>650</v>
+        <v>3000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3">
-        <v>6563955438</v>
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1">
+        <v>167</v>
       </c>
       <c r="D13" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E13" s="1">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="F13" s="1">
-        <v>750</v>
+        <v>1800</v>
       </c>
       <c r="G13" s="1">
-        <v>650</v>
+        <v>1440</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5331106061</v>
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>113</v>
       </c>
       <c r="D14" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="1">
-        <v>750</v>
+        <v>1440</v>
       </c>
       <c r="G14" s="1">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1663307737</v>
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1">
+        <v>139</v>
       </c>
       <c r="D15" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="1">
         <v>1000</v>
       </c>
-      <c r="E15" s="1">
-        <v>900</v>
-      </c>
       <c r="F15" s="1">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="G15" s="1">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2426965291</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1">
+        <v>108</v>
       </c>
       <c r="D16" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E16" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F16" s="1">
-        <v>750</v>
+        <v>1080</v>
       </c>
       <c r="G16" s="1">
-        <v>650</v>
+        <v>960</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3">
-        <v>6570882920</v>
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1">
+        <v>191</v>
       </c>
       <c r="D17" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E17" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F17" s="1">
-        <v>750</v>
+        <v>1080</v>
       </c>
       <c r="G17" s="1">
-        <v>650</v>
+        <v>960</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2297342862</v>
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1">
+        <v>89</v>
       </c>
       <c r="D18" s="1">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E18" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F18" s="1">
-        <v>750</v>
+        <v>1080</v>
       </c>
       <c r="G18" s="1">
-        <v>650</v>
+        <v>960</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5287776309</v>
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1">
+        <v>67</v>
       </c>
       <c r="D19" s="1">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="E19" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F19" s="1">
-        <v>1800</v>
+        <v>960</v>
       </c>
       <c r="G19" s="1">
-        <v>1700</v>
+        <v>720</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1">
+        <v>800</v>
+      </c>
+      <c r="E20" s="1">
+        <v>600</v>
+      </c>
+      <c r="F20" s="1">
+        <v>960</v>
+      </c>
+      <c r="G20" s="1">
+        <v>720</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1">
+        <v>800</v>
+      </c>
+      <c r="E21" s="1">
+        <v>600</v>
+      </c>
+      <c r="F21" s="1">
+        <v>960</v>
+      </c>
+      <c r="G21" s="1">
+        <v>720</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1">
+        <v>600</v>
+      </c>
+      <c r="E22" s="1">
+        <v>500</v>
+      </c>
+      <c r="F22" s="1">
+        <v>720</v>
+      </c>
+      <c r="G22" s="1">
+        <v>600</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1">
+        <v>500</v>
+      </c>
+      <c r="E23" s="1">
+        <v>300</v>
+      </c>
+      <c r="F23" s="1">
+        <v>600</v>
+      </c>
+      <c r="G23" s="1">
+        <v>360</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1">
+        <v>500</v>
+      </c>
+      <c r="E24" s="1">
+        <v>300</v>
+      </c>
+      <c r="F24" s="1">
+        <v>600</v>
+      </c>
+      <c r="G24" s="1">
+        <v>360</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1">
+        <v>500</v>
+      </c>
+      <c r="E25" s="1">
+        <v>300</v>
+      </c>
+      <c r="F25" s="1">
+        <v>600</v>
+      </c>
+      <c r="G25" s="1">
+        <v>360</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1">
+        <v>500</v>
+      </c>
+      <c r="E26" s="1">
+        <v>300</v>
+      </c>
+      <c r="F26" s="1">
+        <v>600</v>
+      </c>
+      <c r="G26" s="1">
+        <v>360</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1">
+        <v>500</v>
+      </c>
+      <c r="E27" s="1">
+        <v>300</v>
+      </c>
+      <c r="F27" s="1">
+        <v>600</v>
+      </c>
+      <c r="G27" s="1">
+        <v>360</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1">
+        <v>500</v>
+      </c>
+      <c r="E28" s="1">
+        <v>300</v>
+      </c>
+      <c r="F28" s="1">
+        <v>600</v>
+      </c>
+      <c r="G28" s="1">
+        <v>360</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1">
+        <v>500</v>
+      </c>
+      <c r="E29" s="1">
+        <v>300</v>
+      </c>
+      <c r="F29" s="1">
+        <v>600</v>
+      </c>
+      <c r="G29" s="1">
+        <v>360</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="1">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1">
+        <v>500</v>
+      </c>
+      <c r="E30" s="1">
+        <v>300</v>
+      </c>
+      <c r="F30" s="1">
+        <v>600</v>
+      </c>
+      <c r="G30" s="1">
+        <v>360</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1">
+        <v>500</v>
+      </c>
+      <c r="E31" s="1">
+        <v>300</v>
+      </c>
+      <c r="F31" s="1">
+        <v>600</v>
+      </c>
+      <c r="G31" s="1">
+        <v>360</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1">
+        <v>500</v>
+      </c>
+      <c r="E32" s="1">
+        <v>300</v>
+      </c>
+      <c r="F32" s="1">
+        <v>600</v>
+      </c>
+      <c r="G32" s="1">
+        <v>360</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <v>500</v>
+      </c>
+      <c r="E33" s="1">
+        <v>300</v>
+      </c>
+      <c r="F33" s="1">
+        <v>600</v>
+      </c>
+      <c r="G33" s="1">
+        <v>360</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1">
+        <v>500</v>
+      </c>
+      <c r="E34" s="1">
+        <v>300</v>
+      </c>
+      <c r="F34" s="1">
+        <v>600</v>
+      </c>
+      <c r="G34" s="1">
+        <v>360</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1">
+        <v>300</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>360</v>
+      </c>
+      <c r="G35" s="1">
+        <v>240</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="1">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1">
+        <v>300</v>
+      </c>
+      <c r="E36" s="1">
+        <v>200</v>
+      </c>
+      <c r="F36" s="1">
+        <v>360</v>
+      </c>
+      <c r="G36" s="1">
+        <v>240</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="1">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1">
+        <v>300</v>
+      </c>
+      <c r="E37" s="1">
+        <v>200</v>
+      </c>
+      <c r="F37" s="1">
+        <v>360</v>
+      </c>
+      <c r="G37" s="1">
+        <v>240</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="1">
+        <v>23</v>
+      </c>
+      <c r="D38" s="1">
+        <v>300</v>
+      </c>
+      <c r="E38" s="1">
+        <v>200</v>
+      </c>
+      <c r="F38" s="1">
+        <v>360</v>
+      </c>
+      <c r="G38" s="1">
+        <v>240</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="1">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1">
+        <v>300</v>
+      </c>
+      <c r="E39" s="1">
+        <v>200</v>
+      </c>
+      <c r="F39" s="1">
+        <v>360</v>
+      </c>
+      <c r="G39" s="1">
+        <v>240</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1">
+        <v>210</v>
+      </c>
+      <c r="D40" s="1">
+        <v>900</v>
+      </c>
+      <c r="E40" s="1">
+        <v>800</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1080</v>
+      </c>
+      <c r="G40" s="1">
+        <v>960</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="58">
   <si>
     <t>名称</t>
   </si>
@@ -65,274 +65,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新闻资讯</t>
-  </si>
-  <si>
-    <t>校花的日常</t>
-  </si>
-  <si>
-    <t>5160857194</t>
+    <t>八组兔区每日速递</t>
+  </si>
+  <si>
+    <t>毒舌圈娱</t>
+  </si>
+  <si>
+    <t>深扒娱记</t>
+  </si>
+  <si>
+    <t>扒圈侦探</t>
+  </si>
+  <si>
+    <t>全娱乐报姐</t>
+  </si>
+  <si>
+    <t>八卦圈壹姐</t>
+  </si>
+  <si>
+    <t>圈内秘探</t>
+  </si>
+  <si>
+    <t>星闻榜姐</t>
+  </si>
+  <si>
+    <t>娱圈揭秘君</t>
+  </si>
+  <si>
+    <t>芒果捞娱圈</t>
+  </si>
+  <si>
+    <t>笔直粉红_14684</t>
+  </si>
+  <si>
+    <t>芒果娱乐新闻大事件</t>
+  </si>
+  <si>
+    <t>芒果捞小圈</t>
+  </si>
+  <si>
+    <t>GGJuan哥圆明</t>
+  </si>
+  <si>
+    <t>天马2行空Day珐</t>
+  </si>
+  <si>
+    <t>青春影视综艺君</t>
+  </si>
+  <si>
+    <t>滕廷偌修卫</t>
+  </si>
+  <si>
+    <t>芒果追新剧</t>
+  </si>
+  <si>
+    <t>F-叶子欧尼</t>
+  </si>
+  <si>
+    <t>芒果娱乐追星</t>
+  </si>
+  <si>
+    <t>努瓦寨佣旋等兢谚</t>
+  </si>
+  <si>
+    <t>Sky爱向日葵敏培</t>
+  </si>
+  <si>
+    <t>圈扒教父</t>
+  </si>
+  <si>
+    <t>综艺剧透王</t>
+  </si>
+  <si>
+    <t>圈内小婊妹</t>
+  </si>
+  <si>
+    <t>娱神儿</t>
+  </si>
+  <si>
+    <t>吃瓜鹅每日速搬</t>
+  </si>
+  <si>
+    <t>辽宁丑小丫从聪峦</t>
+  </si>
+  <si>
+    <t>芒果捞小鹅</t>
+  </si>
+  <si>
+    <t>茗家曼万</t>
+  </si>
+  <si>
+    <t>芒果娱乐教父</t>
+  </si>
+  <si>
+    <t>扒圈星爷</t>
+  </si>
+  <si>
+    <t>毒舌娱乐说</t>
+  </si>
+  <si>
+    <t>吃瓜鹅速播</t>
+  </si>
+  <si>
+    <t>八组兔区热播</t>
+  </si>
+  <si>
+    <t>八组娱乐快递</t>
+  </si>
+  <si>
+    <t>rikki998尚霄紫</t>
+  </si>
+  <si>
+    <t>芒果娱乐星探</t>
+  </si>
+  <si>
+    <t>圈内剧透妹</t>
+  </si>
+  <si>
+    <t>W唯美女子奇宇</t>
+  </si>
+  <si>
+    <t>happy2000巧翀桦</t>
+  </si>
+  <si>
+    <t>八卦星娱儿</t>
   </si>
   <si>
     <t>娱乐</t>
   </si>
   <si>
-    <t>X1801050845152878</t>
-  </si>
-  <si>
-    <t>刘玲</t>
-  </si>
-  <si>
-    <t>校草收纳箱</t>
-  </si>
-  <si>
-    <t>5450389695</t>
-  </si>
-  <si>
-    <t>锅盖头司令</t>
-  </si>
-  <si>
-    <t>2099591797</t>
-  </si>
-  <si>
-    <t>IT互联网</t>
-  </si>
-  <si>
-    <t>传媒老王</t>
-  </si>
-  <si>
-    <t>1661598840</t>
-  </si>
-  <si>
-    <t>段郎说事</t>
-  </si>
-  <si>
-    <t>1807715644</t>
-  </si>
-  <si>
-    <t>江氏小盗龙</t>
-  </si>
-  <si>
-    <t>1200933465</t>
-  </si>
-  <si>
-    <t>军事</t>
-  </si>
-  <si>
-    <t>何天恩</t>
-  </si>
-  <si>
-    <t>1861477054</t>
-  </si>
-  <si>
-    <t>文学文化</t>
-  </si>
-  <si>
-    <t>高会民</t>
-  </si>
-  <si>
-    <t>2710739767</t>
-  </si>
-  <si>
-    <t>幽默搞笑</t>
-  </si>
-  <si>
-    <t>范炜</t>
-  </si>
-  <si>
-    <t>1029374230</t>
-  </si>
-  <si>
-    <t>陈里</t>
-  </si>
-  <si>
-    <t>1737979690</t>
-  </si>
-  <si>
-    <t>最全热门排行榜</t>
-  </si>
-  <si>
-    <t>2614543117</t>
-  </si>
-  <si>
-    <t>谁干的</t>
-  </si>
-  <si>
-    <t>6384956581</t>
-  </si>
-  <si>
-    <t>祖传单身狗</t>
-  </si>
-  <si>
-    <t>1912728955</t>
-  </si>
-  <si>
-    <t>鸡毛蒜皮</t>
-  </si>
-  <si>
-    <t>6157151766</t>
-  </si>
-  <si>
-    <t>挖图志</t>
-  </si>
-  <si>
-    <t>6342456079</t>
-  </si>
-  <si>
-    <t>正在更新</t>
-  </si>
-  <si>
-    <t>6398312241</t>
-  </si>
-  <si>
-    <t>减速度</t>
-  </si>
-  <si>
-    <t>6358321962</t>
-  </si>
-  <si>
-    <t>水分子</t>
-  </si>
-  <si>
-    <t>6367204564</t>
-  </si>
-  <si>
-    <t>吐槽社</t>
-  </si>
-  <si>
-    <t>5508249508</t>
-  </si>
-  <si>
-    <t>小八怪</t>
-  </si>
-  <si>
-    <t>5155570561</t>
-  </si>
-  <si>
-    <t>无忧开车</t>
-  </si>
-  <si>
-    <t>6387407979</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>人间故事会</t>
-  </si>
-  <si>
-    <t>6405076851</t>
-  </si>
-  <si>
-    <t>行走的酸姐</t>
-  </si>
-  <si>
-    <t>5105258789</t>
-  </si>
-  <si>
-    <t>旅游</t>
-  </si>
-  <si>
-    <t>别动我有法力O</t>
-  </si>
-  <si>
-    <t>6405349073</t>
-  </si>
-  <si>
-    <t>贫僧超渡了你</t>
-  </si>
-  <si>
-    <t>6395287056</t>
-  </si>
-  <si>
-    <t>愤怒回收站</t>
-  </si>
-  <si>
-    <t>6395287027</t>
-  </si>
-  <si>
-    <t>小火炮</t>
-  </si>
-  <si>
-    <t>6405076857</t>
-  </si>
-  <si>
-    <t>翻滚吧笑点菌</t>
-  </si>
-  <si>
-    <t>6405076802</t>
-  </si>
-  <si>
-    <t>思想牢笼</t>
-  </si>
-  <si>
-    <t>6379962066</t>
-  </si>
-  <si>
-    <t>情感</t>
-  </si>
-  <si>
-    <t>扶不起</t>
-  </si>
-  <si>
-    <t>6405349088</t>
-  </si>
-  <si>
-    <t>百姓杂谈</t>
-  </si>
-  <si>
-    <t>2803171563</t>
-  </si>
-  <si>
-    <t>一朵村花</t>
-  </si>
-  <si>
-    <t>6405076827</t>
-  </si>
-  <si>
-    <t>迷上我</t>
-  </si>
-  <si>
-    <t>6405076874</t>
-  </si>
-  <si>
-    <t>事后胜孔明</t>
-  </si>
-  <si>
-    <t>6405076884</t>
-  </si>
-  <si>
-    <t>挖掘鸡</t>
-  </si>
-  <si>
-    <t>6395287064</t>
-  </si>
-  <si>
-    <t>娱乐88君</t>
-  </si>
-  <si>
-    <t>5554305178</t>
-  </si>
-  <si>
-    <t>微博视频排行榜</t>
-  </si>
-  <si>
-    <t>1826713332</t>
-  </si>
-  <si>
-    <t>明星校草</t>
-  </si>
-  <si>
-    <t>2094674813</t>
-  </si>
-  <si>
-    <t>热门原图表情包</t>
-  </si>
-  <si>
-    <t>6126291039</t>
-  </si>
-  <si>
-    <t>X1712181338330003</t>
+    <t>X1801050855003775</t>
+  </si>
+  <si>
+    <t>黄芳</t>
+  </si>
+  <si>
+    <t>X1712181221160001</t>
   </si>
 </sst>
 </file>
@@ -701,11 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -764,1367 +632,1120 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1">
-        <v>155</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2688685381</v>
       </c>
       <c r="D2" s="1">
-        <v>1600</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1920</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1440</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
-        <v>88</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5609271095</v>
       </c>
       <c r="D3" s="1">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
-        <v>600</v>
-      </c>
-      <c r="F3" s="1">
-        <v>960</v>
-      </c>
-      <c r="G3" s="1">
-        <v>720</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
-        <v>800</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3028567273</v>
       </c>
       <c r="D4" s="1">
-        <v>2600</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3120</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1">
-        <v>483</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6846051807</v>
       </c>
       <c r="D5" s="1">
-        <v>3600</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
-        <v>3500</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4320</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4200</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>220</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6851493830</v>
       </c>
       <c r="D6" s="1">
-        <v>2500</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>2300</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2760</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1">
-        <v>711</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6503969787</v>
       </c>
       <c r="D7" s="1">
-        <v>1600</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1920</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1800</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1">
-        <v>136</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6575380477</v>
       </c>
       <c r="D8" s="1">
-        <v>1800</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
-        <v>1600</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2160</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1920</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1">
-        <v>383</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7022415535</v>
       </c>
       <c r="D9" s="1">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1">
-        <v>148</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7031633595</v>
       </c>
       <c r="D10" s="1">
-        <v>2500</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
-        <v>2200</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2640</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3027</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5233995547</v>
       </c>
       <c r="D11" s="1">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>12000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9600</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1">
-        <v>457</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6416206743</v>
       </c>
       <c r="D12" s="1">
-        <v>2600</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3120</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1">
-        <v>167</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6423818774</v>
       </c>
       <c r="D13" s="1">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1440</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1">
-        <v>113</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5254924509</v>
       </c>
       <c r="D14" s="1">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1440</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1">
-        <v>139</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5230757131</v>
       </c>
       <c r="D15" s="1">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1440</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1">
-        <v>108</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5210848484</v>
       </c>
       <c r="D16" s="1">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
-        <v>800</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1080</v>
-      </c>
-      <c r="G16" s="1">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1">
-        <v>191</v>
+        <v>27</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5214618046</v>
       </c>
       <c r="D17" s="1">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1">
-        <v>800</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1080</v>
-      </c>
-      <c r="G17" s="1">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1">
-        <v>89</v>
+        <v>28</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5266217276</v>
       </c>
       <c r="D18" s="1">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1">
-        <v>800</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1080</v>
-      </c>
-      <c r="G18" s="1">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1">
-        <v>67</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5244990354</v>
       </c>
       <c r="D19" s="1">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
-        <v>600</v>
-      </c>
-      <c r="F19" s="1">
-        <v>960</v>
-      </c>
-      <c r="G19" s="1">
-        <v>720</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="1">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5249098746</v>
       </c>
       <c r="D20" s="1">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
-        <v>600</v>
-      </c>
-      <c r="F20" s="1">
-        <v>960</v>
-      </c>
-      <c r="G20" s="1">
-        <v>720</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1">
-        <v>75</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5331824154</v>
       </c>
       <c r="D21" s="1">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
-        <v>600</v>
-      </c>
-      <c r="F21" s="1">
-        <v>960</v>
-      </c>
-      <c r="G21" s="1">
-        <v>720</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5211467276</v>
       </c>
       <c r="D22" s="1">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1">
-        <v>500</v>
-      </c>
-      <c r="F22" s="1">
-        <v>720</v>
-      </c>
-      <c r="G22" s="1">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="1">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5210817275</v>
       </c>
       <c r="D23" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1">
-        <v>300</v>
-      </c>
-      <c r="F23" s="1">
-        <v>600</v>
-      </c>
-      <c r="G23" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="1">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5284112002</v>
       </c>
       <c r="D24" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1">
-        <v>300</v>
-      </c>
-      <c r="F24" s="1">
-        <v>600</v>
-      </c>
-      <c r="G24" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="1">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5778885239</v>
       </c>
       <c r="D25" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1">
-        <v>300</v>
-      </c>
-      <c r="F25" s="1">
-        <v>600</v>
-      </c>
-      <c r="G25" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="1">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5219964905</v>
       </c>
       <c r="D26" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1">
-        <v>300</v>
-      </c>
-      <c r="F26" s="1">
-        <v>600</v>
-      </c>
-      <c r="G26" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5219333915</v>
       </c>
       <c r="D27" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1">
-        <v>300</v>
-      </c>
-      <c r="F27" s="1">
-        <v>600</v>
-      </c>
-      <c r="G27" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="1">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5220478090</v>
       </c>
       <c r="D28" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1">
-        <v>300</v>
-      </c>
-      <c r="F28" s="1">
-        <v>600</v>
-      </c>
-      <c r="G28" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="1">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5204111924</v>
       </c>
       <c r="D29" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1">
-        <v>300</v>
-      </c>
-      <c r="F29" s="1">
-        <v>600</v>
-      </c>
-      <c r="G29" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="1">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5217700736</v>
       </c>
       <c r="D30" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1">
-        <v>300</v>
-      </c>
-      <c r="F30" s="1">
-        <v>600</v>
-      </c>
-      <c r="G30" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="1">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5211455624</v>
       </c>
       <c r="D31" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1">
-        <v>300</v>
-      </c>
-      <c r="F31" s="1">
-        <v>600</v>
-      </c>
-      <c r="G31" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="1">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5217700736</v>
       </c>
       <c r="D32" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1">
-        <v>300</v>
-      </c>
-      <c r="F32" s="1">
-        <v>600</v>
-      </c>
-      <c r="G32" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="1">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5223718349</v>
       </c>
       <c r="D33" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E33" s="1">
-        <v>300</v>
-      </c>
-      <c r="F33" s="1">
-        <v>600</v>
-      </c>
-      <c r="G33" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="1">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5235457043</v>
       </c>
       <c r="D34" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1">
-        <v>300</v>
-      </c>
-      <c r="F34" s="1">
-        <v>600</v>
-      </c>
-      <c r="G34" s="1">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="1">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5210902427</v>
       </c>
       <c r="D35" s="1">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1">
-        <v>200</v>
-      </c>
-      <c r="F35" s="1">
-        <v>360</v>
-      </c>
-      <c r="G35" s="1">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="1">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5230184883</v>
       </c>
       <c r="D36" s="1">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E36" s="1">
-        <v>200</v>
-      </c>
-      <c r="F36" s="1">
-        <v>360</v>
-      </c>
-      <c r="G36" s="1">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="1">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5204996339</v>
       </c>
       <c r="D37" s="1">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E37" s="1">
-        <v>200</v>
-      </c>
-      <c r="F37" s="1">
-        <v>360</v>
-      </c>
-      <c r="G37" s="1">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="1">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5234324728</v>
       </c>
       <c r="D38" s="1">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E38" s="1">
-        <v>200</v>
-      </c>
-      <c r="F38" s="1">
-        <v>360</v>
-      </c>
-      <c r="G38" s="1">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="1">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5214067799</v>
       </c>
       <c r="D39" s="1">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E39" s="1">
-        <v>200</v>
-      </c>
-      <c r="F39" s="1">
-        <v>360</v>
-      </c>
-      <c r="G39" s="1">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="1">
-        <v>210</v>
+        <v>49</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5234221585</v>
       </c>
       <c r="D40" s="1">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="E40" s="1">
-        <v>800</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1080</v>
-      </c>
-      <c r="G40" s="1">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5215085462</v>
+      </c>
+      <c r="D41" s="1">
+        <v>30</v>
+      </c>
+      <c r="E41" s="1">
+        <v>30</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5202100753</v>
+      </c>
+      <c r="D42" s="1">
+        <v>30</v>
+      </c>
+      <c r="E42" s="1">
+        <v>30</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5203385833</v>
+      </c>
+      <c r="D43" s="1">
+        <v>30</v>
+      </c>
+      <c r="E43" s="1">
+        <v>30</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5213993409</v>
+      </c>
+      <c r="D44" s="1">
+        <v>30</v>
+      </c>
+      <c r="E44" s="1">
+        <v>30</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/weibo.xlsx
+++ b/Ada.Web/upload/weibo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="65">
   <si>
     <t>名称</t>
   </si>
@@ -65,142 +65,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>八组兔区每日速递</t>
-  </si>
-  <si>
-    <t>毒舌圈娱</t>
-  </si>
-  <si>
-    <t>深扒娱记</t>
-  </si>
-  <si>
-    <t>扒圈侦探</t>
-  </si>
-  <si>
-    <t>全娱乐报姐</t>
-  </si>
-  <si>
-    <t>八卦圈壹姐</t>
-  </si>
-  <si>
-    <t>圈内秘探</t>
-  </si>
-  <si>
-    <t>星闻榜姐</t>
-  </si>
-  <si>
-    <t>娱圈揭秘君</t>
-  </si>
-  <si>
-    <t>芒果捞娱圈</t>
-  </si>
-  <si>
-    <t>笔直粉红_14684</t>
-  </si>
-  <si>
-    <t>芒果娱乐新闻大事件</t>
-  </si>
-  <si>
-    <t>芒果捞小圈</t>
-  </si>
-  <si>
-    <t>GGJuan哥圆明</t>
-  </si>
-  <si>
-    <t>天马2行空Day珐</t>
-  </si>
-  <si>
-    <t>青春影视综艺君</t>
-  </si>
-  <si>
-    <t>滕廷偌修卫</t>
-  </si>
-  <si>
-    <t>芒果追新剧</t>
-  </si>
-  <si>
-    <t>F-叶子欧尼</t>
-  </si>
-  <si>
-    <t>芒果娱乐追星</t>
-  </si>
-  <si>
-    <t>努瓦寨佣旋等兢谚</t>
-  </si>
-  <si>
-    <t>Sky爱向日葵敏培</t>
-  </si>
-  <si>
-    <t>圈扒教父</t>
-  </si>
-  <si>
-    <t>综艺剧透王</t>
-  </si>
-  <si>
-    <t>圈内小婊妹</t>
-  </si>
-  <si>
-    <t>娱神儿</t>
-  </si>
-  <si>
-    <t>吃瓜鹅每日速搬</t>
-  </si>
-  <si>
-    <t>辽宁丑小丫从聪峦</t>
-  </si>
-  <si>
-    <t>芒果捞小鹅</t>
-  </si>
-  <si>
-    <t>茗家曼万</t>
-  </si>
-  <si>
-    <t>芒果娱乐教父</t>
-  </si>
-  <si>
-    <t>扒圈星爷</t>
-  </si>
-  <si>
-    <t>毒舌娱乐说</t>
-  </si>
-  <si>
-    <t>吃瓜鹅速播</t>
-  </si>
-  <si>
-    <t>八组兔区热播</t>
-  </si>
-  <si>
-    <t>八组娱乐快递</t>
-  </si>
-  <si>
-    <t>rikki998尚霄紫</t>
-  </si>
-  <si>
-    <t>芒果娱乐星探</t>
-  </si>
-  <si>
-    <t>圈内剧透妹</t>
-  </si>
-  <si>
-    <t>W唯美女子奇宇</t>
-  </si>
-  <si>
-    <t>happy2000巧翀桦</t>
-  </si>
-  <si>
-    <t>八卦星娱儿</t>
-  </si>
-  <si>
     <t>娱乐</t>
   </si>
   <si>
-    <t>X1801050855003775</t>
-  </si>
-  <si>
-    <t>黄芳</t>
-  </si>
-  <si>
-    <t>X1712181221160001</t>
+    <t>头条娱乐菌</t>
+  </si>
+  <si>
+    <t>明星时尚大事件</t>
+  </si>
+  <si>
+    <t>热门搞笑头条君</t>
+  </si>
+  <si>
+    <t>深圳的那些事儿</t>
+  </si>
+  <si>
+    <t>深圳美食生活资讯</t>
+  </si>
+  <si>
+    <t>广州吃喝玩乐资讯</t>
+  </si>
+  <si>
+    <t>广州吃喝玩乐早知道</t>
+  </si>
+  <si>
+    <t>上海生活热点资讯</t>
+  </si>
+  <si>
+    <t>上海生活资讯头条</t>
+  </si>
+  <si>
+    <t>上海本地新鲜事</t>
+  </si>
+  <si>
+    <t>北京生活热点资讯</t>
+  </si>
+  <si>
+    <t>北京热门生活搜罗</t>
+  </si>
+  <si>
+    <t>北京热门大事件</t>
+  </si>
+  <si>
+    <t>杭州最有料</t>
+  </si>
+  <si>
+    <t>成都美食生活资讯</t>
+  </si>
+  <si>
+    <t>成都热门新鲜事</t>
+  </si>
+  <si>
+    <t>重庆头条生活资讯</t>
+  </si>
+  <si>
+    <t>武汉热门生活搜罗</t>
+  </si>
+  <si>
+    <t>长沙最韵味</t>
+  </si>
+  <si>
+    <t>南京每日新鲜事</t>
+  </si>
+  <si>
+    <t>西安热门头条事</t>
+  </si>
+  <si>
+    <t>今日体育热点资讯</t>
+  </si>
+  <si>
+    <t>体育新闻头条资讯</t>
+  </si>
+  <si>
+    <t>热点吐槽菌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深圳头条生活资讯 </t>
+  </si>
+  <si>
+    <t>广州时尚生活资讯</t>
+  </si>
+  <si>
+    <t>上海城事生活</t>
+  </si>
+  <si>
+    <t>北京生活城事</t>
+  </si>
+  <si>
+    <t>上海生活头条资讯</t>
+  </si>
+  <si>
+    <t>上海生活热门资讯</t>
+  </si>
+  <si>
+    <t>上海吃喝玩乐头条</t>
+  </si>
+  <si>
+    <t>上海人生活资讯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海本地吃喝玩乐 </t>
+  </si>
+  <si>
+    <t>重庆热点吃喝玩乐</t>
+  </si>
+  <si>
+    <t>南京美食旅游生活</t>
+  </si>
+  <si>
+    <t>南京人那些事儿</t>
+  </si>
+  <si>
+    <t>上海身边的那些事儿</t>
+  </si>
+  <si>
+    <t>北京身边的那点事儿</t>
+  </si>
+  <si>
+    <t>深圳吃喝玩乐头条资讯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全娱乐生活八卦 </t>
+  </si>
+  <si>
+    <t>热门生活百科搜罗</t>
+  </si>
+  <si>
+    <t>热门健康养生百科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">热门健康生活百科 </t>
+  </si>
+  <si>
+    <t>热门体育健身运动</t>
+  </si>
+  <si>
+    <t>幽默搞笑</t>
+  </si>
+  <si>
+    <t>地域</t>
+  </si>
+  <si>
+    <t>新闻资讯</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>X1904241634079244</t>
+  </si>
+  <si>
+    <t>王佳</t>
+  </si>
+  <si>
+    <t>X1712181349070011</t>
   </si>
 </sst>
 </file>
@@ -569,11 +590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -632,1120 +653,1146 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3243560242</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
-        <v>2688685381</v>
-      </c>
-      <c r="D2" s="1">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>5609271095</v>
+        <v>3243657670</v>
       </c>
       <c r="D3" s="1">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="E3" s="1">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3">
-        <v>3028567273</v>
+        <v>3568497915</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="E4" s="1">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>6846051807</v>
+        <v>3246308374</v>
       </c>
       <c r="D5" s="1">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="E5" s="1">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
-        <v>6851493830</v>
+        <v>3246909142</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3">
-        <v>6503969787</v>
+        <v>3246859970</v>
       </c>
       <c r="D7" s="1">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="1">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
-        <v>6575380477</v>
+        <v>3738768431</v>
       </c>
       <c r="D8" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E8" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>7022415535</v>
+        <v>3246773074</v>
       </c>
       <c r="D9" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="E9" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>7031633595</v>
+        <v>3246802590</v>
       </c>
       <c r="D10" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="E10" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>5233995547</v>
+        <v>3738300977</v>
       </c>
       <c r="D11" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E11" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3">
-        <v>6416206743</v>
+        <v>3246819302</v>
       </c>
       <c r="D12" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="E12" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3">
-        <v>6423818774</v>
+        <v>3243556054</v>
       </c>
       <c r="D13" s="1">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="1">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3">
-        <v>5254924509</v>
+        <v>3737410690</v>
       </c>
       <c r="D14" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E14" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3">
-        <v>5230757131</v>
+        <v>3738299727</v>
       </c>
       <c r="D15" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E15" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3">
-        <v>5210848484</v>
+        <v>3247069204</v>
       </c>
       <c r="D16" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="E16" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
-        <v>5214618046</v>
+        <v>3737410443</v>
       </c>
       <c r="D17" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E17" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3">
-        <v>5266217276</v>
+        <v>3247108980</v>
       </c>
       <c r="D18" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="E18" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3">
-        <v>5244990354</v>
+        <v>2097003010</v>
       </c>
       <c r="D19" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E19" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>5249098746</v>
+        <v>3737894133</v>
       </c>
       <c r="D20" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E20" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>5331824154</v>
+        <v>3738543655</v>
       </c>
       <c r="D21" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E21" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3">
-        <v>5211467276</v>
+        <v>3737894722</v>
       </c>
       <c r="D22" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E22" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3">
-        <v>5210817275</v>
+        <v>3247064522</v>
       </c>
       <c r="D23" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="E23" s="1">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3">
-        <v>5284112002</v>
+        <v>3737410141</v>
       </c>
       <c r="D24" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E24" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3">
-        <v>5778885239</v>
+        <v>3738770831</v>
       </c>
       <c r="D25" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E25" s="1">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3">
-        <v>5219964905</v>
+        <v>3243661910</v>
       </c>
       <c r="D26" s="1">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="E26" s="1">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3">
-        <v>5219333915</v>
+        <v>3244028572</v>
       </c>
       <c r="D27" s="1">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="E27" s="1">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3">
-        <v>5220478090</v>
+        <v>3244082532</v>
       </c>
       <c r="D28" s="1">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="E28" s="1">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3">
-        <v>5204111924</v>
+        <v>3244088724</v>
       </c>
       <c r="D29" s="1">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="E29" s="1">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3">
-        <v>5217700736</v>
+        <v>3047058431</v>
       </c>
       <c r="D30" s="1">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="E30" s="1">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3">
-        <v>5211455624</v>
+        <v>1776274995</v>
       </c>
       <c r="D31" s="1">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="E31" s="1">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3">
-        <v>5217700736</v>
+        <v>1974994641</v>
       </c>
       <c r="D32" s="1">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="E32" s="1">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3">
-        <v>5223718349</v>
+        <v>2573014251</v>
       </c>
       <c r="D33" s="1">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="1">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3">
-        <v>5235457043</v>
+        <v>2573017615</v>
       </c>
       <c r="D34" s="1">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="E34" s="1">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3">
-        <v>5210902427</v>
+        <v>2573657145</v>
       </c>
       <c r="D35" s="1">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="E35" s="1">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3">
-        <v>5230184883</v>
+        <v>2668925431</v>
       </c>
       <c r="D36" s="1">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="E36" s="1">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3">
-        <v>5204996339</v>
+        <v>2573657165</v>
       </c>
       <c r="D37" s="1">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="E37" s="1">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="3">
-        <v>5234324728</v>
+        <v>1792829601</v>
       </c>
       <c r="D38" s="1">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="E38" s="1">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3">
-        <v>5214067799</v>
+        <v>3243640370</v>
       </c>
       <c r="D39" s="1">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="E39" s="1">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3">
-        <v>5234221585</v>
+        <v>2573028971</v>
       </c>
       <c r="D40" s="1">
-        <v>30</v>
+        <v>2200</v>
       </c>
       <c r="E40" s="1">
-        <v>30</v>
+        <v>2200</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3">
-        <v>5215085462</v>
+        <v>1698698614</v>
       </c>
       <c r="D41" s="1">
-        <v>30</v>
+        <v>2200</v>
       </c>
       <c r="E41" s="1">
-        <v>30</v>
+        <v>2200</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3">
-        <v>5202100753</v>
+        <v>2668949531</v>
       </c>
       <c r="D42" s="1">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="E42" s="1">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="3">
-        <v>5203385833</v>
+        <v>3737888752</v>
       </c>
       <c r="D43" s="1">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="E43" s="1">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" s="3">
-        <v>5213993409</v>
+        <v>3736624830</v>
       </c>
       <c r="D44" s="1">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="E44" s="1">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>57</v>
+      <c r="B45" s="3">
+        <v>3738542232</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
